--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1089 +538,897 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19870</v>
+        <v>19134</v>
       </c>
       <c r="D2" t="n">
-        <v>5332</v>
+        <v>5316</v>
       </c>
       <c r="E2" t="n">
-        <v>8471</v>
+        <v>7998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5505</v>
+        <v>4504</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15575</v>
+        <v>15298</v>
       </c>
       <c r="J2" t="n">
-        <v>18592</v>
+        <v>13969</v>
       </c>
       <c r="K2" t="n">
-        <v>73345</v>
+        <v>66219</v>
       </c>
       <c r="L2" t="n">
-        <v>19871.987</v>
+        <v>19135.9134</v>
       </c>
       <c r="M2" t="n">
-        <v>5332.5332</v>
+        <v>5316.5316</v>
       </c>
       <c r="N2" t="n">
-        <v>8471.847099999999</v>
+        <v>7998.7998</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5505.5505</v>
+        <v>4504.4504</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15576.5575</v>
+        <v>15299.5298</v>
       </c>
       <c r="S2" t="n">
-        <v>18593.8592</v>
+        <v>13970.3969</v>
       </c>
       <c r="T2" t="n">
-        <v>73352.3345</v>
+        <v>66225.6219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19251</v>
+        <v>18706</v>
       </c>
       <c r="D3" t="n">
-        <v>5044</v>
+        <v>5156</v>
       </c>
       <c r="E3" t="n">
-        <v>8241</v>
+        <v>7676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5244</v>
+        <v>4420</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14564</v>
+        <v>14860</v>
       </c>
       <c r="J3" t="n">
-        <v>17937</v>
+        <v>13491</v>
       </c>
       <c r="K3" t="n">
-        <v>70281</v>
+        <v>64309</v>
       </c>
       <c r="L3" t="n">
-        <v>19252.9251</v>
+        <v>18707.8706</v>
       </c>
       <c r="M3" t="n">
-        <v>5044.5044</v>
+        <v>5156.5156</v>
       </c>
       <c r="N3" t="n">
-        <v>8241.8241</v>
+        <v>7676.7676</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5244.5244</v>
+        <v>4420.442</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14565.4564</v>
+        <v>14861.486</v>
       </c>
       <c r="S3" t="n">
-        <v>17938.7937</v>
+        <v>13492.3491</v>
       </c>
       <c r="T3" t="n">
-        <v>70288.0281</v>
+        <v>64315.43089999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18379</v>
+        <v>18131</v>
       </c>
       <c r="D4" t="n">
-        <v>4831</v>
+        <v>4909</v>
       </c>
       <c r="E4" t="n">
-        <v>8027</v>
+        <v>7485</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5086</v>
+        <v>4389</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14080</v>
+        <v>14337</v>
       </c>
       <c r="J4" t="n">
-        <v>17312</v>
+        <v>12898</v>
       </c>
       <c r="K4" t="n">
-        <v>67715</v>
+        <v>62149</v>
       </c>
       <c r="L4" t="n">
-        <v>18380.8379</v>
+        <v>18132.8131</v>
       </c>
       <c r="M4" t="n">
-        <v>4831.4831</v>
+        <v>4909.4909</v>
       </c>
       <c r="N4" t="n">
-        <v>8027.8027</v>
+        <v>7485.7485</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5086.5086</v>
+        <v>4389.4389</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14081.408</v>
+        <v>14338.4337</v>
       </c>
       <c r="S4" t="n">
-        <v>17313.7312</v>
+        <v>12899.2898</v>
       </c>
       <c r="T4" t="n">
-        <v>67721.77149999999</v>
+        <v>62155.2149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17761</v>
+        <v>17672</v>
       </c>
       <c r="D5" t="n">
-        <v>4779</v>
+        <v>4696</v>
       </c>
       <c r="E5" t="n">
-        <v>7857</v>
+        <v>7456</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4886</v>
+        <v>4142</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13775</v>
+        <v>13961</v>
       </c>
       <c r="J5" t="n">
-        <v>16933</v>
+        <v>12730</v>
       </c>
       <c r="K5" t="n">
-        <v>65991</v>
+        <v>60657</v>
       </c>
       <c r="L5" t="n">
-        <v>17762.7761</v>
+        <v>17673.7672</v>
       </c>
       <c r="M5" t="n">
-        <v>4779.4779</v>
+        <v>4696.4696</v>
       </c>
       <c r="N5" t="n">
-        <v>7857.7857</v>
+        <v>7456.7456</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4886.4886</v>
+        <v>4142.4142</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13776.3775</v>
+        <v>13962.3961</v>
       </c>
       <c r="S5" t="n">
-        <v>16934.6933</v>
+        <v>12731.273</v>
       </c>
       <c r="T5" t="n">
-        <v>65997.59909999999</v>
+        <v>60663.0657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18621</v>
+        <v>18383</v>
       </c>
       <c r="D6" t="n">
-        <v>4847</v>
+        <v>4909</v>
       </c>
       <c r="E6" t="n">
-        <v>7901</v>
+        <v>7494</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4985</v>
+        <v>4390</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13928</v>
+        <v>14821</v>
       </c>
       <c r="J6" t="n">
-        <v>17279</v>
+        <v>12961</v>
       </c>
       <c r="K6" t="n">
-        <v>67561</v>
+        <v>62958</v>
       </c>
       <c r="L6" t="n">
-        <v>18622.8621</v>
+        <v>18384.8383</v>
       </c>
       <c r="M6" t="n">
-        <v>4847.4847</v>
+        <v>4909.4909</v>
       </c>
       <c r="N6" t="n">
-        <v>7901.7901</v>
+        <v>7494.7494</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4985.4985</v>
+        <v>4390.439</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13929.3928</v>
+        <v>14822.4821</v>
       </c>
       <c r="S6" t="n">
-        <v>17280.7279</v>
+        <v>12962.2961</v>
       </c>
       <c r="T6" t="n">
-        <v>67567.7561</v>
+        <v>62964.2958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19294</v>
+        <v>18801</v>
       </c>
       <c r="D7" t="n">
-        <v>5137</v>
+        <v>5196</v>
       </c>
       <c r="E7" t="n">
-        <v>8405</v>
+        <v>8077</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6051</v>
+        <v>4709</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14478</v>
+        <v>14875</v>
       </c>
       <c r="J7" t="n">
-        <v>17927</v>
+        <v>13615</v>
       </c>
       <c r="K7" t="n">
-        <v>71292</v>
+        <v>65273</v>
       </c>
       <c r="L7" t="n">
-        <v>19295.9294</v>
+        <v>18802.8801</v>
       </c>
       <c r="M7" t="n">
-        <v>5137.5137</v>
+        <v>5196.5196</v>
       </c>
       <c r="N7" t="n">
-        <v>8405.8405</v>
+        <v>8077.8077</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6051.6051</v>
+        <v>4709.4709</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14479.4478</v>
+        <v>14876.4875</v>
       </c>
       <c r="S7" t="n">
-        <v>17928.7927</v>
+        <v>13616.3615</v>
       </c>
       <c r="T7" t="n">
-        <v>71299.1292</v>
+        <v>65279.5273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18476</v>
+        <v>18262</v>
       </c>
       <c r="D8" t="n">
-        <v>4435</v>
+        <v>4446</v>
       </c>
       <c r="E8" t="n">
-        <v>8568</v>
+        <v>8243</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6390</v>
+        <v>5226</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13885</v>
+        <v>14382</v>
       </c>
       <c r="J8" t="n">
-        <v>17833</v>
+        <v>13660</v>
       </c>
       <c r="K8" t="n">
-        <v>69587</v>
+        <v>64219</v>
       </c>
       <c r="L8" t="n">
-        <v>18477.8476</v>
+        <v>18263.8262</v>
       </c>
       <c r="M8" t="n">
-        <v>4435.4435</v>
+        <v>4446.4446</v>
       </c>
       <c r="N8" t="n">
-        <v>8568.8568</v>
+        <v>8243.8243</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6390.639</v>
+        <v>5226.5226</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13886.3885</v>
+        <v>14383.4382</v>
       </c>
       <c r="S8" t="n">
-        <v>17834.7833</v>
+        <v>13661.366</v>
       </c>
       <c r="T8" t="n">
-        <v>69593.9587</v>
+        <v>64225.42190000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>20953</v>
+        <v>20495</v>
       </c>
       <c r="D9" t="n">
-        <v>4685</v>
+        <v>4614</v>
       </c>
       <c r="E9" t="n">
-        <v>10062</v>
+        <v>10001</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9706</v>
+        <v>9815</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15695</v>
+        <v>1554</v>
       </c>
       <c r="J9" t="n">
-        <v>19553</v>
+        <v>16079</v>
       </c>
       <c r="K9" t="n">
-        <v>80654</v>
+        <v>62558</v>
       </c>
       <c r="L9" t="n">
-        <v>20955.0953</v>
+        <v>20497.0495</v>
       </c>
       <c r="M9" t="n">
-        <v>4685.4685</v>
+        <v>4614.4614</v>
       </c>
       <c r="N9" t="n">
-        <v>10063.0062</v>
+        <v>10002.0001</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9706.970600000001</v>
+        <v>9815.9815</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15696.5695</v>
+        <v>1554.1554</v>
       </c>
       <c r="S9" t="n">
-        <v>19554.9553</v>
+        <v>16080.6079</v>
       </c>
       <c r="T9" t="n">
-        <v>80662.06539999999</v>
+        <v>62564.2558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26312</v>
+        <v>26122</v>
       </c>
       <c r="D10" t="n">
-        <v>5533</v>
+        <v>5247</v>
       </c>
       <c r="E10" t="n">
-        <v>12443</v>
+        <v>12166</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13072</v>
+        <v>12315</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18105</v>
+        <v>18138</v>
       </c>
       <c r="J10" t="n">
-        <v>22065</v>
+        <v>18337</v>
       </c>
       <c r="K10" t="n">
-        <v>97530</v>
+        <v>92325</v>
       </c>
       <c r="L10" t="n">
-        <v>26314.6312</v>
+        <v>26124.6122</v>
       </c>
       <c r="M10" t="n">
-        <v>5533.5533</v>
+        <v>5247.5247</v>
       </c>
       <c r="N10" t="n">
-        <v>12444.2443</v>
+        <v>12167.2166</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>13073.3072</v>
+        <v>12316.2315</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18106.8105</v>
+        <v>18139.8138</v>
       </c>
       <c r="S10" t="n">
-        <v>22067.2065</v>
+        <v>18338.8337</v>
       </c>
       <c r="T10" t="n">
-        <v>97539.753</v>
+        <v>92334.2325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28890</v>
+        <v>28816</v>
       </c>
       <c r="D11" t="n">
-        <v>5559</v>
+        <v>5644</v>
       </c>
       <c r="E11" t="n">
-        <v>17299</v>
+        <v>17198</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14193</v>
+        <v>13705</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18881</v>
+        <v>18648</v>
       </c>
       <c r="J11" t="n">
-        <v>23970</v>
+        <v>20178</v>
       </c>
       <c r="K11" t="n">
-        <v>108792</v>
+        <v>104189</v>
       </c>
       <c r="L11" t="n">
-        <v>28892.889</v>
+        <v>28818.8816</v>
       </c>
       <c r="M11" t="n">
-        <v>5559.5559</v>
+        <v>5644.5644</v>
       </c>
       <c r="N11" t="n">
-        <v>17300.7299</v>
+        <v>17199.7198</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14194.4193</v>
+        <v>13706.3705</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18882.8881</v>
+        <v>18649.8648</v>
       </c>
       <c r="S11" t="n">
-        <v>23972.397</v>
+        <v>20180.0178</v>
       </c>
       <c r="T11" t="n">
-        <v>108802.8792</v>
+        <v>104199.4189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>30120</v>
+        <v>28938</v>
       </c>
       <c r="D12" t="n">
-        <v>5882</v>
+        <v>5680</v>
       </c>
       <c r="E12" t="n">
-        <v>18404</v>
+        <v>18193</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14519</v>
+        <v>13839</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19069</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24681</v>
+        <v>20779</v>
       </c>
       <c r="K12" t="n">
-        <v>112675</v>
+        <v>87429</v>
       </c>
       <c r="L12" t="n">
-        <v>30123.012</v>
+        <v>28940.8938</v>
       </c>
       <c r="M12" t="n">
-        <v>5882.5882</v>
+        <v>5680.568</v>
       </c>
       <c r="N12" t="n">
-        <v>18405.8404</v>
+        <v>18194.8193</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14520.4519</v>
+        <v>13840.3839</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19070.9069</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>24683.4681</v>
+        <v>20781.0779</v>
       </c>
       <c r="T12" t="n">
-        <v>112686.2675</v>
+        <v>87437.7429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>30253</v>
+        <v>29327</v>
       </c>
       <c r="D13" t="n">
-        <v>6116</v>
+        <v>5893</v>
       </c>
       <c r="E13" t="n">
-        <v>18377</v>
+        <v>18581</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14776</v>
+        <v>13866</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19613</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25656</v>
+        <v>21097</v>
       </c>
       <c r="K13" t="n">
-        <v>114791</v>
+        <v>88764</v>
       </c>
       <c r="L13" t="n">
-        <v>30256.0253</v>
+        <v>29329.9327</v>
       </c>
       <c r="M13" t="n">
-        <v>6116.6116</v>
+        <v>5893.5893</v>
       </c>
       <c r="N13" t="n">
-        <v>18378.8377</v>
+        <v>18582.8581</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14777.4776</v>
+        <v>13867.3866</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19614.9613</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>25658.5656</v>
+        <v>21099.1097</v>
       </c>
       <c r="T13" t="n">
-        <v>114802.4791</v>
+        <v>88772.87639999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>30370</v>
+        <v>30698</v>
       </c>
       <c r="D14" t="n">
-        <v>6071</v>
+        <v>5882</v>
       </c>
       <c r="E14" t="n">
-        <v>18631</v>
+        <v>18664</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14920</v>
+        <v>14184</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19686</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>24815</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>114493</v>
+        <v>69428</v>
       </c>
       <c r="L14" t="n">
-        <v>30373.037</v>
+        <v>30701.0698</v>
       </c>
       <c r="M14" t="n">
-        <v>6071.6071</v>
+        <v>5882.5882</v>
       </c>
       <c r="N14" t="n">
-        <v>18632.8631</v>
+        <v>18665.8664</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14921.492</v>
+        <v>14185.4184</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19687.9686</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24817.4815</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>114504.4493</v>
+        <v>69434.9428</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>31017</v>
+        <v>31014</v>
       </c>
       <c r="D15" t="n">
-        <v>6255</v>
+        <v>6359</v>
       </c>
       <c r="E15" t="n">
-        <v>18959</v>
+        <v>18832</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15390</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19875</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25940</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>117436</v>
+        <v>56205</v>
       </c>
       <c r="L15" t="n">
-        <v>31020.1017</v>
+        <v>31017.1014</v>
       </c>
       <c r="M15" t="n">
-        <v>6255.6255</v>
+        <v>6359.6359</v>
       </c>
       <c r="N15" t="n">
-        <v>18960.8959</v>
+        <v>18833.8832</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15391.539</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19876.9875</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25942.594</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>117447.7436</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>31302</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18824</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15256</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19586</v>
-      </c>
-      <c r="J16" t="n">
-        <v>25416</v>
-      </c>
-      <c r="K16" t="n">
-        <v>116564</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31305.1302</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6180.618</v>
-      </c>
-      <c r="N16" t="n">
-        <v>18825.8824</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15257.5256</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>19587.9586</v>
-      </c>
-      <c r="S16" t="n">
-        <v>25418.5416</v>
-      </c>
-      <c r="T16" t="n">
-        <v>116575.6564</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29275</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5863</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18282</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>24683</v>
-      </c>
-      <c r="K17" t="n">
-        <v>97223</v>
-      </c>
-      <c r="L17" t="n">
-        <v>29277.9275</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5863.5863</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18283.8282</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>19121.912</v>
-      </c>
-      <c r="S17" t="n">
-        <v>24685.4683</v>
-      </c>
-      <c r="T17" t="n">
-        <v>97232.72229999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5606</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17774</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11060</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>34440</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5606.5606</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17775.7774</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>11061.106</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>34443.444</v>
+        <v>56210.6205</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,897 +538,833 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19134</v>
+        <v>19192</v>
       </c>
       <c r="D2" t="n">
-        <v>5316</v>
+        <v>5435</v>
       </c>
       <c r="E2" t="n">
-        <v>7998</v>
+        <v>8520</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4504</v>
+        <v>5088</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15298</v>
+        <v>15274</v>
       </c>
       <c r="J2" t="n">
-        <v>13969</v>
+        <v>14868</v>
       </c>
       <c r="K2" t="n">
-        <v>66219</v>
+        <v>68377</v>
       </c>
       <c r="L2" t="n">
-        <v>19135.9134</v>
+        <v>19193.9192</v>
       </c>
       <c r="M2" t="n">
-        <v>5316.5316</v>
+        <v>5435.5435</v>
       </c>
       <c r="N2" t="n">
-        <v>7998.7998</v>
+        <v>8520.852000000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4504.4504</v>
+        <v>5088.5088</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15299.5298</v>
+        <v>15275.5274</v>
       </c>
       <c r="S2" t="n">
-        <v>13970.3969</v>
+        <v>14869.4868</v>
       </c>
       <c r="T2" t="n">
-        <v>66225.6219</v>
+        <v>68383.8377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18706</v>
+        <v>18619</v>
       </c>
       <c r="D3" t="n">
-        <v>5156</v>
+        <v>5008</v>
       </c>
       <c r="E3" t="n">
-        <v>7676</v>
+        <v>8260</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4420</v>
+        <v>4996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14860</v>
+        <v>14694</v>
       </c>
       <c r="J3" t="n">
-        <v>13491</v>
+        <v>14177</v>
       </c>
       <c r="K3" t="n">
-        <v>64309</v>
+        <v>65754</v>
       </c>
       <c r="L3" t="n">
-        <v>18707.8706</v>
+        <v>18620.8619</v>
       </c>
       <c r="M3" t="n">
-        <v>5156.5156</v>
+        <v>5008.5008</v>
       </c>
       <c r="N3" t="n">
-        <v>7676.7676</v>
+        <v>8260.825999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4420.442</v>
+        <v>4996.4996</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14861.486</v>
+        <v>14695.4694</v>
       </c>
       <c r="S3" t="n">
-        <v>13492.3491</v>
+        <v>14178.4177</v>
       </c>
       <c r="T3" t="n">
-        <v>64315.43089999999</v>
+        <v>65760.5754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18131</v>
+        <v>17969</v>
       </c>
       <c r="D4" t="n">
-        <v>4909</v>
+        <v>4808</v>
       </c>
       <c r="E4" t="n">
-        <v>7485</v>
+        <v>8031</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4389</v>
+        <v>4678</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14337</v>
+        <v>14159</v>
       </c>
       <c r="J4" t="n">
-        <v>12898</v>
+        <v>13807</v>
       </c>
       <c r="K4" t="n">
-        <v>62149</v>
+        <v>63452</v>
       </c>
       <c r="L4" t="n">
-        <v>18132.8131</v>
+        <v>17970.7969</v>
       </c>
       <c r="M4" t="n">
-        <v>4909.4909</v>
+        <v>4808.4808</v>
       </c>
       <c r="N4" t="n">
-        <v>7485.7485</v>
+        <v>8031.8031</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4389.4389</v>
+        <v>4678.4678</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14338.4337</v>
+        <v>14160.4159</v>
       </c>
       <c r="S4" t="n">
-        <v>12899.2898</v>
+        <v>13808.3807</v>
       </c>
       <c r="T4" t="n">
-        <v>62155.2149</v>
+        <v>63458.3452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17672</v>
+        <v>17223</v>
       </c>
       <c r="D5" t="n">
-        <v>4696</v>
+        <v>4700</v>
       </c>
       <c r="E5" t="n">
-        <v>7456</v>
+        <v>7899</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4142</v>
+        <v>4771</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13961</v>
+        <v>13738</v>
       </c>
       <c r="J5" t="n">
-        <v>12730</v>
+        <v>13447</v>
       </c>
       <c r="K5" t="n">
-        <v>60657</v>
+        <v>61778</v>
       </c>
       <c r="L5" t="n">
-        <v>17673.7672</v>
+        <v>17224.7223</v>
       </c>
       <c r="M5" t="n">
-        <v>4696.4696</v>
+        <v>4700.47</v>
       </c>
       <c r="N5" t="n">
-        <v>7456.7456</v>
+        <v>7899.7899</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4142.4142</v>
+        <v>4771.4771</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13962.3961</v>
+        <v>13739.3738</v>
       </c>
       <c r="S5" t="n">
-        <v>12731.273</v>
+        <v>13448.3447</v>
       </c>
       <c r="T5" t="n">
-        <v>60663.0657</v>
+        <v>61784.1778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18383</v>
+        <v>17898</v>
       </c>
       <c r="D6" t="n">
-        <v>4909</v>
+        <v>4889</v>
       </c>
       <c r="E6" t="n">
-        <v>7494</v>
+        <v>8098</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4390</v>
+        <v>4917</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14821</v>
+        <v>13890</v>
       </c>
       <c r="J6" t="n">
-        <v>12961</v>
+        <v>14009</v>
       </c>
       <c r="K6" t="n">
-        <v>62958</v>
+        <v>63701</v>
       </c>
       <c r="L6" t="n">
-        <v>18384.8383</v>
+        <v>17899.7898</v>
       </c>
       <c r="M6" t="n">
-        <v>4909.4909</v>
+        <v>4889.4889</v>
       </c>
       <c r="N6" t="n">
-        <v>7494.7494</v>
+        <v>8098.8098</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4390.439</v>
+        <v>4917.4917</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14822.4821</v>
+        <v>13891.389</v>
       </c>
       <c r="S6" t="n">
-        <v>12962.2961</v>
+        <v>14010.4009</v>
       </c>
       <c r="T6" t="n">
-        <v>62964.2958</v>
+        <v>63707.37009999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18801</v>
+        <v>18664</v>
       </c>
       <c r="D7" t="n">
-        <v>5196</v>
+        <v>5231</v>
       </c>
       <c r="E7" t="n">
-        <v>8077</v>
+        <v>8714</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4709</v>
+        <v>5123</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14875</v>
+        <v>14547</v>
       </c>
       <c r="J7" t="n">
-        <v>13615</v>
+        <v>14642</v>
       </c>
       <c r="K7" t="n">
-        <v>65273</v>
+        <v>66921</v>
       </c>
       <c r="L7" t="n">
-        <v>18802.8801</v>
+        <v>18665.8664</v>
       </c>
       <c r="M7" t="n">
-        <v>5196.5196</v>
+        <v>5231.5231</v>
       </c>
       <c r="N7" t="n">
-        <v>8077.8077</v>
+        <v>8714.8714</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4709.4709</v>
+        <v>5123.5123</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14876.4875</v>
+        <v>14548.4547</v>
       </c>
       <c r="S7" t="n">
-        <v>13616.3615</v>
+        <v>14643.4642</v>
       </c>
       <c r="T7" t="n">
-        <v>65279.5273</v>
+        <v>66927.6921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18262</v>
+        <v>18237</v>
       </c>
       <c r="D8" t="n">
-        <v>4446</v>
+        <v>4552</v>
       </c>
       <c r="E8" t="n">
-        <v>8243</v>
+        <v>8627</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5226</v>
+        <v>5517</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14382</v>
+        <v>14033</v>
       </c>
       <c r="J8" t="n">
-        <v>13660</v>
+        <v>14593</v>
       </c>
       <c r="K8" t="n">
-        <v>64219</v>
+        <v>65559</v>
       </c>
       <c r="L8" t="n">
-        <v>18263.8262</v>
+        <v>18238.8237</v>
       </c>
       <c r="M8" t="n">
-        <v>4446.4446</v>
+        <v>4552.4552</v>
       </c>
       <c r="N8" t="n">
-        <v>8243.8243</v>
+        <v>8627.8627</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5226.5226</v>
+        <v>5517.5517</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14383.4382</v>
+        <v>14034.4033</v>
       </c>
       <c r="S8" t="n">
-        <v>13661.366</v>
+        <v>14594.4593</v>
       </c>
       <c r="T8" t="n">
-        <v>64225.42190000001</v>
+        <v>65565.55589999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>20495</v>
+        <v>21576</v>
       </c>
       <c r="D9" t="n">
-        <v>4614</v>
+        <v>4438</v>
       </c>
       <c r="E9" t="n">
-        <v>10001</v>
+        <v>9964</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9815</v>
+        <v>9197</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1554</v>
+        <v>15693</v>
       </c>
       <c r="J9" t="n">
-        <v>16079</v>
+        <v>16434</v>
       </c>
       <c r="K9" t="n">
-        <v>62558</v>
+        <v>77302</v>
       </c>
       <c r="L9" t="n">
-        <v>20497.0495</v>
+        <v>21578.1576</v>
       </c>
       <c r="M9" t="n">
-        <v>4614.4614</v>
+        <v>4438.4438</v>
       </c>
       <c r="N9" t="n">
-        <v>10002.0001</v>
+        <v>9964.9964</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9815.9815</v>
+        <v>9197.9197</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1554.1554</v>
+        <v>15694.5693</v>
       </c>
       <c r="S9" t="n">
-        <v>16080.6079</v>
+        <v>16435.6434</v>
       </c>
       <c r="T9" t="n">
-        <v>62564.2558</v>
+        <v>77309.73020000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26122</v>
+        <v>26902</v>
       </c>
       <c r="D10" t="n">
-        <v>5247</v>
+        <v>5153</v>
       </c>
       <c r="E10" t="n">
-        <v>12166</v>
+        <v>12410</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12315</v>
+        <v>12608</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18138</v>
+        <v>18857</v>
       </c>
       <c r="J10" t="n">
-        <v>18337</v>
+        <v>18423</v>
       </c>
       <c r="K10" t="n">
-        <v>92325</v>
+        <v>94353</v>
       </c>
       <c r="L10" t="n">
-        <v>26124.6122</v>
+        <v>26904.6902</v>
       </c>
       <c r="M10" t="n">
-        <v>5247.5247</v>
+        <v>5153.5153</v>
       </c>
       <c r="N10" t="n">
-        <v>12167.2166</v>
+        <v>12411.241</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12316.2315</v>
+        <v>12609.2608</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18139.8138</v>
+        <v>18858.8857</v>
       </c>
       <c r="S10" t="n">
-        <v>18338.8337</v>
+        <v>18424.8423</v>
       </c>
       <c r="T10" t="n">
-        <v>92334.2325</v>
+        <v>94362.4353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28816</v>
+        <v>27846</v>
       </c>
       <c r="D11" t="n">
-        <v>5644</v>
+        <v>5591</v>
       </c>
       <c r="E11" t="n">
-        <v>17198</v>
+        <v>17153</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13705</v>
+        <v>13638</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18648</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20178</v>
+        <v>20468</v>
       </c>
       <c r="K11" t="n">
-        <v>104189</v>
+        <v>84696</v>
       </c>
       <c r="L11" t="n">
-        <v>28818.8816</v>
+        <v>27848.7846</v>
       </c>
       <c r="M11" t="n">
-        <v>5644.5644</v>
+        <v>5591.5591</v>
       </c>
       <c r="N11" t="n">
-        <v>17199.7198</v>
+        <v>17154.7153</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13706.3705</v>
+        <v>13639.3638</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18649.8648</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20180.0178</v>
+        <v>20470.0468</v>
       </c>
       <c r="T11" t="n">
-        <v>104199.4189</v>
+        <v>84704.4696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>28938</v>
+        <v>28721</v>
       </c>
       <c r="D12" t="n">
-        <v>5680</v>
+        <v>5830</v>
       </c>
       <c r="E12" t="n">
-        <v>18193</v>
+        <v>18641</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13839</v>
+        <v>13864</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>17260</v>
       </c>
       <c r="J12" t="n">
-        <v>20779</v>
+        <v>21035</v>
       </c>
       <c r="K12" t="n">
-        <v>87429</v>
+        <v>105351</v>
       </c>
       <c r="L12" t="n">
-        <v>28940.8938</v>
+        <v>28723.8721</v>
       </c>
       <c r="M12" t="n">
-        <v>5680.568</v>
+        <v>5830.583</v>
       </c>
       <c r="N12" t="n">
-        <v>18194.8193</v>
+        <v>18642.8641</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>13840.3839</v>
+        <v>13865.3864</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17261.726</v>
       </c>
       <c r="S12" t="n">
-        <v>20781.0779</v>
+        <v>21037.1035</v>
       </c>
       <c r="T12" t="n">
-        <v>87437.7429</v>
+        <v>105361.5351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>29327</v>
+        <v>28957</v>
       </c>
       <c r="D13" t="n">
-        <v>5893</v>
+        <v>5853</v>
       </c>
       <c r="E13" t="n">
-        <v>18581</v>
+        <v>18818</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13866</v>
+        <v>14028</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="J13" t="n">
-        <v>21097</v>
+        <v>21320</v>
       </c>
       <c r="K13" t="n">
-        <v>88764</v>
+        <v>106616</v>
       </c>
       <c r="L13" t="n">
-        <v>29329.9327</v>
+        <v>28959.8957</v>
       </c>
       <c r="M13" t="n">
-        <v>5893.5893</v>
+        <v>5853.5853</v>
       </c>
       <c r="N13" t="n">
-        <v>18582.8581</v>
+        <v>18819.8818</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>13867.3866</v>
+        <v>14029.4028</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>17641.764</v>
       </c>
       <c r="S13" t="n">
-        <v>21099.1097</v>
+        <v>21322.132</v>
       </c>
       <c r="T13" t="n">
-        <v>88772.87639999999</v>
+        <v>106626.6616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>30698</v>
+        <v>27430</v>
       </c>
       <c r="D14" t="n">
-        <v>5882</v>
+        <v>5862</v>
       </c>
       <c r="E14" t="n">
-        <v>18664</v>
+        <v>19220</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14184</v>
+        <v>14041</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17840</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>21572</v>
       </c>
       <c r="K14" t="n">
-        <v>69428</v>
+        <v>105965</v>
       </c>
       <c r="L14" t="n">
-        <v>30701.0698</v>
+        <v>27432.743</v>
       </c>
       <c r="M14" t="n">
-        <v>5882.5882</v>
+        <v>5862.5862</v>
       </c>
       <c r="N14" t="n">
-        <v>18665.8664</v>
+        <v>19221.922</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14185.4184</v>
+        <v>14042.4041</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>17841.784</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>21574.1572</v>
       </c>
       <c r="T14" t="n">
-        <v>69434.9428</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-08-05</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31014</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6359</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18832</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>56205</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31017.1014</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6359.6359</v>
-      </c>
-      <c r="N15" t="n">
-        <v>18833.8832</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>56210.6205</v>
+        <v>105975.5965</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>18999</v>
       </c>
       <c r="J11" t="n">
         <v>20468</v>
       </c>
       <c r="K11" t="n">
-        <v>84696</v>
+        <v>103695</v>
       </c>
       <c r="L11" t="n">
         <v>27848.7846</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19000.8999</v>
       </c>
       <c r="S11" t="n">
         <v>20470.0468</v>
       </c>
       <c r="T11" t="n">
-        <v>84704.4696</v>
+        <v>103705.3695</v>
       </c>
     </row>
     <row r="12">
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17260</v>
+        <v>19289</v>
       </c>
       <c r="J12" t="n">
         <v>21035</v>
       </c>
       <c r="K12" t="n">
-        <v>105351</v>
+        <v>107380</v>
       </c>
       <c r="L12" t="n">
         <v>28723.8721</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17261.726</v>
+        <v>19290.9289</v>
       </c>
       <c r="S12" t="n">
         <v>21037.1035</v>
       </c>
       <c r="T12" t="n">
-        <v>105361.5351</v>
+        <v>107390.738</v>
       </c>
     </row>
     <row r="13">

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17640</v>
+        <v>19730</v>
       </c>
       <c r="J13" t="n">
         <v>21320</v>
       </c>
       <c r="K13" t="n">
-        <v>106616</v>
+        <v>108706</v>
       </c>
       <c r="L13" t="n">
         <v>28959.8957</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17641.764</v>
+        <v>19731.973</v>
       </c>
       <c r="S13" t="n">
         <v>21322.132</v>
       </c>
       <c r="T13" t="n">
-        <v>106626.6616</v>
+        <v>108716.8706</v>
       </c>
     </row>
     <row r="14">
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17840</v>
+        <v>19881</v>
       </c>
       <c r="J14" t="n">
         <v>21572</v>
       </c>
       <c r="K14" t="n">
-        <v>105965</v>
+        <v>108006</v>
       </c>
       <c r="L14" t="n">
         <v>27432.743</v>
@@ -1358,13 +1358,205 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17841.784</v>
+        <v>19882.9881</v>
       </c>
       <c r="S14" t="n">
         <v>21574.1572</v>
       </c>
       <c r="T14" t="n">
-        <v>105975.5965</v>
+        <v>108016.8006</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6227</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19547</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14601</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20973</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22230</v>
+      </c>
+      <c r="K15" t="n">
+        <v>83578</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6227.6227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19548.9547</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>14602.4601</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>20975.0973</v>
+      </c>
+      <c r="S15" t="n">
+        <v>22232.223</v>
+      </c>
+      <c r="T15" t="n">
+        <v>83586.3578</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6249</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19436</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14422</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20862</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22243</v>
+      </c>
+      <c r="K16" t="n">
+        <v>83212</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6249.6249</v>
+      </c>
+      <c r="N16" t="n">
+        <v>19437.9436</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14423.4422</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20864.0862</v>
+      </c>
+      <c r="S16" t="n">
+        <v>22245.2243</v>
+      </c>
+      <c r="T16" t="n">
+        <v>83220.32120000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18881</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14102</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19536</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21365</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79873</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5989.5989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18882.8881</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>14103.4102</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>19537.9536</v>
+      </c>
+      <c r="S17" t="n">
+        <v>21367.1365</v>
+      </c>
+      <c r="T17" t="n">
+        <v>79880.98730000001</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1025 +538,1089 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19192</v>
+        <v>20597</v>
       </c>
       <c r="D2" t="n">
-        <v>5435</v>
+        <v>5690</v>
       </c>
       <c r="E2" t="n">
-        <v>8520</v>
+        <v>8987</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5088</v>
+        <v>5429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15274</v>
+        <v>16222</v>
       </c>
       <c r="J2" t="n">
-        <v>14868</v>
+        <v>15627</v>
       </c>
       <c r="K2" t="n">
-        <v>68377</v>
+        <v>72552</v>
       </c>
       <c r="L2" t="n">
-        <v>19193.9192</v>
+        <v>20599.0597</v>
       </c>
       <c r="M2" t="n">
-        <v>5435.5435</v>
+        <v>5690.569</v>
       </c>
       <c r="N2" t="n">
-        <v>8520.852000000001</v>
+        <v>8987.8987</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5088.5088</v>
+        <v>5429.5429</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15275.5274</v>
+        <v>16223.6222</v>
       </c>
       <c r="S2" t="n">
-        <v>14869.4868</v>
+        <v>15628.5627</v>
       </c>
       <c r="T2" t="n">
-        <v>68383.8377</v>
+        <v>72559.2552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18619</v>
+        <v>19916</v>
       </c>
       <c r="D3" t="n">
-        <v>5008</v>
+        <v>5402</v>
       </c>
       <c r="E3" t="n">
-        <v>8260</v>
+        <v>8583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4996</v>
+        <v>5307</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14694</v>
+        <v>15254</v>
       </c>
       <c r="J3" t="n">
-        <v>14177</v>
+        <v>15026</v>
       </c>
       <c r="K3" t="n">
-        <v>65754</v>
+        <v>69488</v>
       </c>
       <c r="L3" t="n">
-        <v>18620.8619</v>
+        <v>19917.9916</v>
       </c>
       <c r="M3" t="n">
-        <v>5008.5008</v>
+        <v>5402.5402</v>
       </c>
       <c r="N3" t="n">
-        <v>8260.825999999999</v>
+        <v>8583.8583</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4996.4996</v>
+        <v>5307.5307</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14695.4694</v>
+        <v>15255.5254</v>
       </c>
       <c r="S3" t="n">
-        <v>14178.4177</v>
+        <v>15027.5026</v>
       </c>
       <c r="T3" t="n">
-        <v>65760.5754</v>
+        <v>69494.94880000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17969</v>
+        <v>18925</v>
       </c>
       <c r="D4" t="n">
-        <v>4808</v>
+        <v>5170</v>
       </c>
       <c r="E4" t="n">
-        <v>8031</v>
+        <v>8398</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4678</v>
+        <v>5012</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14159</v>
+        <v>14517</v>
       </c>
       <c r="J4" t="n">
-        <v>13807</v>
+        <v>14624</v>
       </c>
       <c r="K4" t="n">
-        <v>63452</v>
+        <v>66646</v>
       </c>
       <c r="L4" t="n">
-        <v>17970.7969</v>
+        <v>18926.8925</v>
       </c>
       <c r="M4" t="n">
-        <v>4808.4808</v>
+        <v>5170.517</v>
       </c>
       <c r="N4" t="n">
-        <v>8031.8031</v>
+        <v>8398.8398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4678.4678</v>
+        <v>5012.5012</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14160.4159</v>
+        <v>14518.4517</v>
       </c>
       <c r="S4" t="n">
-        <v>13808.3807</v>
+        <v>14625.4624</v>
       </c>
       <c r="T4" t="n">
-        <v>63458.3452</v>
+        <v>66652.66459999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17223</v>
+        <v>18415</v>
       </c>
       <c r="D5" t="n">
-        <v>4700</v>
+        <v>4995</v>
       </c>
       <c r="E5" t="n">
-        <v>7899</v>
+        <v>8177</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4771</v>
+        <v>4854</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13738</v>
+        <v>14307</v>
       </c>
       <c r="J5" t="n">
-        <v>13447</v>
+        <v>14147</v>
       </c>
       <c r="K5" t="n">
-        <v>61778</v>
+        <v>64895</v>
       </c>
       <c r="L5" t="n">
-        <v>17224.7223</v>
+        <v>18416.8415</v>
       </c>
       <c r="M5" t="n">
-        <v>4700.47</v>
+        <v>4995.4995</v>
       </c>
       <c r="N5" t="n">
-        <v>7899.7899</v>
+        <v>8177.8177</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4771.4771</v>
+        <v>4854.4854</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13739.3738</v>
+        <v>14308.4307</v>
       </c>
       <c r="S5" t="n">
-        <v>13448.3447</v>
+        <v>14148.4147</v>
       </c>
       <c r="T5" t="n">
-        <v>61784.1778</v>
+        <v>64901.4895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17898</v>
+        <v>18771</v>
       </c>
       <c r="D6" t="n">
-        <v>4889</v>
+        <v>5037</v>
       </c>
       <c r="E6" t="n">
-        <v>8098</v>
+        <v>8289</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4917</v>
+        <v>4964</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13890</v>
+        <v>14389</v>
       </c>
       <c r="J6" t="n">
-        <v>14009</v>
+        <v>14418</v>
       </c>
       <c r="K6" t="n">
-        <v>63701</v>
+        <v>65868</v>
       </c>
       <c r="L6" t="n">
-        <v>17899.7898</v>
+        <v>18772.8771</v>
       </c>
       <c r="M6" t="n">
-        <v>4889.4889</v>
+        <v>5037.5037</v>
       </c>
       <c r="N6" t="n">
-        <v>8098.8098</v>
+        <v>8289.8289</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4917.4917</v>
+        <v>4964.4964</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13891.389</v>
+        <v>14390.4389</v>
       </c>
       <c r="S6" t="n">
-        <v>14010.4009</v>
+        <v>14419.4418</v>
       </c>
       <c r="T6" t="n">
-        <v>63707.37009999999</v>
+        <v>65874.5868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18664</v>
+        <v>19228</v>
       </c>
       <c r="D7" t="n">
-        <v>5231</v>
+        <v>5381</v>
       </c>
       <c r="E7" t="n">
-        <v>8714</v>
+        <v>8589</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5123</v>
+        <v>5663</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14547</v>
+        <v>15244</v>
       </c>
       <c r="J7" t="n">
-        <v>14642</v>
+        <v>14919</v>
       </c>
       <c r="K7" t="n">
-        <v>66921</v>
+        <v>69024</v>
       </c>
       <c r="L7" t="n">
-        <v>18665.8664</v>
+        <v>19229.9228</v>
       </c>
       <c r="M7" t="n">
-        <v>5231.5231</v>
+        <v>5381.5381</v>
       </c>
       <c r="N7" t="n">
-        <v>8714.8714</v>
+        <v>8589.858899999999</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5123.5123</v>
+        <v>5663.5663</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14548.4547</v>
+        <v>15245.5244</v>
       </c>
       <c r="S7" t="n">
-        <v>14643.4642</v>
+        <v>14920.4919</v>
       </c>
       <c r="T7" t="n">
-        <v>66927.6921</v>
+        <v>69030.90239999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18237</v>
+        <v>18579</v>
       </c>
       <c r="D8" t="n">
-        <v>4552</v>
+        <v>4599</v>
       </c>
       <c r="E8" t="n">
-        <v>8627</v>
+        <v>9980</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5517</v>
+        <v>5706</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14033</v>
+        <v>14677</v>
       </c>
       <c r="J8" t="n">
-        <v>14593</v>
+        <v>14912</v>
       </c>
       <c r="K8" t="n">
-        <v>65559</v>
+        <v>68453</v>
       </c>
       <c r="L8" t="n">
-        <v>18238.8237</v>
+        <v>18580.8579</v>
       </c>
       <c r="M8" t="n">
-        <v>4552.4552</v>
+        <v>4599.4599</v>
       </c>
       <c r="N8" t="n">
-        <v>8627.8627</v>
+        <v>9980.998</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5517.5517</v>
+        <v>5706.5706</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14034.4033</v>
+        <v>14678.4677</v>
       </c>
       <c r="S8" t="n">
-        <v>14594.4593</v>
+        <v>14913.4912</v>
       </c>
       <c r="T8" t="n">
-        <v>65565.55589999999</v>
+        <v>68459.8453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21576</v>
+        <v>23705</v>
       </c>
       <c r="D9" t="n">
-        <v>4438</v>
+        <v>4854</v>
       </c>
       <c r="E9" t="n">
-        <v>9964</v>
+        <v>9598</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9197</v>
+        <v>10904</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15693</v>
+        <v>17582</v>
       </c>
       <c r="J9" t="n">
-        <v>16434</v>
+        <v>16778</v>
       </c>
       <c r="K9" t="n">
-        <v>77302</v>
+        <v>83421</v>
       </c>
       <c r="L9" t="n">
-        <v>21578.1576</v>
+        <v>23707.3705</v>
       </c>
       <c r="M9" t="n">
-        <v>4438.4438</v>
+        <v>4854.4854</v>
       </c>
       <c r="N9" t="n">
-        <v>9964.9964</v>
+        <v>9598.959800000001</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9197.9197</v>
+        <v>10905.0904</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15694.5693</v>
+        <v>17583.7582</v>
       </c>
       <c r="S9" t="n">
-        <v>16435.6434</v>
+        <v>16779.6778</v>
       </c>
       <c r="T9" t="n">
-        <v>77309.73020000001</v>
+        <v>83429.34210000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26902</v>
+        <v>27021</v>
       </c>
       <c r="D10" t="n">
-        <v>5153</v>
+        <v>5601</v>
       </c>
       <c r="E10" t="n">
-        <v>12410</v>
+        <v>12483</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12608</v>
+        <v>14110</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18857</v>
+        <v>19718</v>
       </c>
       <c r="J10" t="n">
-        <v>18423</v>
+        <v>19191</v>
       </c>
       <c r="K10" t="n">
-        <v>94353</v>
+        <v>98124</v>
       </c>
       <c r="L10" t="n">
-        <v>26904.6902</v>
+        <v>27023.7021</v>
       </c>
       <c r="M10" t="n">
-        <v>5153.5153</v>
+        <v>5601.5601</v>
       </c>
       <c r="N10" t="n">
-        <v>12411.241</v>
+        <v>12484.2483</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12609.2608</v>
+        <v>14111.411</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18858.8857</v>
+        <v>19719.9718</v>
       </c>
       <c r="S10" t="n">
-        <v>18424.8423</v>
+        <v>19192.9191</v>
       </c>
       <c r="T10" t="n">
-        <v>94362.4353</v>
+        <v>98133.8124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>27846</v>
+        <v>29627</v>
       </c>
       <c r="D11" t="n">
-        <v>5591</v>
+        <v>6117</v>
       </c>
       <c r="E11" t="n">
-        <v>17153</v>
+        <v>17812</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13638</v>
+        <v>14430</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18999</v>
+        <v>20213</v>
       </c>
       <c r="J11" t="n">
-        <v>20468</v>
+        <v>20838</v>
       </c>
       <c r="K11" t="n">
-        <v>103695</v>
+        <v>109037</v>
       </c>
       <c r="L11" t="n">
-        <v>27848.7846</v>
+        <v>29629.9627</v>
       </c>
       <c r="M11" t="n">
-        <v>5591.5591</v>
+        <v>6117.6117</v>
       </c>
       <c r="N11" t="n">
-        <v>17154.7153</v>
+        <v>17813.7812</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13639.3638</v>
+        <v>14431.443</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19000.8999</v>
+        <v>20215.0213</v>
       </c>
       <c r="S11" t="n">
-        <v>20470.0468</v>
+        <v>20840.0838</v>
       </c>
       <c r="T11" t="n">
-        <v>103705.3695</v>
+        <v>109047.9037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>28721</v>
+        <v>29660</v>
       </c>
       <c r="D12" t="n">
-        <v>5830</v>
+        <v>6064</v>
       </c>
       <c r="E12" t="n">
-        <v>18641</v>
+        <v>19079</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13864</v>
+        <v>15200</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19289</v>
+        <v>20410</v>
       </c>
       <c r="J12" t="n">
-        <v>21035</v>
+        <v>21743</v>
       </c>
       <c r="K12" t="n">
-        <v>107380</v>
+        <v>112156</v>
       </c>
       <c r="L12" t="n">
-        <v>28723.8721</v>
+        <v>29662.966</v>
       </c>
       <c r="M12" t="n">
-        <v>5830.583</v>
+        <v>6064.6064</v>
       </c>
       <c r="N12" t="n">
-        <v>18642.8641</v>
+        <v>19080.9079</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>13865.3864</v>
+        <v>15201.52</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19290.9289</v>
+        <v>20412.041</v>
       </c>
       <c r="S12" t="n">
-        <v>21037.1035</v>
+        <v>21745.1743</v>
       </c>
       <c r="T12" t="n">
-        <v>107390.738</v>
+        <v>112167.2156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>28957</v>
+        <v>30069</v>
       </c>
       <c r="D13" t="n">
-        <v>5853</v>
+        <v>5936</v>
       </c>
       <c r="E13" t="n">
-        <v>18818</v>
+        <v>18498</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14028</v>
+        <v>15149</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19730</v>
+        <v>19859</v>
       </c>
       <c r="J13" t="n">
-        <v>21320</v>
+        <v>21557</v>
       </c>
       <c r="K13" t="n">
-        <v>108706</v>
+        <v>111068</v>
       </c>
       <c r="L13" t="n">
-        <v>28959.8957</v>
+        <v>30072.0069</v>
       </c>
       <c r="M13" t="n">
-        <v>5853.5853</v>
+        <v>5936.5936</v>
       </c>
       <c r="N13" t="n">
-        <v>18819.8818</v>
+        <v>18499.8498</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14029.4028</v>
+        <v>15150.5149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19731.973</v>
+        <v>19860.9859</v>
       </c>
       <c r="S13" t="n">
-        <v>21322.132</v>
+        <v>21559.1557</v>
       </c>
       <c r="T13" t="n">
-        <v>108716.8706</v>
+        <v>111079.1068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>27430</v>
+        <v>28734</v>
       </c>
       <c r="D14" t="n">
-        <v>5862</v>
+        <v>5792</v>
       </c>
       <c r="E14" t="n">
-        <v>19220</v>
+        <v>18110</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14041</v>
+        <v>13608</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19881</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21572</v>
+        <v>20724</v>
       </c>
       <c r="K14" t="n">
-        <v>108006</v>
+        <v>86968</v>
       </c>
       <c r="L14" t="n">
-        <v>27432.743</v>
+        <v>28736.8734</v>
       </c>
       <c r="M14" t="n">
-        <v>5862.5862</v>
+        <v>5792.5792</v>
       </c>
       <c r="N14" t="n">
-        <v>19221.922</v>
+        <v>18111.811</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14042.4041</v>
+        <v>13609.3608</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19882.9881</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21574.1572</v>
+        <v>20726.0724</v>
       </c>
       <c r="T14" t="n">
-        <v>108016.8006</v>
+        <v>86976.69680000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>31864</v>
       </c>
       <c r="D15" t="n">
-        <v>6227</v>
+        <v>6270</v>
       </c>
       <c r="E15" t="n">
-        <v>19547</v>
+        <v>18183</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14601</v>
+        <v>14391</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20973</v>
+        <v>19585</v>
       </c>
       <c r="J15" t="n">
-        <v>22230</v>
+        <v>21637</v>
       </c>
       <c r="K15" t="n">
-        <v>83578</v>
+        <v>111930</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>31867.1864</v>
       </c>
       <c r="M15" t="n">
-        <v>6227.6227</v>
+        <v>6270.627</v>
       </c>
       <c r="N15" t="n">
-        <v>19548.9547</v>
+        <v>18184.8183</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14602.4601</v>
+        <v>14392.4391</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20975.0973</v>
+        <v>19586.9585</v>
       </c>
       <c r="S15" t="n">
-        <v>22232.223</v>
+        <v>21639.1637</v>
       </c>
       <c r="T15" t="n">
-        <v>83586.3578</v>
+        <v>111941.193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31338</v>
       </c>
       <c r="D16" t="n">
-        <v>6249</v>
+        <v>6378</v>
       </c>
       <c r="E16" t="n">
-        <v>19436</v>
+        <v>19135</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14422</v>
+        <v>15096</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20862</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22243</v>
+        <v>22753</v>
       </c>
       <c r="K16" t="n">
-        <v>83212</v>
+        <v>94700</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31341.1338</v>
       </c>
       <c r="M16" t="n">
-        <v>6249.6249</v>
+        <v>6378.6378</v>
       </c>
       <c r="N16" t="n">
-        <v>19437.9436</v>
+        <v>19136.9135</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>14423.4422</v>
+        <v>15097.5096</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20864.0862</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>22245.2243</v>
+        <v>22755.2753</v>
       </c>
       <c r="T16" t="n">
-        <v>83220.32120000001</v>
+        <v>94709.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>29963</v>
       </c>
       <c r="D17" t="n">
-        <v>5989</v>
+        <v>5979</v>
       </c>
       <c r="E17" t="n">
-        <v>18881</v>
+        <v>18483</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14102</v>
+        <v>14600</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19536</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21365</v>
+        <v>20348</v>
       </c>
       <c r="K17" t="n">
-        <v>79873</v>
+        <v>89373</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>29965.9963</v>
       </c>
       <c r="M17" t="n">
-        <v>5989.5989</v>
+        <v>5979.5979</v>
       </c>
       <c r="N17" t="n">
-        <v>18882.8881</v>
+        <v>18484.8483</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>14103.4102</v>
+        <v>14601.46</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19537.9536</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21367.1365</v>
+        <v>20350.0348</v>
       </c>
       <c r="T17" t="n">
-        <v>79880.98730000001</v>
+        <v>89381.93729999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27592</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5758</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14263</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20476</v>
+      </c>
+      <c r="K18" t="n">
+        <v>68089</v>
+      </c>
+      <c r="L18" t="n">
+        <v>27594.7592</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5758.5758</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>14264.4263</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20478.0476</v>
+      </c>
+      <c r="T18" t="n">
+        <v>68095.8089</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1089 +538,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20597</v>
+        <v>22213</v>
       </c>
       <c r="D2" t="n">
-        <v>5690</v>
+        <v>6143</v>
       </c>
       <c r="E2" t="n">
-        <v>8987</v>
+        <v>9513</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5429</v>
+        <v>6056</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16222</v>
+        <v>17990</v>
       </c>
       <c r="J2" t="n">
-        <v>15627</v>
+        <v>16890</v>
       </c>
       <c r="K2" t="n">
-        <v>72552</v>
+        <v>78805</v>
       </c>
       <c r="L2" t="n">
-        <v>20599.0597</v>
+        <v>22215.2213</v>
       </c>
       <c r="M2" t="n">
-        <v>5690.569</v>
+        <v>6143.6143</v>
       </c>
       <c r="N2" t="n">
-        <v>8987.8987</v>
+        <v>9513.951300000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5429.5429</v>
+        <v>6056.6056</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16223.6222</v>
+        <v>17991.799</v>
       </c>
       <c r="S2" t="n">
-        <v>15628.5627</v>
+        <v>16891.689</v>
       </c>
       <c r="T2" t="n">
-        <v>72559.2552</v>
+        <v>78812.8805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19916</v>
+        <v>21259</v>
       </c>
       <c r="D3" t="n">
-        <v>5402</v>
+        <v>5775</v>
       </c>
       <c r="E3" t="n">
-        <v>8583</v>
+        <v>9156</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5307</v>
+        <v>5864</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15254</v>
+        <v>16858</v>
       </c>
       <c r="J3" t="n">
-        <v>15026</v>
+        <v>15782</v>
       </c>
       <c r="K3" t="n">
-        <v>69488</v>
+        <v>74694</v>
       </c>
       <c r="L3" t="n">
-        <v>19917.9916</v>
+        <v>21261.1259</v>
       </c>
       <c r="M3" t="n">
-        <v>5402.5402</v>
+        <v>5775.5775</v>
       </c>
       <c r="N3" t="n">
-        <v>8583.8583</v>
+        <v>9156.9156</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5307.5307</v>
+        <v>5864.5864</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15255.5254</v>
+        <v>16859.6858</v>
       </c>
       <c r="S3" t="n">
-        <v>15027.5026</v>
+        <v>15783.5782</v>
       </c>
       <c r="T3" t="n">
-        <v>69494.94880000001</v>
+        <v>74701.4694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18925</v>
+        <v>20369</v>
       </c>
       <c r="D4" t="n">
-        <v>5170</v>
+        <v>5580</v>
       </c>
       <c r="E4" t="n">
-        <v>8398</v>
+        <v>8791</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5012</v>
+        <v>5543</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14517</v>
+        <v>16270</v>
       </c>
       <c r="J4" t="n">
-        <v>14624</v>
+        <v>15319</v>
       </c>
       <c r="K4" t="n">
-        <v>66646</v>
+        <v>71872</v>
       </c>
       <c r="L4" t="n">
-        <v>18926.8925</v>
+        <v>20371.0369</v>
       </c>
       <c r="M4" t="n">
-        <v>5170.517</v>
+        <v>5580.558</v>
       </c>
       <c r="N4" t="n">
-        <v>8398.8398</v>
+        <v>8791.8791</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5012.5012</v>
+        <v>5543.5543</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14518.4517</v>
+        <v>16271.627</v>
       </c>
       <c r="S4" t="n">
-        <v>14625.4624</v>
+        <v>15320.5319</v>
       </c>
       <c r="T4" t="n">
-        <v>66652.66459999999</v>
+        <v>71879.1872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18415</v>
+        <v>19484</v>
       </c>
       <c r="D5" t="n">
-        <v>4995</v>
+        <v>5246</v>
       </c>
       <c r="E5" t="n">
-        <v>8177</v>
+        <v>8579</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4854</v>
+        <v>5318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14307</v>
+        <v>15551</v>
       </c>
       <c r="J5" t="n">
-        <v>14147</v>
+        <v>14752</v>
       </c>
       <c r="K5" t="n">
-        <v>64895</v>
+        <v>68930</v>
       </c>
       <c r="L5" t="n">
-        <v>18416.8415</v>
+        <v>19485.9484</v>
       </c>
       <c r="M5" t="n">
-        <v>4995.4995</v>
+        <v>5246.5246</v>
       </c>
       <c r="N5" t="n">
-        <v>8177.8177</v>
+        <v>8579.857899999999</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4854.4854</v>
+        <v>5318.5318</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14308.4307</v>
+        <v>15552.5551</v>
       </c>
       <c r="S5" t="n">
-        <v>14148.4147</v>
+        <v>14753.4752</v>
       </c>
       <c r="T5" t="n">
-        <v>64901.4895</v>
+        <v>68936.893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18771</v>
+        <v>18967</v>
       </c>
       <c r="D6" t="n">
-        <v>5037</v>
+        <v>5232</v>
       </c>
       <c r="E6" t="n">
-        <v>8289</v>
+        <v>8477</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4964</v>
+        <v>5328</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14389</v>
+        <v>15320</v>
       </c>
       <c r="J6" t="n">
-        <v>14418</v>
+        <v>14736</v>
       </c>
       <c r="K6" t="n">
-        <v>65868</v>
+        <v>68060</v>
       </c>
       <c r="L6" t="n">
-        <v>18772.8771</v>
+        <v>18968.8967</v>
       </c>
       <c r="M6" t="n">
-        <v>5037.5037</v>
+        <v>5232.5232</v>
       </c>
       <c r="N6" t="n">
-        <v>8289.8289</v>
+        <v>8477.8477</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4964.4964</v>
+        <v>5328.5328</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14390.4389</v>
+        <v>15321.532</v>
       </c>
       <c r="S6" t="n">
-        <v>14419.4418</v>
+        <v>14737.4736</v>
       </c>
       <c r="T6" t="n">
-        <v>65874.5868</v>
+        <v>68066.806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19228</v>
+        <v>19101</v>
       </c>
       <c r="D7" t="n">
-        <v>5381</v>
+        <v>5283</v>
       </c>
       <c r="E7" t="n">
-        <v>8589</v>
+        <v>8719</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5663</v>
+        <v>5515</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15244</v>
+        <v>15308</v>
       </c>
       <c r="J7" t="n">
-        <v>14919</v>
+        <v>14983</v>
       </c>
       <c r="K7" t="n">
-        <v>69024</v>
+        <v>68909</v>
       </c>
       <c r="L7" t="n">
-        <v>19229.9228</v>
+        <v>19102.9101</v>
       </c>
       <c r="M7" t="n">
-        <v>5381.5381</v>
+        <v>5283.5283</v>
       </c>
       <c r="N7" t="n">
-        <v>8589.858899999999</v>
+        <v>8719.8719</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5663.5663</v>
+        <v>5515.5515</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15245.5244</v>
+        <v>15309.5308</v>
       </c>
       <c r="S7" t="n">
-        <v>14920.4919</v>
+        <v>14984.4983</v>
       </c>
       <c r="T7" t="n">
-        <v>69030.90239999999</v>
+        <v>68915.8909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18579</v>
+        <v>18640</v>
       </c>
       <c r="D8" t="n">
-        <v>4599</v>
+        <v>4920</v>
       </c>
       <c r="E8" t="n">
-        <v>9980</v>
+        <v>8879</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5706</v>
+        <v>5638</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14677</v>
+        <v>15248</v>
       </c>
       <c r="J8" t="n">
-        <v>14912</v>
+        <v>15303</v>
       </c>
       <c r="K8" t="n">
-        <v>68453</v>
+        <v>68628</v>
       </c>
       <c r="L8" t="n">
-        <v>18580.8579</v>
+        <v>18641.864</v>
       </c>
       <c r="M8" t="n">
-        <v>4599.4599</v>
+        <v>4920.492</v>
       </c>
       <c r="N8" t="n">
-        <v>9980.998</v>
+        <v>8879.8879</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5706.5706</v>
+        <v>5638.5638</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14678.4677</v>
+        <v>15249.5248</v>
       </c>
       <c r="S8" t="n">
-        <v>14913.4912</v>
+        <v>15304.5303</v>
       </c>
       <c r="T8" t="n">
-        <v>68459.8453</v>
+        <v>68634.8628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>23705</v>
+        <v>20897</v>
       </c>
       <c r="D9" t="n">
-        <v>4854</v>
+        <v>4924</v>
       </c>
       <c r="E9" t="n">
-        <v>9598</v>
+        <v>9495</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10904</v>
+        <v>8376</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17582</v>
+        <v>15860</v>
       </c>
       <c r="J9" t="n">
-        <v>16778</v>
+        <v>17482</v>
       </c>
       <c r="K9" t="n">
-        <v>83421</v>
+        <v>77034</v>
       </c>
       <c r="L9" t="n">
-        <v>23707.3705</v>
+        <v>20899.0897</v>
       </c>
       <c r="M9" t="n">
-        <v>4854.4854</v>
+        <v>4924.4924</v>
       </c>
       <c r="N9" t="n">
-        <v>9598.959800000001</v>
+        <v>9495.949500000001</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>10905.0904</v>
+        <v>8376.837600000001</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17583.7582</v>
+        <v>15861.586</v>
       </c>
       <c r="S9" t="n">
-        <v>16779.6778</v>
+        <v>17483.7482</v>
       </c>
       <c r="T9" t="n">
-        <v>83429.34210000001</v>
+        <v>77041.7034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>27021</v>
+        <v>24398</v>
       </c>
       <c r="D10" t="n">
-        <v>5601</v>
+        <v>5585</v>
       </c>
       <c r="E10" t="n">
-        <v>12483</v>
+        <v>11596</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14110</v>
+        <v>11227</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19718</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19191</v>
+        <v>19460</v>
       </c>
       <c r="K10" t="n">
-        <v>98124</v>
+        <v>72266</v>
       </c>
       <c r="L10" t="n">
-        <v>27023.7021</v>
+        <v>24400.4398</v>
       </c>
       <c r="M10" t="n">
-        <v>5601.5601</v>
+        <v>5585.5585</v>
       </c>
       <c r="N10" t="n">
-        <v>12484.2483</v>
+        <v>11597.1596</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>14111.411</v>
+        <v>11228.1227</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19719.9718</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19192.9191</v>
+        <v>19461.946</v>
       </c>
       <c r="T10" t="n">
-        <v>98133.8124</v>
+        <v>72273.22659999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>29627</v>
+        <v>25179</v>
       </c>
       <c r="D11" t="n">
-        <v>6117</v>
+        <v>5681</v>
       </c>
       <c r="E11" t="n">
-        <v>17812</v>
+        <v>16428</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14430</v>
+        <v>12697</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20213</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20838</v>
+        <v>20869</v>
       </c>
       <c r="K11" t="n">
-        <v>109037</v>
+        <v>80854</v>
       </c>
       <c r="L11" t="n">
-        <v>29629.9627</v>
+        <v>25181.5179</v>
       </c>
       <c r="M11" t="n">
-        <v>6117.6117</v>
+        <v>5681.5681</v>
       </c>
       <c r="N11" t="n">
-        <v>17813.7812</v>
+        <v>16429.6428</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14431.443</v>
+        <v>12698.2697</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20215.0213</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20840.0838</v>
+        <v>20871.0869</v>
       </c>
       <c r="T11" t="n">
-        <v>109047.9037</v>
+        <v>80862.0854</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>29660</v>
+        <v>9671</v>
       </c>
       <c r="D12" t="n">
-        <v>6064</v>
+        <v>5817</v>
       </c>
       <c r="E12" t="n">
-        <v>19079</v>
+        <v>17430</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15200</v>
+        <v>13946</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20410</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>21743</v>
+        <v>21025</v>
       </c>
       <c r="K12" t="n">
-        <v>112156</v>
+        <v>67889</v>
       </c>
       <c r="L12" t="n">
-        <v>29662.966</v>
+        <v>9671.9671</v>
       </c>
       <c r="M12" t="n">
-        <v>6064.6064</v>
+        <v>5817.5817</v>
       </c>
       <c r="N12" t="n">
-        <v>19080.9079</v>
+        <v>17431.743</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15201.52</v>
+        <v>13947.3946</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20412.041</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>21745.1743</v>
+        <v>21027.1025</v>
       </c>
       <c r="T12" t="n">
-        <v>112167.2156</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30069</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5936</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18498</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15149</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19859</v>
-      </c>
-      <c r="J13" t="n">
-        <v>21557</v>
-      </c>
-      <c r="K13" t="n">
-        <v>111068</v>
-      </c>
-      <c r="L13" t="n">
-        <v>30072.0069</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5936.5936</v>
-      </c>
-      <c r="N13" t="n">
-        <v>18499.8498</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>15150.5149</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>19860.9859</v>
-      </c>
-      <c r="S13" t="n">
-        <v>21559.1557</v>
-      </c>
-      <c r="T13" t="n">
-        <v>111079.1068</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>28734</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5792</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18110</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13608</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>20724</v>
-      </c>
-      <c r="K14" t="n">
-        <v>86968</v>
-      </c>
-      <c r="L14" t="n">
-        <v>28736.8734</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5792.5792</v>
-      </c>
-      <c r="N14" t="n">
-        <v>18111.811</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13609.3608</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>20726.0724</v>
-      </c>
-      <c r="T14" t="n">
-        <v>86976.69680000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>31864</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6270</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18183</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14391</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19585</v>
-      </c>
-      <c r="J15" t="n">
-        <v>21637</v>
-      </c>
-      <c r="K15" t="n">
-        <v>111930</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31867.1864</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6270.627</v>
-      </c>
-      <c r="N15" t="n">
-        <v>18184.8183</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>14392.4391</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>19586.9585</v>
-      </c>
-      <c r="S15" t="n">
-        <v>21639.1637</v>
-      </c>
-      <c r="T15" t="n">
-        <v>111941.193</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>31338</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6378</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19135</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15096</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22753</v>
-      </c>
-      <c r="K16" t="n">
-        <v>94700</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31341.1338</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6378.6378</v>
-      </c>
-      <c r="N16" t="n">
-        <v>19136.9135</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15097.5096</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>22755.2753</v>
-      </c>
-      <c r="T16" t="n">
-        <v>94709.47</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29963</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5979</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18483</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14600</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20348</v>
-      </c>
-      <c r="K17" t="n">
-        <v>89373</v>
-      </c>
-      <c r="L17" t="n">
-        <v>29965.9963</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5979.5979</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18484.8483</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>14601.46</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>20350.0348</v>
-      </c>
-      <c r="T17" t="n">
-        <v>89381.93729999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>27592</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5758</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14263</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20476</v>
-      </c>
-      <c r="K18" t="n">
-        <v>68089</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27594.7592</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5758.5758</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>14264.4263</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>20478.0476</v>
-      </c>
-      <c r="T18" t="n">
-        <v>68095.8089</v>
+        <v>67895.7889</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,538 +538,538 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22213</v>
+        <v>22060</v>
       </c>
       <c r="D2" t="n">
-        <v>6143</v>
+        <v>6063</v>
       </c>
       <c r="E2" t="n">
-        <v>9513</v>
+        <v>9842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6056</v>
+        <v>5734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17990</v>
+        <v>17979</v>
       </c>
       <c r="J2" t="n">
-        <v>16890</v>
+        <v>16944</v>
       </c>
       <c r="K2" t="n">
-        <v>78805</v>
+        <v>78622</v>
       </c>
       <c r="L2" t="n">
-        <v>22215.2213</v>
+        <v>22062.206</v>
       </c>
       <c r="M2" t="n">
-        <v>6143.6143</v>
+        <v>6063.6063</v>
       </c>
       <c r="N2" t="n">
-        <v>9513.951300000001</v>
+        <v>9842.984200000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6056.6056</v>
+        <v>5734.5734</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17991.799</v>
+        <v>17980.7979</v>
       </c>
       <c r="S2" t="n">
-        <v>16891.689</v>
+        <v>16945.6944</v>
       </c>
       <c r="T2" t="n">
-        <v>78812.8805</v>
+        <v>78629.8622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21259</v>
+        <v>21151</v>
       </c>
       <c r="D3" t="n">
-        <v>5775</v>
+        <v>5712</v>
       </c>
       <c r="E3" t="n">
-        <v>9156</v>
+        <v>9409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5864</v>
+        <v>5549</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16858</v>
+        <v>17214</v>
       </c>
       <c r="J3" t="n">
-        <v>15782</v>
+        <v>16164</v>
       </c>
       <c r="K3" t="n">
-        <v>74694</v>
+        <v>75199</v>
       </c>
       <c r="L3" t="n">
-        <v>21261.1259</v>
+        <v>21153.1151</v>
       </c>
       <c r="M3" t="n">
-        <v>5775.5775</v>
+        <v>5712.5712</v>
       </c>
       <c r="N3" t="n">
-        <v>9156.9156</v>
+        <v>9409.9409</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5864.5864</v>
+        <v>5549.5549</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16859.6858</v>
+        <v>17215.7214</v>
       </c>
       <c r="S3" t="n">
-        <v>15783.5782</v>
+        <v>16165.6164</v>
       </c>
       <c r="T3" t="n">
-        <v>74701.4694</v>
+        <v>75206.5199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20369</v>
+        <v>20342</v>
       </c>
       <c r="D4" t="n">
-        <v>5580</v>
+        <v>5485</v>
       </c>
       <c r="E4" t="n">
-        <v>8791</v>
+        <v>9148</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5543</v>
+        <v>5363</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16270</v>
+        <v>14058</v>
       </c>
       <c r="J4" t="n">
-        <v>15319</v>
+        <v>15424</v>
       </c>
       <c r="K4" t="n">
-        <v>71872</v>
+        <v>69820</v>
       </c>
       <c r="L4" t="n">
-        <v>20371.0369</v>
+        <v>20344.0342</v>
       </c>
       <c r="M4" t="n">
-        <v>5580.558</v>
+        <v>5485.5485</v>
       </c>
       <c r="N4" t="n">
-        <v>8791.8791</v>
+        <v>9148.9148</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5543.5543</v>
+        <v>5363.5363</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16271.627</v>
+        <v>14059.4058</v>
       </c>
       <c r="S4" t="n">
-        <v>15320.5319</v>
+        <v>15425.5424</v>
       </c>
       <c r="T4" t="n">
-        <v>71879.1872</v>
+        <v>69826.982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19484</v>
+        <v>19725</v>
       </c>
       <c r="D5" t="n">
-        <v>5246</v>
+        <v>5175</v>
       </c>
       <c r="E5" t="n">
-        <v>8579</v>
+        <v>8877</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5318</v>
+        <v>5217</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15551</v>
+        <v>15883</v>
       </c>
       <c r="J5" t="n">
-        <v>14752</v>
+        <v>14832</v>
       </c>
       <c r="K5" t="n">
-        <v>68930</v>
+        <v>69709</v>
       </c>
       <c r="L5" t="n">
-        <v>19485.9484</v>
+        <v>19726.9725</v>
       </c>
       <c r="M5" t="n">
-        <v>5246.5246</v>
+        <v>5175.5175</v>
       </c>
       <c r="N5" t="n">
-        <v>8579.857899999999</v>
+        <v>8877.887699999999</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5318.5318</v>
+        <v>5217.5217</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15552.5551</v>
+        <v>15884.5883</v>
       </c>
       <c r="S5" t="n">
-        <v>14753.4752</v>
+        <v>14833.4832</v>
       </c>
       <c r="T5" t="n">
-        <v>68936.893</v>
+        <v>69715.9709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18967</v>
+        <v>19604</v>
       </c>
       <c r="D6" t="n">
-        <v>5232</v>
+        <v>5284</v>
       </c>
       <c r="E6" t="n">
-        <v>8477</v>
+        <v>8705</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5328</v>
+        <v>5424</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15320</v>
+        <v>15163</v>
       </c>
       <c r="J6" t="n">
-        <v>14736</v>
+        <v>14968</v>
       </c>
       <c r="K6" t="n">
-        <v>68060</v>
+        <v>69148</v>
       </c>
       <c r="L6" t="n">
-        <v>18968.8967</v>
+        <v>19605.9604</v>
       </c>
       <c r="M6" t="n">
-        <v>5232.5232</v>
+        <v>5284.5284</v>
       </c>
       <c r="N6" t="n">
-        <v>8477.8477</v>
+        <v>8705.870499999999</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5328.5328</v>
+        <v>5424.5424</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15321.532</v>
+        <v>15164.5163</v>
       </c>
       <c r="S6" t="n">
-        <v>14737.4736</v>
+        <v>14969.4968</v>
       </c>
       <c r="T6" t="n">
-        <v>68066.806</v>
+        <v>69154.91479999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19101</v>
+        <v>19818</v>
       </c>
       <c r="D7" t="n">
-        <v>5283</v>
+        <v>5342</v>
       </c>
       <c r="E7" t="n">
-        <v>8719</v>
+        <v>9157</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5515</v>
+        <v>5658</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15308</v>
+        <v>15700</v>
       </c>
       <c r="J7" t="n">
-        <v>14983</v>
+        <v>15351</v>
       </c>
       <c r="K7" t="n">
-        <v>68909</v>
+        <v>71026</v>
       </c>
       <c r="L7" t="n">
-        <v>19102.9101</v>
+        <v>19819.9818</v>
       </c>
       <c r="M7" t="n">
-        <v>5283.5283</v>
+        <v>5342.5342</v>
       </c>
       <c r="N7" t="n">
-        <v>8719.8719</v>
+        <v>9157.9157</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5515.5515</v>
+        <v>5658.5658</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15309.5308</v>
+        <v>15701.57</v>
       </c>
       <c r="S7" t="n">
-        <v>14984.4983</v>
+        <v>15352.5351</v>
       </c>
       <c r="T7" t="n">
-        <v>68915.8909</v>
+        <v>71033.1026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18640</v>
+        <v>19108</v>
       </c>
       <c r="D8" t="n">
-        <v>4920</v>
+        <v>4547</v>
       </c>
       <c r="E8" t="n">
-        <v>8879</v>
+        <v>9238</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5638</v>
+        <v>5986</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15248</v>
+        <v>15087</v>
       </c>
       <c r="J8" t="n">
-        <v>15303</v>
+        <v>15403</v>
       </c>
       <c r="K8" t="n">
-        <v>68628</v>
+        <v>69369</v>
       </c>
       <c r="L8" t="n">
-        <v>18641.864</v>
+        <v>19109.9108</v>
       </c>
       <c r="M8" t="n">
-        <v>4920.492</v>
+        <v>4547.4547</v>
       </c>
       <c r="N8" t="n">
-        <v>8879.8879</v>
+        <v>9238.9238</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5638.5638</v>
+        <v>5986.5986</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15249.5248</v>
+        <v>15088.5087</v>
       </c>
       <c r="S8" t="n">
-        <v>15304.5303</v>
+        <v>15404.5403</v>
       </c>
       <c r="T8" t="n">
-        <v>68634.8628</v>
+        <v>69375.9369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>20897</v>
+        <v>22031</v>
       </c>
       <c r="D9" t="n">
-        <v>4924</v>
+        <v>4781</v>
       </c>
       <c r="E9" t="n">
-        <v>9495</v>
+        <v>10950</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8376</v>
+        <v>9539</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15860</v>
+        <v>18194</v>
       </c>
       <c r="J9" t="n">
-        <v>17482</v>
+        <v>17943</v>
       </c>
       <c r="K9" t="n">
-        <v>77034</v>
+        <v>83438</v>
       </c>
       <c r="L9" t="n">
-        <v>20899.0897</v>
+        <v>22033.2031</v>
       </c>
       <c r="M9" t="n">
-        <v>4924.4924</v>
+        <v>4781.4781</v>
       </c>
       <c r="N9" t="n">
-        <v>9495.949500000001</v>
+        <v>10951.095</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8376.837600000001</v>
+        <v>9539.9539</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15861.586</v>
+        <v>18195.8194</v>
       </c>
       <c r="S9" t="n">
-        <v>17483.7482</v>
+        <v>17944.7943</v>
       </c>
       <c r="T9" t="n">
-        <v>77041.7034</v>
+        <v>83446.3438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>24398</v>
+        <v>28392</v>
       </c>
       <c r="D10" t="n">
-        <v>5585</v>
+        <v>5660</v>
       </c>
       <c r="E10" t="n">
-        <v>11596</v>
+        <v>13268</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11227</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1078,25 +1078,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19460</v>
+        <v>20628</v>
       </c>
       <c r="K10" t="n">
-        <v>72266</v>
+        <v>67948</v>
       </c>
       <c r="L10" t="n">
-        <v>24400.4398</v>
+        <v>28394.8392</v>
       </c>
       <c r="M10" t="n">
-        <v>5585.5585</v>
+        <v>5660.566</v>
       </c>
       <c r="N10" t="n">
-        <v>11597.1596</v>
+        <v>13269.3268</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11228.1227</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1105,138 +1105,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19461.946</v>
+        <v>20630.0628</v>
       </c>
       <c r="T10" t="n">
-        <v>72273.22659999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-08-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25179</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5681</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16428</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12697</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>20869</v>
-      </c>
-      <c r="K11" t="n">
-        <v>80854</v>
-      </c>
-      <c r="L11" t="n">
-        <v>25181.5179</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5681.5681</v>
-      </c>
-      <c r="N11" t="n">
-        <v>16429.6428</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>12698.2697</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>20871.0869</v>
-      </c>
-      <c r="T11" t="n">
-        <v>80862.0854</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-08-10</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9671</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5817</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17430</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13946</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21025</v>
-      </c>
-      <c r="K12" t="n">
-        <v>67889</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9671.9671</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5817.5817</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17431.743</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13947.3946</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>21027.1025</v>
-      </c>
-      <c r="T12" t="n">
-        <v>67895.7889</v>
+        <v>67954.7948</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>12431</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>19915</v>
       </c>
       <c r="J10" t="n">
         <v>20628</v>
       </c>
       <c r="K10" t="n">
-        <v>67948</v>
+        <v>100294</v>
       </c>
       <c r="L10" t="n">
         <v>28394.8392</v>
@@ -1096,19 +1096,467 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>12432.2431</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>19916.9915</v>
       </c>
       <c r="S10" t="n">
         <v>20630.0628</v>
       </c>
       <c r="T10" t="n">
-        <v>67954.7948</v>
+        <v>100304.0294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30372</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6154</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18275</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14529</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20673</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20132</v>
+      </c>
+      <c r="K11" t="n">
+        <v>110135</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30375.0372</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6154.6154</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18276.8275</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14530.4529</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>20675.0673</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20134.0132</v>
+      </c>
+      <c r="T11" t="n">
+        <v>110146.0135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31874</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6516</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20238</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14753</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21065</v>
+      </c>
+      <c r="J12" t="n">
+        <v>23064</v>
+      </c>
+      <c r="K12" t="n">
+        <v>117510</v>
+      </c>
+      <c r="L12" t="n">
+        <v>31877.1874</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6516.6516</v>
+      </c>
+      <c r="N12" t="n">
+        <v>20240.0238</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14754.4753</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>21067.1065</v>
+      </c>
+      <c r="S12" t="n">
+        <v>23066.3064</v>
+      </c>
+      <c r="T12" t="n">
+        <v>117521.751</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33389</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6638</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20202</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14847</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20968</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23263</v>
+      </c>
+      <c r="K13" t="n">
+        <v>119307</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33392.3389</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6638.6638</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20204.0202</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>14848.4847</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>20970.0968</v>
+      </c>
+      <c r="S13" t="n">
+        <v>23265.3263</v>
+      </c>
+      <c r="T13" t="n">
+        <v>119318.9307</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31218</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5946</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19485</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15043</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21774</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21306</v>
+      </c>
+      <c r="K14" t="n">
+        <v>114772</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31221.1218</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5946.5946</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19486.9485</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15044.5043</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21776.1774</v>
+      </c>
+      <c r="S14" t="n">
+        <v>21308.1306</v>
+      </c>
+      <c r="T14" t="n">
+        <v>114783.4772</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33889</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6571</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19779</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15533</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22469</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23121</v>
+      </c>
+      <c r="K15" t="n">
+        <v>121362</v>
+      </c>
+      <c r="L15" t="n">
+        <v>33892.3889</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6571.6571</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19780.9779</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>15534.5533</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>22471.2469</v>
+      </c>
+      <c r="S15" t="n">
+        <v>23123.3121</v>
+      </c>
+      <c r="T15" t="n">
+        <v>121374.1362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6336</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19788</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15201</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21540</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22191</v>
+      </c>
+      <c r="K16" t="n">
+        <v>118637</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33584.3581</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6336.6336</v>
+      </c>
+      <c r="N16" t="n">
+        <v>19789.9788</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>15202.5201</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21542.154</v>
+      </c>
+      <c r="S16" t="n">
+        <v>22193.2191</v>
+      </c>
+      <c r="T16" t="n">
+        <v>118648.8637</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33123</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6367</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19460</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15620</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21875</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22719</v>
+      </c>
+      <c r="K17" t="n">
+        <v>119164</v>
+      </c>
+      <c r="L17" t="n">
+        <v>33126.3123</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6367.6367</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19461.946</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15621.562</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>21877.1875</v>
+      </c>
+      <c r="S17" t="n">
+        <v>22721.2719</v>
+      </c>
+      <c r="T17" t="n">
+        <v>119175.9164</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,474 +538,474 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22060</v>
+        <v>20388</v>
       </c>
       <c r="D2" t="n">
-        <v>6063</v>
+        <v>5437</v>
       </c>
       <c r="E2" t="n">
-        <v>9842</v>
+        <v>9251</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5734</v>
+        <v>5517</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17979</v>
+        <v>16344</v>
       </c>
       <c r="J2" t="n">
-        <v>16944</v>
+        <v>15814</v>
       </c>
       <c r="K2" t="n">
-        <v>78622</v>
+        <v>72751</v>
       </c>
       <c r="L2" t="n">
-        <v>22062.206</v>
+        <v>20390.0388</v>
       </c>
       <c r="M2" t="n">
-        <v>6063.6063</v>
+        <v>5437.5437</v>
       </c>
       <c r="N2" t="n">
-        <v>9842.984200000001</v>
+        <v>9251.9251</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5734.5734</v>
+        <v>5517.5517</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17980.7979</v>
+        <v>16345.6344</v>
       </c>
       <c r="S2" t="n">
-        <v>16945.6944</v>
+        <v>15815.5814</v>
       </c>
       <c r="T2" t="n">
-        <v>78629.8622</v>
+        <v>72758.27509999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21151</v>
+        <v>19536</v>
       </c>
       <c r="D3" t="n">
-        <v>5712</v>
+        <v>5191</v>
       </c>
       <c r="E3" t="n">
-        <v>9409</v>
+        <v>8990</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5549</v>
+        <v>5420</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17214</v>
+        <v>15792</v>
       </c>
       <c r="J3" t="n">
-        <v>16164</v>
+        <v>15053</v>
       </c>
       <c r="K3" t="n">
-        <v>75199</v>
+        <v>69982</v>
       </c>
       <c r="L3" t="n">
-        <v>21153.1151</v>
+        <v>19537.9536</v>
       </c>
       <c r="M3" t="n">
-        <v>5712.5712</v>
+        <v>5191.5191</v>
       </c>
       <c r="N3" t="n">
-        <v>9409.9409</v>
+        <v>8990.898999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5549.5549</v>
+        <v>5420.542</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17215.7214</v>
+        <v>15793.5792</v>
       </c>
       <c r="S3" t="n">
-        <v>16165.6164</v>
+        <v>15054.5053</v>
       </c>
       <c r="T3" t="n">
-        <v>75206.5199</v>
+        <v>69988.9982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20342</v>
+        <v>18934</v>
       </c>
       <c r="D4" t="n">
-        <v>5485</v>
+        <v>5030</v>
       </c>
       <c r="E4" t="n">
-        <v>9148</v>
+        <v>8623</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5363</v>
+        <v>5245</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14058</v>
+        <v>15027</v>
       </c>
       <c r="J4" t="n">
-        <v>15424</v>
+        <v>14490</v>
       </c>
       <c r="K4" t="n">
-        <v>69820</v>
+        <v>67349</v>
       </c>
       <c r="L4" t="n">
-        <v>20344.0342</v>
+        <v>18935.8934</v>
       </c>
       <c r="M4" t="n">
-        <v>5485.5485</v>
+        <v>5030.503</v>
       </c>
       <c r="N4" t="n">
-        <v>9148.9148</v>
+        <v>8623.862300000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5363.5363</v>
+        <v>5245.5245</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14059.4058</v>
+        <v>15028.5027</v>
       </c>
       <c r="S4" t="n">
-        <v>15425.5424</v>
+        <v>14491.449</v>
       </c>
       <c r="T4" t="n">
-        <v>69826.982</v>
+        <v>67355.73490000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19725</v>
+        <v>18205</v>
       </c>
       <c r="D5" t="n">
-        <v>5175</v>
+        <v>4781</v>
       </c>
       <c r="E5" t="n">
-        <v>8877</v>
+        <v>8421</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5217</v>
+        <v>5105</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15883</v>
+        <v>14499</v>
       </c>
       <c r="J5" t="n">
-        <v>14832</v>
+        <v>14111</v>
       </c>
       <c r="K5" t="n">
-        <v>69709</v>
+        <v>65122</v>
       </c>
       <c r="L5" t="n">
-        <v>19726.9725</v>
+        <v>18206.8205</v>
       </c>
       <c r="M5" t="n">
-        <v>5175.5175</v>
+        <v>4781.4781</v>
       </c>
       <c r="N5" t="n">
-        <v>8877.887699999999</v>
+        <v>8421.8421</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5217.5217</v>
+        <v>5105.5105</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15884.5883</v>
+        <v>14500.4499</v>
       </c>
       <c r="S5" t="n">
-        <v>14833.4832</v>
+        <v>14112.4111</v>
       </c>
       <c r="T5" t="n">
-        <v>69715.9709</v>
+        <v>65128.51219999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19604</v>
+        <v>18620</v>
       </c>
       <c r="D6" t="n">
-        <v>5284</v>
+        <v>4922</v>
       </c>
       <c r="E6" t="n">
-        <v>8705</v>
+        <v>8488</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5424</v>
+        <v>5330</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15163</v>
+        <v>14721</v>
       </c>
       <c r="J6" t="n">
-        <v>14968</v>
+        <v>14229</v>
       </c>
       <c r="K6" t="n">
-        <v>69148</v>
+        <v>66310</v>
       </c>
       <c r="L6" t="n">
-        <v>19605.9604</v>
+        <v>18621.862</v>
       </c>
       <c r="M6" t="n">
-        <v>5284.5284</v>
+        <v>4922.4922</v>
       </c>
       <c r="N6" t="n">
-        <v>8705.870499999999</v>
+        <v>8488.8488</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5424.5424</v>
+        <v>5330.533</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15164.5163</v>
+        <v>14722.4721</v>
       </c>
       <c r="S6" t="n">
-        <v>14969.4968</v>
+        <v>14230.4229</v>
       </c>
       <c r="T6" t="n">
-        <v>69154.91479999998</v>
+        <v>66316.63100000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19818</v>
+        <v>19337</v>
       </c>
       <c r="D7" t="n">
-        <v>5342</v>
+        <v>5120</v>
       </c>
       <c r="E7" t="n">
-        <v>9157</v>
+        <v>8768</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5658</v>
+        <v>5598</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15700</v>
+        <v>15260</v>
       </c>
       <c r="J7" t="n">
-        <v>15351</v>
+        <v>14801</v>
       </c>
       <c r="K7" t="n">
-        <v>71026</v>
+        <v>68884</v>
       </c>
       <c r="L7" t="n">
-        <v>19819.9818</v>
+        <v>19338.9337</v>
       </c>
       <c r="M7" t="n">
-        <v>5342.5342</v>
+        <v>5120.512</v>
       </c>
       <c r="N7" t="n">
-        <v>9157.9157</v>
+        <v>8768.8768</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5658.5658</v>
+        <v>5598.5598</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15701.57</v>
+        <v>15261.526</v>
       </c>
       <c r="S7" t="n">
-        <v>15352.5351</v>
+        <v>14802.4801</v>
       </c>
       <c r="T7" t="n">
-        <v>71033.1026</v>
+        <v>68890.8884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19108</v>
+        <v>18861</v>
       </c>
       <c r="D8" t="n">
-        <v>4547</v>
+        <v>4438</v>
       </c>
       <c r="E8" t="n">
-        <v>9238</v>
+        <v>9281</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5986</v>
+        <v>5978</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15087</v>
+        <v>15014</v>
       </c>
       <c r="J8" t="n">
-        <v>15403</v>
+        <v>15400</v>
       </c>
       <c r="K8" t="n">
-        <v>69369</v>
+        <v>68972</v>
       </c>
       <c r="L8" t="n">
-        <v>19109.9108</v>
+        <v>18862.8861</v>
       </c>
       <c r="M8" t="n">
-        <v>4547.4547</v>
+        <v>4438.4438</v>
       </c>
       <c r="N8" t="n">
-        <v>9238.9238</v>
+        <v>9281.928099999999</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5986.5986</v>
+        <v>5978.5978</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15088.5087</v>
+        <v>15015.5014</v>
       </c>
       <c r="S8" t="n">
-        <v>15404.5403</v>
+        <v>15401.54</v>
       </c>
       <c r="T8" t="n">
-        <v>69375.9369</v>
+        <v>68978.89720000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>22031</v>
+        <v>22439</v>
       </c>
       <c r="D9" t="n">
-        <v>4781</v>
+        <v>4680</v>
       </c>
       <c r="E9" t="n">
-        <v>10950</v>
+        <v>11127</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9539</v>
+        <v>10362</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1014,25 +1014,25 @@
         <v>18194</v>
       </c>
       <c r="J9" t="n">
-        <v>17943</v>
+        <v>17374</v>
       </c>
       <c r="K9" t="n">
-        <v>83438</v>
+        <v>84176</v>
       </c>
       <c r="L9" t="n">
-        <v>22033.2031</v>
+        <v>22441.2439</v>
       </c>
       <c r="M9" t="n">
-        <v>4781.4781</v>
+        <v>4680.468</v>
       </c>
       <c r="N9" t="n">
-        <v>10951.095</v>
+        <v>11128.1127</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9539.9539</v>
+        <v>10363.0362</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1041,522 +1041,586 @@
         <v>18195.8194</v>
       </c>
       <c r="S9" t="n">
-        <v>17944.7943</v>
+        <v>17375.7374</v>
       </c>
       <c r="T9" t="n">
-        <v>83446.3438</v>
+        <v>84184.4176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28392</v>
+        <v>28077</v>
       </c>
       <c r="D10" t="n">
-        <v>5660</v>
+        <v>5520</v>
       </c>
       <c r="E10" t="n">
-        <v>13268</v>
+        <v>13693</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12431</v>
+        <v>13091</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19915</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20628</v>
+        <v>20240</v>
       </c>
       <c r="K10" t="n">
-        <v>100294</v>
+        <v>80621</v>
       </c>
       <c r="L10" t="n">
-        <v>28394.8392</v>
+        <v>28079.8077</v>
       </c>
       <c r="M10" t="n">
-        <v>5660.566</v>
+        <v>5520.552</v>
       </c>
       <c r="N10" t="n">
-        <v>13269.3268</v>
+        <v>13694.3693</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12432.2431</v>
+        <v>13092.3091</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19916.9915</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>20630.0628</v>
+        <v>20242.024</v>
       </c>
       <c r="T10" t="n">
-        <v>100304.0294</v>
+        <v>80629.0621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>30372</v>
+        <v>30548</v>
       </c>
       <c r="D11" t="n">
-        <v>6154</v>
+        <v>5903</v>
       </c>
       <c r="E11" t="n">
-        <v>18275</v>
+        <v>18005</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14529</v>
+        <v>15334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20673</v>
+        <v>20685</v>
       </c>
       <c r="J11" t="n">
-        <v>20132</v>
+        <v>22306</v>
       </c>
       <c r="K11" t="n">
-        <v>110135</v>
+        <v>112781</v>
       </c>
       <c r="L11" t="n">
-        <v>30375.0372</v>
+        <v>30551.0548</v>
       </c>
       <c r="M11" t="n">
-        <v>6154.6154</v>
+        <v>5903.5903</v>
       </c>
       <c r="N11" t="n">
-        <v>18276.8275</v>
+        <v>18006.8005</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14530.4529</v>
+        <v>15335.5334</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20675.0673</v>
+        <v>20687.0685</v>
       </c>
       <c r="S11" t="n">
-        <v>20134.0132</v>
+        <v>22308.2306</v>
       </c>
       <c r="T11" t="n">
-        <v>110146.0135</v>
+        <v>112792.2781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31874</v>
+        <v>31190</v>
       </c>
       <c r="D12" t="n">
-        <v>6516</v>
+        <v>6074</v>
       </c>
       <c r="E12" t="n">
-        <v>20238</v>
+        <v>19044</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14753</v>
+        <v>20591</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21065</v>
+        <v>21206</v>
       </c>
       <c r="J12" t="n">
-        <v>23064</v>
+        <v>23108</v>
       </c>
       <c r="K12" t="n">
-        <v>117510</v>
+        <v>121213</v>
       </c>
       <c r="L12" t="n">
-        <v>31877.1874</v>
+        <v>31193.119</v>
       </c>
       <c r="M12" t="n">
-        <v>6516.6516</v>
+        <v>6074.6074</v>
       </c>
       <c r="N12" t="n">
-        <v>20240.0238</v>
+        <v>19045.9044</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14754.4753</v>
+        <v>20593.0591</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21067.1065</v>
+        <v>21208.1206</v>
       </c>
       <c r="S12" t="n">
-        <v>23066.3064</v>
+        <v>23110.3108</v>
       </c>
       <c r="T12" t="n">
-        <v>117521.751</v>
+        <v>121225.1213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>33389</v>
+        <v>31697</v>
       </c>
       <c r="D13" t="n">
-        <v>6638</v>
+        <v>6100</v>
       </c>
       <c r="E13" t="n">
-        <v>20202</v>
+        <v>19618</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14847</v>
+        <v>15079</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>20968</v>
+        <v>21480</v>
       </c>
       <c r="J13" t="n">
-        <v>23263</v>
+        <v>23350</v>
       </c>
       <c r="K13" t="n">
-        <v>119307</v>
+        <v>117324</v>
       </c>
       <c r="L13" t="n">
-        <v>33392.3389</v>
+        <v>31700.1697</v>
       </c>
       <c r="M13" t="n">
-        <v>6638.6638</v>
+        <v>6100.61</v>
       </c>
       <c r="N13" t="n">
-        <v>20204.0202</v>
+        <v>19619.9618</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14848.4847</v>
+        <v>15080.5079</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20970.0968</v>
+        <v>21482.148</v>
       </c>
       <c r="S13" t="n">
-        <v>23265.3263</v>
+        <v>23352.335</v>
       </c>
       <c r="T13" t="n">
-        <v>119318.9307</v>
+        <v>117335.7324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>31218</v>
+        <v>32010</v>
       </c>
       <c r="D14" t="n">
-        <v>5946</v>
+        <v>6030</v>
       </c>
       <c r="E14" t="n">
-        <v>19485</v>
+        <v>19420</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15043</v>
+        <v>15325</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21774</v>
+        <v>22085</v>
       </c>
       <c r="J14" t="n">
-        <v>21306</v>
+        <v>23200</v>
       </c>
       <c r="K14" t="n">
-        <v>114772</v>
+        <v>118070</v>
       </c>
       <c r="L14" t="n">
-        <v>31221.1218</v>
+        <v>32013.201</v>
       </c>
       <c r="M14" t="n">
-        <v>5946.5946</v>
+        <v>6030.603</v>
       </c>
       <c r="N14" t="n">
-        <v>19486.9485</v>
+        <v>19421.942</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15044.5043</v>
+        <v>15326.5325</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21776.1774</v>
+        <v>22087.2085</v>
       </c>
       <c r="S14" t="n">
-        <v>21308.1306</v>
+        <v>23202.32</v>
       </c>
       <c r="T14" t="n">
-        <v>114783.4772</v>
+        <v>118081.807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>33889</v>
+        <v>33536</v>
       </c>
       <c r="D15" t="n">
-        <v>6571</v>
+        <v>6597</v>
       </c>
       <c r="E15" t="n">
-        <v>19779</v>
+        <v>20025</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15533</v>
+        <v>15787</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22469</v>
+        <v>22762</v>
       </c>
       <c r="J15" t="n">
-        <v>23121</v>
+        <v>23776</v>
       </c>
       <c r="K15" t="n">
-        <v>121362</v>
+        <v>122483</v>
       </c>
       <c r="L15" t="n">
-        <v>33892.3889</v>
+        <v>33539.3536</v>
       </c>
       <c r="M15" t="n">
-        <v>6571.6571</v>
+        <v>6597.6597</v>
       </c>
       <c r="N15" t="n">
-        <v>19780.9779</v>
+        <v>20027.0025</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15534.5533</v>
+        <v>15788.5787</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22471.2469</v>
+        <v>22764.2762</v>
       </c>
       <c r="S15" t="n">
-        <v>23123.3121</v>
+        <v>23778.3776</v>
       </c>
       <c r="T15" t="n">
-        <v>121374.1362</v>
+        <v>122495.2483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>33581</v>
+        <v>33348</v>
       </c>
       <c r="D16" t="n">
-        <v>6336</v>
+        <v>6646</v>
       </c>
       <c r="E16" t="n">
-        <v>19788</v>
+        <v>19857</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15201</v>
+        <v>15874</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21540</v>
+        <v>22534</v>
       </c>
       <c r="J16" t="n">
-        <v>22191</v>
+        <v>23711</v>
       </c>
       <c r="K16" t="n">
-        <v>118637</v>
+        <v>121970</v>
       </c>
       <c r="L16" t="n">
-        <v>33584.3581</v>
+        <v>33351.3348</v>
       </c>
       <c r="M16" t="n">
-        <v>6336.6336</v>
+        <v>6646.6646</v>
       </c>
       <c r="N16" t="n">
-        <v>19789.9788</v>
+        <v>19858.9857</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15202.5201</v>
+        <v>15875.5874</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21542.154</v>
+        <v>22536.2534</v>
       </c>
       <c r="S16" t="n">
-        <v>22193.2191</v>
+        <v>23713.3711</v>
       </c>
       <c r="T16" t="n">
-        <v>118648.8637</v>
+        <v>121982.197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>33123</v>
+        <v>32699</v>
       </c>
       <c r="D17" t="n">
-        <v>6367</v>
+        <v>6609</v>
       </c>
       <c r="E17" t="n">
-        <v>19460</v>
+        <v>19085</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15620</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21875</v>
+        <v>22053</v>
       </c>
       <c r="J17" t="n">
-        <v>22719</v>
+        <v>23450</v>
       </c>
       <c r="K17" t="n">
-        <v>119164</v>
+        <v>103896</v>
       </c>
       <c r="L17" t="n">
-        <v>33126.3123</v>
+        <v>32702.2699</v>
       </c>
       <c r="M17" t="n">
-        <v>6367.6367</v>
+        <v>6609.6609</v>
       </c>
       <c r="N17" t="n">
-        <v>19461.946</v>
+        <v>19086.9085</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15621.562</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21877.1875</v>
+        <v>22055.2053</v>
       </c>
       <c r="S17" t="n">
-        <v>22721.2719</v>
+        <v>23452.345</v>
       </c>
       <c r="T17" t="n">
-        <v>119175.9164</v>
+        <v>103906.3896</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18802</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>18802</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18803.8802</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>18803.8802</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -538,980 +538,980 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20388</v>
+        <v>22266</v>
       </c>
       <c r="D2" t="n">
-        <v>5437</v>
+        <v>5999</v>
       </c>
       <c r="E2" t="n">
-        <v>9251</v>
+        <v>9984</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5517</v>
+        <v>6030</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16344</v>
+        <v>17786</v>
       </c>
       <c r="J2" t="n">
-        <v>15814</v>
+        <v>16906</v>
       </c>
       <c r="K2" t="n">
-        <v>72751</v>
+        <v>78971</v>
       </c>
       <c r="L2" t="n">
-        <v>20390.0388</v>
+        <v>22268.2266</v>
       </c>
       <c r="M2" t="n">
-        <v>5437.5437</v>
+        <v>5999.5999</v>
       </c>
       <c r="N2" t="n">
-        <v>9251.9251</v>
+        <v>9984.9984</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5517.5517</v>
+        <v>6030.603</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16345.6344</v>
+        <v>17787.7786</v>
       </c>
       <c r="S2" t="n">
-        <v>15815.5814</v>
+        <v>16907.6906</v>
       </c>
       <c r="T2" t="n">
-        <v>72758.27509999998</v>
+        <v>78978.8971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19536</v>
+        <v>21326</v>
       </c>
       <c r="D3" t="n">
-        <v>5191</v>
+        <v>5717</v>
       </c>
       <c r="E3" t="n">
-        <v>8990</v>
+        <v>9532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5420</v>
+        <v>5923</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15792</v>
+        <v>17126</v>
       </c>
       <c r="J3" t="n">
-        <v>15053</v>
+        <v>16079</v>
       </c>
       <c r="K3" t="n">
-        <v>69982</v>
+        <v>75703</v>
       </c>
       <c r="L3" t="n">
-        <v>19537.9536</v>
+        <v>21328.1326</v>
       </c>
       <c r="M3" t="n">
-        <v>5191.5191</v>
+        <v>5717.5717</v>
       </c>
       <c r="N3" t="n">
-        <v>8990.898999999999</v>
+        <v>9532.9532</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5420.542</v>
+        <v>5923.5923</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15793.5792</v>
+        <v>17127.7126</v>
       </c>
       <c r="S3" t="n">
-        <v>15054.5053</v>
+        <v>16080.6079</v>
       </c>
       <c r="T3" t="n">
-        <v>69988.9982</v>
+        <v>75710.57030000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18934</v>
+        <v>20449</v>
       </c>
       <c r="D4" t="n">
-        <v>5030</v>
+        <v>5454</v>
       </c>
       <c r="E4" t="n">
-        <v>8623</v>
+        <v>9230</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5245</v>
+        <v>5604</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15027</v>
+        <v>16410</v>
       </c>
       <c r="J4" t="n">
-        <v>14490</v>
+        <v>15490</v>
       </c>
       <c r="K4" t="n">
-        <v>67349</v>
+        <v>72637</v>
       </c>
       <c r="L4" t="n">
-        <v>18935.8934</v>
+        <v>20451.0449</v>
       </c>
       <c r="M4" t="n">
-        <v>5030.503</v>
+        <v>5454.5454</v>
       </c>
       <c r="N4" t="n">
-        <v>8623.862300000001</v>
+        <v>9230.923000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5245.5245</v>
+        <v>5604.5604</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15028.5027</v>
+        <v>16411.641</v>
       </c>
       <c r="S4" t="n">
-        <v>14491.449</v>
+        <v>15491.549</v>
       </c>
       <c r="T4" t="n">
-        <v>67355.73490000001</v>
+        <v>72644.2637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18205</v>
+        <v>19762</v>
       </c>
       <c r="D5" t="n">
-        <v>4781</v>
+        <v>5204</v>
       </c>
       <c r="E5" t="n">
-        <v>8421</v>
+        <v>8913</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5105</v>
+        <v>5557</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14499</v>
+        <v>15487</v>
       </c>
       <c r="J5" t="n">
-        <v>14111</v>
+        <v>15148</v>
       </c>
       <c r="K5" t="n">
-        <v>65122</v>
+        <v>70071</v>
       </c>
       <c r="L5" t="n">
-        <v>18206.8205</v>
+        <v>19763.9762</v>
       </c>
       <c r="M5" t="n">
-        <v>4781.4781</v>
+        <v>5204.5204</v>
       </c>
       <c r="N5" t="n">
-        <v>8421.8421</v>
+        <v>8913.891299999999</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5105.5105</v>
+        <v>5557.5557</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14500.4499</v>
+        <v>15488.5487</v>
       </c>
       <c r="S5" t="n">
-        <v>14112.4111</v>
+        <v>15149.5148</v>
       </c>
       <c r="T5" t="n">
-        <v>65128.51219999999</v>
+        <v>70078.0071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18620</v>
+        <v>19910</v>
       </c>
       <c r="D6" t="n">
-        <v>4922</v>
+        <v>5266</v>
       </c>
       <c r="E6" t="n">
-        <v>8488</v>
+        <v>8941</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5330</v>
+        <v>5670</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14721</v>
+        <v>15633</v>
       </c>
       <c r="J6" t="n">
-        <v>14229</v>
+        <v>15424</v>
       </c>
       <c r="K6" t="n">
-        <v>66310</v>
+        <v>70844</v>
       </c>
       <c r="L6" t="n">
-        <v>18621.862</v>
+        <v>19911.991</v>
       </c>
       <c r="M6" t="n">
-        <v>4922.4922</v>
+        <v>5266.5266</v>
       </c>
       <c r="N6" t="n">
-        <v>8488.8488</v>
+        <v>8941.8941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5330.533</v>
+        <v>5670.567</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14722.4721</v>
+        <v>15634.5633</v>
       </c>
       <c r="S6" t="n">
-        <v>14230.4229</v>
+        <v>15425.5424</v>
       </c>
       <c r="T6" t="n">
-        <v>66316.63100000001</v>
+        <v>70851.08440000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19337</v>
+        <v>19707</v>
       </c>
       <c r="D7" t="n">
-        <v>5120</v>
+        <v>5468</v>
       </c>
       <c r="E7" t="n">
-        <v>8768</v>
+        <v>9267</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5598</v>
+        <v>7157</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15260</v>
+        <v>16091</v>
       </c>
       <c r="J7" t="n">
-        <v>14801</v>
+        <v>15868</v>
       </c>
       <c r="K7" t="n">
-        <v>68884</v>
+        <v>73558</v>
       </c>
       <c r="L7" t="n">
-        <v>19338.9337</v>
+        <v>19708.9707</v>
       </c>
       <c r="M7" t="n">
-        <v>5120.512</v>
+        <v>5468.5468</v>
       </c>
       <c r="N7" t="n">
-        <v>8768.8768</v>
+        <v>9267.9267</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5598.5598</v>
+        <v>7157.7157</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15261.526</v>
+        <v>16092.6091</v>
       </c>
       <c r="S7" t="n">
-        <v>14802.4801</v>
+        <v>15869.5868</v>
       </c>
       <c r="T7" t="n">
-        <v>68890.8884</v>
+        <v>73565.3558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18861</v>
+        <v>20268</v>
       </c>
       <c r="D8" t="n">
-        <v>4438</v>
+        <v>4604</v>
       </c>
       <c r="E8" t="n">
-        <v>9281</v>
+        <v>9666</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5978</v>
+        <v>7401</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15014</v>
+        <v>15557</v>
       </c>
       <c r="J8" t="n">
-        <v>15400</v>
+        <v>16013</v>
       </c>
       <c r="K8" t="n">
-        <v>68972</v>
+        <v>73509</v>
       </c>
       <c r="L8" t="n">
-        <v>18862.8861</v>
+        <v>20270.0268</v>
       </c>
       <c r="M8" t="n">
-        <v>4438.4438</v>
+        <v>4604.4604</v>
       </c>
       <c r="N8" t="n">
-        <v>9281.928099999999</v>
+        <v>9666.9666</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5978.5978</v>
+        <v>7401.7401</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15015.5014</v>
+        <v>15558.5557</v>
       </c>
       <c r="S8" t="n">
-        <v>15401.54</v>
+        <v>16014.6013</v>
       </c>
       <c r="T8" t="n">
-        <v>68978.89720000001</v>
+        <v>73516.3509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>22439</v>
+        <v>23185</v>
       </c>
       <c r="D9" t="n">
-        <v>4680</v>
+        <v>4901</v>
       </c>
       <c r="E9" t="n">
-        <v>11127</v>
+        <v>11223</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10362</v>
+        <v>10623</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18194</v>
+        <v>18375</v>
       </c>
       <c r="J9" t="n">
-        <v>17374</v>
+        <v>18064</v>
       </c>
       <c r="K9" t="n">
-        <v>84176</v>
+        <v>86371</v>
       </c>
       <c r="L9" t="n">
-        <v>22441.2439</v>
+        <v>23187.3185</v>
       </c>
       <c r="M9" t="n">
-        <v>4680.468</v>
+        <v>4901.4901</v>
       </c>
       <c r="N9" t="n">
-        <v>11128.1127</v>
+        <v>11224.1223</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>10363.0362</v>
+        <v>10624.0623</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18195.8194</v>
+        <v>18376.8375</v>
       </c>
       <c r="S9" t="n">
-        <v>17375.7374</v>
+        <v>18065.8064</v>
       </c>
       <c r="T9" t="n">
-        <v>84184.4176</v>
+        <v>86379.63709999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28077</v>
+        <v>28823</v>
       </c>
       <c r="D10" t="n">
-        <v>5520</v>
+        <v>5818</v>
       </c>
       <c r="E10" t="n">
-        <v>13693</v>
+        <v>13930</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13091</v>
+        <v>14092</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>20118</v>
       </c>
       <c r="J10" t="n">
-        <v>20240</v>
+        <v>21041</v>
       </c>
       <c r="K10" t="n">
-        <v>80621</v>
+        <v>103822</v>
       </c>
       <c r="L10" t="n">
-        <v>28079.8077</v>
+        <v>28825.8823</v>
       </c>
       <c r="M10" t="n">
-        <v>5520.552</v>
+        <v>5818.5818</v>
       </c>
       <c r="N10" t="n">
-        <v>13694.3693</v>
+        <v>13931.393</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>13092.3091</v>
+        <v>14093.4092</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>20120.0118</v>
       </c>
       <c r="S10" t="n">
-        <v>20242.024</v>
+        <v>21043.1041</v>
       </c>
       <c r="T10" t="n">
-        <v>80629.0621</v>
+        <v>103832.3822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>30548</v>
+        <v>32025</v>
       </c>
       <c r="D11" t="n">
-        <v>5903</v>
+        <v>6084</v>
       </c>
       <c r="E11" t="n">
-        <v>18005</v>
+        <v>18165</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15334</v>
+        <v>15134</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20685</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22306</v>
+        <v>22980</v>
       </c>
       <c r="K11" t="n">
-        <v>112781</v>
+        <v>94388</v>
       </c>
       <c r="L11" t="n">
-        <v>30551.0548</v>
+        <v>32028.2025</v>
       </c>
       <c r="M11" t="n">
-        <v>5903.5903</v>
+        <v>6084.6084</v>
       </c>
       <c r="N11" t="n">
-        <v>18006.8005</v>
+        <v>18166.8165</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15335.5334</v>
+        <v>15135.5134</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20687.0685</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22308.2306</v>
+        <v>22982.298</v>
       </c>
       <c r="T11" t="n">
-        <v>112792.2781</v>
+        <v>94397.4388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31190</v>
+        <v>32138</v>
       </c>
       <c r="D12" t="n">
-        <v>6074</v>
+        <v>6317</v>
       </c>
       <c r="E12" t="n">
-        <v>19044</v>
+        <v>19577</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>20591</v>
+        <v>15265</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21206</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23108</v>
+        <v>23801</v>
       </c>
       <c r="K12" t="n">
-        <v>121213</v>
+        <v>97098</v>
       </c>
       <c r="L12" t="n">
-        <v>31193.119</v>
+        <v>32141.2138</v>
       </c>
       <c r="M12" t="n">
-        <v>6074.6074</v>
+        <v>6317.6317</v>
       </c>
       <c r="N12" t="n">
-        <v>19045.9044</v>
+        <v>19578.9577</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>20593.0591</v>
+        <v>15266.5265</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21208.1206</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>23110.3108</v>
+        <v>23803.3801</v>
       </c>
       <c r="T12" t="n">
-        <v>121225.1213</v>
+        <v>97107.7098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>31697</v>
+        <v>31865</v>
       </c>
       <c r="D13" t="n">
-        <v>6100</v>
+        <v>6389</v>
       </c>
       <c r="E13" t="n">
-        <v>19618</v>
+        <v>19812</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15079</v>
+        <v>15463</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21480</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23350</v>
+        <v>23781</v>
       </c>
       <c r="K13" t="n">
-        <v>117324</v>
+        <v>97310</v>
       </c>
       <c r="L13" t="n">
-        <v>31700.1697</v>
+        <v>31868.1865</v>
       </c>
       <c r="M13" t="n">
-        <v>6100.61</v>
+        <v>6389.6389</v>
       </c>
       <c r="N13" t="n">
-        <v>19619.9618</v>
+        <v>19813.9812</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>15080.5079</v>
+        <v>15464.5463</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21482.148</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23352.335</v>
+        <v>23783.3781</v>
       </c>
       <c r="T13" t="n">
-        <v>117335.7324</v>
+        <v>97319.731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>32010</v>
+        <v>32062</v>
       </c>
       <c r="D14" t="n">
-        <v>6030</v>
+        <v>6461</v>
       </c>
       <c r="E14" t="n">
-        <v>19420</v>
+        <v>19870</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15325</v>
+        <v>15114</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22085</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>23200</v>
+        <v>23508</v>
       </c>
       <c r="K14" t="n">
-        <v>118070</v>
+        <v>97015</v>
       </c>
       <c r="L14" t="n">
-        <v>32013.201</v>
+        <v>32065.2062</v>
       </c>
       <c r="M14" t="n">
-        <v>6030.603</v>
+        <v>6461.6461</v>
       </c>
       <c r="N14" t="n">
-        <v>19421.942</v>
+        <v>19871.987</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15326.5325</v>
+        <v>15115.5114</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22087.2085</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23202.32</v>
+        <v>23510.3508</v>
       </c>
       <c r="T14" t="n">
-        <v>118081.807</v>
+        <v>97024.7015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>33536</v>
+        <v>33756</v>
       </c>
       <c r="D15" t="n">
-        <v>6597</v>
+        <v>6996</v>
       </c>
       <c r="E15" t="n">
-        <v>20025</v>
+        <v>20143</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15787</v>
+        <v>16097</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22762</v>
+        <v>22648</v>
       </c>
       <c r="J15" t="n">
-        <v>23776</v>
+        <v>24132</v>
       </c>
       <c r="K15" t="n">
-        <v>122483</v>
+        <v>123772</v>
       </c>
       <c r="L15" t="n">
-        <v>33539.3536</v>
+        <v>33759.3756</v>
       </c>
       <c r="M15" t="n">
-        <v>6597.6597</v>
+        <v>6996.6996</v>
       </c>
       <c r="N15" t="n">
-        <v>20027.0025</v>
+        <v>20145.0143</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15788.5787</v>
+        <v>16098.6097</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22764.2762</v>
+        <v>22650.2648</v>
       </c>
       <c r="S15" t="n">
-        <v>23778.3776</v>
+        <v>24134.4132</v>
       </c>
       <c r="T15" t="n">
-        <v>122495.2483</v>
+        <v>123784.3772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>33348</v>
+        <v>33340</v>
       </c>
       <c r="D16" t="n">
-        <v>6646</v>
+        <v>6897</v>
       </c>
       <c r="E16" t="n">
-        <v>19857</v>
+        <v>19871</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15874</v>
+        <v>15846</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22534</v>
+        <v>22412</v>
       </c>
       <c r="J16" t="n">
-        <v>23711</v>
+        <v>24607</v>
       </c>
       <c r="K16" t="n">
-        <v>121970</v>
+        <v>122973</v>
       </c>
       <c r="L16" t="n">
-        <v>33351.3348</v>
+        <v>33343.334</v>
       </c>
       <c r="M16" t="n">
-        <v>6646.6646</v>
+        <v>6897.6897</v>
       </c>
       <c r="N16" t="n">
-        <v>19858.9857</v>
+        <v>19872.9871</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15875.5874</v>
+        <v>15847.5846</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22536.2534</v>
+        <v>22414.2412</v>
       </c>
       <c r="S16" t="n">
-        <v>23713.3711</v>
+        <v>24609.4607</v>
       </c>
       <c r="T16" t="n">
-        <v>121982.197</v>
+        <v>122985.2973</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>32699</v>
+        <v>33211</v>
       </c>
       <c r="D17" t="n">
-        <v>6609</v>
+        <v>6639</v>
       </c>
       <c r="E17" t="n">
-        <v>19085</v>
+        <v>20137</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22053</v>
+        <v>22106</v>
       </c>
       <c r="J17" t="n">
-        <v>23450</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>103896</v>
+        <v>82093</v>
       </c>
       <c r="L17" t="n">
-        <v>32702.2699</v>
+        <v>33214.3211</v>
       </c>
       <c r="M17" t="n">
-        <v>6609.6609</v>
+        <v>6639.6639</v>
       </c>
       <c r="N17" t="n">
-        <v>19086.9085</v>
+        <v>20139.0137</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1550,32 +1550,32 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22055.2053</v>
+        <v>22108.2106</v>
       </c>
       <c r="S17" t="n">
-        <v>23452.345</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>103906.3896</v>
+        <v>82101.20929999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30925</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6519</v>
       </c>
       <c r="E18" t="n">
-        <v>18802</v>
+        <v>19370</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1593,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>18802</v>
+        <v>56814</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>30928.0925</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>6519.6519</v>
       </c>
       <c r="N18" t="n">
-        <v>18803.8802</v>
+        <v>19371.937</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>18803.8802</v>
+        <v>56819.6814</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -538,666 +538,666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22266</v>
+        <v>23033</v>
       </c>
       <c r="D2" t="n">
-        <v>5999</v>
+        <v>6274</v>
       </c>
       <c r="E2" t="n">
-        <v>9984</v>
+        <v>10054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6030</v>
+        <v>6183</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17786</v>
+        <v>18839</v>
       </c>
       <c r="J2" t="n">
-        <v>16906</v>
+        <v>17319</v>
       </c>
       <c r="K2" t="n">
-        <v>78971</v>
+        <v>81702</v>
       </c>
       <c r="L2" t="n">
-        <v>22268.2266</v>
+        <v>23035.3033</v>
       </c>
       <c r="M2" t="n">
-        <v>5999.5999</v>
+        <v>6274.6274</v>
       </c>
       <c r="N2" t="n">
-        <v>9984.9984</v>
+        <v>10055.0054</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6030.603</v>
+        <v>6183.6183</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17787.7786</v>
+        <v>18840.8839</v>
       </c>
       <c r="S2" t="n">
-        <v>16907.6906</v>
+        <v>17320.7319</v>
       </c>
       <c r="T2" t="n">
-        <v>78978.8971</v>
+        <v>81710.17019999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21326</v>
+        <v>21712</v>
       </c>
       <c r="D3" t="n">
-        <v>5717</v>
+        <v>5994</v>
       </c>
       <c r="E3" t="n">
-        <v>9532</v>
+        <v>9503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5923</v>
+        <v>5915</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17126</v>
+        <v>17552</v>
       </c>
       <c r="J3" t="n">
-        <v>16079</v>
+        <v>16512</v>
       </c>
       <c r="K3" t="n">
-        <v>75703</v>
+        <v>77188</v>
       </c>
       <c r="L3" t="n">
-        <v>21328.1326</v>
+        <v>21714.1712</v>
       </c>
       <c r="M3" t="n">
-        <v>5717.5717</v>
+        <v>5994.5994</v>
       </c>
       <c r="N3" t="n">
-        <v>9532.9532</v>
+        <v>9503.9503</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5923.5923</v>
+        <v>5915.5915</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17127.7126</v>
+        <v>17553.7552</v>
       </c>
       <c r="S3" t="n">
-        <v>16080.6079</v>
+        <v>16513.6512</v>
       </c>
       <c r="T3" t="n">
-        <v>75710.57030000001</v>
+        <v>77195.7188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20449</v>
+        <v>20814</v>
       </c>
       <c r="D4" t="n">
-        <v>5454</v>
+        <v>5590</v>
       </c>
       <c r="E4" t="n">
-        <v>9230</v>
+        <v>9166</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5604</v>
+        <v>5734</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16410</v>
+        <v>16805</v>
       </c>
       <c r="J4" t="n">
-        <v>15490</v>
+        <v>15786</v>
       </c>
       <c r="K4" t="n">
-        <v>72637</v>
+        <v>73895</v>
       </c>
       <c r="L4" t="n">
-        <v>20451.0449</v>
+        <v>20816.0814</v>
       </c>
       <c r="M4" t="n">
-        <v>5454.5454</v>
+        <v>5590.559</v>
       </c>
       <c r="N4" t="n">
-        <v>9230.923000000001</v>
+        <v>9166.9166</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5604.5604</v>
+        <v>5734.5734</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16411.641</v>
+        <v>16806.6805</v>
       </c>
       <c r="S4" t="n">
-        <v>15491.549</v>
+        <v>15787.5786</v>
       </c>
       <c r="T4" t="n">
-        <v>72644.2637</v>
+        <v>73902.38949999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19762</v>
+        <v>19954</v>
       </c>
       <c r="D5" t="n">
-        <v>5204</v>
+        <v>5464</v>
       </c>
       <c r="E5" t="n">
-        <v>8913</v>
+        <v>8943</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5557</v>
+        <v>5523</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15487</v>
+        <v>16168</v>
       </c>
       <c r="J5" t="n">
-        <v>15148</v>
+        <v>15388</v>
       </c>
       <c r="K5" t="n">
-        <v>70071</v>
+        <v>71440</v>
       </c>
       <c r="L5" t="n">
-        <v>19763.9762</v>
+        <v>19955.9954</v>
       </c>
       <c r="M5" t="n">
-        <v>5204.5204</v>
+        <v>5464.5464</v>
       </c>
       <c r="N5" t="n">
-        <v>8913.891299999999</v>
+        <v>8943.8943</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5557.5557</v>
+        <v>5523.5523</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15488.5487</v>
+        <v>16169.6168</v>
       </c>
       <c r="S5" t="n">
-        <v>15149.5148</v>
+        <v>15389.5388</v>
       </c>
       <c r="T5" t="n">
-        <v>70078.0071</v>
+        <v>71447.144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19910</v>
+        <v>19807</v>
       </c>
       <c r="D6" t="n">
-        <v>5266</v>
+        <v>5692</v>
       </c>
       <c r="E6" t="n">
-        <v>8941</v>
+        <v>8907</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5670</v>
+        <v>5665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15633</v>
+        <v>15959</v>
       </c>
       <c r="J6" t="n">
-        <v>15424</v>
+        <v>15507</v>
       </c>
       <c r="K6" t="n">
-        <v>70844</v>
+        <v>71537</v>
       </c>
       <c r="L6" t="n">
-        <v>19911.991</v>
+        <v>19808.9807</v>
       </c>
       <c r="M6" t="n">
-        <v>5266.5266</v>
+        <v>5692.5692</v>
       </c>
       <c r="N6" t="n">
-        <v>8941.8941</v>
+        <v>8907.8907</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5670.567</v>
+        <v>5665.5665</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15634.5633</v>
+        <v>15960.5959</v>
       </c>
       <c r="S6" t="n">
-        <v>15425.5424</v>
+        <v>15508.5507</v>
       </c>
       <c r="T6" t="n">
-        <v>70851.08440000001</v>
+        <v>71544.1537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19707</v>
+        <v>20155</v>
       </c>
       <c r="D7" t="n">
-        <v>5468</v>
+        <v>5509</v>
       </c>
       <c r="E7" t="n">
-        <v>9267</v>
+        <v>9246</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7157</v>
+        <v>6828</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16091</v>
+        <v>16221</v>
       </c>
       <c r="J7" t="n">
-        <v>15868</v>
+        <v>16119</v>
       </c>
       <c r="K7" t="n">
-        <v>73558</v>
+        <v>74078</v>
       </c>
       <c r="L7" t="n">
-        <v>19708.9707</v>
+        <v>20157.0155</v>
       </c>
       <c r="M7" t="n">
-        <v>5468.5468</v>
+        <v>5509.5509</v>
       </c>
       <c r="N7" t="n">
-        <v>9267.9267</v>
+        <v>9246.9246</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>7157.7157</v>
+        <v>6828.6828</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16092.6091</v>
+        <v>16222.6221</v>
       </c>
       <c r="S7" t="n">
-        <v>15869.5868</v>
+        <v>16120.6119</v>
       </c>
       <c r="T7" t="n">
-        <v>73565.3558</v>
+        <v>74085.4078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>20268</v>
+        <v>19705</v>
       </c>
       <c r="D8" t="n">
-        <v>4604</v>
+        <v>4796</v>
       </c>
       <c r="E8" t="n">
-        <v>9666</v>
+        <v>9529</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7401</v>
+        <v>7371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15557</v>
+        <v>15808</v>
       </c>
       <c r="J8" t="n">
-        <v>16013</v>
+        <v>15876</v>
       </c>
       <c r="K8" t="n">
-        <v>73509</v>
+        <v>73085</v>
       </c>
       <c r="L8" t="n">
-        <v>20270.0268</v>
+        <v>19706.9705</v>
       </c>
       <c r="M8" t="n">
-        <v>4604.4604</v>
+        <v>4796.4796</v>
       </c>
       <c r="N8" t="n">
-        <v>9666.9666</v>
+        <v>9529.9529</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7401.7401</v>
+        <v>7371.7371</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15558.5557</v>
+        <v>15809.5808</v>
       </c>
       <c r="S8" t="n">
-        <v>16014.6013</v>
+        <v>15877.5876</v>
       </c>
       <c r="T8" t="n">
-        <v>73516.3509</v>
+        <v>73092.3085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>23185</v>
+        <v>22101</v>
       </c>
       <c r="D9" t="n">
-        <v>4901</v>
+        <v>5092</v>
       </c>
       <c r="E9" t="n">
-        <v>11223</v>
+        <v>11026</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10623</v>
+        <v>10050</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18375</v>
+        <v>19300</v>
       </c>
       <c r="J9" t="n">
-        <v>18064</v>
+        <v>18309</v>
       </c>
       <c r="K9" t="n">
-        <v>86371</v>
+        <v>85878</v>
       </c>
       <c r="L9" t="n">
-        <v>23187.3185</v>
+        <v>22103.2101</v>
       </c>
       <c r="M9" t="n">
-        <v>4901.4901</v>
+        <v>5092.5092</v>
       </c>
       <c r="N9" t="n">
-        <v>11224.1223</v>
+        <v>11027.1026</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>10624.0623</v>
+        <v>10051.005</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18376.8375</v>
+        <v>19301.93</v>
       </c>
       <c r="S9" t="n">
-        <v>18065.8064</v>
+        <v>18310.8309</v>
       </c>
       <c r="T9" t="n">
-        <v>86379.63709999999</v>
+        <v>85886.58780000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28823</v>
+        <v>28407</v>
       </c>
       <c r="D10" t="n">
-        <v>5818</v>
+        <v>6030</v>
       </c>
       <c r="E10" t="n">
-        <v>13930</v>
+        <v>14553</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14092</v>
+        <v>13491</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>20118</v>
+        <v>19790</v>
       </c>
       <c r="J10" t="n">
-        <v>21041</v>
+        <v>21275</v>
       </c>
       <c r="K10" t="n">
-        <v>103822</v>
+        <v>103546</v>
       </c>
       <c r="L10" t="n">
-        <v>28825.8823</v>
+        <v>28409.8407</v>
       </c>
       <c r="M10" t="n">
-        <v>5818.5818</v>
+        <v>6030.603</v>
       </c>
       <c r="N10" t="n">
-        <v>13931.393</v>
+        <v>14554.4553</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>14093.4092</v>
+        <v>13492.3491</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20120.0118</v>
+        <v>19791.979</v>
       </c>
       <c r="S10" t="n">
-        <v>21043.1041</v>
+        <v>21277.1275</v>
       </c>
       <c r="T10" t="n">
-        <v>103832.3822</v>
+        <v>103556.3546</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>32025</v>
+        <v>32081</v>
       </c>
       <c r="D11" t="n">
-        <v>6084</v>
+        <v>6261</v>
       </c>
       <c r="E11" t="n">
-        <v>18165</v>
+        <v>18994</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15134</v>
+        <v>15891</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22479</v>
       </c>
       <c r="J11" t="n">
-        <v>22980</v>
+        <v>22926</v>
       </c>
       <c r="K11" t="n">
-        <v>94388</v>
+        <v>118632</v>
       </c>
       <c r="L11" t="n">
-        <v>32028.2025</v>
+        <v>32084.2081</v>
       </c>
       <c r="M11" t="n">
-        <v>6084.6084</v>
+        <v>6261.6261</v>
       </c>
       <c r="N11" t="n">
-        <v>18166.8165</v>
+        <v>18995.8994</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15135.5134</v>
+        <v>15892.5891</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22481.2479</v>
       </c>
       <c r="S11" t="n">
-        <v>22982.298</v>
+        <v>22928.2926</v>
       </c>
       <c r="T11" t="n">
-        <v>94397.4388</v>
+        <v>118643.8632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>32138</v>
+        <v>32391</v>
       </c>
       <c r="D12" t="n">
-        <v>6317</v>
+        <v>6391</v>
       </c>
       <c r="E12" t="n">
-        <v>19577</v>
+        <v>19867</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15265</v>
+        <v>15600</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1206,25 +1206,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23801</v>
+        <v>23132</v>
       </c>
       <c r="K12" t="n">
-        <v>97098</v>
+        <v>97381</v>
       </c>
       <c r="L12" t="n">
-        <v>32141.2138</v>
+        <v>32394.2391</v>
       </c>
       <c r="M12" t="n">
-        <v>6317.6317</v>
+        <v>6391.6391</v>
       </c>
       <c r="N12" t="n">
-        <v>19578.9577</v>
+        <v>19868.9867</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15266.5265</v>
+        <v>15601.56</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1233,35 +1233,35 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>23803.3801</v>
+        <v>23134.3132</v>
       </c>
       <c r="T12" t="n">
-        <v>97107.7098</v>
+        <v>97390.7381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>31865</v>
+        <v>32738</v>
       </c>
       <c r="D13" t="n">
-        <v>6389</v>
+        <v>6600</v>
       </c>
       <c r="E13" t="n">
-        <v>19812</v>
+        <v>19800</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15463</v>
+        <v>15563</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23781</v>
+        <v>22805</v>
       </c>
       <c r="K13" t="n">
-        <v>97310</v>
+        <v>97506</v>
       </c>
       <c r="L13" t="n">
-        <v>31868.1865</v>
+        <v>32741.2738</v>
       </c>
       <c r="M13" t="n">
-        <v>6389.6389</v>
+        <v>6600.66</v>
       </c>
       <c r="N13" t="n">
-        <v>19813.9812</v>
+        <v>19801.98</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>15464.5463</v>
+        <v>15564.5563</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1297,330 +1297,330 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23783.3781</v>
+        <v>22807.2805</v>
       </c>
       <c r="T13" t="n">
-        <v>97319.731</v>
+        <v>97515.7506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>32062</v>
+        <v>32782</v>
       </c>
       <c r="D14" t="n">
-        <v>6461</v>
+        <v>6611</v>
       </c>
       <c r="E14" t="n">
-        <v>19870</v>
+        <v>20043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15114</v>
+        <v>15671</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>21815</v>
       </c>
       <c r="J14" t="n">
-        <v>23508</v>
+        <v>24207</v>
       </c>
       <c r="K14" t="n">
-        <v>97015</v>
+        <v>121129</v>
       </c>
       <c r="L14" t="n">
-        <v>32065.2062</v>
+        <v>32785.2782</v>
       </c>
       <c r="M14" t="n">
-        <v>6461.6461</v>
+        <v>6611.6611</v>
       </c>
       <c r="N14" t="n">
-        <v>19871.987</v>
+        <v>20045.0043</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15115.5114</v>
+        <v>15672.5671</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21817.1815</v>
       </c>
       <c r="S14" t="n">
-        <v>23510.3508</v>
+        <v>24209.4207</v>
       </c>
       <c r="T14" t="n">
-        <v>97024.7015</v>
+        <v>121141.1129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>33756</v>
+        <v>34755</v>
       </c>
       <c r="D15" t="n">
-        <v>6996</v>
+        <v>7019</v>
       </c>
       <c r="E15" t="n">
-        <v>20143</v>
+        <v>20276</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>16097</v>
+        <v>9173</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22648</v>
+        <v>20993</v>
       </c>
       <c r="J15" t="n">
-        <v>24132</v>
+        <v>19497</v>
       </c>
       <c r="K15" t="n">
-        <v>123772</v>
+        <v>111713</v>
       </c>
       <c r="L15" t="n">
-        <v>33759.3756</v>
+        <v>34758.4755</v>
       </c>
       <c r="M15" t="n">
-        <v>6996.6996</v>
+        <v>7019.7019</v>
       </c>
       <c r="N15" t="n">
-        <v>20145.0143</v>
+        <v>20278.0276</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>16098.6097</v>
+        <v>9173.917299999999</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22650.2648</v>
+        <v>20995.0993</v>
       </c>
       <c r="S15" t="n">
-        <v>24134.4132</v>
+        <v>19498.9497</v>
       </c>
       <c r="T15" t="n">
-        <v>123784.3772</v>
+        <v>111724.1713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>33340</v>
+        <v>33505</v>
       </c>
       <c r="D16" t="n">
-        <v>6897</v>
+        <v>6898</v>
       </c>
       <c r="E16" t="n">
-        <v>19871</v>
+        <v>20085</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15846</v>
+        <v>15265</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22412</v>
+        <v>10520</v>
       </c>
       <c r="J16" t="n">
-        <v>24607</v>
+        <v>23640</v>
       </c>
       <c r="K16" t="n">
-        <v>122973</v>
+        <v>109913</v>
       </c>
       <c r="L16" t="n">
-        <v>33343.334</v>
+        <v>33508.3505</v>
       </c>
       <c r="M16" t="n">
-        <v>6897.6897</v>
+        <v>6898.6898</v>
       </c>
       <c r="N16" t="n">
-        <v>19872.9871</v>
+        <v>20087.0085</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15847.5846</v>
+        <v>15266.5265</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22414.2412</v>
+        <v>10521.052</v>
       </c>
       <c r="S16" t="n">
-        <v>24609.4607</v>
+        <v>23642.364</v>
       </c>
       <c r="T16" t="n">
-        <v>122985.2973</v>
+        <v>109923.9913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>33211</v>
+        <v>32805</v>
       </c>
       <c r="D17" t="n">
-        <v>6639</v>
+        <v>6601</v>
       </c>
       <c r="E17" t="n">
-        <v>20137</v>
+        <v>19542</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15968</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22106</v>
+        <v>19110</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>23850</v>
       </c>
       <c r="K17" t="n">
-        <v>82093</v>
+        <v>117876</v>
       </c>
       <c r="L17" t="n">
-        <v>33214.3211</v>
+        <v>32808.2805</v>
       </c>
       <c r="M17" t="n">
-        <v>6639.6639</v>
+        <v>6601.6601</v>
       </c>
       <c r="N17" t="n">
-        <v>20139.0137</v>
+        <v>19543.9542</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>15969.5968</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22108.2106</v>
+        <v>19111.911</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>23852.385</v>
       </c>
       <c r="T17" t="n">
-        <v>82101.20929999999</v>
+        <v>117887.7876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>30925</v>
+        <v>30850</v>
       </c>
       <c r="D18" t="n">
-        <v>6519</v>
+        <v>6291</v>
       </c>
       <c r="E18" t="n">
-        <v>19370</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15928</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20539</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>22897</v>
       </c>
       <c r="K18" t="n">
-        <v>56814</v>
+        <v>96505</v>
       </c>
       <c r="L18" t="n">
-        <v>30928.0925</v>
+        <v>30853.085</v>
       </c>
       <c r="M18" t="n">
-        <v>6519.6519</v>
+        <v>6291.6291</v>
       </c>
       <c r="N18" t="n">
-        <v>19371.937</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>15929.5928</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20541.0539</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>22899.2897</v>
       </c>
       <c r="T18" t="n">
-        <v>56819.6814</v>
+        <v>96514.6505</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1089 +538,1473 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23033</v>
+        <v>21858</v>
       </c>
       <c r="D2" t="n">
-        <v>6274</v>
+        <v>6099</v>
       </c>
       <c r="E2" t="n">
-        <v>10054</v>
+        <v>9405</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6183</v>
+        <v>5511</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18839</v>
+        <v>17445</v>
       </c>
       <c r="J2" t="n">
-        <v>17319</v>
+        <v>16199</v>
       </c>
       <c r="K2" t="n">
-        <v>81702</v>
+        <v>76517</v>
       </c>
       <c r="L2" t="n">
-        <v>23035.3033</v>
+        <v>21860.1858</v>
       </c>
       <c r="M2" t="n">
-        <v>6274.6274</v>
+        <v>6099.6099</v>
       </c>
       <c r="N2" t="n">
-        <v>10055.0054</v>
+        <v>9405.940500000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6183.6183</v>
+        <v>5511.5511</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18840.8839</v>
+        <v>17446.7445</v>
       </c>
       <c r="S2" t="n">
-        <v>17320.7319</v>
+        <v>16200.6199</v>
       </c>
       <c r="T2" t="n">
-        <v>81710.17019999999</v>
+        <v>76524.6517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21712</v>
+        <v>20650</v>
       </c>
       <c r="D3" t="n">
-        <v>5994</v>
+        <v>5790</v>
       </c>
       <c r="E3" t="n">
-        <v>9503</v>
+        <v>8861</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5915</v>
+        <v>5355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17552</v>
+        <v>16596</v>
       </c>
       <c r="J3" t="n">
-        <v>16512</v>
+        <v>15572</v>
       </c>
       <c r="K3" t="n">
-        <v>77188</v>
+        <v>72824</v>
       </c>
       <c r="L3" t="n">
-        <v>21714.1712</v>
+        <v>20652.065</v>
       </c>
       <c r="M3" t="n">
-        <v>5994.5994</v>
+        <v>5790.579</v>
       </c>
       <c r="N3" t="n">
-        <v>9503.9503</v>
+        <v>8861.8861</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5915.5915</v>
+        <v>5355.5355</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17553.7552</v>
+        <v>16597.6596</v>
       </c>
       <c r="S3" t="n">
-        <v>16513.6512</v>
+        <v>15573.5572</v>
       </c>
       <c r="T3" t="n">
-        <v>77195.7188</v>
+        <v>72831.2824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20814</v>
+        <v>20091</v>
       </c>
       <c r="D4" t="n">
-        <v>5590</v>
+        <v>5461</v>
       </c>
       <c r="E4" t="n">
-        <v>9166</v>
+        <v>8513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5734</v>
+        <v>5096</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16805</v>
+        <v>16015</v>
       </c>
       <c r="J4" t="n">
-        <v>15786</v>
+        <v>14921</v>
       </c>
       <c r="K4" t="n">
-        <v>73895</v>
+        <v>70097</v>
       </c>
       <c r="L4" t="n">
-        <v>20816.0814</v>
+        <v>20093.0091</v>
       </c>
       <c r="M4" t="n">
-        <v>5590.559</v>
+        <v>5461.5461</v>
       </c>
       <c r="N4" t="n">
-        <v>9166.9166</v>
+        <v>8513.8513</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5734.5734</v>
+        <v>5096.5096</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16806.6805</v>
+        <v>16016.6015</v>
       </c>
       <c r="S4" t="n">
-        <v>15787.5786</v>
+        <v>14922.4921</v>
       </c>
       <c r="T4" t="n">
-        <v>73902.38949999999</v>
+        <v>70104.0097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19954</v>
+        <v>19462</v>
       </c>
       <c r="D5" t="n">
-        <v>5464</v>
+        <v>5277</v>
       </c>
       <c r="E5" t="n">
-        <v>8943</v>
+        <v>8325</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5523</v>
+        <v>4909</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>16168</v>
+        <v>15360</v>
       </c>
       <c r="J5" t="n">
-        <v>15388</v>
+        <v>14477</v>
       </c>
       <c r="K5" t="n">
-        <v>71440</v>
+        <v>67810</v>
       </c>
       <c r="L5" t="n">
-        <v>19955.9954</v>
+        <v>19463.9462</v>
       </c>
       <c r="M5" t="n">
-        <v>5464.5464</v>
+        <v>5277.5277</v>
       </c>
       <c r="N5" t="n">
-        <v>8943.8943</v>
+        <v>8325.8325</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5523.5523</v>
+        <v>4909.4909</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>16169.6168</v>
+        <v>15361.536</v>
       </c>
       <c r="S5" t="n">
-        <v>15389.5388</v>
+        <v>14478.4477</v>
       </c>
       <c r="T5" t="n">
-        <v>71447.144</v>
+        <v>67816.781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19807</v>
+        <v>18901</v>
       </c>
       <c r="D6" t="n">
-        <v>5692</v>
+        <v>5100</v>
       </c>
       <c r="E6" t="n">
-        <v>8907</v>
+        <v>8145</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5665</v>
+        <v>4865</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15959</v>
+        <v>19084</v>
       </c>
       <c r="J6" t="n">
-        <v>15507</v>
+        <v>14111</v>
       </c>
       <c r="K6" t="n">
-        <v>71537</v>
+        <v>70206</v>
       </c>
       <c r="L6" t="n">
-        <v>19808.9807</v>
+        <v>18902.8901</v>
       </c>
       <c r="M6" t="n">
-        <v>5692.5692</v>
+        <v>5100.51</v>
       </c>
       <c r="N6" t="n">
-        <v>8907.8907</v>
+        <v>8145.814499999999</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5665.5665</v>
+        <v>4865.4865</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15960.5959</v>
+        <v>19085.9084</v>
       </c>
       <c r="S6" t="n">
-        <v>15508.5507</v>
+        <v>14112.4111</v>
       </c>
       <c r="T6" t="n">
-        <v>71544.1537</v>
+        <v>70213.0206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>20155</v>
+        <v>18356</v>
       </c>
       <c r="D7" t="n">
-        <v>5509</v>
+        <v>5000</v>
       </c>
       <c r="E7" t="n">
-        <v>9246</v>
+        <v>8059</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6828</v>
+        <v>4892</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16221</v>
+        <v>14555</v>
       </c>
       <c r="J7" t="n">
-        <v>16119</v>
+        <v>14053</v>
       </c>
       <c r="K7" t="n">
-        <v>74078</v>
+        <v>64915</v>
       </c>
       <c r="L7" t="n">
-        <v>20157.0155</v>
+        <v>18357.8356</v>
       </c>
       <c r="M7" t="n">
-        <v>5509.5509</v>
+        <v>5000.5</v>
       </c>
       <c r="N7" t="n">
-        <v>9246.9246</v>
+        <v>8059.8059</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6828.6828</v>
+        <v>4892.4892</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16222.6221</v>
+        <v>14556.4555</v>
       </c>
       <c r="S7" t="n">
-        <v>16120.6119</v>
+        <v>14054.4053</v>
       </c>
       <c r="T7" t="n">
-        <v>74085.4078</v>
+        <v>64921.49149999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19705</v>
+        <v>15165</v>
       </c>
       <c r="D8" t="n">
-        <v>4796</v>
+        <v>6490</v>
       </c>
       <c r="E8" t="n">
-        <v>9529</v>
+        <v>8090</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7371</v>
+        <v>5884</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15808</v>
+        <v>14059</v>
       </c>
       <c r="J8" t="n">
-        <v>15876</v>
+        <v>13842</v>
       </c>
       <c r="K8" t="n">
-        <v>73085</v>
+        <v>63530</v>
       </c>
       <c r="L8" t="n">
-        <v>19706.9705</v>
+        <v>15166.5165</v>
       </c>
       <c r="M8" t="n">
-        <v>4796.4796</v>
+        <v>6490.649</v>
       </c>
       <c r="N8" t="n">
-        <v>9529.9529</v>
+        <v>8090.809</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7371.7371</v>
+        <v>5884.5884</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15809.5808</v>
+        <v>14060.4059</v>
       </c>
       <c r="S8" t="n">
-        <v>15877.5876</v>
+        <v>13843.3842</v>
       </c>
       <c r="T8" t="n">
-        <v>73092.3085</v>
+        <v>63536.353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>22101</v>
+        <v>16000</v>
       </c>
       <c r="D9" t="n">
-        <v>5092</v>
+        <v>6665</v>
       </c>
       <c r="E9" t="n">
-        <v>11026</v>
+        <v>8648</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10050</v>
+        <v>7253</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>19300</v>
+        <v>15028</v>
       </c>
       <c r="J9" t="n">
-        <v>18309</v>
+        <v>15352</v>
       </c>
       <c r="K9" t="n">
-        <v>85878</v>
+        <v>68946</v>
       </c>
       <c r="L9" t="n">
-        <v>22103.2101</v>
+        <v>16001.6</v>
       </c>
       <c r="M9" t="n">
-        <v>5092.5092</v>
+        <v>6665.6665</v>
       </c>
       <c r="N9" t="n">
-        <v>11027.1026</v>
+        <v>8648.864799999999</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>10051.005</v>
+        <v>7253.7253</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>19301.93</v>
+        <v>15029.5028</v>
       </c>
       <c r="S9" t="n">
-        <v>18310.8309</v>
+        <v>15353.5352</v>
       </c>
       <c r="T9" t="n">
-        <v>85886.58780000001</v>
+        <v>68952.8946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28407</v>
+        <v>17645</v>
       </c>
       <c r="D10" t="n">
-        <v>6030</v>
+        <v>6761</v>
       </c>
       <c r="E10" t="n">
-        <v>14553</v>
+        <v>9888</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13491</v>
+        <v>9161</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19790</v>
+        <v>14811</v>
       </c>
       <c r="J10" t="n">
-        <v>21275</v>
+        <v>15411</v>
       </c>
       <c r="K10" t="n">
-        <v>103546</v>
+        <v>73677</v>
       </c>
       <c r="L10" t="n">
-        <v>28409.8407</v>
+        <v>17646.7645</v>
       </c>
       <c r="M10" t="n">
-        <v>6030.603</v>
+        <v>6761.6761</v>
       </c>
       <c r="N10" t="n">
-        <v>14554.4553</v>
+        <v>9888.988799999999</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>13492.3491</v>
+        <v>9161.9161</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19791.979</v>
+        <v>14812.4811</v>
       </c>
       <c r="S10" t="n">
-        <v>21277.1275</v>
+        <v>15412.5411</v>
       </c>
       <c r="T10" t="n">
-        <v>103556.3546</v>
+        <v>73684.3677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>32081</v>
+        <v>19657</v>
       </c>
       <c r="D11" t="n">
-        <v>6261</v>
+        <v>6926</v>
       </c>
       <c r="E11" t="n">
-        <v>18994</v>
+        <v>14693</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15891</v>
+        <v>10432</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22479</v>
+        <v>15744</v>
       </c>
       <c r="J11" t="n">
-        <v>22926</v>
+        <v>17525</v>
       </c>
       <c r="K11" t="n">
-        <v>118632</v>
+        <v>84977</v>
       </c>
       <c r="L11" t="n">
-        <v>32084.2081</v>
+        <v>19658.9657</v>
       </c>
       <c r="M11" t="n">
-        <v>6261.6261</v>
+        <v>6926.6926</v>
       </c>
       <c r="N11" t="n">
-        <v>18995.8994</v>
+        <v>14694.4693</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15892.5891</v>
+        <v>10433.0432</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22481.2479</v>
+        <v>15745.5744</v>
       </c>
       <c r="S11" t="n">
-        <v>22928.2926</v>
+        <v>17526.7525</v>
       </c>
       <c r="T11" t="n">
-        <v>118643.8632</v>
+        <v>84985.49770000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>32391</v>
+        <v>20540</v>
       </c>
       <c r="D12" t="n">
-        <v>6391</v>
+        <v>7353</v>
       </c>
       <c r="E12" t="n">
-        <v>19867</v>
+        <v>16186</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15600</v>
+        <v>10658</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16463</v>
       </c>
       <c r="J12" t="n">
-        <v>23132</v>
+        <v>18547</v>
       </c>
       <c r="K12" t="n">
-        <v>97381</v>
+        <v>89747</v>
       </c>
       <c r="L12" t="n">
-        <v>32394.2391</v>
+        <v>20542.054</v>
       </c>
       <c r="M12" t="n">
-        <v>6391.6391</v>
+        <v>7353.7353</v>
       </c>
       <c r="N12" t="n">
-        <v>19868.9867</v>
+        <v>16187.6186</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15601.56</v>
+        <v>10659.0658</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16464.6463</v>
       </c>
       <c r="S12" t="n">
-        <v>23134.3132</v>
+        <v>18548.8547</v>
       </c>
       <c r="T12" t="n">
-        <v>97390.7381</v>
+        <v>89755.97469999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>32738</v>
+        <v>20616</v>
       </c>
       <c r="D13" t="n">
-        <v>6600</v>
+        <v>7496</v>
       </c>
       <c r="E13" t="n">
-        <v>19800</v>
+        <v>16907</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15563</v>
+        <v>11499</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16339</v>
       </c>
       <c r="J13" t="n">
-        <v>22805</v>
+        <v>18754</v>
       </c>
       <c r="K13" t="n">
-        <v>97506</v>
+        <v>91611</v>
       </c>
       <c r="L13" t="n">
-        <v>32741.2738</v>
+        <v>20618.0616</v>
       </c>
       <c r="M13" t="n">
-        <v>6600.66</v>
+        <v>7496.7496</v>
       </c>
       <c r="N13" t="n">
-        <v>19801.98</v>
+        <v>16908.6907</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>15564.5563</v>
+        <v>11500.1499</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16340.6339</v>
       </c>
       <c r="S13" t="n">
-        <v>22807.2805</v>
+        <v>18755.8754</v>
       </c>
       <c r="T13" t="n">
-        <v>97515.7506</v>
+        <v>91620.1611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>32782</v>
+        <v>21208</v>
       </c>
       <c r="D14" t="n">
-        <v>6611</v>
+        <v>7608</v>
       </c>
       <c r="E14" t="n">
-        <v>20043</v>
+        <v>16542</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15671</v>
+        <v>10891</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21815</v>
+        <v>17566</v>
       </c>
       <c r="J14" t="n">
-        <v>24207</v>
+        <v>19783</v>
       </c>
       <c r="K14" t="n">
-        <v>121129</v>
+        <v>93598</v>
       </c>
       <c r="L14" t="n">
-        <v>32785.2782</v>
+        <v>21210.1208</v>
       </c>
       <c r="M14" t="n">
-        <v>6611.6611</v>
+        <v>7608.7608</v>
       </c>
       <c r="N14" t="n">
-        <v>20045.0043</v>
+        <v>16543.6542</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15672.5671</v>
+        <v>10892.0891</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21817.1815</v>
+        <v>17567.7566</v>
       </c>
       <c r="S14" t="n">
-        <v>24209.4207</v>
+        <v>19784.9783</v>
       </c>
       <c r="T14" t="n">
-        <v>121141.1129</v>
+        <v>93607.35980000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>34755</v>
+        <v>25555</v>
       </c>
       <c r="D15" t="n">
-        <v>7019</v>
+        <v>6430</v>
       </c>
       <c r="E15" t="n">
-        <v>20276</v>
+        <v>16909</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9173</v>
+        <v>11197</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20993</v>
+        <v>18329</v>
       </c>
       <c r="J15" t="n">
-        <v>19497</v>
+        <v>20365</v>
       </c>
       <c r="K15" t="n">
-        <v>111713</v>
+        <v>98785</v>
       </c>
       <c r="L15" t="n">
-        <v>34758.4755</v>
+        <v>25557.5555</v>
       </c>
       <c r="M15" t="n">
-        <v>7019.7019</v>
+        <v>6430.643</v>
       </c>
       <c r="N15" t="n">
-        <v>20278.0276</v>
+        <v>16910.6909</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9173.917299999999</v>
+        <v>11198.1197</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20995.0993</v>
+        <v>18330.8329</v>
       </c>
       <c r="S15" t="n">
-        <v>19498.9497</v>
+        <v>20367.0365</v>
       </c>
       <c r="T15" t="n">
-        <v>111724.1713</v>
+        <v>98794.87850000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>33505</v>
+        <v>26380</v>
       </c>
       <c r="D16" t="n">
-        <v>6898</v>
+        <v>5894</v>
       </c>
       <c r="E16" t="n">
-        <v>20085</v>
+        <v>17492</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15265</v>
+        <v>11253</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10520</v>
+        <v>19052</v>
       </c>
       <c r="J16" t="n">
-        <v>23640</v>
+        <v>20010</v>
       </c>
       <c r="K16" t="n">
-        <v>109913</v>
+        <v>100081</v>
       </c>
       <c r="L16" t="n">
-        <v>33508.3505</v>
+        <v>26382.638</v>
       </c>
       <c r="M16" t="n">
-        <v>6898.6898</v>
+        <v>5894.5894</v>
       </c>
       <c r="N16" t="n">
-        <v>20087.0085</v>
+        <v>17493.7492</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15266.5265</v>
+        <v>11254.1253</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10521.052</v>
+        <v>19053.9052</v>
       </c>
       <c r="S16" t="n">
-        <v>23642.364</v>
+        <v>20012.001</v>
       </c>
       <c r="T16" t="n">
-        <v>109923.9913</v>
+        <v>100091.0081</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>32805</v>
+        <v>25264</v>
       </c>
       <c r="D17" t="n">
-        <v>6601</v>
+        <v>5604</v>
       </c>
       <c r="E17" t="n">
-        <v>19542</v>
+        <v>16707</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15968</v>
+        <v>11205</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19110</v>
+        <v>17358</v>
       </c>
       <c r="J17" t="n">
-        <v>23850</v>
+        <v>19125</v>
       </c>
       <c r="K17" t="n">
-        <v>117876</v>
+        <v>95263</v>
       </c>
       <c r="L17" t="n">
-        <v>32808.2805</v>
+        <v>25266.5264</v>
       </c>
       <c r="M17" t="n">
-        <v>6601.6601</v>
+        <v>5604.5604</v>
       </c>
       <c r="N17" t="n">
-        <v>19543.9542</v>
+        <v>16708.6707</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15969.5968</v>
+        <v>11206.1205</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19111.911</v>
+        <v>17359.7358</v>
       </c>
       <c r="S17" t="n">
-        <v>23852.385</v>
+        <v>19126.9125</v>
       </c>
       <c r="T17" t="n">
-        <v>117887.7876</v>
+        <v>95272.5263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>30850</v>
+        <v>24779</v>
       </c>
       <c r="D18" t="n">
-        <v>6291</v>
+        <v>5436</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>16979</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15928</v>
+        <v>12290</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20539</v>
+        <v>17816</v>
       </c>
       <c r="J18" t="n">
-        <v>22897</v>
+        <v>19524</v>
       </c>
       <c r="K18" t="n">
-        <v>96505</v>
+        <v>96824</v>
       </c>
       <c r="L18" t="n">
-        <v>30853.085</v>
+        <v>24781.4779</v>
       </c>
       <c r="M18" t="n">
-        <v>6291.6291</v>
+        <v>5436.5436</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>16980.6979</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15929.5928</v>
+        <v>12291.229</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20541.0539</v>
+        <v>17817.7816</v>
       </c>
       <c r="S18" t="n">
-        <v>22899.2897</v>
+        <v>19525.9524</v>
       </c>
       <c r="T18" t="n">
-        <v>96514.6505</v>
+        <v>96833.68240000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24009</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5615</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16812</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11736</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18047</v>
+      </c>
+      <c r="J19" t="n">
+        <v>19318</v>
+      </c>
+      <c r="K19" t="n">
+        <v>95537</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24011.4009</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5615.5615</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16813.6812</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11737.1736</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>18048.8047</v>
+      </c>
+      <c r="S19" t="n">
+        <v>19319.9318</v>
+      </c>
+      <c r="T19" t="n">
+        <v>95546.5537</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17007</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10447</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18641</v>
+      </c>
+      <c r="J20" t="n">
+        <v>19085</v>
+      </c>
+      <c r="K20" t="n">
+        <v>95992</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24814.4812</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6000.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>17008.7007</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10448.0447</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18642.8641</v>
+      </c>
+      <c r="S20" t="n">
+        <v>19086.9085</v>
+      </c>
+      <c r="T20" t="n">
+        <v>96001.5992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24020</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6398</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16626</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9573</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19018</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19270</v>
+      </c>
+      <c r="K21" t="n">
+        <v>94905</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24022.402</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6398.6398</v>
+      </c>
+      <c r="N21" t="n">
+        <v>16627.6626</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9573.9573</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>19019.9018</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19271.927</v>
+      </c>
+      <c r="T21" t="n">
+        <v>94914.4905</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25195</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6942</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15289</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7644</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19786</v>
+      </c>
+      <c r="J22" t="n">
+        <v>19714</v>
+      </c>
+      <c r="K22" t="n">
+        <v>94570</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25197.5195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6942.6942</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15290.5289</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7644.7644</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>19787.9786</v>
+      </c>
+      <c r="S22" t="n">
+        <v>19715.9714</v>
+      </c>
+      <c r="T22" t="n">
+        <v>94579.45699999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24740</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7130</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13658</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6559</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18287</v>
+      </c>
+      <c r="K23" t="n">
+        <v>70374</v>
+      </c>
+      <c r="L23" t="n">
+        <v>24742.474</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7130.713</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13659.3658</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6559.6559</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>18288.8287</v>
+      </c>
+      <c r="T23" t="n">
+        <v>70381.0374</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24089</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6900</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6082</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>47771</v>
+      </c>
+      <c r="L24" t="n">
+        <v>24091.4089</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6900.69</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10701.07</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6082.6082</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>47775.7771</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1473 +538,1089 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21858</v>
+        <v>20907</v>
       </c>
       <c r="D2" t="n">
-        <v>6099</v>
+        <v>5839</v>
       </c>
       <c r="E2" t="n">
-        <v>9405</v>
+        <v>9492</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5511</v>
+        <v>5449</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17445</v>
+        <v>16888</v>
       </c>
       <c r="J2" t="n">
-        <v>16199</v>
+        <v>16234</v>
       </c>
       <c r="K2" t="n">
-        <v>76517</v>
+        <v>74809</v>
       </c>
       <c r="L2" t="n">
-        <v>21860.1858</v>
+        <v>20909.0907</v>
       </c>
       <c r="M2" t="n">
-        <v>6099.6099</v>
+        <v>5839.5839</v>
       </c>
       <c r="N2" t="n">
-        <v>9405.940500000001</v>
+        <v>9492.949199999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5511.5511</v>
+        <v>5449.5449</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17446.7445</v>
+        <v>16889.6888</v>
       </c>
       <c r="S2" t="n">
-        <v>16200.6199</v>
+        <v>16235.6234</v>
       </c>
       <c r="T2" t="n">
-        <v>76524.6517</v>
+        <v>74816.4809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20650</v>
+        <v>20210</v>
       </c>
       <c r="D3" t="n">
-        <v>5790</v>
+        <v>5480</v>
       </c>
       <c r="E3" t="n">
-        <v>8861</v>
+        <v>9221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5355</v>
+        <v>5376</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16596</v>
+        <v>15991</v>
       </c>
       <c r="J3" t="n">
-        <v>15572</v>
+        <v>15594</v>
       </c>
       <c r="K3" t="n">
-        <v>72824</v>
+        <v>71872</v>
       </c>
       <c r="L3" t="n">
-        <v>20652.065</v>
+        <v>20212.021</v>
       </c>
       <c r="M3" t="n">
-        <v>5790.579</v>
+        <v>5480.548</v>
       </c>
       <c r="N3" t="n">
-        <v>8861.8861</v>
+        <v>9221.9221</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5355.5355</v>
+        <v>5376.5376</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16597.6596</v>
+        <v>15992.5991</v>
       </c>
       <c r="S3" t="n">
-        <v>15573.5572</v>
+        <v>15595.5594</v>
       </c>
       <c r="T3" t="n">
-        <v>72831.2824</v>
+        <v>71879.1872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20091</v>
+        <v>19177</v>
       </c>
       <c r="D4" t="n">
-        <v>5461</v>
+        <v>5245</v>
       </c>
       <c r="E4" t="n">
-        <v>8513</v>
+        <v>8867</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5096</v>
+        <v>5192</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16015</v>
+        <v>15468</v>
       </c>
       <c r="J4" t="n">
-        <v>14921</v>
+        <v>14842</v>
       </c>
       <c r="K4" t="n">
-        <v>70097</v>
+        <v>68791</v>
       </c>
       <c r="L4" t="n">
-        <v>20093.0091</v>
+        <v>19178.9177</v>
       </c>
       <c r="M4" t="n">
-        <v>5461.5461</v>
+        <v>5245.5245</v>
       </c>
       <c r="N4" t="n">
-        <v>8513.8513</v>
+        <v>8867.886699999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5096.5096</v>
+        <v>5192.5192</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16016.6015</v>
+        <v>15469.5468</v>
       </c>
       <c r="S4" t="n">
-        <v>14922.4921</v>
+        <v>14843.4842</v>
       </c>
       <c r="T4" t="n">
-        <v>70104.0097</v>
+        <v>68797.87909999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19462</v>
+        <v>18484</v>
       </c>
       <c r="D5" t="n">
-        <v>5277</v>
+        <v>5013</v>
       </c>
       <c r="E5" t="n">
-        <v>8325</v>
+        <v>8625</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4909</v>
+        <v>5123</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15360</v>
+        <v>14706</v>
       </c>
       <c r="J5" t="n">
-        <v>14477</v>
+        <v>14511</v>
       </c>
       <c r="K5" t="n">
-        <v>67810</v>
+        <v>66462</v>
       </c>
       <c r="L5" t="n">
-        <v>19463.9462</v>
+        <v>18485.8484</v>
       </c>
       <c r="M5" t="n">
-        <v>5277.5277</v>
+        <v>5013.5013</v>
       </c>
       <c r="N5" t="n">
-        <v>8325.8325</v>
+        <v>8625.862499999999</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4909.4909</v>
+        <v>5123.5123</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15361.536</v>
+        <v>14707.4706</v>
       </c>
       <c r="S5" t="n">
-        <v>14478.4477</v>
+        <v>14512.4511</v>
       </c>
       <c r="T5" t="n">
-        <v>67816.781</v>
+        <v>66468.6462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18901</v>
+        <v>18697</v>
       </c>
       <c r="D6" t="n">
-        <v>5100</v>
+        <v>5154</v>
       </c>
       <c r="E6" t="n">
-        <v>8145</v>
+        <v>8692</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4865</v>
+        <v>5234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>19084</v>
+        <v>14798</v>
       </c>
       <c r="J6" t="n">
-        <v>14111</v>
+        <v>14794</v>
       </c>
       <c r="K6" t="n">
-        <v>70206</v>
+        <v>67369</v>
       </c>
       <c r="L6" t="n">
-        <v>18902.8901</v>
+        <v>18698.8697</v>
       </c>
       <c r="M6" t="n">
-        <v>5100.51</v>
+        <v>5154.5154</v>
       </c>
       <c r="N6" t="n">
-        <v>8145.814499999999</v>
+        <v>8692.869199999999</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4865.4865</v>
+        <v>5234.5234</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>19085.9084</v>
+        <v>14799.4798</v>
       </c>
       <c r="S6" t="n">
-        <v>14112.4111</v>
+        <v>14795.4794</v>
       </c>
       <c r="T6" t="n">
-        <v>70213.0206</v>
+        <v>67375.7369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18356</v>
+        <v>19243</v>
       </c>
       <c r="D7" t="n">
-        <v>5000</v>
+        <v>5220</v>
       </c>
       <c r="E7" t="n">
-        <v>8059</v>
+        <v>9127</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4892</v>
+        <v>6179</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14555</v>
+        <v>15109</v>
       </c>
       <c r="J7" t="n">
-        <v>14053</v>
+        <v>15059</v>
       </c>
       <c r="K7" t="n">
-        <v>64915</v>
+        <v>69937</v>
       </c>
       <c r="L7" t="n">
-        <v>18357.8356</v>
+        <v>19244.9243</v>
       </c>
       <c r="M7" t="n">
-        <v>5000.5</v>
+        <v>5220.522</v>
       </c>
       <c r="N7" t="n">
-        <v>8059.8059</v>
+        <v>9127.912700000001</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4892.4892</v>
+        <v>6179.6179</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14556.4555</v>
+        <v>15110.5109</v>
       </c>
       <c r="S7" t="n">
-        <v>14054.4053</v>
+        <v>15060.5059</v>
       </c>
       <c r="T7" t="n">
-        <v>64921.49149999999</v>
+        <v>69943.99369999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>15165</v>
+        <v>18666</v>
       </c>
       <c r="D8" t="n">
-        <v>6490</v>
+        <v>4382</v>
       </c>
       <c r="E8" t="n">
-        <v>8090</v>
+        <v>9363</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5884</v>
+        <v>7021</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14059</v>
+        <v>15022</v>
       </c>
       <c r="J8" t="n">
-        <v>13842</v>
+        <v>15738</v>
       </c>
       <c r="K8" t="n">
-        <v>63530</v>
+        <v>70192</v>
       </c>
       <c r="L8" t="n">
-        <v>15166.5165</v>
+        <v>18667.8666</v>
       </c>
       <c r="M8" t="n">
-        <v>6490.649</v>
+        <v>4382.4382</v>
       </c>
       <c r="N8" t="n">
-        <v>8090.809</v>
+        <v>9363.936299999999</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5884.5884</v>
+        <v>7021.7021</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14060.4059</v>
+        <v>15023.5022</v>
       </c>
       <c r="S8" t="n">
-        <v>13843.3842</v>
+        <v>15739.5738</v>
       </c>
       <c r="T8" t="n">
-        <v>63536.353</v>
+        <v>70199.0192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>16000</v>
+        <v>23347</v>
       </c>
       <c r="D9" t="n">
-        <v>6665</v>
+        <v>4761</v>
       </c>
       <c r="E9" t="n">
-        <v>8648</v>
+        <v>11090</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7253</v>
+        <v>10036</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15028</v>
+        <v>18443</v>
       </c>
       <c r="J9" t="n">
-        <v>15352</v>
+        <v>17374</v>
       </c>
       <c r="K9" t="n">
-        <v>68946</v>
+        <v>85051</v>
       </c>
       <c r="L9" t="n">
-        <v>16001.6</v>
+        <v>23349.3347</v>
       </c>
       <c r="M9" t="n">
-        <v>6665.6665</v>
+        <v>4761.4761</v>
       </c>
       <c r="N9" t="n">
-        <v>8648.864799999999</v>
+        <v>11091.109</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7253.7253</v>
+        <v>10037.0036</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15029.5028</v>
+        <v>18444.8443</v>
       </c>
       <c r="S9" t="n">
-        <v>15353.5352</v>
+        <v>17375.7374</v>
       </c>
       <c r="T9" t="n">
-        <v>68952.8946</v>
+        <v>85059.50509999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>17645</v>
+        <v>28043</v>
       </c>
       <c r="D10" t="n">
-        <v>6761</v>
+        <v>5796</v>
       </c>
       <c r="E10" t="n">
-        <v>9888</v>
+        <v>13736</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9161</v>
+        <v>13604</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14811</v>
+        <v>20769</v>
       </c>
       <c r="J10" t="n">
-        <v>15411</v>
+        <v>20265</v>
       </c>
       <c r="K10" t="n">
-        <v>73677</v>
+        <v>102213</v>
       </c>
       <c r="L10" t="n">
-        <v>17646.7645</v>
+        <v>28045.8043</v>
       </c>
       <c r="M10" t="n">
-        <v>6761.6761</v>
+        <v>5796.5796</v>
       </c>
       <c r="N10" t="n">
-        <v>9888.988799999999</v>
+        <v>13737.3736</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9161.9161</v>
+        <v>13605.3604</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>14812.4811</v>
+        <v>20771.0769</v>
       </c>
       <c r="S10" t="n">
-        <v>15412.5411</v>
+        <v>20267.0265</v>
       </c>
       <c r="T10" t="n">
-        <v>73684.3677</v>
+        <v>102223.2213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>19657</v>
+        <v>30538</v>
       </c>
       <c r="D11" t="n">
-        <v>6926</v>
+        <v>6049</v>
       </c>
       <c r="E11" t="n">
-        <v>14693</v>
+        <v>18839</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10432</v>
+        <v>14788</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>15744</v>
+        <v>20609</v>
       </c>
       <c r="J11" t="n">
-        <v>17525</v>
+        <v>22602</v>
       </c>
       <c r="K11" t="n">
-        <v>84977</v>
+        <v>113425</v>
       </c>
       <c r="L11" t="n">
-        <v>19658.9657</v>
+        <v>30541.0538</v>
       </c>
       <c r="M11" t="n">
-        <v>6926.6926</v>
+        <v>6049.6049</v>
       </c>
       <c r="N11" t="n">
-        <v>14694.4693</v>
+        <v>18840.8839</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10433.0432</v>
+        <v>14789.4788</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>15745.5744</v>
+        <v>20611.0609</v>
       </c>
       <c r="S11" t="n">
-        <v>17526.7525</v>
+        <v>22604.2602</v>
       </c>
       <c r="T11" t="n">
-        <v>84985.49770000001</v>
+        <v>113436.3425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>20540</v>
+        <v>31861</v>
       </c>
       <c r="D12" t="n">
-        <v>7353</v>
+        <v>6290</v>
       </c>
       <c r="E12" t="n">
-        <v>16186</v>
+        <v>19940</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10658</v>
+        <v>15155</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16463</v>
+        <v>21410</v>
       </c>
       <c r="J12" t="n">
-        <v>18547</v>
+        <v>23333</v>
       </c>
       <c r="K12" t="n">
-        <v>89747</v>
+        <v>117989</v>
       </c>
       <c r="L12" t="n">
-        <v>20542.054</v>
+        <v>31864.1861</v>
       </c>
       <c r="M12" t="n">
-        <v>7353.7353</v>
+        <v>6290.629</v>
       </c>
       <c r="N12" t="n">
-        <v>16187.6186</v>
+        <v>19941.994</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>10659.0658</v>
+        <v>15156.5155</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>16464.6463</v>
+        <v>21412.141</v>
       </c>
       <c r="S12" t="n">
-        <v>18548.8547</v>
+        <v>23335.3333</v>
       </c>
       <c r="T12" t="n">
-        <v>89755.97469999999</v>
+        <v>118000.7989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>20616</v>
+        <v>32092</v>
       </c>
       <c r="D13" t="n">
-        <v>7496</v>
+        <v>6456</v>
       </c>
       <c r="E13" t="n">
-        <v>16907</v>
+        <v>19717</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11499</v>
+        <v>14922</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16339</v>
+        <v>21678</v>
       </c>
       <c r="J13" t="n">
-        <v>18754</v>
+        <v>23281</v>
       </c>
       <c r="K13" t="n">
-        <v>91611</v>
+        <v>118146</v>
       </c>
       <c r="L13" t="n">
-        <v>20618.0616</v>
+        <v>32095.2092</v>
       </c>
       <c r="M13" t="n">
-        <v>7496.7496</v>
+        <v>6456.6456</v>
       </c>
       <c r="N13" t="n">
-        <v>16908.6907</v>
+        <v>19718.9717</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11500.1499</v>
+        <v>14923.4922</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16340.6339</v>
+        <v>21680.1678</v>
       </c>
       <c r="S13" t="n">
-        <v>18755.8754</v>
+        <v>23283.3281</v>
       </c>
       <c r="T13" t="n">
-        <v>91620.1611</v>
+        <v>118157.8146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>21208</v>
+        <v>32314</v>
       </c>
       <c r="D14" t="n">
-        <v>7608</v>
+        <v>6460</v>
       </c>
       <c r="E14" t="n">
-        <v>16542</v>
+        <v>19682</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10891</v>
+        <v>14955</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17566</v>
+        <v>21774</v>
       </c>
       <c r="J14" t="n">
-        <v>19783</v>
+        <v>22602</v>
       </c>
       <c r="K14" t="n">
-        <v>93598</v>
+        <v>117787</v>
       </c>
       <c r="L14" t="n">
-        <v>21210.1208</v>
+        <v>32317.2314</v>
       </c>
       <c r="M14" t="n">
-        <v>7608.7608</v>
+        <v>6460.646</v>
       </c>
       <c r="N14" t="n">
-        <v>16543.6542</v>
+        <v>19683.9682</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10892.0891</v>
+        <v>14956.4955</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17567.7566</v>
+        <v>21776.1774</v>
       </c>
       <c r="S14" t="n">
-        <v>19784.9783</v>
+        <v>22604.2602</v>
       </c>
       <c r="T14" t="n">
-        <v>93607.35980000001</v>
+        <v>117798.7787</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>25555</v>
+        <v>33791</v>
       </c>
       <c r="D15" t="n">
-        <v>6430</v>
+        <v>6915</v>
       </c>
       <c r="E15" t="n">
-        <v>16909</v>
+        <v>20452</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11197</v>
+        <v>15451</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18329</v>
+        <v>23049</v>
       </c>
       <c r="J15" t="n">
-        <v>20365</v>
+        <v>23474</v>
       </c>
       <c r="K15" t="n">
-        <v>98785</v>
+        <v>123132</v>
       </c>
       <c r="L15" t="n">
-        <v>25557.5555</v>
+        <v>33794.3791</v>
       </c>
       <c r="M15" t="n">
-        <v>6430.643</v>
+        <v>6915.6915</v>
       </c>
       <c r="N15" t="n">
-        <v>16910.6909</v>
+        <v>20454.0452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>11198.1197</v>
+        <v>15452.5451</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18330.8329</v>
+        <v>23051.3049</v>
       </c>
       <c r="S15" t="n">
-        <v>20367.0365</v>
+        <v>23476.3474</v>
       </c>
       <c r="T15" t="n">
-        <v>98794.87850000001</v>
+        <v>123144.3132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>26380</v>
+        <v>34341</v>
       </c>
       <c r="D16" t="n">
-        <v>5894</v>
+        <v>6975</v>
       </c>
       <c r="E16" t="n">
-        <v>17492</v>
+        <v>20273</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11253</v>
+        <v>15663</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>19052</v>
+        <v>23407</v>
       </c>
       <c r="J16" t="n">
-        <v>20010</v>
+        <v>24511</v>
       </c>
       <c r="K16" t="n">
-        <v>100081</v>
+        <v>125170</v>
       </c>
       <c r="L16" t="n">
-        <v>26382.638</v>
+        <v>34344.4341</v>
       </c>
       <c r="M16" t="n">
-        <v>5894.5894</v>
+        <v>6975.6975</v>
       </c>
       <c r="N16" t="n">
-        <v>17493.7492</v>
+        <v>20275.0273</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11254.1253</v>
+        <v>15664.5663</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19053.9052</v>
+        <v>23409.3407</v>
       </c>
       <c r="S16" t="n">
-        <v>20012.001</v>
+        <v>24513.4511</v>
       </c>
       <c r="T16" t="n">
-        <v>100091.0081</v>
+        <v>125182.517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>25264</v>
+        <v>33690</v>
       </c>
       <c r="D17" t="n">
-        <v>5604</v>
+        <v>6793</v>
       </c>
       <c r="E17" t="n">
-        <v>16707</v>
+        <v>19948</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11205</v>
+        <v>15841</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>17358</v>
+        <v>23193</v>
       </c>
       <c r="J17" t="n">
-        <v>19125</v>
+        <v>23978</v>
       </c>
       <c r="K17" t="n">
-        <v>95263</v>
+        <v>123443</v>
       </c>
       <c r="L17" t="n">
-        <v>25266.5264</v>
+        <v>33693.369</v>
       </c>
       <c r="M17" t="n">
-        <v>5604.5604</v>
+        <v>6793.6793</v>
       </c>
       <c r="N17" t="n">
-        <v>16708.6707</v>
+        <v>19949.9948</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>11206.1205</v>
+        <v>15842.5841</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>17359.7358</v>
+        <v>23195.3193</v>
       </c>
       <c r="S17" t="n">
-        <v>19126.9125</v>
+        <v>23980.3978</v>
       </c>
       <c r="T17" t="n">
-        <v>95272.5263</v>
+        <v>123455.3443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>24779</v>
+        <v>32059</v>
       </c>
       <c r="D18" t="n">
-        <v>5436</v>
+        <v>6460</v>
       </c>
       <c r="E18" t="n">
-        <v>16979</v>
+        <v>19536</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12290</v>
+        <v>15662</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>17816</v>
+        <v>22073</v>
       </c>
       <c r="J18" t="n">
-        <v>19524</v>
+        <v>23928</v>
       </c>
       <c r="K18" t="n">
-        <v>96824</v>
+        <v>119718</v>
       </c>
       <c r="L18" t="n">
-        <v>24781.4779</v>
+        <v>32062.2059</v>
       </c>
       <c r="M18" t="n">
-        <v>5436.5436</v>
+        <v>6460.646</v>
       </c>
       <c r="N18" t="n">
-        <v>16980.6979</v>
+        <v>19537.9536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12291.229</v>
+        <v>15663.5662</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17817.7816</v>
+        <v>22075.2073</v>
       </c>
       <c r="S18" t="n">
-        <v>19525.9524</v>
+        <v>23930.3928</v>
       </c>
       <c r="T18" t="n">
-        <v>96833.68240000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24009</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5615</v>
-      </c>
-      <c r="E19" t="n">
-        <v>16812</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11736</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18047</v>
-      </c>
-      <c r="J19" t="n">
-        <v>19318</v>
-      </c>
-      <c r="K19" t="n">
-        <v>95537</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24011.4009</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5615.5615</v>
-      </c>
-      <c r="N19" t="n">
-        <v>16813.6812</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>11737.1736</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>18048.8047</v>
-      </c>
-      <c r="S19" t="n">
-        <v>19319.9318</v>
-      </c>
-      <c r="T19" t="n">
-        <v>95546.5537</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>24812</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17007</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10447</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>18641</v>
-      </c>
-      <c r="J20" t="n">
-        <v>19085</v>
-      </c>
-      <c r="K20" t="n">
-        <v>95992</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24814.4812</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6000.6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>17008.7007</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10448.0447</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>18642.8641</v>
-      </c>
-      <c r="S20" t="n">
-        <v>19086.9085</v>
-      </c>
-      <c r="T20" t="n">
-        <v>96001.5992</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24020</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6398</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16626</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9573</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19018</v>
-      </c>
-      <c r="J21" t="n">
-        <v>19270</v>
-      </c>
-      <c r="K21" t="n">
-        <v>94905</v>
-      </c>
-      <c r="L21" t="n">
-        <v>24022.402</v>
-      </c>
-      <c r="M21" t="n">
-        <v>6398.6398</v>
-      </c>
-      <c r="N21" t="n">
-        <v>16627.6626</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9573.9573</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>19019.9018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>19271.927</v>
-      </c>
-      <c r="T21" t="n">
-        <v>94914.4905</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>25195</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6942</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15289</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7644</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19786</v>
-      </c>
-      <c r="J22" t="n">
-        <v>19714</v>
-      </c>
-      <c r="K22" t="n">
-        <v>94570</v>
-      </c>
-      <c r="L22" t="n">
-        <v>25197.5195</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6942.6942</v>
-      </c>
-      <c r="N22" t="n">
-        <v>15290.5289</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>7644.7644</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>19787.9786</v>
-      </c>
-      <c r="S22" t="n">
-        <v>19715.9714</v>
-      </c>
-      <c r="T22" t="n">
-        <v>94579.45699999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>24740</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7130</v>
-      </c>
-      <c r="E23" t="n">
-        <v>13658</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6559</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>18287</v>
-      </c>
-      <c r="K23" t="n">
-        <v>70374</v>
-      </c>
-      <c r="L23" t="n">
-        <v>24742.474</v>
-      </c>
-      <c r="M23" t="n">
-        <v>7130.713</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13659.3658</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6559.6559</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>18288.8287</v>
-      </c>
-      <c r="T23" t="n">
-        <v>70381.0374</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2024-08-18</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>24089</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6900</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10700</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6082</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>47771</v>
-      </c>
-      <c r="L24" t="n">
-        <v>24091.4089</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6900.69</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10701.07</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>6082.6082</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>47775.7771</v>
+        <v>119729.9718</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1089 +538,833 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20907</v>
+        <v>22352</v>
       </c>
       <c r="D2" t="n">
-        <v>5839</v>
+        <v>6165</v>
       </c>
       <c r="E2" t="n">
-        <v>9492</v>
+        <v>9827</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5449</v>
+        <v>5789</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16888</v>
+        <v>18054</v>
       </c>
       <c r="J2" t="n">
-        <v>16234</v>
+        <v>17133</v>
       </c>
       <c r="K2" t="n">
-        <v>74809</v>
+        <v>79320</v>
       </c>
       <c r="L2" t="n">
-        <v>20909.0907</v>
+        <v>22354.2352</v>
       </c>
       <c r="M2" t="n">
-        <v>5839.5839</v>
+        <v>6165.6165</v>
       </c>
       <c r="N2" t="n">
-        <v>9492.949199999999</v>
+        <v>9827.9827</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5449.5449</v>
+        <v>5789.5789</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16889.6888</v>
+        <v>18055.8054</v>
       </c>
       <c r="S2" t="n">
-        <v>16235.6234</v>
+        <v>17134.7133</v>
       </c>
       <c r="T2" t="n">
-        <v>74816.4809</v>
+        <v>79327.932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20210</v>
+        <v>21201</v>
       </c>
       <c r="D3" t="n">
-        <v>5480</v>
+        <v>5946</v>
       </c>
       <c r="E3" t="n">
-        <v>9221</v>
+        <v>9407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5376</v>
+        <v>5371</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15991</v>
+        <v>16963</v>
       </c>
       <c r="J3" t="n">
-        <v>15594</v>
+        <v>16183</v>
       </c>
       <c r="K3" t="n">
-        <v>71872</v>
+        <v>75071</v>
       </c>
       <c r="L3" t="n">
-        <v>20212.021</v>
+        <v>21203.1201</v>
       </c>
       <c r="M3" t="n">
-        <v>5480.548</v>
+        <v>5946.5946</v>
       </c>
       <c r="N3" t="n">
-        <v>9221.9221</v>
+        <v>9407.940699999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5376.5376</v>
+        <v>5371.5371</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15992.5991</v>
+        <v>16964.6963</v>
       </c>
       <c r="S3" t="n">
-        <v>15595.5594</v>
+        <v>16184.6183</v>
       </c>
       <c r="T3" t="n">
-        <v>71879.1872</v>
+        <v>75078.5071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19177</v>
+        <v>20188</v>
       </c>
       <c r="D4" t="n">
-        <v>5245</v>
+        <v>5480</v>
       </c>
       <c r="E4" t="n">
-        <v>8867</v>
+        <v>9026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5192</v>
+        <v>5342</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15468</v>
+        <v>16145</v>
       </c>
       <c r="J4" t="n">
-        <v>14842</v>
+        <v>15654</v>
       </c>
       <c r="K4" t="n">
-        <v>68791</v>
+        <v>71835</v>
       </c>
       <c r="L4" t="n">
-        <v>19178.9177</v>
+        <v>20190.0188</v>
       </c>
       <c r="M4" t="n">
-        <v>5245.5245</v>
+        <v>5480.548</v>
       </c>
       <c r="N4" t="n">
-        <v>8867.886699999999</v>
+        <v>9026.902599999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5192.5192</v>
+        <v>5342.5342</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15469.5468</v>
+        <v>16146.6145</v>
       </c>
       <c r="S4" t="n">
-        <v>14843.4842</v>
+        <v>15655.5654</v>
       </c>
       <c r="T4" t="n">
-        <v>68797.87909999999</v>
+        <v>71842.18349999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18484</v>
+        <v>15677</v>
       </c>
       <c r="D5" t="n">
-        <v>5013</v>
+        <v>5456</v>
       </c>
       <c r="E5" t="n">
-        <v>8625</v>
+        <v>8822</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5123</v>
+        <v>5155</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14706</v>
+        <v>15524</v>
       </c>
       <c r="J5" t="n">
-        <v>14511</v>
+        <v>14849</v>
       </c>
       <c r="K5" t="n">
-        <v>66462</v>
+        <v>65483</v>
       </c>
       <c r="L5" t="n">
-        <v>18485.8484</v>
+        <v>15678.5677</v>
       </c>
       <c r="M5" t="n">
-        <v>5013.5013</v>
+        <v>5456.5456</v>
       </c>
       <c r="N5" t="n">
-        <v>8625.862499999999</v>
+        <v>8822.8822</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5123.5123</v>
+        <v>5155.5155</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14707.4706</v>
+        <v>15525.5524</v>
       </c>
       <c r="S5" t="n">
-        <v>14512.4511</v>
+        <v>14850.4849</v>
       </c>
       <c r="T5" t="n">
-        <v>66468.6462</v>
+        <v>65489.5483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18697</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5154</v>
+        <v>5385</v>
       </c>
       <c r="E6" t="n">
-        <v>8692</v>
+        <v>8673</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5234</v>
+        <v>5326</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14798</v>
+        <v>15357</v>
       </c>
       <c r="J6" t="n">
-        <v>14794</v>
+        <v>14949</v>
       </c>
       <c r="K6" t="n">
-        <v>67369</v>
+        <v>49690</v>
       </c>
       <c r="L6" t="n">
-        <v>18698.8697</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5154.5154</v>
+        <v>5385.5385</v>
       </c>
       <c r="N6" t="n">
-        <v>8692.869199999999</v>
+        <v>8673.8673</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5234.5234</v>
+        <v>5326.5326</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14799.4798</v>
+        <v>15358.5357</v>
       </c>
       <c r="S6" t="n">
-        <v>14795.4794</v>
+        <v>14950.4949</v>
       </c>
       <c r="T6" t="n">
-        <v>67375.7369</v>
+        <v>49694.969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19243</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5220</v>
+        <v>5027</v>
       </c>
       <c r="E7" t="n">
-        <v>9127</v>
+        <v>8523</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6179</v>
+        <v>5331</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15109</v>
+        <v>14517</v>
       </c>
       <c r="J7" t="n">
-        <v>15059</v>
+        <v>14378</v>
       </c>
       <c r="K7" t="n">
-        <v>69937</v>
+        <v>47776</v>
       </c>
       <c r="L7" t="n">
-        <v>19244.9243</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5220.522</v>
+        <v>5027.5027</v>
       </c>
       <c r="N7" t="n">
-        <v>9127.912700000001</v>
+        <v>8523.8523</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6179.6179</v>
+        <v>5331.5331</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15110.5109</v>
+        <v>14518.4517</v>
       </c>
       <c r="S7" t="n">
-        <v>15060.5059</v>
+        <v>14379.4378</v>
       </c>
       <c r="T7" t="n">
-        <v>69943.99369999999</v>
+        <v>47780.7776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18666</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4382</v>
+        <v>4518</v>
       </c>
       <c r="E8" t="n">
-        <v>9363</v>
+        <v>8849</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7021</v>
+        <v>6242</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15022</v>
+        <v>14152</v>
       </c>
       <c r="J8" t="n">
-        <v>15738</v>
+        <v>14790</v>
       </c>
       <c r="K8" t="n">
-        <v>70192</v>
+        <v>48551</v>
       </c>
       <c r="L8" t="n">
-        <v>18667.8666</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4382.4382</v>
+        <v>4518.4518</v>
       </c>
       <c r="N8" t="n">
-        <v>9363.936299999999</v>
+        <v>8849.884899999999</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7021.7021</v>
+        <v>6242.6242</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15023.5022</v>
+        <v>14153.4152</v>
       </c>
       <c r="S8" t="n">
-        <v>15739.5738</v>
+        <v>14791.479</v>
       </c>
       <c r="T8" t="n">
-        <v>70199.0192</v>
+        <v>48555.85509999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>23347</v>
+        <v>21431</v>
       </c>
       <c r="D9" t="n">
-        <v>4761</v>
+        <v>4708</v>
       </c>
       <c r="E9" t="n">
-        <v>11090</v>
+        <v>10701</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10036</v>
+        <v>8955</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18443</v>
+        <v>16026</v>
       </c>
       <c r="J9" t="n">
-        <v>17374</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>85051</v>
+        <v>61821</v>
       </c>
       <c r="L9" t="n">
-        <v>23349.3347</v>
+        <v>21433.1431</v>
       </c>
       <c r="M9" t="n">
-        <v>4761.4761</v>
+        <v>4708.4708</v>
       </c>
       <c r="N9" t="n">
-        <v>11091.109</v>
+        <v>10702.0701</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>10037.0036</v>
+        <v>8955.895500000001</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18444.8443</v>
+        <v>16027.6026</v>
       </c>
       <c r="S9" t="n">
-        <v>17375.7374</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>85059.50509999999</v>
+        <v>61827.1821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28043</v>
+        <v>27266</v>
       </c>
       <c r="D10" t="n">
-        <v>5796</v>
+        <v>5712</v>
       </c>
       <c r="E10" t="n">
-        <v>13736</v>
+        <v>13884</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13604</v>
+        <v>12015</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>20769</v>
+        <v>18800</v>
       </c>
       <c r="J10" t="n">
-        <v>20265</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102213</v>
+        <v>77677</v>
       </c>
       <c r="L10" t="n">
-        <v>28045.8043</v>
+        <v>27268.7266</v>
       </c>
       <c r="M10" t="n">
-        <v>5796.5796</v>
+        <v>5712.5712</v>
       </c>
       <c r="N10" t="n">
-        <v>13737.3736</v>
+        <v>13885.3884</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>13605.3604</v>
+        <v>12016.2015</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20771.0769</v>
+        <v>18801.88</v>
       </c>
       <c r="S10" t="n">
-        <v>20267.0265</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>102223.2213</v>
+        <v>77684.7677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>30538</v>
+        <v>29634</v>
       </c>
       <c r="D11" t="n">
-        <v>6049</v>
+        <v>6242</v>
       </c>
       <c r="E11" t="n">
-        <v>18839</v>
+        <v>18692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14788</v>
+        <v>14472</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20609</v>
+        <v>15662</v>
       </c>
       <c r="J11" t="n">
-        <v>22602</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>113425</v>
+        <v>84702</v>
       </c>
       <c r="L11" t="n">
-        <v>30541.0538</v>
+        <v>29636.9634</v>
       </c>
       <c r="M11" t="n">
-        <v>6049.6049</v>
+        <v>6242.6242</v>
       </c>
       <c r="N11" t="n">
-        <v>18840.8839</v>
+        <v>18693.8692</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14789.4788</v>
+        <v>14473.4472</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20611.0609</v>
+        <v>15663.5662</v>
       </c>
       <c r="S11" t="n">
-        <v>22604.2602</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>113436.3425</v>
+        <v>84710.4702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31861</v>
+        <v>31974</v>
       </c>
       <c r="D12" t="n">
-        <v>6290</v>
+        <v>6408</v>
       </c>
       <c r="E12" t="n">
-        <v>19940</v>
+        <v>19503</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15155</v>
+        <v>14676</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21410</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23333</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>117989</v>
+        <v>72561</v>
       </c>
       <c r="L12" t="n">
-        <v>31864.1861</v>
+        <v>31977.1974</v>
       </c>
       <c r="M12" t="n">
-        <v>6290.629</v>
+        <v>6408.6408</v>
       </c>
       <c r="N12" t="n">
-        <v>19941.994</v>
+        <v>19504.9503</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15156.5155</v>
+        <v>14677.4676</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21412.141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>23335.3333</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>118000.7989</v>
+        <v>72568.2561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>32092</v>
+        <v>32151</v>
       </c>
       <c r="D13" t="n">
-        <v>6456</v>
+        <v>6512</v>
       </c>
       <c r="E13" t="n">
-        <v>19717</v>
+        <v>20130</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14922</v>
+        <v>15222</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23281</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>118146</v>
+        <v>74015</v>
       </c>
       <c r="L13" t="n">
-        <v>32095.2092</v>
+        <v>32154.2151</v>
       </c>
       <c r="M13" t="n">
-        <v>6456.6456</v>
+        <v>6512.6512</v>
       </c>
       <c r="N13" t="n">
-        <v>19718.9717</v>
+        <v>20132.013</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14923.4922</v>
+        <v>15223.5222</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21680.1678</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23283.3281</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118157.8146</v>
+        <v>74022.40150000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>32314</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6460</v>
+        <v>6611</v>
       </c>
       <c r="E14" t="n">
-        <v>19682</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14955</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21774</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>22602</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>117787</v>
+        <v>6611</v>
       </c>
       <c r="L14" t="n">
-        <v>32317.2314</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>6460.646</v>
+        <v>6611.6611</v>
       </c>
       <c r="N14" t="n">
-        <v>19683.9682</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14956.4955</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21776.1774</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22604.2602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>117798.7787</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33791</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6915</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20452</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15451</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23049</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23474</v>
-      </c>
-      <c r="K15" t="n">
-        <v>123132</v>
-      </c>
-      <c r="L15" t="n">
-        <v>33794.3791</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6915.6915</v>
-      </c>
-      <c r="N15" t="n">
-        <v>20454.0452</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15452.5451</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>23051.3049</v>
-      </c>
-      <c r="S15" t="n">
-        <v>23476.3474</v>
-      </c>
-      <c r="T15" t="n">
-        <v>123144.3132</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34341</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6975</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20273</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15663</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23407</v>
-      </c>
-      <c r="J16" t="n">
-        <v>24511</v>
-      </c>
-      <c r="K16" t="n">
-        <v>125170</v>
-      </c>
-      <c r="L16" t="n">
-        <v>34344.4341</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6975.6975</v>
-      </c>
-      <c r="N16" t="n">
-        <v>20275.0273</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15664.5663</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>23409.3407</v>
-      </c>
-      <c r="S16" t="n">
-        <v>24513.4511</v>
-      </c>
-      <c r="T16" t="n">
-        <v>125182.517</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33690</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6793</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19948</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15841</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23193</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23978</v>
-      </c>
-      <c r="K17" t="n">
-        <v>123443</v>
-      </c>
-      <c r="L17" t="n">
-        <v>33693.369</v>
-      </c>
-      <c r="M17" t="n">
-        <v>6793.6793</v>
-      </c>
-      <c r="N17" t="n">
-        <v>19949.9948</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>15842.5841</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>23195.3193</v>
-      </c>
-      <c r="S17" t="n">
-        <v>23980.3978</v>
-      </c>
-      <c r="T17" t="n">
-        <v>123455.3443</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>32059</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6460</v>
-      </c>
-      <c r="E18" t="n">
-        <v>19536</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15662</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22073</v>
-      </c>
-      <c r="J18" t="n">
-        <v>23928</v>
-      </c>
-      <c r="K18" t="n">
-        <v>119718</v>
-      </c>
-      <c r="L18" t="n">
-        <v>32062.2059</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6460.646</v>
-      </c>
-      <c r="N18" t="n">
-        <v>19537.9536</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>15663.5662</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>22075.2073</v>
-      </c>
-      <c r="S18" t="n">
-        <v>23930.3928</v>
-      </c>
-      <c r="T18" t="n">
-        <v>119729.9718</v>
+        <v>6611.6611</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15677</v>
+        <v>19356</v>
       </c>
       <c r="D5" t="n">
         <v>5456</v>
@@ -761,10 +761,10 @@
         <v>14849</v>
       </c>
       <c r="K5" t="n">
-        <v>65483</v>
+        <v>69162</v>
       </c>
       <c r="L5" t="n">
-        <v>15678.5677</v>
+        <v>19357.9356</v>
       </c>
       <c r="M5" t="n">
         <v>5456.5456</v>
@@ -788,7 +788,7 @@
         <v>14850.4849</v>
       </c>
       <c r="T5" t="n">
-        <v>65489.5483</v>
+        <v>69168.91620000001</v>
       </c>
     </row>
     <row r="6">
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>19575</v>
       </c>
       <c r="D6" t="n">
         <v>5385</v>
@@ -825,10 +825,10 @@
         <v>14949</v>
       </c>
       <c r="K6" t="n">
-        <v>49690</v>
+        <v>69265</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>19576.9575</v>
       </c>
       <c r="M6" t="n">
         <v>5385.5385</v>
@@ -852,7 +852,7 @@
         <v>14950.4949</v>
       </c>
       <c r="T6" t="n">
-        <v>49694.969</v>
+        <v>69271.9265</v>
       </c>
     </row>
     <row r="7">
@@ -1014,10 +1014,10 @@
         <v>16026</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>16785</v>
       </c>
       <c r="K9" t="n">
-        <v>61821</v>
+        <v>78606</v>
       </c>
       <c r="L9" t="n">
         <v>21433.1431</v>
@@ -1041,10 +1041,10 @@
         <v>16027.6026</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>16786.6785</v>
       </c>
       <c r="T9" t="n">
-        <v>61827.1821</v>
+        <v>78613.8606</v>
       </c>
     </row>
     <row r="10">
@@ -1078,10 +1078,10 @@
         <v>18800</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>20012</v>
       </c>
       <c r="K10" t="n">
-        <v>77677</v>
+        <v>97689</v>
       </c>
       <c r="L10" t="n">
         <v>27268.7266</v>
@@ -1105,10 +1105,10 @@
         <v>18801.88</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>20014.0012</v>
       </c>
       <c r="T10" t="n">
-        <v>77684.7677</v>
+        <v>97698.7689</v>
       </c>
     </row>
     <row r="11">
@@ -1142,10 +1142,10 @@
         <v>15662</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>22182</v>
       </c>
       <c r="K11" t="n">
-        <v>84702</v>
+        <v>106884</v>
       </c>
       <c r="L11" t="n">
         <v>29636.9634</v>
@@ -1169,10 +1169,10 @@
         <v>15663.5662</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22184.2182</v>
       </c>
       <c r="T11" t="n">
-        <v>84710.4702</v>
+        <v>106894.6884</v>
       </c>
     </row>
     <row r="12">
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21544</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>22784</v>
       </c>
       <c r="K12" t="n">
-        <v>72561</v>
+        <v>116889</v>
       </c>
       <c r="L12" t="n">
         <v>31977.1974</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>21546.1544</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>22786.2784</v>
       </c>
       <c r="T12" t="n">
-        <v>72568.2561</v>
+        <v>116900.6889</v>
       </c>
     </row>
     <row r="13">
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21464</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>23180</v>
       </c>
       <c r="K13" t="n">
-        <v>74015</v>
+        <v>118659</v>
       </c>
       <c r="L13" t="n">
         <v>32154.2151</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21466.1464</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>23182.318</v>
       </c>
       <c r="T13" t="n">
-        <v>74022.40150000001</v>
+        <v>118670.8659</v>
       </c>
     </row>
     <row r="14">
@@ -1313,58 +1313,314 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32498</v>
       </c>
       <c r="D14" t="n">
         <v>6611</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>19770</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>19912</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>22035</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>23250</v>
       </c>
       <c r="K14" t="n">
-        <v>6611</v>
+        <v>124076</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>32501.2498</v>
       </c>
       <c r="M14" t="n">
         <v>6611.6611</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>19771.977</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>19913.9912</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22037.2035</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23252.325</v>
       </c>
       <c r="T14" t="n">
-        <v>6611.6611</v>
+        <v>124088.4076</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34483</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7104</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20167</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14904</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22352</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24600</v>
+      </c>
+      <c r="K15" t="n">
+        <v>123610</v>
+      </c>
+      <c r="L15" t="n">
+        <v>34486.4483</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7104.7104</v>
+      </c>
+      <c r="N15" t="n">
+        <v>20169.0167</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>14905.4904</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>22354.2352</v>
+      </c>
+      <c r="S15" t="n">
+        <v>24602.46</v>
+      </c>
+      <c r="T15" t="n">
+        <v>123622.361</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35244</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6931</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19964</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15724</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21076</v>
+      </c>
+      <c r="J16" t="n">
+        <v>24535</v>
+      </c>
+      <c r="K16" t="n">
+        <v>123474</v>
+      </c>
+      <c r="L16" t="n">
+        <v>35247.5244</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6931.6931</v>
+      </c>
+      <c r="N16" t="n">
+        <v>19965.9964</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>15725.5724</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21078.1076</v>
+      </c>
+      <c r="S16" t="n">
+        <v>24537.4535</v>
+      </c>
+      <c r="T16" t="n">
+        <v>123486.3474</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33699</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7172</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20050</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21603</v>
+      </c>
+      <c r="J17" t="n">
+        <v>24659</v>
+      </c>
+      <c r="K17" t="n">
+        <v>107183</v>
+      </c>
+      <c r="L17" t="n">
+        <v>33702.3699</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7172.7172</v>
+      </c>
+      <c r="N17" t="n">
+        <v>20052.005</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>21605.1603</v>
+      </c>
+      <c r="S17" t="n">
+        <v>24661.4659</v>
+      </c>
+      <c r="T17" t="n">
+        <v>107193.7183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32234</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6605</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19327</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20660</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23498</v>
+      </c>
+      <c r="K18" t="n">
+        <v>102324</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32237.2234</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6605.6605</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19328.9327</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>20662.066</v>
+      </c>
+      <c r="S18" t="n">
+        <v>23500.3498</v>
+      </c>
+      <c r="T18" t="n">
+        <v>102334.2324</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1089 +538,1537 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22352</v>
+        <v>20284</v>
       </c>
       <c r="D2" t="n">
-        <v>6165</v>
+        <v>5495</v>
       </c>
       <c r="E2" t="n">
-        <v>9827</v>
+        <v>8858</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5789</v>
+        <v>5765</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18054</v>
+        <v>16233</v>
       </c>
       <c r="J2" t="n">
-        <v>17133</v>
+        <v>18840</v>
       </c>
       <c r="K2" t="n">
-        <v>79320</v>
+        <v>75475</v>
       </c>
       <c r="L2" t="n">
-        <v>22354.2352</v>
+        <v>20286.0284</v>
       </c>
       <c r="M2" t="n">
-        <v>6165.6165</v>
+        <v>5495.5495</v>
       </c>
       <c r="N2" t="n">
-        <v>9827.9827</v>
+        <v>8858.8858</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5789.5789</v>
+        <v>5765.5765</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18055.8054</v>
+        <v>16234.6233</v>
       </c>
       <c r="S2" t="n">
-        <v>17134.7133</v>
+        <v>18841.884</v>
       </c>
       <c r="T2" t="n">
-        <v>79327.932</v>
+        <v>75482.5475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21201</v>
+        <v>19327</v>
       </c>
       <c r="D3" t="n">
-        <v>5946</v>
+        <v>5326</v>
       </c>
       <c r="E3" t="n">
-        <v>9407</v>
+        <v>8579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5371</v>
+        <v>5474</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16963</v>
+        <v>15525</v>
       </c>
       <c r="J3" t="n">
-        <v>16183</v>
+        <v>18044</v>
       </c>
       <c r="K3" t="n">
-        <v>75071</v>
+        <v>72275</v>
       </c>
       <c r="L3" t="n">
-        <v>21203.1201</v>
+        <v>19328.9327</v>
       </c>
       <c r="M3" t="n">
-        <v>5946.5946</v>
+        <v>5326.5326</v>
       </c>
       <c r="N3" t="n">
-        <v>9407.940699999999</v>
+        <v>8579.857899999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5371.5371</v>
+        <v>5474.5474</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16964.6963</v>
+        <v>15526.5525</v>
       </c>
       <c r="S3" t="n">
-        <v>16184.6183</v>
+        <v>18045.8044</v>
       </c>
       <c r="T3" t="n">
-        <v>75078.5071</v>
+        <v>72282.22750000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20188</v>
+        <v>18874</v>
       </c>
       <c r="D4" t="n">
-        <v>5480</v>
+        <v>5074</v>
       </c>
       <c r="E4" t="n">
-        <v>9026</v>
+        <v>8222</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5342</v>
+        <v>5207</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16145</v>
+        <v>14915</v>
       </c>
       <c r="J4" t="n">
-        <v>15654</v>
+        <v>17246</v>
       </c>
       <c r="K4" t="n">
-        <v>71835</v>
+        <v>69538</v>
       </c>
       <c r="L4" t="n">
-        <v>20190.0188</v>
+        <v>18875.8874</v>
       </c>
       <c r="M4" t="n">
-        <v>5480.548</v>
+        <v>5074.5074</v>
       </c>
       <c r="N4" t="n">
-        <v>9026.902599999999</v>
+        <v>8222.822200000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5342.5342</v>
+        <v>5207.5207</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16146.6145</v>
+        <v>14916.4915</v>
       </c>
       <c r="S4" t="n">
-        <v>15655.5654</v>
+        <v>17247.7246</v>
       </c>
       <c r="T4" t="n">
-        <v>71842.18349999998</v>
+        <v>69544.9538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19356</v>
+        <v>18116</v>
       </c>
       <c r="D5" t="n">
-        <v>5456</v>
+        <v>4898</v>
       </c>
       <c r="E5" t="n">
-        <v>8822</v>
+        <v>8096</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5155</v>
+        <v>5122</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15524</v>
+        <v>14250</v>
       </c>
       <c r="J5" t="n">
-        <v>14849</v>
+        <v>16693</v>
       </c>
       <c r="K5" t="n">
-        <v>69162</v>
+        <v>67175</v>
       </c>
       <c r="L5" t="n">
-        <v>19357.9356</v>
+        <v>18117.8116</v>
       </c>
       <c r="M5" t="n">
-        <v>5456.5456</v>
+        <v>4898.4898</v>
       </c>
       <c r="N5" t="n">
-        <v>8822.8822</v>
+        <v>8096.8096</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5155.5155</v>
+        <v>5122.5122</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15525.5524</v>
+        <v>14251.425</v>
       </c>
       <c r="S5" t="n">
-        <v>14850.4849</v>
+        <v>16694.6693</v>
       </c>
       <c r="T5" t="n">
-        <v>69168.91620000001</v>
+        <v>67181.7175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19575</v>
+        <v>17627</v>
       </c>
       <c r="D6" t="n">
-        <v>5385</v>
+        <v>4776</v>
       </c>
       <c r="E6" t="n">
-        <v>8673</v>
+        <v>7886</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5326</v>
+        <v>5127</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15357</v>
+        <v>13758</v>
       </c>
       <c r="J6" t="n">
-        <v>14949</v>
+        <v>16379</v>
       </c>
       <c r="K6" t="n">
-        <v>69265</v>
+        <v>65553</v>
       </c>
       <c r="L6" t="n">
-        <v>19576.9575</v>
+        <v>17628.7627</v>
       </c>
       <c r="M6" t="n">
-        <v>5385.5385</v>
+        <v>4776.4776</v>
       </c>
       <c r="N6" t="n">
-        <v>8673.8673</v>
+        <v>7886.7886</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5326.5326</v>
+        <v>5127.5127</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15358.5357</v>
+        <v>13759.3758</v>
       </c>
       <c r="S6" t="n">
-        <v>14950.4949</v>
+        <v>16380.6379</v>
       </c>
       <c r="T6" t="n">
-        <v>69271.9265</v>
+        <v>65559.55529999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>16811</v>
       </c>
       <c r="D7" t="n">
-        <v>5027</v>
+        <v>4689</v>
       </c>
       <c r="E7" t="n">
-        <v>8523</v>
+        <v>8073</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5331</v>
+        <v>4835</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14517</v>
+        <v>13050</v>
       </c>
       <c r="J7" t="n">
-        <v>14378</v>
+        <v>16006</v>
       </c>
       <c r="K7" t="n">
-        <v>47776</v>
+        <v>63464</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>16812.6811</v>
       </c>
       <c r="M7" t="n">
-        <v>5027.5027</v>
+        <v>4689.4689</v>
       </c>
       <c r="N7" t="n">
-        <v>8523.8523</v>
+        <v>8073.807299999999</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5331.5331</v>
+        <v>4835.4835</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14518.4517</v>
+        <v>13051.305</v>
       </c>
       <c r="S7" t="n">
-        <v>14379.4378</v>
+        <v>16007.6006</v>
       </c>
       <c r="T7" t="n">
-        <v>47780.7776</v>
+        <v>63470.3464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>16357</v>
       </c>
       <c r="D8" t="n">
-        <v>4518</v>
+        <v>4335</v>
       </c>
       <c r="E8" t="n">
-        <v>8849</v>
+        <v>7818</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6242</v>
+        <v>5775</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14152</v>
+        <v>12831</v>
       </c>
       <c r="J8" t="n">
-        <v>14790</v>
+        <v>15655</v>
       </c>
       <c r="K8" t="n">
-        <v>48551</v>
+        <v>62771</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16358.6357</v>
       </c>
       <c r="M8" t="n">
-        <v>4518.4518</v>
+        <v>4335.4335</v>
       </c>
       <c r="N8" t="n">
-        <v>8849.884899999999</v>
+        <v>7818.7818</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6242.6242</v>
+        <v>5775.5775</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14153.4152</v>
+        <v>12832.2831</v>
       </c>
       <c r="S8" t="n">
-        <v>14791.479</v>
+        <v>15656.5655</v>
       </c>
       <c r="T8" t="n">
-        <v>48555.85509999999</v>
+        <v>62777.27710000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21431</v>
+        <v>17026</v>
       </c>
       <c r="D9" t="n">
-        <v>4708</v>
+        <v>4359</v>
       </c>
       <c r="E9" t="n">
-        <v>10701</v>
+        <v>8307</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8955</v>
+        <v>6977</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16026</v>
+        <v>13632</v>
       </c>
       <c r="J9" t="n">
-        <v>16785</v>
+        <v>17084</v>
       </c>
       <c r="K9" t="n">
-        <v>78606</v>
+        <v>67385</v>
       </c>
       <c r="L9" t="n">
-        <v>21433.1431</v>
+        <v>17027.7026</v>
       </c>
       <c r="M9" t="n">
-        <v>4708.4708</v>
+        <v>4359.4359</v>
       </c>
       <c r="N9" t="n">
-        <v>10702.0701</v>
+        <v>8307.8307</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8955.895500000001</v>
+        <v>6977.6977</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16027.6026</v>
+        <v>13633.3632</v>
       </c>
       <c r="S9" t="n">
-        <v>16786.6785</v>
+        <v>17085.7084</v>
       </c>
       <c r="T9" t="n">
-        <v>78613.8606</v>
+        <v>67391.73849999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>27266</v>
+        <v>18871</v>
       </c>
       <c r="D10" t="n">
-        <v>5712</v>
+        <v>4658</v>
       </c>
       <c r="E10" t="n">
-        <v>13884</v>
+        <v>9495</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12015</v>
+        <v>8340</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18800</v>
+        <v>13826</v>
       </c>
       <c r="J10" t="n">
-        <v>20012</v>
+        <v>17727</v>
       </c>
       <c r="K10" t="n">
-        <v>97689</v>
+        <v>72917</v>
       </c>
       <c r="L10" t="n">
-        <v>27268.7266</v>
+        <v>18872.8871</v>
       </c>
       <c r="M10" t="n">
-        <v>5712.5712</v>
+        <v>4658.4658</v>
       </c>
       <c r="N10" t="n">
-        <v>13885.3884</v>
+        <v>9495.949500000001</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12016.2015</v>
+        <v>8340.834000000001</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18801.88</v>
+        <v>13827.3826</v>
       </c>
       <c r="S10" t="n">
-        <v>20014.0012</v>
+        <v>17728.7727</v>
       </c>
       <c r="T10" t="n">
-        <v>97698.7689</v>
+        <v>72924.2917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>29634</v>
+        <v>20240</v>
       </c>
       <c r="D11" t="n">
-        <v>6242</v>
+        <v>4854</v>
       </c>
       <c r="E11" t="n">
-        <v>18692</v>
+        <v>13611</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14472</v>
+        <v>10149</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>15662</v>
+        <v>14094</v>
       </c>
       <c r="J11" t="n">
-        <v>22182</v>
+        <v>20362</v>
       </c>
       <c r="K11" t="n">
-        <v>106884</v>
+        <v>83310</v>
       </c>
       <c r="L11" t="n">
-        <v>29636.9634</v>
+        <v>20242.024</v>
       </c>
       <c r="M11" t="n">
-        <v>6242.6242</v>
+        <v>4854.4854</v>
       </c>
       <c r="N11" t="n">
-        <v>18693.8692</v>
+        <v>13612.3611</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14473.4472</v>
+        <v>10150.0149</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>15663.5662</v>
+        <v>14095.4094</v>
       </c>
       <c r="S11" t="n">
-        <v>22184.2182</v>
+        <v>20364.0362</v>
       </c>
       <c r="T11" t="n">
-        <v>106894.6884</v>
+        <v>83318.33100000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31974</v>
+        <v>20713</v>
       </c>
       <c r="D12" t="n">
-        <v>6408</v>
+        <v>4751</v>
       </c>
       <c r="E12" t="n">
-        <v>19503</v>
+        <v>14520</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14676</v>
+        <v>10121</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21544</v>
+        <v>14588</v>
       </c>
       <c r="J12" t="n">
-        <v>22784</v>
+        <v>20070</v>
       </c>
       <c r="K12" t="n">
-        <v>116889</v>
+        <v>84763</v>
       </c>
       <c r="L12" t="n">
-        <v>31977.1974</v>
+        <v>20715.0713</v>
       </c>
       <c r="M12" t="n">
-        <v>6408.6408</v>
+        <v>4751.4751</v>
       </c>
       <c r="N12" t="n">
-        <v>19504.9503</v>
+        <v>14521.452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14677.4676</v>
+        <v>10122.0121</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21546.1544</v>
+        <v>14589.4588</v>
       </c>
       <c r="S12" t="n">
-        <v>22786.2784</v>
+        <v>20072.007</v>
       </c>
       <c r="T12" t="n">
-        <v>116900.6889</v>
+        <v>84771.47629999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>32151</v>
+        <v>21668</v>
       </c>
       <c r="D13" t="n">
-        <v>6512</v>
+        <v>4954</v>
       </c>
       <c r="E13" t="n">
-        <v>20130</v>
+        <v>15140</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15222</v>
+        <v>11124</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21464</v>
+        <v>15250</v>
       </c>
       <c r="J13" t="n">
-        <v>23180</v>
+        <v>19893</v>
       </c>
       <c r="K13" t="n">
-        <v>118659</v>
+        <v>88029</v>
       </c>
       <c r="L13" t="n">
-        <v>32154.2151</v>
+        <v>21670.1668</v>
       </c>
       <c r="M13" t="n">
-        <v>6512.6512</v>
+        <v>4954.4954</v>
       </c>
       <c r="N13" t="n">
-        <v>20132.013</v>
+        <v>15141.514</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>15223.5222</v>
+        <v>11125.1124</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21466.1464</v>
+        <v>15251.525</v>
       </c>
       <c r="S13" t="n">
-        <v>23182.318</v>
+        <v>19894.9893</v>
       </c>
       <c r="T13" t="n">
-        <v>118670.8659</v>
+        <v>88037.8029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>32498</v>
+        <v>20482</v>
       </c>
       <c r="D14" t="n">
-        <v>6611</v>
+        <v>4716</v>
       </c>
       <c r="E14" t="n">
-        <v>19770</v>
+        <v>14899</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>19912</v>
+        <v>10394</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22035</v>
+        <v>14223</v>
       </c>
       <c r="J14" t="n">
-        <v>23250</v>
+        <v>19594</v>
       </c>
       <c r="K14" t="n">
-        <v>124076</v>
+        <v>84308</v>
       </c>
       <c r="L14" t="n">
-        <v>32501.2498</v>
+        <v>20484.0482</v>
       </c>
       <c r="M14" t="n">
-        <v>6611.6611</v>
+        <v>4716.4716</v>
       </c>
       <c r="N14" t="n">
-        <v>19771.977</v>
+        <v>14900.4899</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19913.9912</v>
+        <v>10395.0394</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22037.2035</v>
+        <v>14224.4223</v>
       </c>
       <c r="S14" t="n">
-        <v>23252.325</v>
+        <v>19595.9594</v>
       </c>
       <c r="T14" t="n">
-        <v>124088.4076</v>
+        <v>84316.4308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>34483</v>
+        <v>21814</v>
       </c>
       <c r="D15" t="n">
-        <v>7104</v>
+        <v>4965</v>
       </c>
       <c r="E15" t="n">
-        <v>20167</v>
+        <v>15376</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14904</v>
+        <v>11188</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22352</v>
+        <v>15034</v>
       </c>
       <c r="J15" t="n">
-        <v>24600</v>
+        <v>20182</v>
       </c>
       <c r="K15" t="n">
-        <v>123610</v>
+        <v>88559</v>
       </c>
       <c r="L15" t="n">
-        <v>34486.4483</v>
+        <v>21816.1814</v>
       </c>
       <c r="M15" t="n">
-        <v>7104.7104</v>
+        <v>4965.4965</v>
       </c>
       <c r="N15" t="n">
-        <v>20169.0167</v>
+        <v>15377.5376</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14905.4904</v>
+        <v>11189.1188</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22354.2352</v>
+        <v>15035.5034</v>
       </c>
       <c r="S15" t="n">
-        <v>24602.46</v>
+        <v>20184.0182</v>
       </c>
       <c r="T15" t="n">
-        <v>123622.361</v>
+        <v>88567.8559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>35244</v>
+        <v>20751</v>
       </c>
       <c r="D16" t="n">
-        <v>6931</v>
+        <v>4727</v>
       </c>
       <c r="E16" t="n">
-        <v>19964</v>
+        <v>14894</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15724</v>
+        <v>10953</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21076</v>
+        <v>14665</v>
       </c>
       <c r="J16" t="n">
-        <v>24535</v>
+        <v>20031</v>
       </c>
       <c r="K16" t="n">
-        <v>123474</v>
+        <v>86021</v>
       </c>
       <c r="L16" t="n">
-        <v>35247.5244</v>
+        <v>20753.0751</v>
       </c>
       <c r="M16" t="n">
-        <v>6931.6931</v>
+        <v>4727.4727</v>
       </c>
       <c r="N16" t="n">
-        <v>19965.9964</v>
+        <v>14895.4894</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15725.5724</v>
+        <v>10954.0953</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21078.1076</v>
+        <v>14666.4665</v>
       </c>
       <c r="S16" t="n">
-        <v>24537.4535</v>
+        <v>20033.0031</v>
       </c>
       <c r="T16" t="n">
-        <v>123486.3474</v>
+        <v>86029.6021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>33699</v>
+        <v>20781</v>
       </c>
       <c r="D17" t="n">
-        <v>7172</v>
+        <v>4699</v>
       </c>
       <c r="E17" t="n">
-        <v>20050</v>
+        <v>14778</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11073</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21603</v>
+        <v>14488</v>
       </c>
       <c r="J17" t="n">
-        <v>24659</v>
+        <v>19735</v>
       </c>
       <c r="K17" t="n">
-        <v>107183</v>
+        <v>85554</v>
       </c>
       <c r="L17" t="n">
-        <v>33702.3699</v>
+        <v>20783.0781</v>
       </c>
       <c r="M17" t="n">
-        <v>7172.7172</v>
+        <v>4699.4699</v>
       </c>
       <c r="N17" t="n">
-        <v>20052.005</v>
+        <v>14779.4778</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>11074.1073</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21605.1603</v>
+        <v>14489.4488</v>
       </c>
       <c r="S17" t="n">
-        <v>24661.4659</v>
+        <v>19736.9735</v>
       </c>
       <c r="T17" t="n">
-        <v>107193.7183</v>
+        <v>85562.55540000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>32234</v>
+        <v>20696</v>
       </c>
       <c r="D18" t="n">
-        <v>6605</v>
+        <v>4535</v>
       </c>
       <c r="E18" t="n">
-        <v>19327</v>
+        <v>14703</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>10882</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20660</v>
+        <v>14574</v>
       </c>
       <c r="J18" t="n">
-        <v>23498</v>
+        <v>19755</v>
       </c>
       <c r="K18" t="n">
-        <v>102324</v>
+        <v>85145</v>
       </c>
       <c r="L18" t="n">
-        <v>32237.2234</v>
+        <v>20698.0696</v>
       </c>
       <c r="M18" t="n">
-        <v>6605.6605</v>
+        <v>4535.4535</v>
       </c>
       <c r="N18" t="n">
-        <v>19328.9327</v>
+        <v>14704.4703</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>10883.0882</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20662.066</v>
+        <v>14575.4574</v>
       </c>
       <c r="S18" t="n">
-        <v>23500.3498</v>
+        <v>19756.9755</v>
       </c>
       <c r="T18" t="n">
-        <v>102334.2324</v>
+        <v>85153.51449999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21587</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4971</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15038</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11174</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15454</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20780</v>
+      </c>
+      <c r="K19" t="n">
+        <v>89004</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21589.1587</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4971.4971</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15039.5038</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11175.1174</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15455.5454</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20782.078</v>
+      </c>
+      <c r="T19" t="n">
+        <v>89012.90040000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5435</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15277</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9929</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16235</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21335</v>
+      </c>
+      <c r="K20" t="n">
+        <v>91099</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22890.2888</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5435.5435</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15278.5277</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9929.992899999999</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>16236.6235</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21337.1335</v>
+      </c>
+      <c r="T20" t="n">
+        <v>91108.1099</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21761</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5437</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15044</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9007</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16059</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21578</v>
+      </c>
+      <c r="K21" t="n">
+        <v>88886</v>
+      </c>
+      <c r="L21" t="n">
+        <v>21763.1761</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5437.5437</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15045.5044</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9007.9007</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16060.6059</v>
+      </c>
+      <c r="S21" t="n">
+        <v>21580.1578</v>
+      </c>
+      <c r="T21" t="n">
+        <v>88894.88859999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21109</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5639</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13939</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7190</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15859</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20717</v>
+      </c>
+      <c r="K22" t="n">
+        <v>84453</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21111.1109</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5639.5639</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13940.3939</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7190.719</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>15860.5859</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20719.0717</v>
+      </c>
+      <c r="T22" t="n">
+        <v>84461.44529999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19975</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5628</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11521</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6350</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15508</v>
+      </c>
+      <c r="J23" t="n">
+        <v>19320</v>
+      </c>
+      <c r="K23" t="n">
+        <v>78302</v>
+      </c>
+      <c r="L23" t="n">
+        <v>19976.9975</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5628.5628</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11522.1521</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6350.635</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>15509.5508</v>
+      </c>
+      <c r="S23" t="n">
+        <v>19321.932</v>
+      </c>
+      <c r="T23" t="n">
+        <v>78309.8302</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19706</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5478</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8880</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5808</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15550</v>
+      </c>
+      <c r="J24" t="n">
+        <v>18557</v>
+      </c>
+      <c r="K24" t="n">
+        <v>73979</v>
+      </c>
+      <c r="L24" t="n">
+        <v>19707.9706</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5478.5478</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8880.887999999999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5808.5808</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15551.555</v>
+      </c>
+      <c r="S24" t="n">
+        <v>18558.8557</v>
+      </c>
+      <c r="T24" t="n">
+        <v>73986.39790000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9899</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5302</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8320</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5212</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14863</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>43596</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9899.9899</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5302.5302</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8320.832</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5212.5212</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>14864.4863</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>43600.3596</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1537 +538,1409 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20284</v>
+        <v>18148</v>
       </c>
       <c r="D2" t="n">
-        <v>5495</v>
+        <v>5013</v>
       </c>
       <c r="E2" t="n">
-        <v>8858</v>
+        <v>7958</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5765</v>
+        <v>4984</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16233</v>
+        <v>14297</v>
       </c>
       <c r="J2" t="n">
-        <v>18840</v>
+        <v>16678</v>
       </c>
       <c r="K2" t="n">
-        <v>75475</v>
+        <v>67078</v>
       </c>
       <c r="L2" t="n">
-        <v>20286.0284</v>
+        <v>18149.8148</v>
       </c>
       <c r="M2" t="n">
-        <v>5495.5495</v>
+        <v>5013.5013</v>
       </c>
       <c r="N2" t="n">
-        <v>8858.8858</v>
+        <v>7958.7958</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5765.5765</v>
+        <v>4984.4984</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16234.6233</v>
+        <v>14298.4297</v>
       </c>
       <c r="S2" t="n">
-        <v>18841.884</v>
+        <v>16679.6678</v>
       </c>
       <c r="T2" t="n">
-        <v>75482.5475</v>
+        <v>67084.7078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19327</v>
+        <v>17375</v>
       </c>
       <c r="D3" t="n">
-        <v>5326</v>
+        <v>4797</v>
       </c>
       <c r="E3" t="n">
-        <v>8579</v>
+        <v>7728</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5474</v>
+        <v>4748</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15525</v>
+        <v>13616</v>
       </c>
       <c r="J3" t="n">
-        <v>18044</v>
+        <v>15936</v>
       </c>
       <c r="K3" t="n">
-        <v>72275</v>
+        <v>64200</v>
       </c>
       <c r="L3" t="n">
-        <v>19328.9327</v>
+        <v>17376.7375</v>
       </c>
       <c r="M3" t="n">
-        <v>5326.5326</v>
+        <v>4797.4797</v>
       </c>
       <c r="N3" t="n">
-        <v>8579.857899999999</v>
+        <v>7728.7728</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5474.5474</v>
+        <v>4748.4748</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15526.5525</v>
+        <v>13617.3616</v>
       </c>
       <c r="S3" t="n">
-        <v>18045.8044</v>
+        <v>15937.5936</v>
       </c>
       <c r="T3" t="n">
-        <v>72282.22750000001</v>
+        <v>64206.42000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18874</v>
+        <v>16822</v>
       </c>
       <c r="D4" t="n">
-        <v>5074</v>
+        <v>4584</v>
       </c>
       <c r="E4" t="n">
-        <v>8222</v>
+        <v>7428</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5207</v>
+        <v>4502</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14915</v>
+        <v>13232</v>
       </c>
       <c r="J4" t="n">
-        <v>17246</v>
+        <v>15680</v>
       </c>
       <c r="K4" t="n">
-        <v>69538</v>
+        <v>62248</v>
       </c>
       <c r="L4" t="n">
-        <v>18875.8874</v>
+        <v>16823.6822</v>
       </c>
       <c r="M4" t="n">
-        <v>5074.5074</v>
+        <v>4584.4584</v>
       </c>
       <c r="N4" t="n">
-        <v>8222.822200000001</v>
+        <v>7428.7428</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5207.5207</v>
+        <v>4502.4502</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14916.4915</v>
+        <v>13233.3232</v>
       </c>
       <c r="S4" t="n">
-        <v>17247.7246</v>
+        <v>15681.568</v>
       </c>
       <c r="T4" t="n">
-        <v>69544.9538</v>
+        <v>62254.2248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18116</v>
+        <v>16579</v>
       </c>
       <c r="D5" t="n">
-        <v>4898</v>
+        <v>4396</v>
       </c>
       <c r="E5" t="n">
-        <v>8096</v>
+        <v>7259</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5122</v>
+        <v>4383</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14250</v>
+        <v>12882</v>
       </c>
       <c r="J5" t="n">
-        <v>16693</v>
+        <v>15362</v>
       </c>
       <c r="K5" t="n">
-        <v>67175</v>
+        <v>60861</v>
       </c>
       <c r="L5" t="n">
-        <v>18117.8116</v>
+        <v>16580.6579</v>
       </c>
       <c r="M5" t="n">
-        <v>4898.4898</v>
+        <v>4396.4396</v>
       </c>
       <c r="N5" t="n">
-        <v>8096.8096</v>
+        <v>7259.7259</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5122.5122</v>
+        <v>4383.4383</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14251.425</v>
+        <v>12883.2882</v>
       </c>
       <c r="S5" t="n">
-        <v>16694.6693</v>
+        <v>15363.5362</v>
       </c>
       <c r="T5" t="n">
-        <v>67181.7175</v>
+        <v>60867.0861</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17627</v>
+        <v>15577</v>
       </c>
       <c r="D6" t="n">
-        <v>4776</v>
+        <v>4250</v>
       </c>
       <c r="E6" t="n">
-        <v>7886</v>
+        <v>6977</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5127</v>
+        <v>4401</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13758</v>
+        <v>12395</v>
       </c>
       <c r="J6" t="n">
-        <v>16379</v>
+        <v>12382</v>
       </c>
       <c r="K6" t="n">
-        <v>65553</v>
+        <v>55982</v>
       </c>
       <c r="L6" t="n">
-        <v>17628.7627</v>
+        <v>15578.5577</v>
       </c>
       <c r="M6" t="n">
-        <v>4776.4776</v>
+        <v>4250.425</v>
       </c>
       <c r="N6" t="n">
-        <v>7886.7886</v>
+        <v>6977.6977</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5127.5127</v>
+        <v>4401.4401</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13759.3758</v>
+        <v>12396.2395</v>
       </c>
       <c r="S6" t="n">
-        <v>16380.6379</v>
+        <v>12383.2382</v>
       </c>
       <c r="T6" t="n">
-        <v>65559.55529999999</v>
+        <v>55987.5982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>16811</v>
+        <v>15611</v>
       </c>
       <c r="D7" t="n">
-        <v>4689</v>
+        <v>4397</v>
       </c>
       <c r="E7" t="n">
-        <v>8073</v>
+        <v>7385</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4835</v>
+        <v>5670</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13050</v>
+        <v>12616</v>
       </c>
       <c r="J7" t="n">
-        <v>16006</v>
+        <v>15421</v>
       </c>
       <c r="K7" t="n">
-        <v>63464</v>
+        <v>61100</v>
       </c>
       <c r="L7" t="n">
-        <v>16812.6811</v>
+        <v>15612.5611</v>
       </c>
       <c r="M7" t="n">
-        <v>4689.4689</v>
+        <v>4397.4397</v>
       </c>
       <c r="N7" t="n">
-        <v>8073.807299999999</v>
+        <v>7385.738499999999</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4835.4835</v>
+        <v>5670.567</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13051.305</v>
+        <v>12617.2616</v>
       </c>
       <c r="S7" t="n">
-        <v>16007.6006</v>
+        <v>15422.5421</v>
       </c>
       <c r="T7" t="n">
-        <v>63470.3464</v>
+        <v>61106.10999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>16357</v>
+        <v>16020</v>
       </c>
       <c r="D8" t="n">
-        <v>4335</v>
+        <v>4271</v>
       </c>
       <c r="E8" t="n">
-        <v>7818</v>
+        <v>7385</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5775</v>
+        <v>5686</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12831</v>
+        <v>12482</v>
       </c>
       <c r="J8" t="n">
-        <v>15655</v>
+        <v>15607</v>
       </c>
       <c r="K8" t="n">
-        <v>62771</v>
+        <v>61451</v>
       </c>
       <c r="L8" t="n">
-        <v>16358.6357</v>
+        <v>16021.602</v>
       </c>
       <c r="M8" t="n">
-        <v>4335.4335</v>
+        <v>4271.4271</v>
       </c>
       <c r="N8" t="n">
-        <v>7818.7818</v>
+        <v>7385.738499999999</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5775.5775</v>
+        <v>5686.5686</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>12832.2831</v>
+        <v>12483.2482</v>
       </c>
       <c r="S8" t="n">
-        <v>15656.5655</v>
+        <v>15608.5607</v>
       </c>
       <c r="T8" t="n">
-        <v>62777.27710000001</v>
+        <v>61457.1451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>17026</v>
+        <v>16988</v>
       </c>
       <c r="D9" t="n">
-        <v>4359</v>
+        <v>4260</v>
       </c>
       <c r="E9" t="n">
-        <v>8307</v>
+        <v>8239</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6977</v>
+        <v>6936</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13632</v>
+        <v>13203</v>
       </c>
       <c r="J9" t="n">
-        <v>17084</v>
+        <v>16325</v>
       </c>
       <c r="K9" t="n">
-        <v>67385</v>
+        <v>65951</v>
       </c>
       <c r="L9" t="n">
-        <v>17027.7026</v>
+        <v>16989.6988</v>
       </c>
       <c r="M9" t="n">
-        <v>4359.4359</v>
+        <v>4260.426</v>
       </c>
       <c r="N9" t="n">
-        <v>8307.8307</v>
+        <v>8239.823899999999</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6977.6977</v>
+        <v>6936.6936</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13633.3632</v>
+        <v>13204.3203</v>
       </c>
       <c r="S9" t="n">
-        <v>17085.7084</v>
+        <v>16326.6325</v>
       </c>
       <c r="T9" t="n">
-        <v>67391.73849999999</v>
+        <v>65957.59510000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>18871</v>
+        <v>19790</v>
       </c>
       <c r="D10" t="n">
-        <v>4658</v>
+        <v>4612</v>
       </c>
       <c r="E10" t="n">
-        <v>9495</v>
+        <v>9278</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8340</v>
+        <v>9860</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13826</v>
+        <v>14140</v>
       </c>
       <c r="J10" t="n">
-        <v>17727</v>
+        <v>17366</v>
       </c>
       <c r="K10" t="n">
-        <v>72917</v>
+        <v>75046</v>
       </c>
       <c r="L10" t="n">
-        <v>18872.8871</v>
+        <v>19791.979</v>
       </c>
       <c r="M10" t="n">
-        <v>4658.4658</v>
+        <v>4612.4612</v>
       </c>
       <c r="N10" t="n">
-        <v>9495.949500000001</v>
+        <v>9278.927799999999</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>8340.834000000001</v>
+        <v>9860.986000000001</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13827.3826</v>
+        <v>14141.414</v>
       </c>
       <c r="S10" t="n">
-        <v>17728.7727</v>
+        <v>17367.7366</v>
       </c>
       <c r="T10" t="n">
-        <v>72924.2917</v>
+        <v>75053.5046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>20240</v>
+        <v>21261</v>
       </c>
       <c r="D11" t="n">
-        <v>4854</v>
+        <v>4869</v>
       </c>
       <c r="E11" t="n">
-        <v>13611</v>
+        <v>13801</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10149</v>
+        <v>11159</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14094</v>
+        <v>14370</v>
       </c>
       <c r="J11" t="n">
-        <v>20362</v>
+        <v>19318</v>
       </c>
       <c r="K11" t="n">
-        <v>83310</v>
+        <v>84778</v>
       </c>
       <c r="L11" t="n">
-        <v>20242.024</v>
+        <v>21263.1261</v>
       </c>
       <c r="M11" t="n">
-        <v>4854.4854</v>
+        <v>4869.4869</v>
       </c>
       <c r="N11" t="n">
-        <v>13612.3611</v>
+        <v>13802.3801</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10150.0149</v>
+        <v>11160.1159</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14095.4094</v>
+        <v>14371.437</v>
       </c>
       <c r="S11" t="n">
-        <v>20364.0362</v>
+        <v>19319.9318</v>
       </c>
       <c r="T11" t="n">
-        <v>83318.33100000001</v>
+        <v>84786.47779999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>20713</v>
+        <v>22199</v>
       </c>
       <c r="D12" t="n">
-        <v>4751</v>
+        <v>4892</v>
       </c>
       <c r="E12" t="n">
-        <v>14520</v>
+        <v>15033</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10121</v>
+        <v>11092</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14588</v>
+        <v>14718</v>
       </c>
       <c r="J12" t="n">
-        <v>20070</v>
+        <v>19703</v>
       </c>
       <c r="K12" t="n">
-        <v>84763</v>
+        <v>87637</v>
       </c>
       <c r="L12" t="n">
-        <v>20715.0713</v>
+        <v>22201.2199</v>
       </c>
       <c r="M12" t="n">
-        <v>4751.4751</v>
+        <v>4892.4892</v>
       </c>
       <c r="N12" t="n">
-        <v>14521.452</v>
+        <v>15034.5033</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>10122.0121</v>
+        <v>11093.1092</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14589.4588</v>
+        <v>14719.4718</v>
       </c>
       <c r="S12" t="n">
-        <v>20072.007</v>
+        <v>19704.9703</v>
       </c>
       <c r="T12" t="n">
-        <v>84771.47629999999</v>
+        <v>87645.7637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>21668</v>
+        <v>22248</v>
       </c>
       <c r="D13" t="n">
-        <v>4954</v>
+        <v>4873</v>
       </c>
       <c r="E13" t="n">
-        <v>15140</v>
+        <v>14907</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11124</v>
+        <v>10994</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>15250</v>
+        <v>14717</v>
       </c>
       <c r="J13" t="n">
-        <v>19893</v>
+        <v>20471</v>
       </c>
       <c r="K13" t="n">
-        <v>88029</v>
+        <v>88210</v>
       </c>
       <c r="L13" t="n">
-        <v>21670.1668</v>
+        <v>22250.2248</v>
       </c>
       <c r="M13" t="n">
-        <v>4954.4954</v>
+        <v>4873.4873</v>
       </c>
       <c r="N13" t="n">
-        <v>15141.514</v>
+        <v>14908.4907</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11125.1124</v>
+        <v>10995.0994</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15251.525</v>
+        <v>14718.4717</v>
       </c>
       <c r="S13" t="n">
-        <v>19894.9893</v>
+        <v>20473.0471</v>
       </c>
       <c r="T13" t="n">
-        <v>88037.8029</v>
+        <v>88218.821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>20482</v>
+        <v>22944</v>
       </c>
       <c r="D14" t="n">
-        <v>4716</v>
+        <v>5049</v>
       </c>
       <c r="E14" t="n">
-        <v>14899</v>
+        <v>15548</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10394</v>
+        <v>11421</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14223</v>
+        <v>15162</v>
       </c>
       <c r="J14" t="n">
-        <v>19594</v>
+        <v>20714</v>
       </c>
       <c r="K14" t="n">
-        <v>84308</v>
+        <v>90838</v>
       </c>
       <c r="L14" t="n">
-        <v>20484.0482</v>
+        <v>22946.2944</v>
       </c>
       <c r="M14" t="n">
-        <v>4716.4716</v>
+        <v>5049.5049</v>
       </c>
       <c r="N14" t="n">
-        <v>14900.4899</v>
+        <v>15549.5548</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10395.0394</v>
+        <v>11422.1421</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14224.4223</v>
+        <v>15163.5162</v>
       </c>
       <c r="S14" t="n">
-        <v>19595.9594</v>
+        <v>20716.0714</v>
       </c>
       <c r="T14" t="n">
-        <v>84316.4308</v>
+        <v>90847.08379999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>21814</v>
+        <v>24471</v>
       </c>
       <c r="D15" t="n">
-        <v>4965</v>
+        <v>5352</v>
       </c>
       <c r="E15" t="n">
-        <v>15376</v>
+        <v>15845</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11188</v>
+        <v>11549</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15034</v>
+        <v>16302</v>
       </c>
       <c r="J15" t="n">
-        <v>20182</v>
+        <v>20633</v>
       </c>
       <c r="K15" t="n">
-        <v>88559</v>
+        <v>94152</v>
       </c>
       <c r="L15" t="n">
-        <v>21816.1814</v>
+        <v>24473.4471</v>
       </c>
       <c r="M15" t="n">
-        <v>4965.4965</v>
+        <v>5352.5352</v>
       </c>
       <c r="N15" t="n">
-        <v>15377.5376</v>
+        <v>15846.5845</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>11189.1188</v>
+        <v>11550.1549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15035.5034</v>
+        <v>16303.6302</v>
       </c>
       <c r="S15" t="n">
-        <v>20184.0182</v>
+        <v>20635.0633</v>
       </c>
       <c r="T15" t="n">
-        <v>88567.8559</v>
+        <v>94161.4152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>20751</v>
+        <v>24747</v>
       </c>
       <c r="D16" t="n">
-        <v>4727</v>
+        <v>5407</v>
       </c>
       <c r="E16" t="n">
-        <v>14894</v>
+        <v>15815</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10953</v>
+        <v>11862</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14665</v>
+        <v>16649</v>
       </c>
       <c r="J16" t="n">
-        <v>20031</v>
+        <v>21771</v>
       </c>
       <c r="K16" t="n">
-        <v>86021</v>
+        <v>96251</v>
       </c>
       <c r="L16" t="n">
-        <v>20753.0751</v>
+        <v>24749.4747</v>
       </c>
       <c r="M16" t="n">
-        <v>4727.4727</v>
+        <v>5407.5407</v>
       </c>
       <c r="N16" t="n">
-        <v>14895.4894</v>
+        <v>15816.5815</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>10954.0953</v>
+        <v>11863.1862</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14666.4665</v>
+        <v>16650.6649</v>
       </c>
       <c r="S16" t="n">
-        <v>20033.0031</v>
+        <v>21773.1771</v>
       </c>
       <c r="T16" t="n">
-        <v>86029.6021</v>
+        <v>96260.6251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>20781</v>
+        <v>24703</v>
       </c>
       <c r="D17" t="n">
-        <v>4699</v>
+        <v>5287</v>
       </c>
       <c r="E17" t="n">
-        <v>14778</v>
+        <v>16306</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11073</v>
+        <v>12376</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>14488</v>
+        <v>16744</v>
       </c>
       <c r="J17" t="n">
-        <v>19735</v>
+        <v>21567</v>
       </c>
       <c r="K17" t="n">
-        <v>85554</v>
+        <v>96983</v>
       </c>
       <c r="L17" t="n">
-        <v>20783.0781</v>
+        <v>24705.4703</v>
       </c>
       <c r="M17" t="n">
-        <v>4699.4699</v>
+        <v>5287.5287</v>
       </c>
       <c r="N17" t="n">
-        <v>14779.4778</v>
+        <v>16307.6306</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>11074.1073</v>
+        <v>12377.2376</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14489.4488</v>
+        <v>16745.6744</v>
       </c>
       <c r="S17" t="n">
-        <v>19736.9735</v>
+        <v>21569.1567</v>
       </c>
       <c r="T17" t="n">
-        <v>85562.55540000001</v>
+        <v>96992.6983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>20696</v>
+        <v>23538</v>
       </c>
       <c r="D18" t="n">
-        <v>4535</v>
+        <v>5351</v>
       </c>
       <c r="E18" t="n">
-        <v>14703</v>
+        <v>16087</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>10882</v>
+        <v>12215</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14574</v>
+        <v>16349</v>
       </c>
       <c r="J18" t="n">
-        <v>19755</v>
+        <v>21614</v>
       </c>
       <c r="K18" t="n">
-        <v>85145</v>
+        <v>95154</v>
       </c>
       <c r="L18" t="n">
-        <v>20698.0696</v>
+        <v>23540.3538</v>
       </c>
       <c r="M18" t="n">
-        <v>4535.4535</v>
+        <v>5351.5351</v>
       </c>
       <c r="N18" t="n">
-        <v>14704.4703</v>
+        <v>16088.6087</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>10883.0882</v>
+        <v>12216.2215</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14575.4574</v>
+        <v>16350.6349</v>
       </c>
       <c r="S18" t="n">
-        <v>19756.9755</v>
+        <v>21616.1614</v>
       </c>
       <c r="T18" t="n">
-        <v>85153.51449999999</v>
+        <v>95163.5154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>21587</v>
+        <v>23895</v>
       </c>
       <c r="D19" t="n">
-        <v>4971</v>
+        <v>5781</v>
       </c>
       <c r="E19" t="n">
-        <v>15038</v>
+        <v>16357</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11174</v>
+        <v>11666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>15454</v>
+        <v>17329</v>
       </c>
       <c r="J19" t="n">
-        <v>20780</v>
+        <v>23270</v>
       </c>
       <c r="K19" t="n">
-        <v>89004</v>
+        <v>98298</v>
       </c>
       <c r="L19" t="n">
-        <v>21589.1587</v>
+        <v>23897.3895</v>
       </c>
       <c r="M19" t="n">
-        <v>4971.4971</v>
+        <v>5781.5781</v>
       </c>
       <c r="N19" t="n">
-        <v>15039.5038</v>
+        <v>16358.6357</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11175.1174</v>
+        <v>11667.1666</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15455.5454</v>
+        <v>17330.7329</v>
       </c>
       <c r="S19" t="n">
-        <v>20782.078</v>
+        <v>23272.327</v>
       </c>
       <c r="T19" t="n">
-        <v>89012.90040000001</v>
+        <v>98307.82980000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>22888</v>
+        <v>23809</v>
       </c>
       <c r="D20" t="n">
-        <v>5435</v>
+        <v>5456</v>
       </c>
       <c r="E20" t="n">
-        <v>15277</v>
+        <v>16036</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9929</v>
+        <v>9969</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>16235</v>
+        <v>17035</v>
       </c>
       <c r="J20" t="n">
-        <v>21335</v>
+        <v>22115</v>
       </c>
       <c r="K20" t="n">
-        <v>91099</v>
+        <v>94420</v>
       </c>
       <c r="L20" t="n">
-        <v>22890.2888</v>
+        <v>23811.3809</v>
       </c>
       <c r="M20" t="n">
-        <v>5435.5435</v>
+        <v>5456.5456</v>
       </c>
       <c r="N20" t="n">
-        <v>15278.5277</v>
+        <v>16037.6036</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>9929.992899999999</v>
+        <v>9969.9969</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>16236.6235</v>
+        <v>17036.7035</v>
       </c>
       <c r="S20" t="n">
-        <v>21337.1335</v>
+        <v>22117.2115</v>
       </c>
       <c r="T20" t="n">
-        <v>91108.1099</v>
+        <v>94429.442</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>21761</v>
+        <v>24882</v>
       </c>
       <c r="D21" t="n">
-        <v>5437</v>
+        <v>5677</v>
       </c>
       <c r="E21" t="n">
-        <v>15044</v>
+        <v>14651</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>9007</v>
+        <v>9222</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16059</v>
+        <v>16464</v>
       </c>
       <c r="J21" t="n">
-        <v>21578</v>
+        <v>21960</v>
       </c>
       <c r="K21" t="n">
-        <v>88886</v>
+        <v>92856</v>
       </c>
       <c r="L21" t="n">
-        <v>21763.1761</v>
+        <v>24884.4882</v>
       </c>
       <c r="M21" t="n">
-        <v>5437.5437</v>
+        <v>5677.5677</v>
       </c>
       <c r="N21" t="n">
-        <v>15045.5044</v>
+        <v>14652.4651</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>9007.9007</v>
+        <v>9222.922200000001</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>16060.6059</v>
+        <v>16465.6464</v>
       </c>
       <c r="S21" t="n">
-        <v>21580.1578</v>
+        <v>21962.196</v>
       </c>
       <c r="T21" t="n">
-        <v>88894.88859999999</v>
+        <v>92865.2856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>21109</v>
+        <v>21729</v>
       </c>
       <c r="D22" t="n">
-        <v>5639</v>
+        <v>5878</v>
       </c>
       <c r="E22" t="n">
-        <v>13939</v>
+        <v>14335</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7190</v>
+        <v>7473</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15859</v>
+        <v>17395</v>
       </c>
       <c r="J22" t="n">
-        <v>20717</v>
+        <v>22155</v>
       </c>
       <c r="K22" t="n">
-        <v>84453</v>
+        <v>88965</v>
       </c>
       <c r="L22" t="n">
-        <v>21111.1109</v>
+        <v>21731.1729</v>
       </c>
       <c r="M22" t="n">
-        <v>5639.5639</v>
+        <v>5878.5878</v>
       </c>
       <c r="N22" t="n">
-        <v>13940.3939</v>
+        <v>14336.4335</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7190.719</v>
+        <v>7473.7473</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15860.5859</v>
+        <v>17396.7395</v>
       </c>
       <c r="S22" t="n">
-        <v>20719.0717</v>
+        <v>22157.2155</v>
       </c>
       <c r="T22" t="n">
-        <v>84461.44529999999</v>
+        <v>88973.8965</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>19975</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5628</v>
+        <v>5913</v>
       </c>
       <c r="E23" t="n">
-        <v>11521</v>
+        <v>12704</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6350</v>
+        <v>6531</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>15508</v>
+        <v>17414</v>
       </c>
       <c r="J23" t="n">
-        <v>19320</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>78302</v>
+        <v>42562</v>
       </c>
       <c r="L23" t="n">
-        <v>19976.9975</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5628.5628</v>
+        <v>5913.5913</v>
       </c>
       <c r="N23" t="n">
-        <v>11522.1521</v>
+        <v>12705.2704</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>6350.635</v>
+        <v>6531.6531</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>15509.5508</v>
+        <v>17415.7414</v>
       </c>
       <c r="S23" t="n">
-        <v>19321.932</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>78309.8302</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2024-08-25</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>19706</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5478</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8880</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5808</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15550</v>
-      </c>
-      <c r="J24" t="n">
-        <v>18557</v>
-      </c>
-      <c r="K24" t="n">
-        <v>73979</v>
-      </c>
-      <c r="L24" t="n">
-        <v>19707.9706</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5478.5478</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8880.887999999999</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5808.5808</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>15551.555</v>
-      </c>
-      <c r="S24" t="n">
-        <v>18558.8557</v>
-      </c>
-      <c r="T24" t="n">
-        <v>73986.39790000001</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2024-08-25</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9899</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5302</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8320</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5212</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14863</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>43596</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9899.9899</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5302.5302</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8320.832</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5212.5212</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>14864.4863</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>43600.3596</v>
+        <v>42566.2562</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1409 +538,1153 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18148</v>
+        <v>18849</v>
       </c>
       <c r="D2" t="n">
-        <v>5013</v>
+        <v>4993</v>
       </c>
       <c r="E2" t="n">
-        <v>7958</v>
+        <v>8809</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4984</v>
+        <v>5861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14297</v>
+        <v>14991</v>
       </c>
       <c r="J2" t="n">
-        <v>16678</v>
+        <v>18553</v>
       </c>
       <c r="K2" t="n">
-        <v>67078</v>
+        <v>72056</v>
       </c>
       <c r="L2" t="n">
-        <v>18149.8148</v>
+        <v>18850.8849</v>
       </c>
       <c r="M2" t="n">
-        <v>5013.5013</v>
+        <v>4993.4993</v>
       </c>
       <c r="N2" t="n">
-        <v>7958.7958</v>
+        <v>8809.8809</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4984.4984</v>
+        <v>5861.5861</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14298.4297</v>
+        <v>14992.4991</v>
       </c>
       <c r="S2" t="n">
-        <v>16679.6678</v>
+        <v>18554.8553</v>
       </c>
       <c r="T2" t="n">
-        <v>67084.7078</v>
+        <v>72063.2056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17375</v>
+        <v>18175</v>
       </c>
       <c r="D3" t="n">
-        <v>4797</v>
+        <v>4852</v>
       </c>
       <c r="E3" t="n">
-        <v>7728</v>
+        <v>8549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4748</v>
+        <v>5503</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13616</v>
+        <v>14425</v>
       </c>
       <c r="J3" t="n">
-        <v>15936</v>
+        <v>17804</v>
       </c>
       <c r="K3" t="n">
-        <v>64200</v>
+        <v>69308</v>
       </c>
       <c r="L3" t="n">
-        <v>17376.7375</v>
+        <v>18176.8175</v>
       </c>
       <c r="M3" t="n">
-        <v>4797.4797</v>
+        <v>4852.4852</v>
       </c>
       <c r="N3" t="n">
-        <v>7728.7728</v>
+        <v>8549.8549</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4748.4748</v>
+        <v>5503.5503</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13617.3616</v>
+        <v>14426.4425</v>
       </c>
       <c r="S3" t="n">
-        <v>15937.5936</v>
+        <v>17805.7804</v>
       </c>
       <c r="T3" t="n">
-        <v>64206.42000000001</v>
+        <v>69314.9308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16822</v>
+        <v>17755</v>
       </c>
       <c r="D4" t="n">
-        <v>4584</v>
+        <v>4595</v>
       </c>
       <c r="E4" t="n">
-        <v>7428</v>
+        <v>8260</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4502</v>
+        <v>5166</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13232</v>
+        <v>12730</v>
       </c>
       <c r="J4" t="n">
-        <v>15680</v>
+        <v>17106</v>
       </c>
       <c r="K4" t="n">
-        <v>62248</v>
+        <v>65612</v>
       </c>
       <c r="L4" t="n">
-        <v>16823.6822</v>
+        <v>17756.7755</v>
       </c>
       <c r="M4" t="n">
-        <v>4584.4584</v>
+        <v>4595.4595</v>
       </c>
       <c r="N4" t="n">
-        <v>7428.7428</v>
+        <v>8260.825999999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4502.4502</v>
+        <v>5166.5166</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13233.3232</v>
+        <v>12731.273</v>
       </c>
       <c r="S4" t="n">
-        <v>15681.568</v>
+        <v>17107.7106</v>
       </c>
       <c r="T4" t="n">
-        <v>62254.2248</v>
+        <v>65618.5612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16579</v>
+        <v>16961</v>
       </c>
       <c r="D5" t="n">
-        <v>4396</v>
+        <v>4508</v>
       </c>
       <c r="E5" t="n">
-        <v>7259</v>
+        <v>8095</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4383</v>
+        <v>5128</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12882</v>
+        <v>13244</v>
       </c>
       <c r="J5" t="n">
-        <v>15362</v>
+        <v>16333</v>
       </c>
       <c r="K5" t="n">
-        <v>60861</v>
+        <v>64269</v>
       </c>
       <c r="L5" t="n">
-        <v>16580.6579</v>
+        <v>16962.6961</v>
       </c>
       <c r="M5" t="n">
-        <v>4396.4396</v>
+        <v>4508.4508</v>
       </c>
       <c r="N5" t="n">
-        <v>7259.7259</v>
+        <v>8095.8095</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4383.4383</v>
+        <v>5128.5128</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>12883.2882</v>
+        <v>13245.3244</v>
       </c>
       <c r="S5" t="n">
-        <v>15363.5362</v>
+        <v>16334.6333</v>
       </c>
       <c r="T5" t="n">
-        <v>60867.0861</v>
+        <v>64275.4269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15577</v>
+        <v>17567</v>
       </c>
       <c r="D6" t="n">
-        <v>4250</v>
+        <v>4568</v>
       </c>
       <c r="E6" t="n">
-        <v>6977</v>
+        <v>8089</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4401</v>
+        <v>5068</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>12395</v>
+        <v>12963</v>
       </c>
       <c r="J6" t="n">
-        <v>12382</v>
+        <v>16881</v>
       </c>
       <c r="K6" t="n">
-        <v>55982</v>
+        <v>65136</v>
       </c>
       <c r="L6" t="n">
-        <v>15578.5577</v>
+        <v>17568.7567</v>
       </c>
       <c r="M6" t="n">
-        <v>4250.425</v>
+        <v>4568.4568</v>
       </c>
       <c r="N6" t="n">
-        <v>6977.6977</v>
+        <v>8089.8089</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4401.4401</v>
+        <v>5068.5068</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12396.2395</v>
+        <v>12964.2963</v>
       </c>
       <c r="S6" t="n">
-        <v>12383.2382</v>
+        <v>16882.6881</v>
       </c>
       <c r="T6" t="n">
-        <v>55987.5982</v>
+        <v>65142.5136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15611</v>
+        <v>18504</v>
       </c>
       <c r="D7" t="n">
-        <v>4397</v>
+        <v>5079</v>
       </c>
       <c r="E7" t="n">
-        <v>7385</v>
+        <v>8845</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5670</v>
+        <v>6427</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>12616</v>
+        <v>14292</v>
       </c>
       <c r="J7" t="n">
-        <v>15421</v>
+        <v>17918</v>
       </c>
       <c r="K7" t="n">
-        <v>61100</v>
+        <v>71065</v>
       </c>
       <c r="L7" t="n">
-        <v>15612.5611</v>
+        <v>18505.8504</v>
       </c>
       <c r="M7" t="n">
-        <v>4397.4397</v>
+        <v>5079.5079</v>
       </c>
       <c r="N7" t="n">
-        <v>7385.738499999999</v>
+        <v>8845.8845</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5670.567</v>
+        <v>6427.6427</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12617.2616</v>
+        <v>14293.4292</v>
       </c>
       <c r="S7" t="n">
-        <v>15422.5421</v>
+        <v>17919.7918</v>
       </c>
       <c r="T7" t="n">
-        <v>61106.10999999999</v>
+        <v>71072.10649999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>16020</v>
+        <v>18075</v>
       </c>
       <c r="D8" t="n">
-        <v>4271</v>
+        <v>4252</v>
       </c>
       <c r="E8" t="n">
-        <v>7385</v>
+        <v>9078</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5686</v>
+        <v>7144</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12482</v>
+        <v>14101</v>
       </c>
       <c r="J8" t="n">
-        <v>15607</v>
+        <v>17399</v>
       </c>
       <c r="K8" t="n">
-        <v>61451</v>
+        <v>70049</v>
       </c>
       <c r="L8" t="n">
-        <v>16021.602</v>
+        <v>18076.8075</v>
       </c>
       <c r="M8" t="n">
-        <v>4271.4271</v>
+        <v>4252.4252</v>
       </c>
       <c r="N8" t="n">
-        <v>7385.738499999999</v>
+        <v>9078.907800000001</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5686.5686</v>
+        <v>7144.7144</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>12483.2482</v>
+        <v>14102.4101</v>
       </c>
       <c r="S8" t="n">
-        <v>15608.5607</v>
+        <v>17400.7399</v>
       </c>
       <c r="T8" t="n">
-        <v>61457.1451</v>
+        <v>70056.0049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>16988</v>
+        <v>20157</v>
       </c>
       <c r="D9" t="n">
-        <v>4260</v>
+        <v>4483</v>
       </c>
       <c r="E9" t="n">
-        <v>8239</v>
+        <v>10453</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6936</v>
+        <v>9822</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13203</v>
+        <v>16102</v>
       </c>
       <c r="J9" t="n">
-        <v>16325</v>
+        <v>19467</v>
       </c>
       <c r="K9" t="n">
-        <v>65951</v>
+        <v>80484</v>
       </c>
       <c r="L9" t="n">
-        <v>16989.6988</v>
+        <v>20159.0157</v>
       </c>
       <c r="M9" t="n">
-        <v>4260.426</v>
+        <v>4483.4483</v>
       </c>
       <c r="N9" t="n">
-        <v>8239.823899999999</v>
+        <v>10454.0453</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6936.6936</v>
+        <v>9822.9822</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13204.3203</v>
+        <v>16103.6102</v>
       </c>
       <c r="S9" t="n">
-        <v>16326.6325</v>
+        <v>19468.9467</v>
       </c>
       <c r="T9" t="n">
-        <v>65957.59510000001</v>
+        <v>80492.0484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>19790</v>
+        <v>25877</v>
       </c>
       <c r="D10" t="n">
-        <v>4612</v>
+        <v>4973</v>
       </c>
       <c r="E10" t="n">
-        <v>9278</v>
+        <v>12810</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9860</v>
+        <v>12116</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14140</v>
+        <v>17894</v>
       </c>
       <c r="J10" t="n">
-        <v>17366</v>
+        <v>21055</v>
       </c>
       <c r="K10" t="n">
-        <v>75046</v>
+        <v>94725</v>
       </c>
       <c r="L10" t="n">
-        <v>19791.979</v>
+        <v>25879.5877</v>
       </c>
       <c r="M10" t="n">
-        <v>4612.4612</v>
+        <v>4973.4973</v>
       </c>
       <c r="N10" t="n">
-        <v>9278.927799999999</v>
+        <v>12811.281</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9860.986000000001</v>
+        <v>12117.2116</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>14141.414</v>
+        <v>17895.7894</v>
       </c>
       <c r="S10" t="n">
-        <v>17367.7366</v>
+        <v>21057.1055</v>
       </c>
       <c r="T10" t="n">
-        <v>75053.5046</v>
+        <v>94734.4725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>21261</v>
+        <v>27231</v>
       </c>
       <c r="D11" t="n">
-        <v>4869</v>
+        <v>5261</v>
       </c>
       <c r="E11" t="n">
-        <v>13801</v>
+        <v>16678</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11159</v>
+        <v>13582</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14370</v>
+        <v>18314</v>
       </c>
       <c r="J11" t="n">
-        <v>19318</v>
+        <v>23057</v>
       </c>
       <c r="K11" t="n">
-        <v>84778</v>
+        <v>104123</v>
       </c>
       <c r="L11" t="n">
-        <v>21263.1261</v>
+        <v>27233.7231</v>
       </c>
       <c r="M11" t="n">
-        <v>4869.4869</v>
+        <v>5261.5261</v>
       </c>
       <c r="N11" t="n">
-        <v>13802.3801</v>
+        <v>16679.6678</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>11160.1159</v>
+        <v>13583.3582</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14371.437</v>
+        <v>18315.8314</v>
       </c>
       <c r="S11" t="n">
-        <v>19319.9318</v>
+        <v>23059.3057</v>
       </c>
       <c r="T11" t="n">
-        <v>84786.47779999999</v>
+        <v>104133.4123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>22199</v>
+        <v>28382</v>
       </c>
       <c r="D12" t="n">
-        <v>4892</v>
+        <v>5591</v>
       </c>
       <c r="E12" t="n">
-        <v>15033</v>
+        <v>17993</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>11092</v>
+        <v>14269</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14718</v>
+        <v>19673</v>
       </c>
       <c r="J12" t="n">
-        <v>19703</v>
+        <v>24404</v>
       </c>
       <c r="K12" t="n">
-        <v>87637</v>
+        <v>110312</v>
       </c>
       <c r="L12" t="n">
-        <v>22201.2199</v>
+        <v>28384.8382</v>
       </c>
       <c r="M12" t="n">
-        <v>4892.4892</v>
+        <v>5591.5591</v>
       </c>
       <c r="N12" t="n">
-        <v>15034.5033</v>
+        <v>17994.7993</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>11093.1092</v>
+        <v>14270.4269</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14719.4718</v>
+        <v>19674.9673</v>
       </c>
       <c r="S12" t="n">
-        <v>19704.9703</v>
+        <v>24406.4404</v>
       </c>
       <c r="T12" t="n">
-        <v>87645.7637</v>
+        <v>110323.0312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>22248</v>
+        <v>29040</v>
       </c>
       <c r="D13" t="n">
-        <v>4873</v>
+        <v>5776</v>
       </c>
       <c r="E13" t="n">
-        <v>14907</v>
+        <v>18247</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10994</v>
+        <v>14444</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14717</v>
+        <v>19647</v>
       </c>
       <c r="J13" t="n">
-        <v>20471</v>
+        <v>24167</v>
       </c>
       <c r="K13" t="n">
-        <v>88210</v>
+        <v>111321</v>
       </c>
       <c r="L13" t="n">
-        <v>22250.2248</v>
+        <v>29042.904</v>
       </c>
       <c r="M13" t="n">
-        <v>4873.4873</v>
+        <v>5776.5776</v>
       </c>
       <c r="N13" t="n">
-        <v>14908.4907</v>
+        <v>18248.8247</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>10995.0994</v>
+        <v>14445.4444</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>14718.4717</v>
+        <v>19648.9647</v>
       </c>
       <c r="S13" t="n">
-        <v>20473.0471</v>
+        <v>24169.4167</v>
       </c>
       <c r="T13" t="n">
-        <v>88218.821</v>
+        <v>111332.1321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>22944</v>
+        <v>27988</v>
       </c>
       <c r="D14" t="n">
-        <v>5049</v>
+        <v>5392</v>
       </c>
       <c r="E14" t="n">
-        <v>15548</v>
+        <v>18188</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11421</v>
+        <v>14483</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>15162</v>
+        <v>18997</v>
       </c>
       <c r="J14" t="n">
-        <v>20714</v>
+        <v>24211</v>
       </c>
       <c r="K14" t="n">
-        <v>90838</v>
+        <v>109259</v>
       </c>
       <c r="L14" t="n">
-        <v>22946.2944</v>
+        <v>27990.7988</v>
       </c>
       <c r="M14" t="n">
-        <v>5049.5049</v>
+        <v>5392.5392</v>
       </c>
       <c r="N14" t="n">
-        <v>15549.5548</v>
+        <v>18189.8188</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>11422.1421</v>
+        <v>14484.4483</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15163.5162</v>
+        <v>18998.8997</v>
       </c>
       <c r="S14" t="n">
-        <v>20716.0714</v>
+        <v>24213.4211</v>
       </c>
       <c r="T14" t="n">
-        <v>90847.08379999999</v>
+        <v>109269.9259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>24471</v>
+        <v>29908</v>
       </c>
       <c r="D15" t="n">
-        <v>5352</v>
+        <v>5917</v>
       </c>
       <c r="E15" t="n">
-        <v>15845</v>
+        <v>18554</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11549</v>
+        <v>14599</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16302</v>
+        <v>20353</v>
       </c>
       <c r="J15" t="n">
-        <v>20633</v>
+        <v>24098</v>
       </c>
       <c r="K15" t="n">
-        <v>94152</v>
+        <v>113429</v>
       </c>
       <c r="L15" t="n">
-        <v>24473.4471</v>
+        <v>29910.9908</v>
       </c>
       <c r="M15" t="n">
-        <v>5352.5352</v>
+        <v>5917.5917</v>
       </c>
       <c r="N15" t="n">
-        <v>15846.5845</v>
+        <v>18555.8554</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>11550.1549</v>
+        <v>14600.4599</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>16303.6302</v>
+        <v>20355.0353</v>
       </c>
       <c r="S15" t="n">
-        <v>20635.0633</v>
+        <v>24100.4098</v>
       </c>
       <c r="T15" t="n">
-        <v>94161.4152</v>
+        <v>113440.3429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>24747</v>
+        <v>29842</v>
       </c>
       <c r="D16" t="n">
-        <v>5407</v>
+        <v>5948</v>
       </c>
       <c r="E16" t="n">
-        <v>15815</v>
+        <v>18693</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11862</v>
+        <v>14775</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16649</v>
+        <v>20463</v>
       </c>
       <c r="J16" t="n">
-        <v>21771</v>
+        <v>24821</v>
       </c>
       <c r="K16" t="n">
-        <v>96251</v>
+        <v>114542</v>
       </c>
       <c r="L16" t="n">
-        <v>24749.4747</v>
+        <v>29844.9842</v>
       </c>
       <c r="M16" t="n">
-        <v>5407.5407</v>
+        <v>5948.5948</v>
       </c>
       <c r="N16" t="n">
-        <v>15816.5815</v>
+        <v>18694.8693</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11863.1862</v>
+        <v>14776.4775</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16650.6649</v>
+        <v>20465.0463</v>
       </c>
       <c r="S16" t="n">
-        <v>21773.1771</v>
+        <v>24823.4821</v>
       </c>
       <c r="T16" t="n">
-        <v>96260.6251</v>
+        <v>114553.4542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>24703</v>
+        <v>29762</v>
       </c>
       <c r="D17" t="n">
-        <v>5287</v>
+        <v>5863</v>
       </c>
       <c r="E17" t="n">
-        <v>16306</v>
+        <v>18487</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12376</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>16744</v>
+        <v>20385</v>
       </c>
       <c r="J17" t="n">
-        <v>21567</v>
+        <v>24929</v>
       </c>
       <c r="K17" t="n">
-        <v>96983</v>
+        <v>99426</v>
       </c>
       <c r="L17" t="n">
-        <v>24705.4703</v>
+        <v>29764.9762</v>
       </c>
       <c r="M17" t="n">
-        <v>5287.5287</v>
+        <v>5863.5863</v>
       </c>
       <c r="N17" t="n">
-        <v>16307.6306</v>
+        <v>18488.8487</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>12377.2376</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16745.6744</v>
+        <v>20387.0385</v>
       </c>
       <c r="S17" t="n">
-        <v>21569.1567</v>
+        <v>24931.4929</v>
       </c>
       <c r="T17" t="n">
-        <v>96992.6983</v>
+        <v>99435.94259999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>23538</v>
+        <v>28165</v>
       </c>
       <c r="D18" t="n">
-        <v>5351</v>
+        <v>4335</v>
       </c>
       <c r="E18" t="n">
-        <v>16087</v>
+        <v>17581</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16349</v>
+        <v>18760</v>
       </c>
       <c r="J18" t="n">
-        <v>21614</v>
+        <v>23636</v>
       </c>
       <c r="K18" t="n">
-        <v>95154</v>
+        <v>92477</v>
       </c>
       <c r="L18" t="n">
-        <v>23540.3538</v>
+        <v>28167.8165</v>
       </c>
       <c r="M18" t="n">
-        <v>5351.5351</v>
+        <v>4335.4335</v>
       </c>
       <c r="N18" t="n">
-        <v>16088.6087</v>
+        <v>17582.7581</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12216.2215</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>16350.6349</v>
+        <v>18761.876</v>
       </c>
       <c r="S18" t="n">
-        <v>21616.1614</v>
+        <v>23638.3636</v>
       </c>
       <c r="T18" t="n">
-        <v>95163.5154</v>
+        <v>92486.24770000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>23895</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5781</v>
+        <v>1237</v>
       </c>
       <c r="E19" t="n">
-        <v>16357</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11666</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>17329</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23270</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>98298</v>
+        <v>1237</v>
       </c>
       <c r="L19" t="n">
-        <v>23897.3895</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5781.5781</v>
+        <v>1237.1237</v>
       </c>
       <c r="N19" t="n">
-        <v>16358.6357</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11667.1666</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17330.7329</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>23272.327</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>98307.82980000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23809</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5456</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16036</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9969</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17035</v>
-      </c>
-      <c r="J20" t="n">
-        <v>22115</v>
-      </c>
-      <c r="K20" t="n">
-        <v>94420</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23811.3809</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5456.5456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>16037.6036</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9969.9969</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>17036.7035</v>
-      </c>
-      <c r="S20" t="n">
-        <v>22117.2115</v>
-      </c>
-      <c r="T20" t="n">
-        <v>94429.442</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24882</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5677</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14651</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9222</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16464</v>
-      </c>
-      <c r="J21" t="n">
-        <v>21960</v>
-      </c>
-      <c r="K21" t="n">
-        <v>92856</v>
-      </c>
-      <c r="L21" t="n">
-        <v>24884.4882</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5677.5677</v>
-      </c>
-      <c r="N21" t="n">
-        <v>14652.4651</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9222.922200000001</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>16465.6464</v>
-      </c>
-      <c r="S21" t="n">
-        <v>21962.196</v>
-      </c>
-      <c r="T21" t="n">
-        <v>92865.2856</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>21729</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5878</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14335</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7473</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17395</v>
-      </c>
-      <c r="J22" t="n">
-        <v>22155</v>
-      </c>
-      <c r="K22" t="n">
-        <v>88965</v>
-      </c>
-      <c r="L22" t="n">
-        <v>21731.1729</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5878.5878</v>
-      </c>
-      <c r="N22" t="n">
-        <v>14336.4335</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>7473.7473</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>17396.7395</v>
-      </c>
-      <c r="S22" t="n">
-        <v>22157.2155</v>
-      </c>
-      <c r="T22" t="n">
-        <v>88973.8965</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5913</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12704</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6531</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17414</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>42562</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5913.5913</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12705.2704</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6531.6531</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>17415.7414</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>42566.2562</v>
+        <v>1237.1237</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1153 +538,1537 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18849</v>
+        <v>19643</v>
       </c>
       <c r="D2" t="n">
-        <v>4993</v>
+        <v>5281</v>
       </c>
       <c r="E2" t="n">
-        <v>8809</v>
+        <v>9069</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5861</v>
+        <v>5814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14991</v>
+        <v>31668</v>
       </c>
       <c r="J2" t="n">
-        <v>18553</v>
+        <v>19387</v>
       </c>
       <c r="K2" t="n">
-        <v>72056</v>
+        <v>90862</v>
       </c>
       <c r="L2" t="n">
-        <v>18850.8849</v>
+        <v>19644.9643</v>
       </c>
       <c r="M2" t="n">
-        <v>4993.4993</v>
+        <v>5281.5281</v>
       </c>
       <c r="N2" t="n">
-        <v>8809.8809</v>
+        <v>9069.9069</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5861.5861</v>
+        <v>5814.5814</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14992.4991</v>
+        <v>31671.1668</v>
       </c>
       <c r="S2" t="n">
-        <v>18554.8553</v>
+        <v>19388.9387</v>
       </c>
       <c r="T2" t="n">
-        <v>72063.2056</v>
+        <v>90871.08620000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18175</v>
+        <v>19040</v>
       </c>
       <c r="D3" t="n">
-        <v>4852</v>
+        <v>5040</v>
       </c>
       <c r="E3" t="n">
-        <v>8549</v>
+        <v>8574</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5503</v>
+        <v>5639</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14425</v>
+        <v>15262</v>
       </c>
       <c r="J3" t="n">
-        <v>17804</v>
+        <v>18432</v>
       </c>
       <c r="K3" t="n">
-        <v>69308</v>
+        <v>71987</v>
       </c>
       <c r="L3" t="n">
-        <v>18176.8175</v>
+        <v>19041.904</v>
       </c>
       <c r="M3" t="n">
-        <v>4852.4852</v>
+        <v>5040.504</v>
       </c>
       <c r="N3" t="n">
-        <v>8549.8549</v>
+        <v>8574.857400000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5503.5503</v>
+        <v>5639.5639</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14426.4425</v>
+        <v>15263.5262</v>
       </c>
       <c r="S3" t="n">
-        <v>17805.7804</v>
+        <v>18433.8432</v>
       </c>
       <c r="T3" t="n">
-        <v>69314.9308</v>
+        <v>71994.19869999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17755</v>
+        <v>18162</v>
       </c>
       <c r="D4" t="n">
-        <v>4595</v>
+        <v>4815</v>
       </c>
       <c r="E4" t="n">
-        <v>8260</v>
+        <v>8241</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5166</v>
+        <v>5394</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12730</v>
+        <v>14814</v>
       </c>
       <c r="J4" t="n">
-        <v>17106</v>
+        <v>17675</v>
       </c>
       <c r="K4" t="n">
-        <v>65612</v>
+        <v>69101</v>
       </c>
       <c r="L4" t="n">
-        <v>17756.7755</v>
+        <v>18163.8162</v>
       </c>
       <c r="M4" t="n">
-        <v>4595.4595</v>
+        <v>4815.4815</v>
       </c>
       <c r="N4" t="n">
-        <v>8260.825999999999</v>
+        <v>8241.8241</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5166.5166</v>
+        <v>5394.5394</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>12731.273</v>
+        <v>14815.4814</v>
       </c>
       <c r="S4" t="n">
-        <v>17107.7106</v>
+        <v>17676.7675</v>
       </c>
       <c r="T4" t="n">
-        <v>65618.5612</v>
+        <v>69107.91010000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16961</v>
+        <v>17939</v>
       </c>
       <c r="D5" t="n">
-        <v>4508</v>
+        <v>4600</v>
       </c>
       <c r="E5" t="n">
-        <v>8095</v>
+        <v>8067</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5128</v>
+        <v>5206</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13244</v>
+        <v>14538</v>
       </c>
       <c r="J5" t="n">
-        <v>16333</v>
+        <v>16824</v>
       </c>
       <c r="K5" t="n">
-        <v>64269</v>
+        <v>67174</v>
       </c>
       <c r="L5" t="n">
-        <v>16962.6961</v>
+        <v>17940.7939</v>
       </c>
       <c r="M5" t="n">
-        <v>4508.4508</v>
+        <v>4600.46</v>
       </c>
       <c r="N5" t="n">
-        <v>8095.8095</v>
+        <v>8067.8067</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5128.5128</v>
+        <v>5206.5206</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13245.3244</v>
+        <v>14539.4538</v>
       </c>
       <c r="S5" t="n">
-        <v>16334.6333</v>
+        <v>16825.6824</v>
       </c>
       <c r="T5" t="n">
-        <v>64275.4269</v>
+        <v>67180.71740000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17567</v>
+        <v>17043</v>
       </c>
       <c r="D6" t="n">
-        <v>4568</v>
+        <v>4533</v>
       </c>
       <c r="E6" t="n">
-        <v>8089</v>
+        <v>7955</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5068</v>
+        <v>5166</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>12963</v>
+        <v>16272</v>
       </c>
       <c r="J6" t="n">
-        <v>16881</v>
+        <v>16740</v>
       </c>
       <c r="K6" t="n">
-        <v>65136</v>
+        <v>67709</v>
       </c>
       <c r="L6" t="n">
-        <v>17568.7567</v>
+        <v>17044.7043</v>
       </c>
       <c r="M6" t="n">
-        <v>4568.4568</v>
+        <v>4533.4533</v>
       </c>
       <c r="N6" t="n">
-        <v>8089.8089</v>
+        <v>7955.7955</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5068.5068</v>
+        <v>5166.5166</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12964.2963</v>
+        <v>16273.6272</v>
       </c>
       <c r="S6" t="n">
-        <v>16882.6881</v>
+        <v>16741.674</v>
       </c>
       <c r="T6" t="n">
-        <v>65142.5136</v>
+        <v>67715.7709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18504</v>
+        <v>17442</v>
       </c>
       <c r="D7" t="n">
-        <v>5079</v>
+        <v>4661</v>
       </c>
       <c r="E7" t="n">
-        <v>8845</v>
+        <v>8396</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6427</v>
+        <v>5324</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14292</v>
+        <v>26896</v>
       </c>
       <c r="J7" t="n">
-        <v>17918</v>
+        <v>16961</v>
       </c>
       <c r="K7" t="n">
-        <v>71065</v>
+        <v>79680</v>
       </c>
       <c r="L7" t="n">
-        <v>18505.8504</v>
+        <v>17443.7442</v>
       </c>
       <c r="M7" t="n">
-        <v>5079.5079</v>
+        <v>4661.4661</v>
       </c>
       <c r="N7" t="n">
-        <v>8845.8845</v>
+        <v>8396.839599999999</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6427.6427</v>
+        <v>5324.5324</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14293.4292</v>
+        <v>26898.6896</v>
       </c>
       <c r="S7" t="n">
-        <v>17919.7918</v>
+        <v>16962.6961</v>
       </c>
       <c r="T7" t="n">
-        <v>71072.10649999999</v>
+        <v>79687.96799999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18075</v>
+        <v>17016</v>
       </c>
       <c r="D8" t="n">
-        <v>4252</v>
+        <v>4457</v>
       </c>
       <c r="E8" t="n">
-        <v>9078</v>
+        <v>8400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7144</v>
+        <v>6436</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14101</v>
+        <v>13134</v>
       </c>
       <c r="J8" t="n">
-        <v>17399</v>
+        <v>16774</v>
       </c>
       <c r="K8" t="n">
-        <v>70049</v>
+        <v>66217</v>
       </c>
       <c r="L8" t="n">
-        <v>18076.8075</v>
+        <v>17017.7016</v>
       </c>
       <c r="M8" t="n">
-        <v>4252.4252</v>
+        <v>4457.4457</v>
       </c>
       <c r="N8" t="n">
-        <v>9078.907800000001</v>
+        <v>8400.84</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7144.7144</v>
+        <v>6436.6436</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14102.4101</v>
+        <v>13135.3134</v>
       </c>
       <c r="S8" t="n">
-        <v>17400.7399</v>
+        <v>16775.6774</v>
       </c>
       <c r="T8" t="n">
-        <v>70056.0049</v>
+        <v>66223.6217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>20157</v>
+        <v>18140</v>
       </c>
       <c r="D9" t="n">
-        <v>4483</v>
+        <v>4331</v>
       </c>
       <c r="E9" t="n">
-        <v>10453</v>
+        <v>9655</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9822</v>
+        <v>8429</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16102</v>
+        <v>14975</v>
       </c>
       <c r="J9" t="n">
-        <v>19467</v>
+        <v>18225</v>
       </c>
       <c r="K9" t="n">
-        <v>80484</v>
+        <v>73755</v>
       </c>
       <c r="L9" t="n">
-        <v>20159.0157</v>
+        <v>18141.814</v>
       </c>
       <c r="M9" t="n">
-        <v>4483.4483</v>
+        <v>4331.4331</v>
       </c>
       <c r="N9" t="n">
-        <v>10454.0453</v>
+        <v>9655.9655</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9822.9822</v>
+        <v>8429.8429</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16103.6102</v>
+        <v>14976.4975</v>
       </c>
       <c r="S9" t="n">
-        <v>19468.9467</v>
+        <v>18226.8225</v>
       </c>
       <c r="T9" t="n">
-        <v>80492.0484</v>
+        <v>73762.37549999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>25877</v>
+        <v>21348</v>
       </c>
       <c r="D10" t="n">
-        <v>4973</v>
+        <v>4887</v>
       </c>
       <c r="E10" t="n">
-        <v>12810</v>
+        <v>11339</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12116</v>
+        <v>10065</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17894</v>
+        <v>15898</v>
       </c>
       <c r="J10" t="n">
-        <v>21055</v>
+        <v>19443</v>
       </c>
       <c r="K10" t="n">
-        <v>94725</v>
+        <v>82980</v>
       </c>
       <c r="L10" t="n">
-        <v>25879.5877</v>
+        <v>21350.1348</v>
       </c>
       <c r="M10" t="n">
-        <v>4973.4973</v>
+        <v>4887.4887</v>
       </c>
       <c r="N10" t="n">
-        <v>12811.281</v>
+        <v>11340.1339</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12117.2116</v>
+        <v>10066.0065</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17895.7894</v>
+        <v>15899.5898</v>
       </c>
       <c r="S10" t="n">
-        <v>21057.1055</v>
+        <v>19444.9443</v>
       </c>
       <c r="T10" t="n">
-        <v>94734.4725</v>
+        <v>82988.29800000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>27231</v>
+        <v>23261</v>
       </c>
       <c r="D11" t="n">
-        <v>5261</v>
+        <v>5220</v>
       </c>
       <c r="E11" t="n">
-        <v>16678</v>
+        <v>16300</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13582</v>
+        <v>12623</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18314</v>
+        <v>16704</v>
       </c>
       <c r="J11" t="n">
-        <v>23057</v>
+        <v>21165</v>
       </c>
       <c r="K11" t="n">
-        <v>104123</v>
+        <v>95273</v>
       </c>
       <c r="L11" t="n">
-        <v>27233.7231</v>
+        <v>23263.3261</v>
       </c>
       <c r="M11" t="n">
-        <v>5261.5261</v>
+        <v>5220.522</v>
       </c>
       <c r="N11" t="n">
-        <v>16679.6678</v>
+        <v>16301.63</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13583.3582</v>
+        <v>12624.2623</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18315.8314</v>
+        <v>16705.6704</v>
       </c>
       <c r="S11" t="n">
-        <v>23059.3057</v>
+        <v>21167.1165</v>
       </c>
       <c r="T11" t="n">
-        <v>104133.4123</v>
+        <v>95282.5273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>28382</v>
+        <v>24338</v>
       </c>
       <c r="D12" t="n">
-        <v>5591</v>
+        <v>5393</v>
       </c>
       <c r="E12" t="n">
-        <v>17993</v>
+        <v>16277</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14269</v>
+        <v>12894</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19673</v>
+        <v>17187</v>
       </c>
       <c r="J12" t="n">
-        <v>24404</v>
+        <v>21851</v>
       </c>
       <c r="K12" t="n">
-        <v>110312</v>
+        <v>97940</v>
       </c>
       <c r="L12" t="n">
-        <v>28384.8382</v>
+        <v>24340.4338</v>
       </c>
       <c r="M12" t="n">
-        <v>5591.5591</v>
+        <v>5393.5393</v>
       </c>
       <c r="N12" t="n">
-        <v>17994.7993</v>
+        <v>16278.6277</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14270.4269</v>
+        <v>12895.2894</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19674.9673</v>
+        <v>17188.7187</v>
       </c>
       <c r="S12" t="n">
-        <v>24406.4404</v>
+        <v>21853.1851</v>
       </c>
       <c r="T12" t="n">
-        <v>110323.0312</v>
+        <v>97949.79399999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>29040</v>
+        <v>23109</v>
       </c>
       <c r="D13" t="n">
-        <v>5776</v>
+        <v>5507</v>
       </c>
       <c r="E13" t="n">
-        <v>18247</v>
+        <v>16046</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14444</v>
+        <v>12282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19647</v>
+        <v>16479</v>
       </c>
       <c r="J13" t="n">
-        <v>24167</v>
+        <v>21592</v>
       </c>
       <c r="K13" t="n">
-        <v>111321</v>
+        <v>95015</v>
       </c>
       <c r="L13" t="n">
-        <v>29042.904</v>
+        <v>23111.3109</v>
       </c>
       <c r="M13" t="n">
-        <v>5776.5776</v>
+        <v>5507.5507</v>
       </c>
       <c r="N13" t="n">
-        <v>18248.8247</v>
+        <v>16047.6046</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14445.4444</v>
+        <v>12283.2282</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19648.9647</v>
+        <v>16480.6479</v>
       </c>
       <c r="S13" t="n">
-        <v>24169.4167</v>
+        <v>21594.1592</v>
       </c>
       <c r="T13" t="n">
-        <v>111332.1321</v>
+        <v>95024.5015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>27988</v>
+        <v>24018</v>
       </c>
       <c r="D14" t="n">
-        <v>5392</v>
+        <v>5301</v>
       </c>
       <c r="E14" t="n">
-        <v>18188</v>
+        <v>16739</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14483</v>
+        <v>17565</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18997</v>
+        <v>17534</v>
       </c>
       <c r="J14" t="n">
-        <v>24211</v>
+        <v>22061</v>
       </c>
       <c r="K14" t="n">
-        <v>109259</v>
+        <v>103218</v>
       </c>
       <c r="L14" t="n">
-        <v>27990.7988</v>
+        <v>24020.4018</v>
       </c>
       <c r="M14" t="n">
-        <v>5392.5392</v>
+        <v>5301.5301</v>
       </c>
       <c r="N14" t="n">
-        <v>18189.8188</v>
+        <v>16740.6739</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14484.4483</v>
+        <v>17566.7565</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>18998.8997</v>
+        <v>17535.7534</v>
       </c>
       <c r="S14" t="n">
-        <v>24213.4211</v>
+        <v>22063.2061</v>
       </c>
       <c r="T14" t="n">
-        <v>109269.9259</v>
+        <v>103228.3218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>29908</v>
+        <v>24893</v>
       </c>
       <c r="D15" t="n">
-        <v>5917</v>
+        <v>5711</v>
       </c>
       <c r="E15" t="n">
-        <v>18554</v>
+        <v>16754</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14599</v>
+        <v>13142</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20353</v>
+        <v>17148</v>
       </c>
       <c r="J15" t="n">
-        <v>24098</v>
+        <v>23071</v>
       </c>
       <c r="K15" t="n">
-        <v>113429</v>
+        <v>100719</v>
       </c>
       <c r="L15" t="n">
-        <v>29910.9908</v>
+        <v>24895.4893</v>
       </c>
       <c r="M15" t="n">
-        <v>5917.5917</v>
+        <v>5711.5711</v>
       </c>
       <c r="N15" t="n">
-        <v>18555.8554</v>
+        <v>16755.6754</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14600.4599</v>
+        <v>13143.3142</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20355.0353</v>
+        <v>17149.7148</v>
       </c>
       <c r="S15" t="n">
-        <v>24100.4098</v>
+        <v>23073.3071</v>
       </c>
       <c r="T15" t="n">
-        <v>113440.3429</v>
+        <v>100729.0719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>29842</v>
+        <v>25292</v>
       </c>
       <c r="D16" t="n">
-        <v>5948</v>
+        <v>5665</v>
       </c>
       <c r="E16" t="n">
-        <v>18693</v>
+        <v>16075</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14775</v>
+        <v>13332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20463</v>
+        <v>16830</v>
       </c>
       <c r="J16" t="n">
-        <v>24821</v>
+        <v>22368</v>
       </c>
       <c r="K16" t="n">
-        <v>114542</v>
+        <v>99562</v>
       </c>
       <c r="L16" t="n">
-        <v>29844.9842</v>
+        <v>25294.5292</v>
       </c>
       <c r="M16" t="n">
-        <v>5948.5948</v>
+        <v>5665.5665</v>
       </c>
       <c r="N16" t="n">
-        <v>18694.8693</v>
+        <v>16076.6075</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>14776.4775</v>
+        <v>13333.3332</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20465.0463</v>
+        <v>16831.683</v>
       </c>
       <c r="S16" t="n">
-        <v>24823.4821</v>
+        <v>22370.2368</v>
       </c>
       <c r="T16" t="n">
-        <v>114553.4542</v>
+        <v>99571.9562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>29762</v>
+        <v>24339</v>
       </c>
       <c r="D17" t="n">
-        <v>5863</v>
+        <v>5402</v>
       </c>
       <c r="E17" t="n">
-        <v>18487</v>
+        <v>16202</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>13289</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20385</v>
+        <v>16510</v>
       </c>
       <c r="J17" t="n">
-        <v>24929</v>
+        <v>22358</v>
       </c>
       <c r="K17" t="n">
-        <v>99426</v>
+        <v>98100</v>
       </c>
       <c r="L17" t="n">
-        <v>29764.9762</v>
+        <v>24341.4339</v>
       </c>
       <c r="M17" t="n">
-        <v>5863.5863</v>
+        <v>5402.5402</v>
       </c>
       <c r="N17" t="n">
-        <v>18488.8487</v>
+        <v>16203.6202</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>13290.3289</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>20387.0385</v>
+        <v>16511.651</v>
       </c>
       <c r="S17" t="n">
-        <v>24931.4929</v>
+        <v>22360.2358</v>
       </c>
       <c r="T17" t="n">
-        <v>99435.94259999999</v>
+        <v>98109.81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>28165</v>
+        <v>23612</v>
       </c>
       <c r="D18" t="n">
-        <v>4335</v>
+        <v>5081</v>
       </c>
       <c r="E18" t="n">
-        <v>17581</v>
+        <v>15610</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>12948</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18760</v>
+        <v>16003</v>
       </c>
       <c r="J18" t="n">
-        <v>23636</v>
+        <v>21658</v>
       </c>
       <c r="K18" t="n">
-        <v>92477</v>
+        <v>94912</v>
       </c>
       <c r="L18" t="n">
-        <v>28167.8165</v>
+        <v>23614.3612</v>
       </c>
       <c r="M18" t="n">
-        <v>4335.4335</v>
+        <v>5081.5081</v>
       </c>
       <c r="N18" t="n">
-        <v>17582.7581</v>
+        <v>15611.561</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>12949.2948</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18761.876</v>
+        <v>16004.6003</v>
       </c>
       <c r="S18" t="n">
-        <v>23638.3636</v>
+        <v>21660.1658</v>
       </c>
       <c r="T18" t="n">
-        <v>92486.24770000001</v>
+        <v>94921.4912</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23281</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4908</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15366</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12435</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15753</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21468</v>
+      </c>
+      <c r="K19" t="n">
+        <v>93211</v>
+      </c>
+      <c r="L19" t="n">
+        <v>23283.3281</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4908.4908</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15367.5366</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>12436.2435</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15754.5753</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21470.1468</v>
+      </c>
+      <c r="T19" t="n">
+        <v>93220.3211</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1237</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1237</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1237.1237</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1237.1237</v>
+      <c r="C20" t="n">
+        <v>23789</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5575</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15309</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11345</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16857</v>
+      </c>
+      <c r="J20" t="n">
+        <v>22267</v>
+      </c>
+      <c r="K20" t="n">
+        <v>95142</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23791.3789</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5575.5575</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15310.5309</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11346.1345</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>16858.6857</v>
+      </c>
+      <c r="S20" t="n">
+        <v>22269.2267</v>
+      </c>
+      <c r="T20" t="n">
+        <v>95151.51420000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>22074</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5636</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15093</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10183</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16352</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21896</v>
+      </c>
+      <c r="K21" t="n">
+        <v>91234</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22076.2074</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5636.5636</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15094.5093</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10184.0183</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16353.6352</v>
+      </c>
+      <c r="S21" t="n">
+        <v>21898.1896</v>
+      </c>
+      <c r="T21" t="n">
+        <v>91243.1234</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5851</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14538</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8028</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22048</v>
+      </c>
+      <c r="K22" t="n">
+        <v>88757</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21669.1667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5851.5851</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14539.4538</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8028.802799999999</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16626.6625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>22050.2048</v>
+      </c>
+      <c r="T22" t="n">
+        <v>88765.8757</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21596</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5973</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12506</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7058</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>17049</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20872</v>
+      </c>
+      <c r="K23" t="n">
+        <v>85054</v>
+      </c>
+      <c r="L23" t="n">
+        <v>21598.1596</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5973.5973</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12507.2506</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7058.7058</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>17050.7049</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20874.0872</v>
+      </c>
+      <c r="T23" t="n">
+        <v>85062.50539999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21121</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5844</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9627</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6232</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16818</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20534</v>
+      </c>
+      <c r="K24" t="n">
+        <v>80176</v>
+      </c>
+      <c r="L24" t="n">
+        <v>21123.1121</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5844.5844</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9627.9627</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6232.6232</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>16819.6818</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20536.0534</v>
+      </c>
+      <c r="T24" t="n">
+        <v>80184.01759999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20491</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5652</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8859</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5806</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16249</v>
+      </c>
+      <c r="J25" t="n">
+        <v>19728</v>
+      </c>
+      <c r="K25" t="n">
+        <v>76785</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20493.0491</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5652.5652</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8859.885899999999</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5806.5806</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>16250.6249</v>
+      </c>
+      <c r="S25" t="n">
+        <v>19729.9728</v>
+      </c>
+      <c r="T25" t="n">
+        <v>76792.67850000001</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1537 +538,1089 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19643</v>
+        <v>17218</v>
       </c>
       <c r="D2" t="n">
-        <v>5281</v>
+        <v>4744</v>
       </c>
       <c r="E2" t="n">
-        <v>9069</v>
+        <v>7729</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5814</v>
+        <v>4871</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31668</v>
+        <v>14088</v>
       </c>
       <c r="J2" t="n">
-        <v>19387</v>
+        <v>17074</v>
       </c>
       <c r="K2" t="n">
-        <v>90862</v>
+        <v>65724</v>
       </c>
       <c r="L2" t="n">
-        <v>19644.9643</v>
+        <v>17219.7218</v>
       </c>
       <c r="M2" t="n">
-        <v>5281.5281</v>
+        <v>4744.4744</v>
       </c>
       <c r="N2" t="n">
-        <v>9069.9069</v>
+        <v>7729.7729</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5814.5814</v>
+        <v>4871.4871</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>31671.1668</v>
+        <v>14089.4088</v>
       </c>
       <c r="S2" t="n">
-        <v>19388.9387</v>
+        <v>17075.7074</v>
       </c>
       <c r="T2" t="n">
-        <v>90871.08620000001</v>
+        <v>65730.5724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19040</v>
+        <v>16791</v>
       </c>
       <c r="D3" t="n">
-        <v>5040</v>
+        <v>4524</v>
       </c>
       <c r="E3" t="n">
-        <v>8574</v>
+        <v>7518</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5639</v>
+        <v>4673</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15262</v>
+        <v>13227</v>
       </c>
       <c r="J3" t="n">
-        <v>18432</v>
+        <v>16352</v>
       </c>
       <c r="K3" t="n">
-        <v>71987</v>
+        <v>63085</v>
       </c>
       <c r="L3" t="n">
-        <v>19041.904</v>
+        <v>16792.6791</v>
       </c>
       <c r="M3" t="n">
-        <v>5040.504</v>
+        <v>4524.4524</v>
       </c>
       <c r="N3" t="n">
-        <v>8574.857400000001</v>
+        <v>7518.7518</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5639.5639</v>
+        <v>4673.4673</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15263.5262</v>
+        <v>13228.3227</v>
       </c>
       <c r="S3" t="n">
-        <v>18433.8432</v>
+        <v>16353.6352</v>
       </c>
       <c r="T3" t="n">
-        <v>71994.19869999999</v>
+        <v>63091.30850000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18162</v>
+        <v>16178</v>
       </c>
       <c r="D4" t="n">
-        <v>4815</v>
+        <v>4318</v>
       </c>
       <c r="E4" t="n">
-        <v>8241</v>
+        <v>7339</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5394</v>
+        <v>4523</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14814</v>
+        <v>13023</v>
       </c>
       <c r="J4" t="n">
-        <v>17675</v>
+        <v>15877</v>
       </c>
       <c r="K4" t="n">
-        <v>69101</v>
+        <v>61258</v>
       </c>
       <c r="L4" t="n">
-        <v>18163.8162</v>
+        <v>16179.6178</v>
       </c>
       <c r="M4" t="n">
-        <v>4815.4815</v>
+        <v>4318.4318</v>
       </c>
       <c r="N4" t="n">
-        <v>8241.8241</v>
+        <v>7339.7339</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5394.5394</v>
+        <v>4523.4523</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14815.4814</v>
+        <v>13024.3023</v>
       </c>
       <c r="S4" t="n">
-        <v>17676.7675</v>
+        <v>15878.5877</v>
       </c>
       <c r="T4" t="n">
-        <v>69107.91010000001</v>
+        <v>61264.1258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17939</v>
+        <v>15705</v>
       </c>
       <c r="D5" t="n">
-        <v>4600</v>
+        <v>4269</v>
       </c>
       <c r="E5" t="n">
-        <v>8067</v>
+        <v>7268</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5206</v>
+        <v>4450</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14538</v>
+        <v>12784</v>
       </c>
       <c r="J5" t="n">
-        <v>16824</v>
+        <v>15796</v>
       </c>
       <c r="K5" t="n">
-        <v>67174</v>
+        <v>60272</v>
       </c>
       <c r="L5" t="n">
-        <v>17940.7939</v>
+        <v>15706.5705</v>
       </c>
       <c r="M5" t="n">
-        <v>4600.46</v>
+        <v>4269.4269</v>
       </c>
       <c r="N5" t="n">
-        <v>8067.8067</v>
+        <v>7268.7268</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5206.5206</v>
+        <v>4450.445</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14539.4538</v>
+        <v>12785.2784</v>
       </c>
       <c r="S5" t="n">
-        <v>16825.6824</v>
+        <v>15797.5796</v>
       </c>
       <c r="T5" t="n">
-        <v>67180.71740000001</v>
+        <v>60278.0272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17043</v>
+        <v>16704</v>
       </c>
       <c r="D6" t="n">
-        <v>4533</v>
+        <v>4560</v>
       </c>
       <c r="E6" t="n">
-        <v>7955</v>
+        <v>7432</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5166</v>
+        <v>4720</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16272</v>
+        <v>13319</v>
       </c>
       <c r="J6" t="n">
-        <v>16740</v>
+        <v>16447</v>
       </c>
       <c r="K6" t="n">
-        <v>67709</v>
+        <v>63182</v>
       </c>
       <c r="L6" t="n">
-        <v>17044.7043</v>
+        <v>16705.6704</v>
       </c>
       <c r="M6" t="n">
-        <v>4533.4533</v>
+        <v>4560.456</v>
       </c>
       <c r="N6" t="n">
-        <v>7955.7955</v>
+        <v>7432.7432</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5166.5166</v>
+        <v>4720.472</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>16273.6272</v>
+        <v>13320.3319</v>
       </c>
       <c r="S6" t="n">
-        <v>16741.674</v>
+        <v>16448.6447</v>
       </c>
       <c r="T6" t="n">
-        <v>67715.7709</v>
+        <v>63188.3182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>17442</v>
+        <v>17753</v>
       </c>
       <c r="D7" t="n">
-        <v>4661</v>
+        <v>4910</v>
       </c>
       <c r="E7" t="n">
-        <v>8396</v>
+        <v>8062</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5324</v>
+        <v>5584</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>26896</v>
+        <v>14034</v>
       </c>
       <c r="J7" t="n">
-        <v>16961</v>
+        <v>17459</v>
       </c>
       <c r="K7" t="n">
-        <v>79680</v>
+        <v>67802</v>
       </c>
       <c r="L7" t="n">
-        <v>17443.7442</v>
+        <v>17754.7753</v>
       </c>
       <c r="M7" t="n">
-        <v>4661.4661</v>
+        <v>4910.491</v>
       </c>
       <c r="N7" t="n">
-        <v>8396.839599999999</v>
+        <v>8062.8062</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5324.5324</v>
+        <v>5584.5584</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>26898.6896</v>
+        <v>14035.4034</v>
       </c>
       <c r="S7" t="n">
-        <v>16962.6961</v>
+        <v>17460.7459</v>
       </c>
       <c r="T7" t="n">
-        <v>79687.96799999999</v>
+        <v>67808.78019999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17016</v>
+        <v>18187</v>
       </c>
       <c r="D8" t="n">
-        <v>4457</v>
+        <v>4410</v>
       </c>
       <c r="E8" t="n">
-        <v>8400</v>
+        <v>8441</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6436</v>
+        <v>6771</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13134</v>
+        <v>14185</v>
       </c>
       <c r="J8" t="n">
-        <v>16774</v>
+        <v>17577</v>
       </c>
       <c r="K8" t="n">
-        <v>66217</v>
+        <v>69571</v>
       </c>
       <c r="L8" t="n">
-        <v>17017.7016</v>
+        <v>18188.8187</v>
       </c>
       <c r="M8" t="n">
-        <v>4457.4457</v>
+        <v>4410.441</v>
       </c>
       <c r="N8" t="n">
-        <v>8400.84</v>
+        <v>8441.8441</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6436.6436</v>
+        <v>6771.6771</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13135.3134</v>
+        <v>14186.4185</v>
       </c>
       <c r="S8" t="n">
-        <v>16775.6774</v>
+        <v>17578.7577</v>
       </c>
       <c r="T8" t="n">
-        <v>66223.6217</v>
+        <v>69577.9571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>18140</v>
+        <v>21165</v>
       </c>
       <c r="D9" t="n">
-        <v>4331</v>
+        <v>4679</v>
       </c>
       <c r="E9" t="n">
-        <v>9655</v>
+        <v>10305</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8429</v>
+        <v>9453</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>14975</v>
+        <v>16193</v>
       </c>
       <c r="J9" t="n">
-        <v>18225</v>
+        <v>19363</v>
       </c>
       <c r="K9" t="n">
-        <v>73755</v>
+        <v>81158</v>
       </c>
       <c r="L9" t="n">
-        <v>18141.814</v>
+        <v>21167.1165</v>
       </c>
       <c r="M9" t="n">
-        <v>4331.4331</v>
+        <v>4679.4679</v>
       </c>
       <c r="N9" t="n">
-        <v>9655.9655</v>
+        <v>10306.0305</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8429.8429</v>
+        <v>9453.945299999999</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>14976.4975</v>
+        <v>16194.6193</v>
       </c>
       <c r="S9" t="n">
-        <v>18226.8225</v>
+        <v>19364.9363</v>
       </c>
       <c r="T9" t="n">
-        <v>73762.37549999999</v>
+        <v>81166.1158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>21348</v>
+        <v>26539</v>
       </c>
       <c r="D10" t="n">
-        <v>4887</v>
+        <v>5435</v>
       </c>
       <c r="E10" t="n">
-        <v>11339</v>
+        <v>12881</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10065</v>
+        <v>12768</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15898</v>
+        <v>18743</v>
       </c>
       <c r="J10" t="n">
-        <v>19443</v>
+        <v>22087</v>
       </c>
       <c r="K10" t="n">
-        <v>82980</v>
+        <v>98453</v>
       </c>
       <c r="L10" t="n">
-        <v>21350.1348</v>
+        <v>26541.6539</v>
       </c>
       <c r="M10" t="n">
-        <v>4887.4887</v>
+        <v>5435.5435</v>
       </c>
       <c r="N10" t="n">
-        <v>11340.1339</v>
+        <v>12882.2881</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>10066.0065</v>
+        <v>12769.2768</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15899.5898</v>
+        <v>18744.8743</v>
       </c>
       <c r="S10" t="n">
-        <v>19444.9443</v>
+        <v>22089.2087</v>
       </c>
       <c r="T10" t="n">
-        <v>82988.29800000001</v>
+        <v>98462.8453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>23261</v>
+        <v>28816</v>
       </c>
       <c r="D11" t="n">
-        <v>5220</v>
+        <v>5831</v>
       </c>
       <c r="E11" t="n">
-        <v>16300</v>
+        <v>16459</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12623</v>
+        <v>13796</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16704</v>
+        <v>19437</v>
       </c>
       <c r="J11" t="n">
-        <v>21165</v>
+        <v>24090</v>
       </c>
       <c r="K11" t="n">
-        <v>95273</v>
+        <v>108429</v>
       </c>
       <c r="L11" t="n">
-        <v>23263.3261</v>
+        <v>28818.8816</v>
       </c>
       <c r="M11" t="n">
-        <v>5220.522</v>
+        <v>5831.5831</v>
       </c>
       <c r="N11" t="n">
-        <v>16301.63</v>
+        <v>16460.6459</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>12624.2623</v>
+        <v>13797.3796</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16705.6704</v>
+        <v>19438.9437</v>
       </c>
       <c r="S11" t="n">
-        <v>21167.1165</v>
+        <v>24092.409</v>
       </c>
       <c r="T11" t="n">
-        <v>95282.5273</v>
+        <v>108439.8429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>24338</v>
+        <v>29162</v>
       </c>
       <c r="D12" t="n">
-        <v>5393</v>
+        <v>5801</v>
       </c>
       <c r="E12" t="n">
-        <v>16277</v>
+        <v>18360</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>12894</v>
+        <v>14092</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17187</v>
+        <v>19402</v>
       </c>
       <c r="J12" t="n">
-        <v>21851</v>
+        <v>24922</v>
       </c>
       <c r="K12" t="n">
-        <v>97940</v>
+        <v>111739</v>
       </c>
       <c r="L12" t="n">
-        <v>24340.4338</v>
+        <v>29164.9162</v>
       </c>
       <c r="M12" t="n">
-        <v>5393.5393</v>
+        <v>5801.5801</v>
       </c>
       <c r="N12" t="n">
-        <v>16278.6277</v>
+        <v>18361.836</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12895.2894</v>
+        <v>14093.4092</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17188.7187</v>
+        <v>19403.9402</v>
       </c>
       <c r="S12" t="n">
-        <v>21853.1851</v>
+        <v>24924.4922</v>
       </c>
       <c r="T12" t="n">
-        <v>97949.79399999999</v>
+        <v>111750.1739</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>23109</v>
+        <v>29265</v>
       </c>
       <c r="D13" t="n">
-        <v>5507</v>
+        <v>5919</v>
       </c>
       <c r="E13" t="n">
-        <v>16046</v>
+        <v>18421</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>12282</v>
+        <v>14471</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16479</v>
+        <v>19716</v>
       </c>
       <c r="J13" t="n">
-        <v>21592</v>
+        <v>25305</v>
       </c>
       <c r="K13" t="n">
-        <v>95015</v>
+        <v>113097</v>
       </c>
       <c r="L13" t="n">
-        <v>23111.3109</v>
+        <v>29267.9265</v>
       </c>
       <c r="M13" t="n">
-        <v>5507.5507</v>
+        <v>5919.5919</v>
       </c>
       <c r="N13" t="n">
-        <v>16047.6046</v>
+        <v>18422.8421</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>12283.2282</v>
+        <v>14472.4471</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16480.6479</v>
+        <v>19717.9716</v>
       </c>
       <c r="S13" t="n">
-        <v>21594.1592</v>
+        <v>25307.5305</v>
       </c>
       <c r="T13" t="n">
-        <v>95024.5015</v>
+        <v>113108.3097</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>24018</v>
+        <v>29689</v>
       </c>
       <c r="D14" t="n">
-        <v>5301</v>
+        <v>5765</v>
       </c>
       <c r="E14" t="n">
-        <v>16739</v>
+        <v>18171</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>17565</v>
+        <v>14225</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17534</v>
+        <v>19981</v>
       </c>
       <c r="J14" t="n">
-        <v>22061</v>
+        <v>24921</v>
       </c>
       <c r="K14" t="n">
-        <v>103218</v>
+        <v>112752</v>
       </c>
       <c r="L14" t="n">
-        <v>24020.4018</v>
+        <v>29691.9689</v>
       </c>
       <c r="M14" t="n">
-        <v>5301.5301</v>
+        <v>5765.5765</v>
       </c>
       <c r="N14" t="n">
-        <v>16740.6739</v>
+        <v>18172.8171</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>17566.7565</v>
+        <v>14226.4225</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17535.7534</v>
+        <v>19982.9981</v>
       </c>
       <c r="S14" t="n">
-        <v>22063.2061</v>
+        <v>24923.4921</v>
       </c>
       <c r="T14" t="n">
-        <v>103228.3218</v>
+        <v>112763.2752</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>24893</v>
+        <v>30436</v>
       </c>
       <c r="D15" t="n">
-        <v>5711</v>
+        <v>6044</v>
       </c>
       <c r="E15" t="n">
-        <v>16754</v>
+        <v>18805</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>13142</v>
+        <v>15175</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17148</v>
+        <v>20615</v>
       </c>
       <c r="J15" t="n">
-        <v>23071</v>
+        <v>25900</v>
       </c>
       <c r="K15" t="n">
-        <v>100719</v>
+        <v>116975</v>
       </c>
       <c r="L15" t="n">
-        <v>24895.4893</v>
+        <v>30439.0436</v>
       </c>
       <c r="M15" t="n">
-        <v>5711.5711</v>
+        <v>6044.6044</v>
       </c>
       <c r="N15" t="n">
-        <v>16755.6754</v>
+        <v>18806.8805</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13143.3142</v>
+        <v>15176.5175</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17149.7148</v>
+        <v>20617.0615</v>
       </c>
       <c r="S15" t="n">
-        <v>23073.3071</v>
+        <v>25902.59</v>
       </c>
       <c r="T15" t="n">
-        <v>100729.0719</v>
+        <v>116986.6975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>25292</v>
+        <v>30921</v>
       </c>
       <c r="D16" t="n">
-        <v>5665</v>
+        <v>6017</v>
       </c>
       <c r="E16" t="n">
-        <v>16075</v>
+        <v>18794</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13332</v>
+        <v>14937</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16830</v>
+        <v>20903</v>
       </c>
       <c r="J16" t="n">
-        <v>22368</v>
+        <v>26070</v>
       </c>
       <c r="K16" t="n">
-        <v>99562</v>
+        <v>117642</v>
       </c>
       <c r="L16" t="n">
-        <v>25294.5292</v>
+        <v>30924.0921</v>
       </c>
       <c r="M16" t="n">
-        <v>5665.5665</v>
+        <v>6017.6017</v>
       </c>
       <c r="N16" t="n">
-        <v>16076.6075</v>
+        <v>18795.8794</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>13333.3332</v>
+        <v>14938.4937</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16831.683</v>
+        <v>20905.0903</v>
       </c>
       <c r="S16" t="n">
-        <v>22370.2368</v>
+        <v>26072.607</v>
       </c>
       <c r="T16" t="n">
-        <v>99571.9562</v>
+        <v>117653.7642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>24339</v>
+        <v>30681</v>
       </c>
       <c r="D17" t="n">
-        <v>5402</v>
+        <v>6080</v>
       </c>
       <c r="E17" t="n">
-        <v>16202</v>
+        <v>18729</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>13289</v>
+        <v>14970</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>16510</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22358</v>
+        <v>25962</v>
       </c>
       <c r="K17" t="n">
-        <v>98100</v>
+        <v>96422</v>
       </c>
       <c r="L17" t="n">
-        <v>24341.4339</v>
+        <v>30684.0681</v>
       </c>
       <c r="M17" t="n">
-        <v>5402.5402</v>
+        <v>6080.608</v>
       </c>
       <c r="N17" t="n">
-        <v>16203.6202</v>
+        <v>18730.8729</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13290.3289</v>
+        <v>14971.497</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16511.651</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22360.2358</v>
+        <v>25964.5962</v>
       </c>
       <c r="T17" t="n">
-        <v>98109.81</v>
+        <v>96431.6422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>23612</v>
+        <v>29701</v>
       </c>
       <c r="D18" t="n">
-        <v>5081</v>
+        <v>6044</v>
       </c>
       <c r="E18" t="n">
-        <v>15610</v>
+        <v>18564</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12948</v>
+        <v>15022</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16003</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>21658</v>
+        <v>25317</v>
       </c>
       <c r="K18" t="n">
-        <v>94912</v>
+        <v>94648</v>
       </c>
       <c r="L18" t="n">
-        <v>23614.3612</v>
+        <v>29703.9701</v>
       </c>
       <c r="M18" t="n">
-        <v>5081.5081</v>
+        <v>6044.6044</v>
       </c>
       <c r="N18" t="n">
-        <v>15611.561</v>
+        <v>18565.8564</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12949.2948</v>
+        <v>15023.5022</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>16004.6003</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>21660.1658</v>
+        <v>25319.5317</v>
       </c>
       <c r="T18" t="n">
-        <v>94921.4912</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>23281</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4908</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15366</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12435</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>15753</v>
-      </c>
-      <c r="J19" t="n">
-        <v>21468</v>
-      </c>
-      <c r="K19" t="n">
-        <v>93211</v>
-      </c>
-      <c r="L19" t="n">
-        <v>23283.3281</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4908.4908</v>
-      </c>
-      <c r="N19" t="n">
-        <v>15367.5366</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12436.2435</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>15754.5753</v>
-      </c>
-      <c r="S19" t="n">
-        <v>21470.1468</v>
-      </c>
-      <c r="T19" t="n">
-        <v>93220.3211</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23789</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5575</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15309</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11345</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16857</v>
-      </c>
-      <c r="J20" t="n">
-        <v>22267</v>
-      </c>
-      <c r="K20" t="n">
-        <v>95142</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23791.3789</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5575.5575</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15310.5309</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>11346.1345</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>16858.6857</v>
-      </c>
-      <c r="S20" t="n">
-        <v>22269.2267</v>
-      </c>
-      <c r="T20" t="n">
-        <v>95151.51420000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>22074</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5636</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15093</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10183</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16352</v>
-      </c>
-      <c r="J21" t="n">
-        <v>21896</v>
-      </c>
-      <c r="K21" t="n">
-        <v>91234</v>
-      </c>
-      <c r="L21" t="n">
-        <v>22076.2074</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5636.5636</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15094.5093</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10184.0183</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>16353.6352</v>
-      </c>
-      <c r="S21" t="n">
-        <v>21898.1896</v>
-      </c>
-      <c r="T21" t="n">
-        <v>91243.1234</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>21667</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5851</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14538</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8028</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16625</v>
-      </c>
-      <c r="J22" t="n">
-        <v>22048</v>
-      </c>
-      <c r="K22" t="n">
-        <v>88757</v>
-      </c>
-      <c r="L22" t="n">
-        <v>21669.1667</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5851.5851</v>
-      </c>
-      <c r="N22" t="n">
-        <v>14539.4538</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8028.802799999999</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>16626.6625</v>
-      </c>
-      <c r="S22" t="n">
-        <v>22050.2048</v>
-      </c>
-      <c r="T22" t="n">
-        <v>88765.8757</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21596</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5973</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12506</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7058</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17049</v>
-      </c>
-      <c r="J23" t="n">
-        <v>20872</v>
-      </c>
-      <c r="K23" t="n">
-        <v>85054</v>
-      </c>
-      <c r="L23" t="n">
-        <v>21598.1596</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5973.5973</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12507.2506</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>7058.7058</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>17050.7049</v>
-      </c>
-      <c r="S23" t="n">
-        <v>20874.0872</v>
-      </c>
-      <c r="T23" t="n">
-        <v>85062.50539999999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>21121</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5844</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9627</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6232</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16818</v>
-      </c>
-      <c r="J24" t="n">
-        <v>20534</v>
-      </c>
-      <c r="K24" t="n">
-        <v>80176</v>
-      </c>
-      <c r="L24" t="n">
-        <v>21123.1121</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5844.5844</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9627.9627</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>6232.6232</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>16819.6818</v>
-      </c>
-      <c r="S24" t="n">
-        <v>20536.0534</v>
-      </c>
-      <c r="T24" t="n">
-        <v>80184.01759999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2024-08-31</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20491</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5652</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8859</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5806</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>16249</v>
-      </c>
-      <c r="J25" t="n">
-        <v>19728</v>
-      </c>
-      <c r="K25" t="n">
-        <v>76785</v>
-      </c>
-      <c r="L25" t="n">
-        <v>20493.0491</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5652.5652</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8859.885899999999</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5806.5806</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>16250.6249</v>
-      </c>
-      <c r="S25" t="n">
-        <v>19729.9728</v>
-      </c>
-      <c r="T25" t="n">
-        <v>76792.67850000001</v>
+        <v>94657.46480000002</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -538,1050 +538,1050 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17218</v>
+        <v>19189</v>
       </c>
       <c r="D2" t="n">
-        <v>4744</v>
+        <v>5219</v>
       </c>
       <c r="E2" t="n">
-        <v>7729</v>
+        <v>8740</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4871</v>
+        <v>5529</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14088</v>
+        <v>15018</v>
       </c>
       <c r="J2" t="n">
-        <v>17074</v>
+        <v>19463</v>
       </c>
       <c r="K2" t="n">
-        <v>65724</v>
+        <v>73158</v>
       </c>
       <c r="L2" t="n">
-        <v>17219.7218</v>
+        <v>19190.9189</v>
       </c>
       <c r="M2" t="n">
-        <v>4744.4744</v>
+        <v>5219.5219</v>
       </c>
       <c r="N2" t="n">
-        <v>7729.7729</v>
+        <v>8740.874</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4871.4871</v>
+        <v>5529.5529</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14089.4088</v>
+        <v>15019.5018</v>
       </c>
       <c r="S2" t="n">
-        <v>17075.7074</v>
+        <v>19464.9463</v>
       </c>
       <c r="T2" t="n">
-        <v>65730.5724</v>
+        <v>73165.3158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16791</v>
+        <v>18379</v>
       </c>
       <c r="D3" t="n">
-        <v>4524</v>
+        <v>4985</v>
       </c>
       <c r="E3" t="n">
-        <v>7518</v>
+        <v>8351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4673</v>
+        <v>5430</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13227</v>
+        <v>14349</v>
       </c>
       <c r="J3" t="n">
-        <v>16352</v>
+        <v>18477</v>
       </c>
       <c r="K3" t="n">
-        <v>63085</v>
+        <v>69971</v>
       </c>
       <c r="L3" t="n">
-        <v>16792.6791</v>
+        <v>18380.8379</v>
       </c>
       <c r="M3" t="n">
-        <v>4524.4524</v>
+        <v>4985.4985</v>
       </c>
       <c r="N3" t="n">
-        <v>7518.7518</v>
+        <v>8351.8351</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4673.4673</v>
+        <v>5430.543</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13228.3227</v>
+        <v>14350.4349</v>
       </c>
       <c r="S3" t="n">
-        <v>16353.6352</v>
+        <v>18478.8477</v>
       </c>
       <c r="T3" t="n">
-        <v>63091.30850000001</v>
+        <v>69977.99710000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16178</v>
+        <v>17470</v>
       </c>
       <c r="D4" t="n">
-        <v>4318</v>
+        <v>4704</v>
       </c>
       <c r="E4" t="n">
-        <v>7339</v>
+        <v>8155</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4523</v>
+        <v>5207</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13023</v>
+        <v>13877</v>
       </c>
       <c r="J4" t="n">
-        <v>15877</v>
+        <v>17820</v>
       </c>
       <c r="K4" t="n">
-        <v>61258</v>
+        <v>67233</v>
       </c>
       <c r="L4" t="n">
-        <v>16179.6178</v>
+        <v>17471.747</v>
       </c>
       <c r="M4" t="n">
-        <v>4318.4318</v>
+        <v>4704.4704</v>
       </c>
       <c r="N4" t="n">
-        <v>7339.7339</v>
+        <v>8155.8155</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4523.4523</v>
+        <v>5207.5207</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13024.3023</v>
+        <v>13878.3877</v>
       </c>
       <c r="S4" t="n">
-        <v>15878.5877</v>
+        <v>17821.782</v>
       </c>
       <c r="T4" t="n">
-        <v>61264.1258</v>
+        <v>67239.7233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15705</v>
+        <v>17438</v>
       </c>
       <c r="D5" t="n">
-        <v>4269</v>
+        <v>4638</v>
       </c>
       <c r="E5" t="n">
-        <v>7268</v>
+        <v>8102</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4450</v>
+        <v>5178</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12784</v>
+        <v>13798</v>
       </c>
       <c r="J5" t="n">
-        <v>15796</v>
+        <v>17620</v>
       </c>
       <c r="K5" t="n">
-        <v>60272</v>
+        <v>66774</v>
       </c>
       <c r="L5" t="n">
-        <v>15706.5705</v>
+        <v>17439.7438</v>
       </c>
       <c r="M5" t="n">
-        <v>4269.4269</v>
+        <v>4638.4638</v>
       </c>
       <c r="N5" t="n">
-        <v>7268.7268</v>
+        <v>8102.8102</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4450.445</v>
+        <v>5178.5178</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>12785.2784</v>
+        <v>13799.3798</v>
       </c>
       <c r="S5" t="n">
-        <v>15797.5796</v>
+        <v>17621.762</v>
       </c>
       <c r="T5" t="n">
-        <v>60278.0272</v>
+        <v>66780.6774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16704</v>
+        <v>18041</v>
       </c>
       <c r="D6" t="n">
-        <v>4560</v>
+        <v>4882</v>
       </c>
       <c r="E6" t="n">
-        <v>7432</v>
+        <v>8235</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4720</v>
+        <v>5226</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13319</v>
+        <v>14143</v>
       </c>
       <c r="J6" t="n">
-        <v>16447</v>
+        <v>17900</v>
       </c>
       <c r="K6" t="n">
-        <v>63182</v>
+        <v>68427</v>
       </c>
       <c r="L6" t="n">
-        <v>16705.6704</v>
+        <v>18042.8041</v>
       </c>
       <c r="M6" t="n">
-        <v>4560.456</v>
+        <v>4882.4882</v>
       </c>
       <c r="N6" t="n">
-        <v>7432.7432</v>
+        <v>8235.8235</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4720.472</v>
+        <v>5226.5226</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13320.3319</v>
+        <v>14144.4143</v>
       </c>
       <c r="S6" t="n">
-        <v>16448.6447</v>
+        <v>17901.79</v>
       </c>
       <c r="T6" t="n">
-        <v>63188.3182</v>
+        <v>68433.84270000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>17753</v>
+        <v>18811</v>
       </c>
       <c r="D7" t="n">
-        <v>4910</v>
+        <v>5371</v>
       </c>
       <c r="E7" t="n">
-        <v>8062</v>
+        <v>8886</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5584</v>
+        <v>5719</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14034</v>
+        <v>14910</v>
       </c>
       <c r="J7" t="n">
-        <v>17459</v>
+        <v>19136</v>
       </c>
       <c r="K7" t="n">
-        <v>67802</v>
+        <v>72833</v>
       </c>
       <c r="L7" t="n">
-        <v>17754.7753</v>
+        <v>18812.8811</v>
       </c>
       <c r="M7" t="n">
-        <v>4910.491</v>
+        <v>5371.5371</v>
       </c>
       <c r="N7" t="n">
-        <v>8062.8062</v>
+        <v>8886.8886</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5584.5584</v>
+        <v>5719.5719</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14035.4034</v>
+        <v>14911.491</v>
       </c>
       <c r="S7" t="n">
-        <v>17460.7459</v>
+        <v>19137.9136</v>
       </c>
       <c r="T7" t="n">
-        <v>67808.78019999999</v>
+        <v>72840.28330000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18187</v>
+        <v>18689</v>
       </c>
       <c r="D8" t="n">
-        <v>4410</v>
+        <v>4586</v>
       </c>
       <c r="E8" t="n">
-        <v>8441</v>
+        <v>9006</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6771</v>
+        <v>7021</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14185</v>
+        <v>14958</v>
       </c>
       <c r="J8" t="n">
-        <v>17577</v>
+        <v>18598</v>
       </c>
       <c r="K8" t="n">
-        <v>69571</v>
+        <v>72858</v>
       </c>
       <c r="L8" t="n">
-        <v>18188.8187</v>
+        <v>18690.8689</v>
       </c>
       <c r="M8" t="n">
-        <v>4410.441</v>
+        <v>4586.4586</v>
       </c>
       <c r="N8" t="n">
-        <v>8441.8441</v>
+        <v>9006.900599999999</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6771.6771</v>
+        <v>7021.7021</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14186.4185</v>
+        <v>14959.4958</v>
       </c>
       <c r="S8" t="n">
-        <v>17578.7577</v>
+        <v>18599.8598</v>
       </c>
       <c r="T8" t="n">
-        <v>69577.9571</v>
+        <v>72865.28580000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21165</v>
+        <v>21111</v>
       </c>
       <c r="D9" t="n">
-        <v>4679</v>
+        <v>4741</v>
       </c>
       <c r="E9" t="n">
-        <v>10305</v>
+        <v>10697</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9453</v>
+        <v>10465</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16193</v>
+        <v>17456</v>
       </c>
       <c r="J9" t="n">
-        <v>19363</v>
+        <v>20215</v>
       </c>
       <c r="K9" t="n">
-        <v>81158</v>
+        <v>84685</v>
       </c>
       <c r="L9" t="n">
-        <v>21167.1165</v>
+        <v>21113.1111</v>
       </c>
       <c r="M9" t="n">
-        <v>4679.4679</v>
+        <v>4741.4741</v>
       </c>
       <c r="N9" t="n">
-        <v>10306.0305</v>
+        <v>10698.0697</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9453.945299999999</v>
+        <v>10466.0465</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16194.6193</v>
+        <v>17457.7456</v>
       </c>
       <c r="S9" t="n">
-        <v>19364.9363</v>
+        <v>20217.0215</v>
       </c>
       <c r="T9" t="n">
-        <v>81166.1158</v>
+        <v>84693.46849999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26539</v>
+        <v>27401</v>
       </c>
       <c r="D10" t="n">
-        <v>5435</v>
+        <v>5613</v>
       </c>
       <c r="E10" t="n">
-        <v>12881</v>
+        <v>13587</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12768</v>
+        <v>12996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18743</v>
+        <v>19031</v>
       </c>
       <c r="J10" t="n">
-        <v>22087</v>
+        <v>23924</v>
       </c>
       <c r="K10" t="n">
-        <v>98453</v>
+        <v>102552</v>
       </c>
       <c r="L10" t="n">
-        <v>26541.6539</v>
+        <v>27403.7401</v>
       </c>
       <c r="M10" t="n">
-        <v>5435.5435</v>
+        <v>5613.5613</v>
       </c>
       <c r="N10" t="n">
-        <v>12882.2881</v>
+        <v>13588.3587</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12769.2768</v>
+        <v>12997.2996</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18744.8743</v>
+        <v>19032.9031</v>
       </c>
       <c r="S10" t="n">
-        <v>22089.2087</v>
+        <v>23926.3924</v>
       </c>
       <c r="T10" t="n">
-        <v>98462.8453</v>
+        <v>102562.2552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28816</v>
+        <v>29301</v>
       </c>
       <c r="D11" t="n">
-        <v>5831</v>
+        <v>5688</v>
       </c>
       <c r="E11" t="n">
-        <v>16459</v>
+        <v>17571</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13796</v>
+        <v>14723</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19437</v>
+        <v>20103</v>
       </c>
       <c r="J11" t="n">
-        <v>24090</v>
+        <v>24871</v>
       </c>
       <c r="K11" t="n">
-        <v>108429</v>
+        <v>112257</v>
       </c>
       <c r="L11" t="n">
-        <v>28818.8816</v>
+        <v>29303.9301</v>
       </c>
       <c r="M11" t="n">
-        <v>5831.5831</v>
+        <v>5688.5688</v>
       </c>
       <c r="N11" t="n">
-        <v>16460.6459</v>
+        <v>17572.7571</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13797.3796</v>
+        <v>14724.4723</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19438.9437</v>
+        <v>20105.0103</v>
       </c>
       <c r="S11" t="n">
-        <v>24092.409</v>
+        <v>24873.4871</v>
       </c>
       <c r="T11" t="n">
-        <v>108439.8429</v>
+        <v>112268.2257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>29162</v>
+        <v>30596</v>
       </c>
       <c r="D12" t="n">
-        <v>5801</v>
+        <v>5902</v>
       </c>
       <c r="E12" t="n">
-        <v>18360</v>
+        <v>18831</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14092</v>
+        <v>14864</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19402</v>
+        <v>20562</v>
       </c>
       <c r="J12" t="n">
-        <v>24922</v>
+        <v>25402</v>
       </c>
       <c r="K12" t="n">
-        <v>111739</v>
+        <v>116157</v>
       </c>
       <c r="L12" t="n">
-        <v>29164.9162</v>
+        <v>30599.0596</v>
       </c>
       <c r="M12" t="n">
-        <v>5801.5801</v>
+        <v>5902.5902</v>
       </c>
       <c r="N12" t="n">
-        <v>18361.836</v>
+        <v>18832.8831</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14093.4092</v>
+        <v>14865.4864</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19403.9402</v>
+        <v>20564.0562</v>
       </c>
       <c r="S12" t="n">
-        <v>24924.4922</v>
+        <v>25404.5402</v>
       </c>
       <c r="T12" t="n">
-        <v>111750.1739</v>
+        <v>116168.6157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>29265</v>
+        <v>30033</v>
       </c>
       <c r="D13" t="n">
-        <v>5919</v>
+        <v>6037</v>
       </c>
       <c r="E13" t="n">
-        <v>18421</v>
+        <v>18926</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14471</v>
+        <v>14319</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19716</v>
+        <v>20138</v>
       </c>
       <c r="J13" t="n">
-        <v>25305</v>
+        <v>25728</v>
       </c>
       <c r="K13" t="n">
-        <v>113097</v>
+        <v>115181</v>
       </c>
       <c r="L13" t="n">
-        <v>29267.9265</v>
+        <v>30036.0033</v>
       </c>
       <c r="M13" t="n">
-        <v>5919.5919</v>
+        <v>6037.6037</v>
       </c>
       <c r="N13" t="n">
-        <v>18422.8421</v>
+        <v>18927.8926</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14472.4471</v>
+        <v>14320.4319</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19717.9716</v>
+        <v>20140.0138</v>
       </c>
       <c r="S13" t="n">
-        <v>25307.5305</v>
+        <v>25730.5728</v>
       </c>
       <c r="T13" t="n">
-        <v>113108.3097</v>
+        <v>115192.5181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>29689</v>
+        <v>30101</v>
       </c>
       <c r="D14" t="n">
-        <v>5765</v>
+        <v>5877</v>
       </c>
       <c r="E14" t="n">
-        <v>18171</v>
+        <v>19038</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14225</v>
+        <v>15795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19981</v>
+        <v>21958</v>
       </c>
       <c r="J14" t="n">
-        <v>24921</v>
+        <v>25669</v>
       </c>
       <c r="K14" t="n">
-        <v>112752</v>
+        <v>118438</v>
       </c>
       <c r="L14" t="n">
-        <v>29691.9689</v>
+        <v>30104.0101</v>
       </c>
       <c r="M14" t="n">
-        <v>5765.5765</v>
+        <v>5877.5877</v>
       </c>
       <c r="N14" t="n">
-        <v>18172.8171</v>
+        <v>19039.9038</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14226.4225</v>
+        <v>15796.5795</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19982.9981</v>
+        <v>21960.1958</v>
       </c>
       <c r="S14" t="n">
-        <v>24923.4921</v>
+        <v>25671.5669</v>
       </c>
       <c r="T14" t="n">
-        <v>112763.2752</v>
+        <v>118449.8438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>30436</v>
+        <v>31220</v>
       </c>
       <c r="D15" t="n">
-        <v>6044</v>
+        <v>6127</v>
       </c>
       <c r="E15" t="n">
-        <v>18805</v>
+        <v>19084</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15175</v>
+        <v>15071</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20615</v>
+        <v>21170</v>
       </c>
       <c r="J15" t="n">
-        <v>25900</v>
+        <v>26296</v>
       </c>
       <c r="K15" t="n">
-        <v>116975</v>
+        <v>118968</v>
       </c>
       <c r="L15" t="n">
-        <v>30439.0436</v>
+        <v>31223.122</v>
       </c>
       <c r="M15" t="n">
-        <v>6044.6044</v>
+        <v>6127.6127</v>
       </c>
       <c r="N15" t="n">
-        <v>18806.8805</v>
+        <v>19085.9084</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15176.5175</v>
+        <v>15072.5071</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20617.0615</v>
+        <v>21172.117</v>
       </c>
       <c r="S15" t="n">
-        <v>25902.59</v>
+        <v>26298.6296</v>
       </c>
       <c r="T15" t="n">
-        <v>116986.6975</v>
+        <v>118979.8968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>30921</v>
+        <v>32197</v>
       </c>
       <c r="D16" t="n">
-        <v>6017</v>
+        <v>6332</v>
       </c>
       <c r="E16" t="n">
-        <v>18794</v>
+        <v>19180</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14937</v>
+        <v>15521</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20903</v>
+        <v>21620</v>
       </c>
       <c r="J16" t="n">
-        <v>26070</v>
+        <v>26956</v>
       </c>
       <c r="K16" t="n">
-        <v>117642</v>
+        <v>121806</v>
       </c>
       <c r="L16" t="n">
-        <v>30924.0921</v>
+        <v>32200.2197</v>
       </c>
       <c r="M16" t="n">
-        <v>6017.6017</v>
+        <v>6332.6332</v>
       </c>
       <c r="N16" t="n">
-        <v>18795.8794</v>
+        <v>19181.918</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>14938.4937</v>
+        <v>15522.5521</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20905.0903</v>
+        <v>21622.162</v>
       </c>
       <c r="S16" t="n">
-        <v>26072.607</v>
+        <v>26958.6956</v>
       </c>
       <c r="T16" t="n">
-        <v>117653.7642</v>
+        <v>121818.1806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>30681</v>
+        <v>29317</v>
       </c>
       <c r="D17" t="n">
-        <v>6080</v>
+        <v>5863</v>
       </c>
       <c r="E17" t="n">
-        <v>18729</v>
+        <v>18637</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14970</v>
+        <v>14787</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>20501</v>
       </c>
       <c r="J17" t="n">
-        <v>25962</v>
+        <v>25861</v>
       </c>
       <c r="K17" t="n">
-        <v>96422</v>
+        <v>114966</v>
       </c>
       <c r="L17" t="n">
-        <v>30684.0681</v>
+        <v>29319.9317</v>
       </c>
       <c r="M17" t="n">
-        <v>6080.608</v>
+        <v>5863.5863</v>
       </c>
       <c r="N17" t="n">
-        <v>18730.8729</v>
+        <v>18638.8637</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>14971.497</v>
+        <v>14788.4787</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20503.0501</v>
       </c>
       <c r="S17" t="n">
-        <v>25964.5962</v>
+        <v>25863.5861</v>
       </c>
       <c r="T17" t="n">
-        <v>96431.6422</v>
+        <v>114977.4966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>29701</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>6044</v>
+        <v>5726</v>
       </c>
       <c r="E18" t="n">
-        <v>18564</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15022</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25317</v>
+        <v>9830</v>
       </c>
       <c r="K18" t="n">
-        <v>94648</v>
+        <v>15556</v>
       </c>
       <c r="L18" t="n">
-        <v>29703.9701</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>6044.6044</v>
+        <v>5726.5726</v>
       </c>
       <c r="N18" t="n">
-        <v>18565.8564</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15023.5022</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>25319.5317</v>
+        <v>9830.983</v>
       </c>
       <c r="T18" t="n">
-        <v>94657.46480000002</v>
+        <v>15557.5556</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1089 +538,961 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19189</v>
+        <v>20279</v>
       </c>
       <c r="D2" t="n">
-        <v>5219</v>
+        <v>5680</v>
       </c>
       <c r="E2" t="n">
-        <v>8740</v>
+        <v>8744</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5529</v>
+        <v>4830</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15018</v>
+        <v>15955</v>
       </c>
       <c r="J2" t="n">
-        <v>19463</v>
+        <v>19204</v>
       </c>
       <c r="K2" t="n">
-        <v>73158</v>
+        <v>74692</v>
       </c>
       <c r="L2" t="n">
-        <v>19190.9189</v>
+        <v>20281.0279</v>
       </c>
       <c r="M2" t="n">
-        <v>5219.5219</v>
+        <v>5680.568</v>
       </c>
       <c r="N2" t="n">
-        <v>8740.874</v>
+        <v>8744.874400000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5529.5529</v>
+        <v>4830.483</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15019.5018</v>
+        <v>15956.5955</v>
       </c>
       <c r="S2" t="n">
-        <v>19464.9463</v>
+        <v>19205.9204</v>
       </c>
       <c r="T2" t="n">
-        <v>73165.3158</v>
+        <v>74699.46920000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18379</v>
+        <v>19684</v>
       </c>
       <c r="D3" t="n">
-        <v>4985</v>
+        <v>5363</v>
       </c>
       <c r="E3" t="n">
-        <v>8351</v>
+        <v>8368</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5430</v>
+        <v>2493</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14349</v>
+        <v>15167</v>
       </c>
       <c r="J3" t="n">
-        <v>18477</v>
+        <v>18247</v>
       </c>
       <c r="K3" t="n">
-        <v>69971</v>
+        <v>69322</v>
       </c>
       <c r="L3" t="n">
-        <v>18380.8379</v>
+        <v>19685.9684</v>
       </c>
       <c r="M3" t="n">
-        <v>4985.4985</v>
+        <v>5363.5363</v>
       </c>
       <c r="N3" t="n">
-        <v>8351.8351</v>
+        <v>8368.836799999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5430.543</v>
+        <v>2493.2493</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14350.4349</v>
+        <v>15168.5167</v>
       </c>
       <c r="S3" t="n">
-        <v>18478.8477</v>
+        <v>18248.8247</v>
       </c>
       <c r="T3" t="n">
-        <v>69977.99710000001</v>
+        <v>69328.93220000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17470</v>
+        <v>18963</v>
       </c>
       <c r="D4" t="n">
-        <v>4704</v>
+        <v>5124</v>
       </c>
       <c r="E4" t="n">
-        <v>8155</v>
+        <v>8064</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5207</v>
+        <v>6706</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13877</v>
+        <v>14659</v>
       </c>
       <c r="J4" t="n">
-        <v>17820</v>
+        <v>17306</v>
       </c>
       <c r="K4" t="n">
-        <v>67233</v>
+        <v>70822</v>
       </c>
       <c r="L4" t="n">
-        <v>17471.747</v>
+        <v>18964.8963</v>
       </c>
       <c r="M4" t="n">
-        <v>4704.4704</v>
+        <v>5124.5124</v>
       </c>
       <c r="N4" t="n">
-        <v>8155.8155</v>
+        <v>8064.806399999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5207.5207</v>
+        <v>6706.6706</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13878.3877</v>
+        <v>14660.4659</v>
       </c>
       <c r="S4" t="n">
-        <v>17821.782</v>
+        <v>17307.7306</v>
       </c>
       <c r="T4" t="n">
-        <v>67239.7233</v>
+        <v>70829.08219999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17438</v>
+        <v>18427</v>
       </c>
       <c r="D5" t="n">
-        <v>4638</v>
+        <v>4895</v>
       </c>
       <c r="E5" t="n">
-        <v>8102</v>
+        <v>7803</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5178</v>
+        <v>4364</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13798</v>
+        <v>14149</v>
       </c>
       <c r="J5" t="n">
-        <v>17620</v>
+        <v>17130</v>
       </c>
       <c r="K5" t="n">
-        <v>66774</v>
+        <v>66768</v>
       </c>
       <c r="L5" t="n">
-        <v>17439.7438</v>
+        <v>18428.8427</v>
       </c>
       <c r="M5" t="n">
-        <v>4638.4638</v>
+        <v>4895.4895</v>
       </c>
       <c r="N5" t="n">
-        <v>8102.8102</v>
+        <v>7803.7803</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5178.5178</v>
+        <v>4364.4364</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13799.3798</v>
+        <v>14150.4149</v>
       </c>
       <c r="S5" t="n">
-        <v>17621.762</v>
+        <v>17131.713</v>
       </c>
       <c r="T5" t="n">
-        <v>66780.6774</v>
+        <v>66774.6768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18041</v>
+        <v>18205</v>
       </c>
       <c r="D6" t="n">
-        <v>4882</v>
+        <v>5057</v>
       </c>
       <c r="E6" t="n">
-        <v>8235</v>
+        <v>7632</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5226</v>
+        <v>4440</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14143</v>
+        <v>14368</v>
       </c>
       <c r="J6" t="n">
-        <v>17900</v>
+        <v>17474</v>
       </c>
       <c r="K6" t="n">
-        <v>68427</v>
+        <v>67176</v>
       </c>
       <c r="L6" t="n">
-        <v>18042.8041</v>
+        <v>18206.8205</v>
       </c>
       <c r="M6" t="n">
-        <v>4882.4882</v>
+        <v>5057.5057</v>
       </c>
       <c r="N6" t="n">
-        <v>8235.8235</v>
+        <v>7632.7632</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5226.5226</v>
+        <v>4440.444</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14144.4143</v>
+        <v>14369.4368</v>
       </c>
       <c r="S6" t="n">
-        <v>17901.79</v>
+        <v>17475.7474</v>
       </c>
       <c r="T6" t="n">
-        <v>68433.84270000001</v>
+        <v>67182.7176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18811</v>
+        <v>18895</v>
       </c>
       <c r="D7" t="n">
-        <v>5371</v>
+        <v>5068</v>
       </c>
       <c r="E7" t="n">
-        <v>8886</v>
+        <v>8014</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5719</v>
+        <v>4998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14910</v>
+        <v>14645</v>
       </c>
       <c r="J7" t="n">
-        <v>19136</v>
+        <v>17548</v>
       </c>
       <c r="K7" t="n">
-        <v>72833</v>
+        <v>69168</v>
       </c>
       <c r="L7" t="n">
-        <v>18812.8811</v>
+        <v>18896.8895</v>
       </c>
       <c r="M7" t="n">
-        <v>5371.5371</v>
+        <v>5068.5068</v>
       </c>
       <c r="N7" t="n">
-        <v>8886.8886</v>
+        <v>8014.8014</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5719.5719</v>
+        <v>4998.4998</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14911.491</v>
+        <v>14646.4645</v>
       </c>
       <c r="S7" t="n">
-        <v>19137.9136</v>
+        <v>17549.7548</v>
       </c>
       <c r="T7" t="n">
-        <v>72840.28330000001</v>
+        <v>69174.91680000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18689</v>
+        <v>18699</v>
       </c>
       <c r="D8" t="n">
-        <v>4586</v>
+        <v>4426</v>
       </c>
       <c r="E8" t="n">
-        <v>9006</v>
+        <v>8523</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7021</v>
+        <v>6270</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14958</v>
+        <v>14697</v>
       </c>
       <c r="J8" t="n">
-        <v>18598</v>
+        <v>17173</v>
       </c>
       <c r="K8" t="n">
-        <v>72858</v>
+        <v>69788</v>
       </c>
       <c r="L8" t="n">
-        <v>18690.8689</v>
+        <v>18700.8699</v>
       </c>
       <c r="M8" t="n">
-        <v>4586.4586</v>
+        <v>4426.4426</v>
       </c>
       <c r="N8" t="n">
-        <v>9006.900599999999</v>
+        <v>8523.8523</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7021.7021</v>
+        <v>6270.627</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14959.4958</v>
+        <v>14698.4697</v>
       </c>
       <c r="S8" t="n">
-        <v>18599.8598</v>
+        <v>17174.7173</v>
       </c>
       <c r="T8" t="n">
-        <v>72865.28580000001</v>
+        <v>69794.9788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21111</v>
+        <v>21042</v>
       </c>
       <c r="D9" t="n">
-        <v>4741</v>
+        <v>4856</v>
       </c>
       <c r="E9" t="n">
-        <v>10697</v>
+        <v>10234</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10465</v>
+        <v>9412</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17456</v>
+        <v>16953</v>
       </c>
       <c r="J9" t="n">
-        <v>20215</v>
+        <v>19346</v>
       </c>
       <c r="K9" t="n">
-        <v>84685</v>
+        <v>81843</v>
       </c>
       <c r="L9" t="n">
-        <v>21113.1111</v>
+        <v>21044.1042</v>
       </c>
       <c r="M9" t="n">
-        <v>4741.4741</v>
+        <v>4856.4856</v>
       </c>
       <c r="N9" t="n">
-        <v>10698.0697</v>
+        <v>10235.0234</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>10466.0465</v>
+        <v>9412.941199999999</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17457.7456</v>
+        <v>16954.6953</v>
       </c>
       <c r="S9" t="n">
-        <v>20217.0215</v>
+        <v>19347.9346</v>
       </c>
       <c r="T9" t="n">
-        <v>84693.46849999999</v>
+        <v>81851.18429999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>27401</v>
+        <v>28208</v>
       </c>
       <c r="D10" t="n">
-        <v>5613</v>
+        <v>5919</v>
       </c>
       <c r="E10" t="n">
-        <v>13587</v>
+        <v>12992</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12996</v>
+        <v>13091</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19031</v>
+        <v>19821</v>
       </c>
       <c r="J10" t="n">
-        <v>23924</v>
+        <v>22589</v>
       </c>
       <c r="K10" t="n">
-        <v>102552</v>
+        <v>102620</v>
       </c>
       <c r="L10" t="n">
-        <v>27403.7401</v>
+        <v>28210.8208</v>
       </c>
       <c r="M10" t="n">
-        <v>5613.5613</v>
+        <v>5919.5919</v>
       </c>
       <c r="N10" t="n">
-        <v>13588.3587</v>
+        <v>12993.2992</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12997.2996</v>
+        <v>13092.3091</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19032.9031</v>
+        <v>19822.9821</v>
       </c>
       <c r="S10" t="n">
-        <v>23926.3924</v>
+        <v>22591.2589</v>
       </c>
       <c r="T10" t="n">
-        <v>102562.2552</v>
+        <v>102630.262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>29301</v>
+        <v>30760</v>
       </c>
       <c r="D11" t="n">
-        <v>5688</v>
+        <v>6356</v>
       </c>
       <c r="E11" t="n">
-        <v>17571</v>
+        <v>18447</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14723</v>
+        <v>14815</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20103</v>
+        <v>24742</v>
       </c>
       <c r="J11" t="n">
-        <v>24871</v>
+        <v>24266</v>
       </c>
       <c r="K11" t="n">
-        <v>112257</v>
+        <v>119386</v>
       </c>
       <c r="L11" t="n">
-        <v>29303.9301</v>
+        <v>30763.076</v>
       </c>
       <c r="M11" t="n">
-        <v>5688.5688</v>
+        <v>6356.6356</v>
       </c>
       <c r="N11" t="n">
-        <v>17572.7571</v>
+        <v>18448.8447</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14724.4723</v>
+        <v>14816.4815</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20105.0103</v>
+        <v>24744.4742</v>
       </c>
       <c r="S11" t="n">
-        <v>24873.4871</v>
+        <v>24268.4266</v>
       </c>
       <c r="T11" t="n">
-        <v>112268.2257</v>
+        <v>119397.9386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>30596</v>
+        <v>31000</v>
       </c>
       <c r="D12" t="n">
-        <v>5902</v>
+        <v>6299</v>
       </c>
       <c r="E12" t="n">
-        <v>18831</v>
+        <v>18736</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14864</v>
+        <v>14545</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20562</v>
+        <v>20855</v>
       </c>
       <c r="J12" t="n">
-        <v>25402</v>
+        <v>24935</v>
       </c>
       <c r="K12" t="n">
-        <v>116157</v>
+        <v>116370</v>
       </c>
       <c r="L12" t="n">
-        <v>30599.0596</v>
+        <v>31003.1</v>
       </c>
       <c r="M12" t="n">
-        <v>5902.5902</v>
+        <v>6299.6299</v>
       </c>
       <c r="N12" t="n">
-        <v>18832.8831</v>
+        <v>18737.8736</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14865.4864</v>
+        <v>14546.4545</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20564.0562</v>
+        <v>20857.0855</v>
       </c>
       <c r="S12" t="n">
-        <v>25404.5402</v>
+        <v>24937.4935</v>
       </c>
       <c r="T12" t="n">
-        <v>116168.6157</v>
+        <v>116381.637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>30033</v>
+        <v>32183</v>
       </c>
       <c r="D13" t="n">
-        <v>6037</v>
+        <v>6679</v>
       </c>
       <c r="E13" t="n">
-        <v>18926</v>
+        <v>19282</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14319</v>
+        <v>15307</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>20138</v>
+        <v>21719</v>
       </c>
       <c r="J13" t="n">
-        <v>25728</v>
+        <v>25203</v>
       </c>
       <c r="K13" t="n">
-        <v>115181</v>
+        <v>120373</v>
       </c>
       <c r="L13" t="n">
-        <v>30036.0033</v>
+        <v>32186.2183</v>
       </c>
       <c r="M13" t="n">
-        <v>6037.6037</v>
+        <v>6679.6679</v>
       </c>
       <c r="N13" t="n">
-        <v>18927.8926</v>
+        <v>19283.9282</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14320.4319</v>
+        <v>15308.5307</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20140.0138</v>
+        <v>21721.1719</v>
       </c>
       <c r="S13" t="n">
-        <v>25730.5728</v>
+        <v>25205.5203</v>
       </c>
       <c r="T13" t="n">
-        <v>115192.5181</v>
+        <v>120385.0373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>30101</v>
+        <v>31457</v>
       </c>
       <c r="D14" t="n">
-        <v>5877</v>
+        <v>6408</v>
       </c>
       <c r="E14" t="n">
-        <v>19038</v>
+        <v>19365</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15795</v>
+        <v>15062</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21958</v>
+        <v>21633</v>
       </c>
       <c r="J14" t="n">
-        <v>25669</v>
+        <v>25135</v>
       </c>
       <c r="K14" t="n">
-        <v>118438</v>
+        <v>119060</v>
       </c>
       <c r="L14" t="n">
-        <v>30104.0101</v>
+        <v>31460.1457</v>
       </c>
       <c r="M14" t="n">
-        <v>5877.5877</v>
+        <v>6408.6408</v>
       </c>
       <c r="N14" t="n">
-        <v>19039.9038</v>
+        <v>19366.9365</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15796.5795</v>
+        <v>15063.5062</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21960.1958</v>
+        <v>21635.1633</v>
       </c>
       <c r="S14" t="n">
-        <v>25671.5669</v>
+        <v>25137.5135</v>
       </c>
       <c r="T14" t="n">
-        <v>118449.8438</v>
+        <v>119071.906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>31220</v>
+        <v>33743</v>
       </c>
       <c r="D15" t="n">
-        <v>6127</v>
+        <v>6884</v>
       </c>
       <c r="E15" t="n">
-        <v>19084</v>
+        <v>19638</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15071</v>
+        <v>15684</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21170</v>
+        <v>22852</v>
       </c>
       <c r="J15" t="n">
-        <v>26296</v>
+        <v>26472</v>
       </c>
       <c r="K15" t="n">
-        <v>118968</v>
+        <v>125273</v>
       </c>
       <c r="L15" t="n">
-        <v>31223.122</v>
+        <v>33746.3743</v>
       </c>
       <c r="M15" t="n">
-        <v>6127.6127</v>
+        <v>6884.6884</v>
       </c>
       <c r="N15" t="n">
-        <v>19085.9084</v>
+        <v>19639.9638</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15072.5071</v>
+        <v>15685.5684</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21172.117</v>
+        <v>22854.2852</v>
       </c>
       <c r="S15" t="n">
-        <v>26298.6296</v>
+        <v>26474.6472</v>
       </c>
       <c r="T15" t="n">
-        <v>118979.8968</v>
+        <v>125285.5273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>32197</v>
+        <v>32616</v>
       </c>
       <c r="D16" t="n">
-        <v>6332</v>
+        <v>6599</v>
       </c>
       <c r="E16" t="n">
-        <v>19180</v>
+        <v>19282</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15521</v>
+        <v>15182</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21620</v>
+        <v>22458</v>
       </c>
       <c r="J16" t="n">
-        <v>26956</v>
+        <v>25841</v>
       </c>
       <c r="K16" t="n">
-        <v>121806</v>
+        <v>121978</v>
       </c>
       <c r="L16" t="n">
-        <v>32200.2197</v>
+        <v>32619.2616</v>
       </c>
       <c r="M16" t="n">
-        <v>6332.6332</v>
+        <v>6599.6599</v>
       </c>
       <c r="N16" t="n">
-        <v>19181.918</v>
+        <v>19283.9282</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15522.5521</v>
+        <v>15183.5182</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21622.162</v>
+        <v>22460.2458</v>
       </c>
       <c r="S16" t="n">
-        <v>26958.6956</v>
+        <v>25843.5841</v>
       </c>
       <c r="T16" t="n">
-        <v>121818.1806</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-09-05</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29317</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5863</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18637</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14787</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20501</v>
-      </c>
-      <c r="J17" t="n">
-        <v>25861</v>
-      </c>
-      <c r="K17" t="n">
-        <v>114966</v>
-      </c>
-      <c r="L17" t="n">
-        <v>29319.9317</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5863.5863</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18638.8637</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>14788.4787</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>20503.0501</v>
-      </c>
-      <c r="S17" t="n">
-        <v>25863.5861</v>
-      </c>
-      <c r="T17" t="n">
-        <v>114977.4966</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-09-05</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5726</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9830</v>
-      </c>
-      <c r="K18" t="n">
-        <v>15556</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5726.5726</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>9830.983</v>
-      </c>
-      <c r="T18" t="n">
-        <v>15557.5556</v>
+        <v>121990.1978</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,55 +481,45 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>eS1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>eS1</t>
+          <t>eS2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>eS2</t>
+          <t>eS3</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>eS3</t>
+          <t>eS4</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>eS4</t>
+          <t>eS5</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>eS5</t>
+          <t>eS6</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>eS6</t>
+          <t>eS7</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>eS7</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>eS8</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>eTotal</t>
         </is>
@@ -538,961 +528,697 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20279</v>
+        <v>16685</v>
       </c>
       <c r="D2" t="n">
-        <v>5680</v>
+        <v>4428</v>
       </c>
       <c r="E2" t="n">
-        <v>8744</v>
+        <v>7889</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4830</v>
+        <v>4943</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15955</v>
+        <v>16720</v>
       </c>
       <c r="J2" t="n">
-        <v>19204</v>
+        <v>50665</v>
       </c>
       <c r="K2" t="n">
-        <v>74692</v>
+        <v>16686.6685</v>
       </c>
       <c r="L2" t="n">
-        <v>20281.0279</v>
+        <v>4428.4428</v>
       </c>
       <c r="M2" t="n">
-        <v>5680.568</v>
+        <v>7889.7889</v>
       </c>
       <c r="N2" t="n">
-        <v>8744.874400000001</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4943.4943</v>
       </c>
       <c r="P2" t="n">
-        <v>4830.483</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>16721.672</v>
       </c>
       <c r="R2" t="n">
-        <v>15956.5955</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19205.9204</v>
-      </c>
-      <c r="T2" t="n">
-        <v>74699.46920000001</v>
+        <v>50670.0665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19684</v>
+        <v>16180</v>
       </c>
       <c r="D3" t="n">
-        <v>5363</v>
+        <v>4231</v>
       </c>
       <c r="E3" t="n">
-        <v>8368</v>
+        <v>7575</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2493</v>
+        <v>4791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15167</v>
+        <v>16065</v>
       </c>
       <c r="J3" t="n">
-        <v>18247</v>
+        <v>48842</v>
       </c>
       <c r="K3" t="n">
-        <v>69322</v>
+        <v>16181.618</v>
       </c>
       <c r="L3" t="n">
-        <v>19685.9684</v>
+        <v>4231.4231</v>
       </c>
       <c r="M3" t="n">
-        <v>5363.5363</v>
+        <v>7575.7575</v>
       </c>
       <c r="N3" t="n">
-        <v>8368.836799999999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4791.4791</v>
       </c>
       <c r="P3" t="n">
-        <v>2493.2493</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>16066.6065</v>
       </c>
       <c r="R3" t="n">
-        <v>15168.5167</v>
-      </c>
-      <c r="S3" t="n">
-        <v>18248.8247</v>
-      </c>
-      <c r="T3" t="n">
-        <v>69328.93220000001</v>
+        <v>48846.8842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18963</v>
+        <v>15828</v>
       </c>
       <c r="D4" t="n">
-        <v>5124</v>
+        <v>4024</v>
       </c>
       <c r="E4" t="n">
-        <v>8064</v>
+        <v>7486</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6706</v>
+        <v>4662</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14659</v>
+        <v>15442</v>
       </c>
       <c r="J4" t="n">
-        <v>17306</v>
+        <v>47442</v>
       </c>
       <c r="K4" t="n">
-        <v>70822</v>
+        <v>15829.5828</v>
       </c>
       <c r="L4" t="n">
-        <v>18964.8963</v>
+        <v>4024.4024</v>
       </c>
       <c r="M4" t="n">
-        <v>5124.5124</v>
+        <v>7486.7486</v>
       </c>
       <c r="N4" t="n">
-        <v>8064.806399999999</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4662.4662</v>
       </c>
       <c r="P4" t="n">
-        <v>6706.6706</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15443.5442</v>
       </c>
       <c r="R4" t="n">
-        <v>14660.4659</v>
-      </c>
-      <c r="S4" t="n">
-        <v>17307.7306</v>
-      </c>
-      <c r="T4" t="n">
-        <v>70829.08219999999</v>
+        <v>47446.7442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18427</v>
+        <v>15667</v>
       </c>
       <c r="D5" t="n">
-        <v>4895</v>
+        <v>3979</v>
       </c>
       <c r="E5" t="n">
-        <v>7803</v>
+        <v>7412</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4364</v>
+        <v>4599</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14149</v>
+        <v>15517</v>
       </c>
       <c r="J5" t="n">
-        <v>17130</v>
+        <v>47174</v>
       </c>
       <c r="K5" t="n">
-        <v>66768</v>
+        <v>15668.5667</v>
       </c>
       <c r="L5" t="n">
-        <v>18428.8427</v>
+        <v>3979.3979</v>
       </c>
       <c r="M5" t="n">
-        <v>4895.4895</v>
+        <v>7412.741199999999</v>
       </c>
       <c r="N5" t="n">
-        <v>7803.7803</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4599.4599</v>
       </c>
       <c r="P5" t="n">
-        <v>4364.4364</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15518.5517</v>
       </c>
       <c r="R5" t="n">
-        <v>14150.4149</v>
-      </c>
-      <c r="S5" t="n">
-        <v>17131.713</v>
-      </c>
-      <c r="T5" t="n">
-        <v>66774.6768</v>
+        <v>47178.7174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18205</v>
+        <v>15741</v>
       </c>
       <c r="D6" t="n">
-        <v>5057</v>
+        <v>4049</v>
       </c>
       <c r="E6" t="n">
-        <v>7632</v>
+        <v>7510</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4440</v>
+        <v>4755</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14368</v>
+        <v>15959</v>
       </c>
       <c r="J6" t="n">
-        <v>17474</v>
+        <v>48014</v>
       </c>
       <c r="K6" t="n">
-        <v>67176</v>
+        <v>15742.5741</v>
       </c>
       <c r="L6" t="n">
-        <v>18206.8205</v>
+        <v>4049.4049</v>
       </c>
       <c r="M6" t="n">
-        <v>5057.5057</v>
+        <v>7510.751</v>
       </c>
       <c r="N6" t="n">
-        <v>7632.7632</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4755.4755</v>
       </c>
       <c r="P6" t="n">
-        <v>4440.444</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15960.5959</v>
       </c>
       <c r="R6" t="n">
-        <v>14369.4368</v>
-      </c>
-      <c r="S6" t="n">
-        <v>17475.7474</v>
-      </c>
-      <c r="T6" t="n">
-        <v>67182.7176</v>
+        <v>48018.8014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18895</v>
+        <v>16878</v>
       </c>
       <c r="D7" t="n">
-        <v>5068</v>
+        <v>4508</v>
       </c>
       <c r="E7" t="n">
-        <v>8014</v>
+        <v>7913</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4998</v>
+        <v>5030</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14645</v>
+        <v>16920</v>
       </c>
       <c r="J7" t="n">
-        <v>17548</v>
+        <v>51249</v>
       </c>
       <c r="K7" t="n">
-        <v>69168</v>
+        <v>16879.6878</v>
       </c>
       <c r="L7" t="n">
-        <v>18896.8895</v>
+        <v>4508.4508</v>
       </c>
       <c r="M7" t="n">
-        <v>5068.5068</v>
+        <v>7913.7913</v>
       </c>
       <c r="N7" t="n">
-        <v>8014.8014</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5030.503</v>
       </c>
       <c r="P7" t="n">
-        <v>4998.4998</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>16921.692</v>
       </c>
       <c r="R7" t="n">
-        <v>14646.4645</v>
-      </c>
-      <c r="S7" t="n">
-        <v>17549.7548</v>
-      </c>
-      <c r="T7" t="n">
-        <v>69174.91680000001</v>
+        <v>51254.1249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18699</v>
+        <v>17432</v>
       </c>
       <c r="D8" t="n">
-        <v>4426</v>
+        <v>4291</v>
       </c>
       <c r="E8" t="n">
-        <v>8523</v>
+        <v>8206</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6270</v>
+        <v>6243</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14697</v>
+        <v>17082</v>
       </c>
       <c r="J8" t="n">
-        <v>17173</v>
+        <v>53254</v>
       </c>
       <c r="K8" t="n">
-        <v>69788</v>
+        <v>17433.7432</v>
       </c>
       <c r="L8" t="n">
-        <v>18700.8699</v>
+        <v>4291.4291</v>
       </c>
       <c r="M8" t="n">
-        <v>4426.4426</v>
+        <v>8206.820599999999</v>
       </c>
       <c r="N8" t="n">
-        <v>8523.8523</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6243.6243</v>
       </c>
       <c r="P8" t="n">
-        <v>6270.627</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>17083.7082</v>
       </c>
       <c r="R8" t="n">
-        <v>14698.4697</v>
-      </c>
-      <c r="S8" t="n">
-        <v>17174.7173</v>
-      </c>
-      <c r="T8" t="n">
-        <v>69794.9788</v>
+        <v>53259.3254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21042</v>
+        <v>18993</v>
       </c>
       <c r="D9" t="n">
-        <v>4856</v>
+        <v>4369</v>
       </c>
       <c r="E9" t="n">
-        <v>10234</v>
+        <v>9080</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9412</v>
+        <v>8872</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16953</v>
+        <v>17785</v>
       </c>
       <c r="J9" t="n">
-        <v>19346</v>
+        <v>59099</v>
       </c>
       <c r="K9" t="n">
-        <v>81843</v>
+        <v>18994.8993</v>
       </c>
       <c r="L9" t="n">
-        <v>21044.1042</v>
+        <v>4369.4369</v>
       </c>
       <c r="M9" t="n">
-        <v>4856.4856</v>
+        <v>9080.907999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>10235.0234</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8872.887199999999</v>
       </c>
       <c r="P9" t="n">
-        <v>9412.941199999999</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>17786.7785</v>
       </c>
       <c r="R9" t="n">
-        <v>16954.6953</v>
-      </c>
-      <c r="S9" t="n">
-        <v>19347.9346</v>
-      </c>
-      <c r="T9" t="n">
-        <v>81851.18429999999</v>
+        <v>59104.9099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>28208</v>
+        <v>23159</v>
       </c>
       <c r="D10" t="n">
-        <v>5919</v>
+        <v>4806</v>
       </c>
       <c r="E10" t="n">
-        <v>12992</v>
+        <v>11120</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13091</v>
+        <v>12410</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19821</v>
+        <v>19463</v>
       </c>
       <c r="J10" t="n">
-        <v>22589</v>
+        <v>70958</v>
       </c>
       <c r="K10" t="n">
-        <v>102620</v>
+        <v>23161.3159</v>
       </c>
       <c r="L10" t="n">
-        <v>28210.8208</v>
+        <v>4806.4806</v>
       </c>
       <c r="M10" t="n">
-        <v>5919.5919</v>
+        <v>11121.112</v>
       </c>
       <c r="N10" t="n">
-        <v>12993.2992</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>12411.241</v>
       </c>
       <c r="P10" t="n">
-        <v>13092.3091</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>19464.9463</v>
       </c>
       <c r="R10" t="n">
-        <v>19822.9821</v>
-      </c>
-      <c r="S10" t="n">
-        <v>22591.2589</v>
-      </c>
-      <c r="T10" t="n">
-        <v>102630.262</v>
+        <v>70965.0958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>30760</v>
+        <v>24738</v>
       </c>
       <c r="D11" t="n">
-        <v>6356</v>
+        <v>5057</v>
       </c>
       <c r="E11" t="n">
-        <v>18447</v>
+        <v>15402</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14815</v>
+        <v>13134</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24742</v>
+        <v>20659</v>
       </c>
       <c r="J11" t="n">
-        <v>24266</v>
+        <v>78990</v>
       </c>
       <c r="K11" t="n">
-        <v>119386</v>
+        <v>24740.4738</v>
       </c>
       <c r="L11" t="n">
-        <v>30763.076</v>
+        <v>5057.5057</v>
       </c>
       <c r="M11" t="n">
-        <v>6356.6356</v>
+        <v>15403.5402</v>
       </c>
       <c r="N11" t="n">
-        <v>18448.8447</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>13135.3134</v>
       </c>
       <c r="P11" t="n">
-        <v>14816.4815</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>20661.0659</v>
       </c>
       <c r="R11" t="n">
-        <v>24744.4742</v>
-      </c>
-      <c r="S11" t="n">
-        <v>24268.4266</v>
-      </c>
-      <c r="T11" t="n">
-        <v>119397.9386</v>
+        <v>78997.899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31000</v>
+        <v>25523</v>
       </c>
       <c r="D12" t="n">
-        <v>6299</v>
+        <v>5145</v>
       </c>
       <c r="E12" t="n">
-        <v>18736</v>
+        <v>16206</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14545</v>
+        <v>13741</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20855</v>
+        <v>22164</v>
       </c>
       <c r="J12" t="n">
-        <v>24935</v>
+        <v>82779</v>
       </c>
       <c r="K12" t="n">
-        <v>116370</v>
+        <v>25525.5523</v>
       </c>
       <c r="L12" t="n">
-        <v>31003.1</v>
+        <v>5145.5145</v>
       </c>
       <c r="M12" t="n">
-        <v>6299.6299</v>
+        <v>16207.6206</v>
       </c>
       <c r="N12" t="n">
-        <v>18737.8736</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>13742.3741</v>
       </c>
       <c r="P12" t="n">
-        <v>14546.4545</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22166.2164</v>
       </c>
       <c r="R12" t="n">
-        <v>20857.0855</v>
-      </c>
-      <c r="S12" t="n">
-        <v>24937.4935</v>
-      </c>
-      <c r="T12" t="n">
-        <v>116381.637</v>
+        <v>82787.2779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>32183</v>
+        <v>26018</v>
       </c>
       <c r="D13" t="n">
-        <v>6679</v>
+        <v>5157</v>
       </c>
       <c r="E13" t="n">
-        <v>19282</v>
+        <v>16234</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15307</v>
+        <v>13232</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21719</v>
+        <v>21224</v>
       </c>
       <c r="J13" t="n">
-        <v>25203</v>
+        <v>81865</v>
       </c>
       <c r="K13" t="n">
-        <v>120373</v>
+        <v>26020.6018</v>
       </c>
       <c r="L13" t="n">
-        <v>32186.2183</v>
+        <v>5157.5157</v>
       </c>
       <c r="M13" t="n">
-        <v>6679.6679</v>
+        <v>16235.6234</v>
       </c>
       <c r="N13" t="n">
-        <v>19283.9282</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>13233.3232</v>
       </c>
       <c r="P13" t="n">
-        <v>15308.5307</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>21226.1224</v>
       </c>
       <c r="R13" t="n">
-        <v>21721.1719</v>
-      </c>
-      <c r="S13" t="n">
-        <v>25205.5203</v>
-      </c>
-      <c r="T13" t="n">
-        <v>120385.0373</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31457</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6408</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19365</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15062</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>21633</v>
-      </c>
-      <c r="J14" t="n">
-        <v>25135</v>
-      </c>
-      <c r="K14" t="n">
-        <v>119060</v>
-      </c>
-      <c r="L14" t="n">
-        <v>31460.1457</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6408.6408</v>
-      </c>
-      <c r="N14" t="n">
-        <v>19366.9365</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15063.5062</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>21635.1633</v>
-      </c>
-      <c r="S14" t="n">
-        <v>25137.5135</v>
-      </c>
-      <c r="T14" t="n">
-        <v>119071.906</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33743</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6884</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19638</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15684</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>22852</v>
-      </c>
-      <c r="J15" t="n">
-        <v>26472</v>
-      </c>
-      <c r="K15" t="n">
-        <v>125273</v>
-      </c>
-      <c r="L15" t="n">
-        <v>33746.3743</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6884.6884</v>
-      </c>
-      <c r="N15" t="n">
-        <v>19639.9638</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15685.5684</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>22854.2852</v>
-      </c>
-      <c r="S15" t="n">
-        <v>26474.6472</v>
-      </c>
-      <c r="T15" t="n">
-        <v>125285.5273</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>32616</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6599</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19282</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15182</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22458</v>
-      </c>
-      <c r="J16" t="n">
-        <v>25841</v>
-      </c>
-      <c r="K16" t="n">
-        <v>121978</v>
-      </c>
-      <c r="L16" t="n">
-        <v>32619.2616</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6599.6599</v>
-      </c>
-      <c r="N16" t="n">
-        <v>19283.9282</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15183.5182</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>22460.2458</v>
-      </c>
-      <c r="S16" t="n">
-        <v>25843.5841</v>
-      </c>
-      <c r="T16" t="n">
-        <v>121990.1978</v>
+        <v>81873.18650000001</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,45 +481,55 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>eS1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>eS2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>eS3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>eS4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>eS5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>eS6</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>eS7</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>eS8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>eTotal</t>
         </is>
@@ -528,697 +538,961 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16685</v>
+        <v>20222</v>
       </c>
       <c r="D2" t="n">
-        <v>4428</v>
+        <v>5513</v>
       </c>
       <c r="E2" t="n">
-        <v>7889</v>
+        <v>11536</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16729</v>
       </c>
       <c r="G2" t="n">
-        <v>4943</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16720</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50665</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16686.6685</v>
+        <v>54000</v>
       </c>
       <c r="L2" t="n">
-        <v>4428.4428</v>
+        <v>20224.0222</v>
       </c>
       <c r="M2" t="n">
-        <v>7889.7889</v>
+        <v>5513.5513</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11537.1536</v>
       </c>
       <c r="O2" t="n">
-        <v>4943.4943</v>
+        <v>16730.6729</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16721.672</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50670.0665</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>54005.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16180</v>
+        <v>19240</v>
       </c>
       <c r="D3" t="n">
-        <v>4231</v>
+        <v>5184</v>
       </c>
       <c r="E3" t="n">
-        <v>7575</v>
+        <v>11048</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15329</v>
       </c>
       <c r="G3" t="n">
-        <v>4791</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16065</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>48842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>16181.618</v>
+        <v>50801</v>
       </c>
       <c r="L3" t="n">
-        <v>4231.4231</v>
+        <v>19241.924</v>
       </c>
       <c r="M3" t="n">
-        <v>7575.7575</v>
+        <v>5184.5184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11049.1048</v>
       </c>
       <c r="O3" t="n">
-        <v>4791.4791</v>
+        <v>15330.5329</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>16066.6065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>48846.8842</v>
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>50806.0801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15828</v>
+        <v>18198</v>
       </c>
       <c r="D4" t="n">
-        <v>4024</v>
+        <v>4854</v>
       </c>
       <c r="E4" t="n">
-        <v>7486</v>
+        <v>10610</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14949</v>
       </c>
       <c r="G4" t="n">
-        <v>4662</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15442</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47442</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15829.5828</v>
+        <v>48611</v>
       </c>
       <c r="L4" t="n">
-        <v>4024.4024</v>
+        <v>18199.8198</v>
       </c>
       <c r="M4" t="n">
-        <v>7486.7486</v>
+        <v>4854.4854</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10611.061</v>
       </c>
       <c r="O4" t="n">
-        <v>4662.4662</v>
+        <v>14950.4949</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15443.5442</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47446.7442</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>48615.8611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15667</v>
+        <v>17345</v>
       </c>
       <c r="D5" t="n">
-        <v>3979</v>
+        <v>4658</v>
       </c>
       <c r="E5" t="n">
-        <v>7412</v>
+        <v>10252</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14469</v>
       </c>
       <c r="G5" t="n">
-        <v>4599</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15517</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>47174</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15668.5667</v>
+        <v>46724</v>
       </c>
       <c r="L5" t="n">
-        <v>3979.3979</v>
+        <v>17346.7345</v>
       </c>
       <c r="M5" t="n">
-        <v>7412.741199999999</v>
+        <v>4658.4658</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10253.0252</v>
       </c>
       <c r="O5" t="n">
-        <v>4599.4599</v>
+        <v>14470.4469</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15518.5517</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47178.7174</v>
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>46728.6724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15741</v>
+        <v>17742</v>
       </c>
       <c r="D6" t="n">
-        <v>4049</v>
+        <v>4800</v>
       </c>
       <c r="E6" t="n">
-        <v>7510</v>
+        <v>10535</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14489</v>
       </c>
       <c r="G6" t="n">
-        <v>4755</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15959</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>48014</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15742.5741</v>
+        <v>47566</v>
       </c>
       <c r="L6" t="n">
-        <v>4049.4049</v>
+        <v>17743.7742</v>
       </c>
       <c r="M6" t="n">
-        <v>7510.751</v>
+        <v>4800.48</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10536.0535</v>
       </c>
       <c r="O6" t="n">
-        <v>4755.4755</v>
+        <v>14490.4489</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15960.5959</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48018.8014</v>
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>47570.75659999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>16878</v>
+        <v>18085</v>
       </c>
       <c r="D7" t="n">
-        <v>4508</v>
+        <v>4890</v>
       </c>
       <c r="E7" t="n">
-        <v>7913</v>
+        <v>10899</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14611</v>
       </c>
       <c r="G7" t="n">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51249</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>16879.6878</v>
+        <v>48485</v>
       </c>
       <c r="L7" t="n">
-        <v>4508.4508</v>
+        <v>18086.8085</v>
       </c>
       <c r="M7" t="n">
-        <v>7913.7913</v>
+        <v>4890.489</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>10900.0899</v>
       </c>
       <c r="O7" t="n">
-        <v>5030.503</v>
+        <v>14612.4611</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>16921.692</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51254.1249</v>
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>48489.8485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17432</v>
+        <v>17689</v>
       </c>
       <c r="D8" t="n">
-        <v>4291</v>
+        <v>4420</v>
       </c>
       <c r="E8" t="n">
-        <v>8206</v>
+        <v>10825</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>14937</v>
       </c>
       <c r="G8" t="n">
-        <v>6243</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17082</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53254</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>17433.7432</v>
+        <v>47871</v>
       </c>
       <c r="L8" t="n">
-        <v>4291.4291</v>
+        <v>17690.7689</v>
       </c>
       <c r="M8" t="n">
-        <v>8206.820599999999</v>
+        <v>4420.442</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>10826.0825</v>
       </c>
       <c r="O8" t="n">
-        <v>6243.6243</v>
+        <v>14938.4937</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>17083.7082</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53259.3254</v>
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>47875.7871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>18993</v>
+        <v>20608</v>
       </c>
       <c r="D9" t="n">
-        <v>4369</v>
+        <v>4502</v>
       </c>
       <c r="E9" t="n">
-        <v>9080</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16873</v>
       </c>
       <c r="G9" t="n">
-        <v>8872</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17785</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>59099</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>18994.8993</v>
+        <v>41983</v>
       </c>
       <c r="L9" t="n">
-        <v>4369.4369</v>
+        <v>20610.0608</v>
       </c>
       <c r="M9" t="n">
-        <v>9080.907999999999</v>
+        <v>4502.4502</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>8872.887199999999</v>
+        <v>16874.6873</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>17786.7785</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59104.9099</v>
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>41987.1983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>23159</v>
+        <v>25888</v>
       </c>
       <c r="D10" t="n">
-        <v>4806</v>
+        <v>5559</v>
       </c>
       <c r="E10" t="n">
-        <v>11120</v>
+        <v>14619</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>19334</v>
       </c>
       <c r="G10" t="n">
-        <v>12410</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19463</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>70958</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>23161.3159</v>
+        <v>65400</v>
       </c>
       <c r="L10" t="n">
-        <v>4806.4806</v>
+        <v>25890.5888</v>
       </c>
       <c r="M10" t="n">
-        <v>11121.112</v>
+        <v>5559.5559</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>14620.4619</v>
       </c>
       <c r="O10" t="n">
-        <v>12411.241</v>
+        <v>19335.9334</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19464.9463</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>70965.0958</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>65406.53999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>24738</v>
+        <v>28174</v>
       </c>
       <c r="D11" t="n">
-        <v>5057</v>
+        <v>5754</v>
       </c>
       <c r="E11" t="n">
-        <v>15402</v>
+        <v>19760</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20151</v>
       </c>
       <c r="G11" t="n">
-        <v>13134</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20659</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>78990</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>24740.4738</v>
+        <v>73839</v>
       </c>
       <c r="L11" t="n">
-        <v>5057.5057</v>
+        <v>28176.8174</v>
       </c>
       <c r="M11" t="n">
-        <v>15403.5402</v>
+        <v>5754.5754</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>19761.976</v>
       </c>
       <c r="O11" t="n">
-        <v>13135.3134</v>
+        <v>20153.0151</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>20661.0659</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>78997.899</v>
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>73846.3839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>25523</v>
+        <v>29407</v>
       </c>
       <c r="D12" t="n">
-        <v>5145</v>
+        <v>6128</v>
       </c>
       <c r="E12" t="n">
-        <v>16206</v>
+        <v>21229</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>20872</v>
       </c>
       <c r="G12" t="n">
-        <v>13741</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22164</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>82779</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25525.5523</v>
+        <v>77636</v>
       </c>
       <c r="L12" t="n">
-        <v>5145.5145</v>
+        <v>29409.9407</v>
       </c>
       <c r="M12" t="n">
-        <v>16207.6206</v>
+        <v>6128.6128</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21231.1229</v>
       </c>
       <c r="O12" t="n">
-        <v>13742.3741</v>
+        <v>20874.0872</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22166.2164</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82787.2779</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>77643.76359999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>26018</v>
+        <v>30004</v>
       </c>
       <c r="D13" t="n">
-        <v>5157</v>
+        <v>6245</v>
       </c>
       <c r="E13" t="n">
-        <v>16234</v>
+        <v>20824</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21493</v>
       </c>
       <c r="G13" t="n">
-        <v>13232</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21224</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81865</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>26020.6018</v>
+        <v>78566</v>
       </c>
       <c r="L13" t="n">
-        <v>5157.5157</v>
+        <v>30007.0004</v>
       </c>
       <c r="M13" t="n">
-        <v>16235.6234</v>
+        <v>6245.6245</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>20826.0824</v>
       </c>
       <c r="O13" t="n">
-        <v>13233.3232</v>
+        <v>21495.1493</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>21226.1224</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81873.18650000001</v>
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>78573.8566</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21177</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21767</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>79318</v>
+      </c>
+      <c r="L14" t="n">
+        <v>30235.0232</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6142.6142</v>
+      </c>
+      <c r="N14" t="n">
+        <v>21179.1177</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21769.1767</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>79325.93179999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31909</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6459</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21970</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22757</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>83095</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31912.1909</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6459.6459</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21972.197</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22759.2757</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>83103.3095</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6674</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22172</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23064</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>51910</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6674.6674</v>
+      </c>
+      <c r="N16" t="n">
+        <v>22174.2172</v>
+      </c>
+      <c r="O16" t="n">
+        <v>23066.3064</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>51915.191</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,23 +538,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20222</v>
+        <v>21880</v>
       </c>
       <c r="D2" t="n">
-        <v>5513</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11536</v>
+        <v>8185</v>
       </c>
       <c r="F2" t="n">
-        <v>16729</v>
+        <v>14107</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>54000</v>
+        <v>44172</v>
       </c>
       <c r="L2" t="n">
-        <v>20224.0222</v>
+        <v>21882.188</v>
       </c>
       <c r="M2" t="n">
-        <v>5513.5513</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>11537.1536</v>
+        <v>8185.8185</v>
       </c>
       <c r="O2" t="n">
-        <v>16730.6729</v>
+        <v>14108.4107</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,29 +596,29 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54005.4</v>
+        <v>44176.4172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19240</v>
+        <v>20927</v>
       </c>
       <c r="D3" t="n">
-        <v>5184</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>11048</v>
+        <v>7756</v>
       </c>
       <c r="F3" t="n">
-        <v>15329</v>
+        <v>13541</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>50801</v>
+        <v>42224</v>
       </c>
       <c r="L3" t="n">
-        <v>19241.924</v>
+        <v>20929.0927</v>
       </c>
       <c r="M3" t="n">
-        <v>5184.5184</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11049.1048</v>
+        <v>7756.7756</v>
       </c>
       <c r="O3" t="n">
-        <v>15330.5329</v>
+        <v>13542.3541</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,29 +660,29 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50806.0801</v>
+        <v>42228.2224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18198</v>
+        <v>20203</v>
       </c>
       <c r="D4" t="n">
-        <v>4854</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10610</v>
+        <v>7506</v>
       </c>
       <c r="F4" t="n">
-        <v>14949</v>
+        <v>13044</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48611</v>
+        <v>40753</v>
       </c>
       <c r="L4" t="n">
-        <v>18199.8198</v>
+        <v>20205.0203</v>
       </c>
       <c r="M4" t="n">
-        <v>4854.4854</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10611.061</v>
+        <v>7506.7506</v>
       </c>
       <c r="O4" t="n">
-        <v>14950.4949</v>
+        <v>13045.3044</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,29 +724,29 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>48615.8611</v>
+        <v>40757.0753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17345</v>
+        <v>19625</v>
       </c>
       <c r="D5" t="n">
-        <v>4658</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10252</v>
+        <v>7326</v>
       </c>
       <c r="F5" t="n">
-        <v>14469</v>
+        <v>12700</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>46724</v>
+        <v>39651</v>
       </c>
       <c r="L5" t="n">
-        <v>17346.7345</v>
+        <v>19626.9625</v>
       </c>
       <c r="M5" t="n">
-        <v>4658.4658</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10253.0252</v>
+        <v>7326.7326</v>
       </c>
       <c r="O5" t="n">
-        <v>14470.4469</v>
+        <v>12701.27</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,29 +788,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>46728.6724</v>
+        <v>39654.9651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17742</v>
+        <v>19870</v>
       </c>
       <c r="D6" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>10535</v>
+        <v>7459</v>
       </c>
       <c r="F6" t="n">
-        <v>14489</v>
+        <v>13071</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>47566</v>
+        <v>40400</v>
       </c>
       <c r="L6" t="n">
-        <v>17743.7742</v>
+        <v>19871.987</v>
       </c>
       <c r="M6" t="n">
-        <v>4800.48</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10536.0535</v>
+        <v>7459.7459</v>
       </c>
       <c r="O6" t="n">
-        <v>14490.4489</v>
+        <v>13072.3071</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,29 +852,29 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>47570.75659999999</v>
+        <v>40404.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18085</v>
+        <v>20719</v>
       </c>
       <c r="D7" t="n">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10899</v>
+        <v>7765</v>
       </c>
       <c r="F7" t="n">
-        <v>14611</v>
+        <v>13281</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>48485</v>
+        <v>41765</v>
       </c>
       <c r="L7" t="n">
-        <v>18086.8085</v>
+        <v>20721.0719</v>
       </c>
       <c r="M7" t="n">
-        <v>4890.489</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10900.0899</v>
+        <v>7765.7765</v>
       </c>
       <c r="O7" t="n">
-        <v>14612.4611</v>
+        <v>13282.3281</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,29 +916,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>48489.8485</v>
+        <v>41769.1765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17689</v>
+        <v>21184</v>
       </c>
       <c r="D8" t="n">
-        <v>4420</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10825</v>
+        <v>8675</v>
       </c>
       <c r="F8" t="n">
-        <v>14937</v>
+        <v>13242</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>47871</v>
+        <v>43101</v>
       </c>
       <c r="L8" t="n">
-        <v>17690.7689</v>
+        <v>21186.1184</v>
       </c>
       <c r="M8" t="n">
-        <v>4420.442</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>10826.0825</v>
+        <v>8675.8675</v>
       </c>
       <c r="O8" t="n">
-        <v>14938.4937</v>
+        <v>13243.3242</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,29 +980,29 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>47875.7871</v>
+        <v>43105.3101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>20608</v>
+        <v>23255</v>
       </c>
       <c r="D9" t="n">
-        <v>4502</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10453</v>
       </c>
       <c r="F9" t="n">
-        <v>16873</v>
+        <v>14985</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>41983</v>
+        <v>48693</v>
       </c>
       <c r="L9" t="n">
-        <v>20610.0608</v>
+        <v>23257.3255</v>
       </c>
       <c r="M9" t="n">
-        <v>4502.4502</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>10454.0453</v>
       </c>
       <c r="O9" t="n">
-        <v>16874.6873</v>
+        <v>14986.4985</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,29 +1044,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41987.1983</v>
+        <v>48697.8693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>25888</v>
+        <v>27018</v>
       </c>
       <c r="D10" t="n">
-        <v>5559</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14619</v>
+        <v>12871</v>
       </c>
       <c r="F10" t="n">
-        <v>19334</v>
+        <v>16140</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65400</v>
+        <v>56029</v>
       </c>
       <c r="L10" t="n">
-        <v>25890.5888</v>
+        <v>27020.7018</v>
       </c>
       <c r="M10" t="n">
-        <v>5559.5559</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>14620.4619</v>
+        <v>12872.2871</v>
       </c>
       <c r="O10" t="n">
-        <v>19335.9334</v>
+        <v>16141.614</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,29 +1108,29 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>65406.53999999999</v>
+        <v>56034.6029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28174</v>
+        <v>28411</v>
       </c>
       <c r="D11" t="n">
-        <v>5754</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>19760</v>
+        <v>17400</v>
       </c>
       <c r="F11" t="n">
-        <v>20151</v>
+        <v>16200</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>73839</v>
+        <v>62011</v>
       </c>
       <c r="L11" t="n">
-        <v>28176.8174</v>
+        <v>28413.8411</v>
       </c>
       <c r="M11" t="n">
-        <v>5754.5754</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>19761.976</v>
+        <v>17401.74</v>
       </c>
       <c r="O11" t="n">
-        <v>20153.0151</v>
+        <v>16201.62</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1172,29 +1172,29 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>73846.3839</v>
+        <v>62017.20110000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>29407</v>
+        <v>28206</v>
       </c>
       <c r="D12" t="n">
-        <v>6128</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>21229</v>
+        <v>18008</v>
       </c>
       <c r="F12" t="n">
-        <v>20872</v>
+        <v>16146</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>77636</v>
+        <v>62360</v>
       </c>
       <c r="L12" t="n">
-        <v>29409.9407</v>
+        <v>28208.8206</v>
       </c>
       <c r="M12" t="n">
-        <v>6128.6128</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>21231.1229</v>
+        <v>18009.8008</v>
       </c>
       <c r="O12" t="n">
-        <v>20874.0872</v>
+        <v>16147.6146</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1236,29 +1236,29 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>77643.76359999999</v>
+        <v>62366.236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>30004</v>
+        <v>28219</v>
       </c>
       <c r="D13" t="n">
-        <v>6245</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20824</v>
+        <v>17338</v>
       </c>
       <c r="F13" t="n">
-        <v>21493</v>
+        <v>15974</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>78566</v>
+        <v>61531</v>
       </c>
       <c r="L13" t="n">
-        <v>30007.0004</v>
+        <v>28221.8219</v>
       </c>
       <c r="M13" t="n">
-        <v>6245.6245</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>20826.0824</v>
+        <v>17339.7338</v>
       </c>
       <c r="O13" t="n">
-        <v>21495.1493</v>
+        <v>15975.5974</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,29 +1300,29 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>78573.8566</v>
+        <v>61537.1531</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>30232</v>
+        <v>27737</v>
       </c>
       <c r="D14" t="n">
-        <v>6142</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>21177</v>
+        <v>17710</v>
       </c>
       <c r="F14" t="n">
-        <v>21767</v>
+        <v>16214</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1337,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>79318</v>
+        <v>61661</v>
       </c>
       <c r="L14" t="n">
-        <v>30235.0232</v>
+        <v>27739.7737</v>
       </c>
       <c r="M14" t="n">
-        <v>6142.6142</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>21179.1177</v>
+        <v>17711.771</v>
       </c>
       <c r="O14" t="n">
-        <v>21769.1767</v>
+        <v>16215.6214</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1364,29 +1364,29 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>79325.93179999999</v>
+        <v>61667.1661</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>31909</v>
+        <v>28697</v>
       </c>
       <c r="D15" t="n">
-        <v>6459</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>21970</v>
+        <v>17837</v>
       </c>
       <c r="F15" t="n">
-        <v>22757</v>
+        <v>16769</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>83095</v>
+        <v>63303</v>
       </c>
       <c r="L15" t="n">
-        <v>31912.1909</v>
+        <v>28699.8697</v>
       </c>
       <c r="M15" t="n">
-        <v>6459.6459</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>21972.197</v>
+        <v>17838.7837</v>
       </c>
       <c r="O15" t="n">
-        <v>22759.2757</v>
+        <v>16770.6769</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1428,29 +1428,29 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>83103.3095</v>
+        <v>63309.3303</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28207</v>
       </c>
       <c r="D16" t="n">
-        <v>6674</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>22172</v>
+        <v>17323</v>
       </c>
       <c r="F16" t="n">
-        <v>23064</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1465,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>51910</v>
+        <v>45530</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>28209.8207</v>
       </c>
       <c r="M16" t="n">
-        <v>6674.6674</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>22174.2172</v>
+        <v>17324.7323</v>
       </c>
       <c r="O16" t="n">
-        <v>23066.3064</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>51915.191</v>
+        <v>45534.553</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17323</v>
+        <v>17383</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>16256</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45530</v>
+        <v>61846</v>
       </c>
       <c r="L16" t="n">
         <v>28209.8207</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>17324.7323</v>
+        <v>17384.7383</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>16257.6256</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45534.553</v>
+        <v>61852.1846</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,6 +1495,134 @@
         <v>61852.1846</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27382</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16713</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15732</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59827</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27384.7382</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16714.6713</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15733.5732</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>59832.98269999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23320</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16598</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15438</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>55356</v>
+      </c>
+      <c r="L18" t="n">
+        <v>23322.332</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16599.6598</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15439.5438</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>55361.5356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>23320</v>
+        <v>26394</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55356</v>
+        <v>58430</v>
       </c>
       <c r="L18" t="n">
-        <v>23322.332</v>
+        <v>26396.6394</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1620,7 +1620,327 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>55361.5356</v>
+        <v>58435.843</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24734</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16117</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15506</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56357</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24736.4734</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16118.6117</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15507.5506</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>56362.6357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24108</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15648</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15435</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>55191</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24110.4108</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15649.5648</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15436.5435</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>55196.5191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23135</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14515</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14707</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>52357</v>
+      </c>
+      <c r="L21" t="n">
+        <v>23137.3135</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14516.4515</v>
+      </c>
+      <c r="O21" t="n">
+        <v>14708.4707</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>52362.2357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22359</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13506</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14749</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50614</v>
+      </c>
+      <c r="L22" t="n">
+        <v>22361.2359</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13507.3506</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14750.4749</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>50619.0614</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22099</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11221</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14631</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>47951</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22101.2099</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11222.1221</v>
+      </c>
+      <c r="O23" t="n">
+        <v>14632.4631</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>47955.7951</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,23 +538,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21880</v>
+        <v>19364</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8185</v>
+        <v>7415</v>
       </c>
       <c r="F2" t="n">
-        <v>14107</v>
+        <v>12698</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44172</v>
+        <v>39477</v>
       </c>
       <c r="L2" t="n">
-        <v>21882.188</v>
+        <v>19365.9364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8185.8185</v>
+        <v>7415.7415</v>
       </c>
       <c r="O2" t="n">
-        <v>14108.4107</v>
+        <v>12699.2698</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,29 +596,29 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44176.4172</v>
+        <v>39480.9477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20927</v>
+        <v>18682</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7756</v>
+        <v>7137</v>
       </c>
       <c r="F3" t="n">
-        <v>13541</v>
+        <v>12096</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>42224</v>
+        <v>37915</v>
       </c>
       <c r="L3" t="n">
-        <v>20929.0927</v>
+        <v>18683.8682</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7756.7756</v>
+        <v>7137.7137</v>
       </c>
       <c r="O3" t="n">
-        <v>13542.3541</v>
+        <v>12097.2096</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,29 +660,29 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>42228.2224</v>
+        <v>37918.7915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20203</v>
+        <v>18163</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7506</v>
+        <v>6924</v>
       </c>
       <c r="F4" t="n">
-        <v>13044</v>
+        <v>11513</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40753</v>
+        <v>36600</v>
       </c>
       <c r="L4" t="n">
-        <v>20205.0203</v>
+        <v>18164.8163</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7506.7506</v>
+        <v>6924.6924</v>
       </c>
       <c r="O4" t="n">
-        <v>13045.3044</v>
+        <v>11514.1513</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,29 +724,29 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>40757.0753</v>
+        <v>36603.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19625</v>
+        <v>17462</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7326</v>
+        <v>6785</v>
       </c>
       <c r="F5" t="n">
-        <v>12700</v>
+        <v>11313</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39651</v>
+        <v>35560</v>
       </c>
       <c r="L5" t="n">
-        <v>19626.9625</v>
+        <v>17463.7462</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>7326.7326</v>
+        <v>6785.6785</v>
       </c>
       <c r="O5" t="n">
-        <v>12701.27</v>
+        <v>11314.1313</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,29 +788,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39654.9651</v>
+        <v>35563.556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19870</v>
+        <v>17704</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>7459</v>
+        <v>6856</v>
       </c>
       <c r="F6" t="n">
-        <v>13071</v>
+        <v>11395</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40400</v>
+        <v>35955</v>
       </c>
       <c r="L6" t="n">
-        <v>19871.987</v>
+        <v>17705.7704</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>7459.7459</v>
+        <v>6856.6856</v>
       </c>
       <c r="O6" t="n">
-        <v>13072.3071</v>
+        <v>11396.1395</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,29 +852,29 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>40404.04</v>
+        <v>35958.5955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>20719</v>
+        <v>18782</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7765</v>
+        <v>7287</v>
       </c>
       <c r="F7" t="n">
-        <v>13281</v>
+        <v>12132</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>41765</v>
+        <v>38201</v>
       </c>
       <c r="L7" t="n">
-        <v>20721.0719</v>
+        <v>18783.8782</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>7765.7765</v>
+        <v>7287.7287</v>
       </c>
       <c r="O7" t="n">
-        <v>13282.3281</v>
+        <v>12133.2132</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,29 +916,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>41769.1765</v>
+        <v>38204.8201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>21184</v>
+        <v>19622</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8675</v>
+        <v>7917</v>
       </c>
       <c r="F8" t="n">
-        <v>13242</v>
+        <v>12052</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>43101</v>
+        <v>39591</v>
       </c>
       <c r="L8" t="n">
-        <v>21186.1184</v>
+        <v>19623.9622</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>8675.8675</v>
+        <v>7917.7917</v>
       </c>
       <c r="O8" t="n">
-        <v>13243.3242</v>
+        <v>12053.2052</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,29 +980,29 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43105.3101</v>
+        <v>39594.95909999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>23255</v>
+        <v>21059</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10453</v>
+        <v>9275</v>
       </c>
       <c r="F9" t="n">
-        <v>14985</v>
+        <v>13477</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>48693</v>
+        <v>43811</v>
       </c>
       <c r="L9" t="n">
-        <v>23257.3255</v>
+        <v>21061.1059</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10454.0453</v>
+        <v>9275.9275</v>
       </c>
       <c r="O9" t="n">
-        <v>14986.4985</v>
+        <v>13478.3477</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,29 +1044,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>48697.8693</v>
+        <v>43815.3811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>27018</v>
+        <v>25835</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12871</v>
+        <v>12901</v>
       </c>
       <c r="F10" t="n">
-        <v>16140</v>
+        <v>15209</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56029</v>
+        <v>53945</v>
       </c>
       <c r="L10" t="n">
-        <v>27020.7018</v>
+        <v>25837.5835</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>12872.2871</v>
+        <v>12902.2901</v>
       </c>
       <c r="O10" t="n">
-        <v>16141.614</v>
+        <v>15210.5209</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,29 +1108,29 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56034.6029</v>
+        <v>53950.3945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28411</v>
+        <v>27814</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>17400</v>
+        <v>16336</v>
       </c>
       <c r="F11" t="n">
-        <v>16200</v>
+        <v>16239</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>62011</v>
+        <v>60389</v>
       </c>
       <c r="L11" t="n">
-        <v>28413.8411</v>
+        <v>27816.7814</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>17401.74</v>
+        <v>16337.6336</v>
       </c>
       <c r="O11" t="n">
-        <v>16201.62</v>
+        <v>16240.6239</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1172,29 +1172,29 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>62017.20110000001</v>
+        <v>60395.0389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>28206</v>
+        <v>28412</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>18008</v>
+        <v>17948</v>
       </c>
       <c r="F12" t="n">
-        <v>16146</v>
+        <v>16350</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>62360</v>
+        <v>62710</v>
       </c>
       <c r="L12" t="n">
-        <v>28208.8206</v>
+        <v>28414.8412</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>18009.8008</v>
+        <v>17949.7948</v>
       </c>
       <c r="O12" t="n">
-        <v>16147.6146</v>
+        <v>16351.635</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1236,29 +1236,29 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>62366.236</v>
+        <v>62716.271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>28219</v>
+        <v>28879</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17338</v>
+        <v>18058</v>
       </c>
       <c r="F13" t="n">
-        <v>15974</v>
+        <v>17172</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>61531</v>
+        <v>64109</v>
       </c>
       <c r="L13" t="n">
-        <v>28221.8219</v>
+        <v>28881.8879</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>17339.7338</v>
+        <v>18059.8058</v>
       </c>
       <c r="O13" t="n">
-        <v>15975.5974</v>
+        <v>17173.7172</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,29 +1300,29 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>61537.1531</v>
+        <v>64115.4109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>27737</v>
+        <v>29465</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>17710</v>
+        <v>17343</v>
       </c>
       <c r="F14" t="n">
-        <v>16214</v>
+        <v>18118</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1337,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>61661</v>
+        <v>64926</v>
       </c>
       <c r="L14" t="n">
-        <v>27739.7737</v>
+        <v>29467.9465</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>17711.771</v>
+        <v>17344.7343</v>
       </c>
       <c r="O14" t="n">
-        <v>16215.6214</v>
+        <v>18119.8118</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1364,29 +1364,29 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>61667.1661</v>
+        <v>64932.4926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>28697</v>
+        <v>28788</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>17837</v>
+        <v>16992</v>
       </c>
       <c r="F15" t="n">
-        <v>16769</v>
+        <v>16714</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63303</v>
+        <v>62494</v>
       </c>
       <c r="L15" t="n">
-        <v>28699.8697</v>
+        <v>28790.8788</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>17838.7837</v>
+        <v>16993.6992</v>
       </c>
       <c r="O15" t="n">
-        <v>16770.6769</v>
+        <v>16715.6714</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1428,29 +1428,29 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>63309.3303</v>
+        <v>62500.24939999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>28207</v>
+        <v>29802</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17383</v>
+        <v>18000</v>
       </c>
       <c r="F16" t="n">
-        <v>16256</v>
+        <v>17963</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1465,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>61846</v>
+        <v>65765</v>
       </c>
       <c r="L16" t="n">
-        <v>28209.8207</v>
+        <v>29804.9802</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>17384.7383</v>
+        <v>18001.8</v>
       </c>
       <c r="O16" t="n">
-        <v>16257.6256</v>
+        <v>17964.7963</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1492,29 +1492,29 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>61852.1846</v>
+        <v>65771.5765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>27382</v>
+        <v>28272</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>16713</v>
+        <v>16976</v>
       </c>
       <c r="F17" t="n">
-        <v>15732</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>59827</v>
+        <v>45248</v>
       </c>
       <c r="L17" t="n">
-        <v>27384.7382</v>
+        <v>28274.8272</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>16714.6713</v>
+        <v>16977.6976</v>
       </c>
       <c r="O17" t="n">
-        <v>15733.5732</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1556,29 +1556,29 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>59832.98269999999</v>
+        <v>45252.5248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>26394</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>16598</v>
+        <v>6124</v>
       </c>
       <c r="F18" t="n">
-        <v>15438</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>58430</v>
+        <v>6124</v>
       </c>
       <c r="L18" t="n">
-        <v>26396.6394</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>16599.6598</v>
+        <v>6124.6124</v>
       </c>
       <c r="O18" t="n">
-        <v>15439.5438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1620,327 +1620,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>58435.843</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24734</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>16117</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15506</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>56357</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24736.4734</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>16118.6117</v>
-      </c>
-      <c r="O19" t="n">
-        <v>15507.5506</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>56362.6357</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>24108</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15648</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15435</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>55191</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24110.4108</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15649.5648</v>
-      </c>
-      <c r="O20" t="n">
-        <v>15436.5435</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>55196.5191</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>23135</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14515</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14707</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>52357</v>
-      </c>
-      <c r="L21" t="n">
-        <v>23137.3135</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>14516.4515</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14708.4707</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>52362.2357</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22359</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>13506</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14749</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>50614</v>
-      </c>
-      <c r="L22" t="n">
-        <v>22361.2359</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13507.3506</v>
-      </c>
-      <c r="O22" t="n">
-        <v>14750.4749</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>50619.0614</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>22099</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11221</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14631</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>47951</v>
-      </c>
-      <c r="L23" t="n">
-        <v>22101.2099</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>11222.1221</v>
-      </c>
-      <c r="O23" t="n">
-        <v>14632.4631</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>47955.7951</v>
+        <v>6124.6124</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6124</v>
+        <v>17275</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>6124</v>
+        <v>17275</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6124.6124</v>
+        <v>17276.7275</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>6124.6124</v>
+        <v>17276.7275</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,23 +538,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19364</v>
+        <v>20163</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7415</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12698</v>
+        <v>12898</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39477</v>
+        <v>33061</v>
       </c>
       <c r="L2" t="n">
-        <v>19365.9364</v>
+        <v>20165.0163</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7415.7415</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12699.2698</v>
+        <v>12899.2898</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,29 +596,29 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39480.9477</v>
+        <v>33064.3061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18682</v>
+        <v>19359</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7137</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12096</v>
+        <v>12469</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37915</v>
+        <v>31828</v>
       </c>
       <c r="L3" t="n">
-        <v>18683.8682</v>
+        <v>19360.9359</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7137.7137</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12097.2096</v>
+        <v>12470.2469</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,29 +660,29 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>37918.7915</v>
+        <v>31831.1828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18163</v>
+        <v>18549</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6924</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11513</v>
+        <v>12025</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36600</v>
+        <v>30574</v>
       </c>
       <c r="L4" t="n">
-        <v>18164.8163</v>
+        <v>18550.8549</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6924.6924</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11514.1513</v>
+        <v>12026.2025</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,29 +724,29 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36603.66</v>
+        <v>30577.0574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17462</v>
+        <v>17841</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11313</v>
+        <v>11802</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>35560</v>
+        <v>29643</v>
       </c>
       <c r="L5" t="n">
-        <v>17463.7462</v>
+        <v>17842.7841</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6785.6785</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>11314.1313</v>
+        <v>11803.1802</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,29 +788,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>35563.556</v>
+        <v>29645.9643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17704</v>
+        <v>18016</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6856</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11395</v>
+        <v>11832</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>35955</v>
+        <v>29848</v>
       </c>
       <c r="L6" t="n">
-        <v>17705.7704</v>
+        <v>18017.8016</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6856.6856</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11396.1395</v>
+        <v>11833.1832</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,29 +852,29 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>35958.5955</v>
+        <v>29850.9848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18782</v>
+        <v>18546</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7287</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12132</v>
+        <v>12250</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>38201</v>
+        <v>30796</v>
       </c>
       <c r="L7" t="n">
-        <v>18783.8782</v>
+        <v>18547.8546</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>7287.7287</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12133.2132</v>
+        <v>12251.225</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,29 +916,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>38204.8201</v>
+        <v>30799.0796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19622</v>
+        <v>19203</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7917</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12052</v>
+        <v>12410</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39591</v>
+        <v>31613</v>
       </c>
       <c r="L8" t="n">
-        <v>19623.9622</v>
+        <v>19204.9203</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>7917.7917</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12053.2052</v>
+        <v>12411.241</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,29 +980,29 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39594.95909999999</v>
+        <v>31616.1613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21059</v>
+        <v>21420</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>9275</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>13477</v>
+        <v>13519</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>43811</v>
+        <v>34939</v>
       </c>
       <c r="L9" t="n">
-        <v>21061.1059</v>
+        <v>21422.142</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9275.9275</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13478.3477</v>
+        <v>13520.3519</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,29 +1044,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>43815.3811</v>
+        <v>34942.4939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>25835</v>
+        <v>26095</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12901</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15209</v>
+        <v>15839</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>53945</v>
+        <v>41934</v>
       </c>
       <c r="L10" t="n">
-        <v>25837.5835</v>
+        <v>26097.6095</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>12902.2901</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>15210.5209</v>
+        <v>15840.5839</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,29 +1108,29 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>53950.3945</v>
+        <v>41938.1934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>27814</v>
+        <v>28036</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16336</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16239</v>
+        <v>15116</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>60389</v>
+        <v>43152</v>
       </c>
       <c r="L11" t="n">
-        <v>27816.7814</v>
+        <v>28038.8036</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>16337.6336</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16240.6239</v>
+        <v>15117.5116</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1172,29 +1172,29 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>60395.0389</v>
+        <v>43156.3152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>28412</v>
+        <v>28526</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>17948</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>16350</v>
+        <v>15853</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>62710</v>
+        <v>44379</v>
       </c>
       <c r="L12" t="n">
-        <v>28414.8412</v>
+        <v>28528.8526</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>17949.7948</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>16351.635</v>
+        <v>15854.5853</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1236,29 +1236,29 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>62716.271</v>
+        <v>44383.4379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>28879</v>
+        <v>29282</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18058</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17172</v>
+        <v>15881</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>64109</v>
+        <v>45163</v>
       </c>
       <c r="L13" t="n">
-        <v>28881.8879</v>
+        <v>29284.9282</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>18059.8058</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>17173.7172</v>
+        <v>15882.5881</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,29 +1300,29 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64115.4109</v>
+        <v>45167.5163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>29465</v>
+        <v>28956</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>17343</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>18118</v>
+        <v>16391</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1337,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>64926</v>
+        <v>45347</v>
       </c>
       <c r="L14" t="n">
-        <v>29467.9465</v>
+        <v>28958.8956</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>17344.7343</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>18119.8118</v>
+        <v>16392.6391</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1364,29 +1364,29 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>64932.4926</v>
+        <v>45351.5347</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>28788</v>
+        <v>30957</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>16714</v>
+        <v>16335</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>62494</v>
+        <v>47292</v>
       </c>
       <c r="L15" t="n">
-        <v>28790.8788</v>
+        <v>30960.0957</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>16993.6992</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>16715.6714</v>
+        <v>16336.6335</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1428,199 +1428,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62500.24939999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29802</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>17963</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>65765</v>
-      </c>
-      <c r="L16" t="n">
-        <v>29804.9802</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>18001.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>17964.7963</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>65771.5765</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>28272</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16976</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>45248</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28274.8272</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>16977.6976</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>45252.5248</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17275</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17275</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17276.7275</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>17276.7275</v>
+        <v>47296.7292</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20163</v>
+        <v>20375</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12898</v>
+        <v>13600</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33061</v>
+        <v>33975</v>
       </c>
       <c r="L2" t="n">
-        <v>20165.0163</v>
+        <v>20377.0375</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12899.2898</v>
+        <v>13601.36</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>33064.3061</v>
+        <v>33978.3975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19359</v>
+        <v>19450</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12469</v>
+        <v>12815</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>31828</v>
+        <v>32265</v>
       </c>
       <c r="L3" t="n">
-        <v>19360.9359</v>
+        <v>19451.945</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12470.2469</v>
+        <v>12816.2815</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,20 +660,20 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>31831.1828</v>
+        <v>32268.2265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18549</v>
+        <v>18859</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12025</v>
+        <v>12262</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30574</v>
+        <v>31121</v>
       </c>
       <c r="L4" t="n">
-        <v>18550.8549</v>
+        <v>18860.8859</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12026.2025</v>
+        <v>12263.2262</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,20 +724,20 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>30577.0574</v>
+        <v>31124.1121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17841</v>
+        <v>18307</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11802</v>
+        <v>12056</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>29643</v>
+        <v>30363</v>
       </c>
       <c r="L5" t="n">
-        <v>17842.7841</v>
+        <v>18308.8307</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>11803.1802</v>
+        <v>12057.2056</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,20 +788,20 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>29645.9643</v>
+        <v>30366.0363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18016</v>
+        <v>19247</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11832</v>
+        <v>12793</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>29848</v>
+        <v>32040</v>
       </c>
       <c r="L6" t="n">
-        <v>18017.8016</v>
+        <v>19248.9247</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11833.1832</v>
+        <v>12794.2793</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,20 +852,20 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29850.9848</v>
+        <v>32043.204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18546</v>
+        <v>19852</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12250</v>
+        <v>13020</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>30796</v>
+        <v>32872</v>
       </c>
       <c r="L7" t="n">
-        <v>18547.8546</v>
+        <v>19853.9852</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12251.225</v>
+        <v>13021.302</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,20 +916,20 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30799.0796</v>
+        <v>32875.2872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19203</v>
+        <v>20090</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12410</v>
+        <v>13096</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>31613</v>
+        <v>33186</v>
       </c>
       <c r="L8" t="n">
-        <v>19204.9203</v>
+        <v>20092.009</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12411.241</v>
+        <v>13097.3096</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,20 +980,20 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>31616.1613</v>
+        <v>33189.3186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21420</v>
+        <v>21195</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>13519</v>
+        <v>14385</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>34939</v>
+        <v>35580</v>
       </c>
       <c r="L9" t="n">
-        <v>21422.142</v>
+        <v>21197.1195</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13520.3519</v>
+        <v>14386.4385</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,20 +1044,20 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>34942.4939</v>
+        <v>35583.558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26095</v>
+        <v>25946</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15839</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41934</v>
+        <v>25946</v>
       </c>
       <c r="L10" t="n">
-        <v>26097.6095</v>
+        <v>25948.5946</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>15840.5839</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,327 +1108,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41938.1934</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>28036</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15116</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>43152</v>
-      </c>
-      <c r="L11" t="n">
-        <v>28038.8036</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>15117.5116</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>43156.3152</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28526</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15853</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>44379</v>
-      </c>
-      <c r="L12" t="n">
-        <v>28528.8526</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>15854.5853</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>44383.4379</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>29282</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15881</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>45163</v>
-      </c>
-      <c r="L13" t="n">
-        <v>29284.9282</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>15882.5881</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>45167.5163</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>28956</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16391</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>45347</v>
-      </c>
-      <c r="L14" t="n">
-        <v>28958.8956</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16392.6391</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>45351.5347</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30957</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16335</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>47292</v>
-      </c>
-      <c r="L15" t="n">
-        <v>30960.0957</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16336.6335</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>47296.7292</v>
+        <v>25948.5946</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15649</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>25946</v>
+        <v>41595</v>
       </c>
       <c r="L10" t="n">
         <v>25948.5946</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>15650.5649</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>25948.5946</v>
+        <v>41599.1595</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,6 +1111,326 @@
         <v>41599.1595</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28624</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16632</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45256</v>
+      </c>
+      <c r="L11" t="n">
+        <v>28626.8624</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>16633.6632</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>45260.52559999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29457</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17273</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>46730</v>
+      </c>
+      <c r="L12" t="n">
+        <v>29459.9457</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>17274.7273</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>46734.673</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29120</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17024</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46144</v>
+      </c>
+      <c r="L13" t="n">
+        <v>29122.912</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>17025.7024</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>46148.6144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28809</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17184</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>45993</v>
+      </c>
+      <c r="L14" t="n">
+        <v>28811.8809</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>17185.7184</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>45997.5993</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30946</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>30946</v>
+      </c>
+      <c r="L15" t="n">
+        <v>30949.0946</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>30949.0946</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20375</v>
+        <v>21469</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13600</v>
+        <v>15259</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33975</v>
+        <v>36728</v>
       </c>
       <c r="L2" t="n">
-        <v>20377.0375</v>
+        <v>21471.1469</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13601.36</v>
+        <v>15260.5259</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>33978.3975</v>
+        <v>36731.6728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19450</v>
+        <v>20621</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12815</v>
+        <v>14648</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32265</v>
+        <v>35269</v>
       </c>
       <c r="L3" t="n">
-        <v>19451.945</v>
+        <v>20623.0621</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12816.2815</v>
+        <v>14649.4648</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,20 +660,20 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>32268.2265</v>
+        <v>35272.5269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18859</v>
+        <v>19828</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12262</v>
+        <v>13520</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>31121</v>
+        <v>33348</v>
       </c>
       <c r="L4" t="n">
-        <v>18860.8859</v>
+        <v>19829.9828</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12263.2262</v>
+        <v>13521.352</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,20 +724,20 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>31124.1121</v>
+        <v>33351.3348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18307</v>
+        <v>19009</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12056</v>
+        <v>12691</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30363</v>
+        <v>31700</v>
       </c>
       <c r="L5" t="n">
-        <v>18308.8307</v>
+        <v>19010.9009</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12057.2056</v>
+        <v>12692.2691</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,20 +788,20 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30366.0363</v>
+        <v>31703.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19247</v>
+        <v>18488</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12793</v>
+        <v>12274</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32040</v>
+        <v>30762</v>
       </c>
       <c r="L6" t="n">
-        <v>19248.9247</v>
+        <v>18489.8488</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>12794.2793</v>
+        <v>12275.2274</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,20 +852,20 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>32043.204</v>
+        <v>30765.0762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19852</v>
+        <v>18753</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13020</v>
+        <v>12200</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>32872</v>
+        <v>30953</v>
       </c>
       <c r="L7" t="n">
-        <v>19853.9852</v>
+        <v>18754.8753</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>13021.302</v>
+        <v>12201.22</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,20 +916,20 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>32875.2872</v>
+        <v>30956.0953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>20090</v>
+        <v>18740</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13096</v>
+        <v>12590</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>33186</v>
+        <v>31330</v>
       </c>
       <c r="L8" t="n">
-        <v>20092.009</v>
+        <v>18741.874</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13097.3096</v>
+        <v>12591.259</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,20 +980,20 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33189.3186</v>
+        <v>31333.133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21195</v>
+        <v>19624</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>14385</v>
+        <v>12971</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>35580</v>
+        <v>32595</v>
       </c>
       <c r="L9" t="n">
-        <v>21197.1195</v>
+        <v>19625.9624</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>14386.4385</v>
+        <v>12972.2971</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,20 +1044,20 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>35583.558</v>
+        <v>32598.2595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>25946</v>
+        <v>22373</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15649</v>
+        <v>13835</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41595</v>
+        <v>36208</v>
       </c>
       <c r="L10" t="n">
-        <v>25948.5946</v>
+        <v>22375.2373</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>15650.5649</v>
+        <v>13836.3835</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,20 +1108,20 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41599.1595</v>
+        <v>36211.6208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28624</v>
+        <v>24582</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16632</v>
+        <v>14487</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>45256</v>
+        <v>39069</v>
       </c>
       <c r="L11" t="n">
-        <v>28626.8624</v>
+        <v>24584.4582</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16633.6632</v>
+        <v>14488.4487</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1172,20 +1172,20 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45260.52559999999</v>
+        <v>39072.9069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>29457</v>
+        <v>25034</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>17273</v>
+        <v>14850</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>46730</v>
+        <v>39884</v>
       </c>
       <c r="L12" t="n">
-        <v>29459.9457</v>
+        <v>25036.5034</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17274.7273</v>
+        <v>14851.485</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1236,20 +1236,20 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>46734.673</v>
+        <v>39887.9884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>29120</v>
+        <v>24749</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17024</v>
+        <v>14469</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>46144</v>
+        <v>39218</v>
       </c>
       <c r="L13" t="n">
-        <v>29122.912</v>
+        <v>24751.4749</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>17025.7024</v>
+        <v>14470.4469</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,20 +1300,20 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>46148.6144</v>
+        <v>39221.9218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>28809</v>
+        <v>24350</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>17184</v>
+        <v>14333</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>45993</v>
+        <v>38683</v>
       </c>
       <c r="L14" t="n">
-        <v>28811.8809</v>
+        <v>24352.435</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>17185.7184</v>
+        <v>14334.4333</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1364,20 +1364,20 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45997.5993</v>
+        <v>38686.8683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>30946</v>
+        <v>25698</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>15180</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>30946</v>
+        <v>40878</v>
       </c>
       <c r="L15" t="n">
-        <v>30949.0946</v>
+        <v>25700.5698</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>15181.518</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1428,7 +1428,263 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>30949.0946</v>
+        <v>40882.0878</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26016</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15492</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>41508</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26018.6016</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15493.5492</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>41512.1508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15143</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40766</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25625.5623</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15144.5143</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>40770.0766</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14781</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38994</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24215.4213</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14782.4781</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>38997.8994</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21283</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14963</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>36246</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21285.1283</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>14964.4963</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>36249.6246</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,6 +1687,70 @@
         <v>36249.6246</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15680</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15680</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15681.568</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15681.568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -1633,7 +1633,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>21283</v>
+        <v>24360</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>36246</v>
+        <v>39323</v>
       </c>
       <c r="L19" t="n">
-        <v>21285.1283</v>
+        <v>24362.436</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>36249.6246</v>
+        <v>39326.9323</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>25359</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>15680</v>
+        <v>41039</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>25361.5359</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>15681.568</v>
+        <v>41043.1039</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,6 +1751,70 @@
         <v>41043.1039</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15333</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15333</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15334.5333</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>15334.5333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,727 +538,727 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21469</v>
+        <v>20987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5966</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9502</v>
       </c>
       <c r="F2" t="n">
-        <v>15259</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>16317</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20821</v>
       </c>
       <c r="K2" t="n">
-        <v>36728</v>
+        <v>79488</v>
       </c>
       <c r="L2" t="n">
-        <v>21471.1469</v>
+        <v>20989.0987</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5966.5966</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9502.950199999999</v>
       </c>
       <c r="O2" t="n">
-        <v>15260.5259</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5895.5895</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16318.6317</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20823.0821</v>
       </c>
       <c r="T2" t="n">
-        <v>36731.6728</v>
+        <v>79495.9488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20621</v>
+        <v>19983</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5599</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9013</v>
       </c>
       <c r="F3" t="n">
-        <v>14648</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5626</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15483</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>19480</v>
       </c>
       <c r="K3" t="n">
-        <v>35269</v>
+        <v>75184</v>
       </c>
       <c r="L3" t="n">
-        <v>20623.0621</v>
+        <v>19984.9983</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5599.5599</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9013.9013</v>
       </c>
       <c r="O3" t="n">
-        <v>14649.4648</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5626.5626</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15484.5483</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>19481.948</v>
       </c>
       <c r="T3" t="n">
-        <v>35272.5269</v>
+        <v>75191.5184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19828</v>
+        <v>19144</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5222</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8479</v>
       </c>
       <c r="F4" t="n">
-        <v>13520</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5287</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14813</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18599</v>
       </c>
       <c r="K4" t="n">
-        <v>33348</v>
+        <v>71544</v>
       </c>
       <c r="L4" t="n">
-        <v>19829.9828</v>
+        <v>19145.9144</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5222.5222</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8479.847900000001</v>
       </c>
       <c r="O4" t="n">
-        <v>13521.352</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5287.5287</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14814.4813</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18600.8599</v>
       </c>
       <c r="T4" t="n">
-        <v>33351.3348</v>
+        <v>71551.1544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19009</v>
+        <v>18522</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5026</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8406</v>
       </c>
       <c r="F5" t="n">
-        <v>12691</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5239</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14318</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18099</v>
       </c>
       <c r="K5" t="n">
-        <v>31700</v>
+        <v>69610</v>
       </c>
       <c r="L5" t="n">
-        <v>19010.9009</v>
+        <v>18523.8522</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5026.5026</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8406.8406</v>
       </c>
       <c r="O5" t="n">
-        <v>12692.2691</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5239.5239</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14319.4318</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>18100.8099</v>
       </c>
       <c r="T5" t="n">
-        <v>31703.17</v>
+        <v>69616.961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18488</v>
+        <v>19015</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5117</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8438</v>
       </c>
       <c r="F6" t="n">
-        <v>12274</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14570</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>18366</v>
       </c>
       <c r="K6" t="n">
-        <v>30762</v>
+        <v>70806</v>
       </c>
       <c r="L6" t="n">
-        <v>18489.8488</v>
+        <v>19016.9015</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>5117.5117</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>8438.843800000001</v>
       </c>
       <c r="O6" t="n">
-        <v>12275.2274</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5300.53</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14571.457</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>18367.8366</v>
       </c>
       <c r="T6" t="n">
-        <v>30765.0762</v>
+        <v>70813.0806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18753</v>
+        <v>19098</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5382</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8865</v>
       </c>
       <c r="F7" t="n">
-        <v>12200</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6117</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14681</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19205</v>
       </c>
       <c r="K7" t="n">
-        <v>30953</v>
+        <v>73348</v>
       </c>
       <c r="L7" t="n">
-        <v>18754.8753</v>
+        <v>19099.9098</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5382.5382</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>8865.886500000001</v>
       </c>
       <c r="O7" t="n">
-        <v>12201.22</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6117.6117</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14682.4681</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19206.9205</v>
       </c>
       <c r="T7" t="n">
-        <v>30956.0953</v>
+        <v>73355.3348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18740</v>
+        <v>18948</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4574</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9620</v>
       </c>
       <c r="F8" t="n">
-        <v>12590</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>7205</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>19168</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18622</v>
       </c>
       <c r="K8" t="n">
-        <v>31330</v>
+        <v>78137</v>
       </c>
       <c r="L8" t="n">
-        <v>18741.874</v>
+        <v>18949.8948</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4574.4574</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9620.962</v>
       </c>
       <c r="O8" t="n">
-        <v>12591.259</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7205.7205</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>19169.9168</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>18623.8622</v>
       </c>
       <c r="T8" t="n">
-        <v>31333.133</v>
+        <v>78144.8137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>19624</v>
+        <v>21447</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4877</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11054</v>
       </c>
       <c r="F9" t="n">
-        <v>12971</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12958</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>20465</v>
       </c>
       <c r="K9" t="n">
-        <v>32595</v>
+        <v>80939</v>
       </c>
       <c r="L9" t="n">
-        <v>19625.9624</v>
+        <v>21449.1447</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4877.4877</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>11055.1054</v>
       </c>
       <c r="O9" t="n">
-        <v>12972.2971</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10139.0138</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12959.2958</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20467.0465</v>
       </c>
       <c r="T9" t="n">
-        <v>32598.2595</v>
+        <v>80947.09390000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>22373</v>
+        <v>27702</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>5724</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="F10" t="n">
-        <v>13835</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13536</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>19025</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="K10" t="n">
-        <v>36208</v>
+        <v>103039</v>
       </c>
       <c r="L10" t="n">
-        <v>22375.2373</v>
+        <v>27704.7702</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>5724.5724</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>13401.34</v>
       </c>
       <c r="O10" t="n">
-        <v>13836.3835</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>13537.3536</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>19026.9025</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>23654.3652</v>
       </c>
       <c r="T10" t="n">
-        <v>36211.6208</v>
+        <v>103049.3039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>24582</v>
+        <v>30565</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5927</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>16417</v>
       </c>
       <c r="F11" t="n">
-        <v>14487</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15374</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20084</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>26041</v>
       </c>
       <c r="K11" t="n">
-        <v>39069</v>
+        <v>114408</v>
       </c>
       <c r="L11" t="n">
-        <v>24584.4582</v>
+        <v>30568.0565</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>5927.5927</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>16418.6417</v>
       </c>
       <c r="O11" t="n">
-        <v>14488.4487</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>15375.5374</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20086.0084</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26043.6041</v>
       </c>
       <c r="T11" t="n">
-        <v>39072.9069</v>
+        <v>114419.4408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>25034</v>
+        <v>31687.1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>21716</v>
       </c>
       <c r="F12" t="n">
-        <v>14850</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15735</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21308</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39884</v>
+        <v>96449.10000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>25036.5034</v>
+        <v>31690.26871</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>6003.6003</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21718.1716</v>
       </c>
       <c r="O12" t="n">
-        <v>14851.485</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15736.5735</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>21310.1308</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39887.9884</v>
+        <v>96458.74490999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>24749</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5947</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14469</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>39218</v>
+        <v>5947</v>
       </c>
       <c r="L13" t="n">
-        <v>24751.4749</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5947.5947</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>14470.4469</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,519 +1300,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39221.9218</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24350</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14333</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>38683</v>
-      </c>
-      <c r="L14" t="n">
-        <v>24352.435</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>14334.4333</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>38686.8683</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25698</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15180</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40878</v>
-      </c>
-      <c r="L15" t="n">
-        <v>25700.5698</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15181.518</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>40882.0878</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>26016</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15492</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41508</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26018.6016</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15493.5492</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>41512.1508</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25623</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15143</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40766</v>
-      </c>
-      <c r="L17" t="n">
-        <v>25625.5623</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>15144.5143</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>40770.0766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>24213</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14781</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>38994</v>
-      </c>
-      <c r="L18" t="n">
-        <v>24215.4213</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14782.4781</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>38997.8994</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24360</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14963</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>39323</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24362.436</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>14964.4963</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>39326.9323</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25359</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15680</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41039</v>
-      </c>
-      <c r="L20" t="n">
-        <v>25361.5359</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>15681.568</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>41043.1039</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15333</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>15333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>15334.5333</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>15334.5333</v>
+        <v>5947.5947</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,727 +538,727 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20987</v>
+        <v>21469</v>
       </c>
       <c r="D2" t="n">
-        <v>5966</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9502</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15259</v>
       </c>
       <c r="G2" t="n">
-        <v>5895</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16317</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20821</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>79488</v>
+        <v>36728</v>
       </c>
       <c r="L2" t="n">
-        <v>20989.0987</v>
+        <v>21471.1469</v>
       </c>
       <c r="M2" t="n">
-        <v>5966.5966</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9502.950199999999</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15260.5259</v>
       </c>
       <c r="P2" t="n">
-        <v>5895.5895</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16318.6317</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20823.0821</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79495.9488</v>
+        <v>36731.6728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19983</v>
+        <v>20621</v>
       </c>
       <c r="D3" t="n">
-        <v>5599</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9013</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14648</v>
       </c>
       <c r="G3" t="n">
-        <v>5626</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15483</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19480</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75184</v>
+        <v>35269</v>
       </c>
       <c r="L3" t="n">
-        <v>19984.9983</v>
+        <v>20623.0621</v>
       </c>
       <c r="M3" t="n">
-        <v>5599.5599</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9013.9013</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>14649.4648</v>
       </c>
       <c r="P3" t="n">
-        <v>5626.5626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15484.5483</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>19481.948</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>75191.5184</v>
+        <v>35272.5269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19144</v>
+        <v>19828</v>
       </c>
       <c r="D4" t="n">
-        <v>5222</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8479</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13520</v>
       </c>
       <c r="G4" t="n">
-        <v>5287</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18599</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>71544</v>
+        <v>33348</v>
       </c>
       <c r="L4" t="n">
-        <v>19145.9144</v>
+        <v>19829.9828</v>
       </c>
       <c r="M4" t="n">
-        <v>5222.5222</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8479.847900000001</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13521.352</v>
       </c>
       <c r="P4" t="n">
-        <v>5287.5287</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>14814.4813</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18600.8599</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>71551.1544</v>
+        <v>33351.3348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18522</v>
+        <v>19009</v>
       </c>
       <c r="D5" t="n">
-        <v>5026</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>8406</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12691</v>
       </c>
       <c r="G5" t="n">
-        <v>5239</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14318</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>18099</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>69610</v>
+        <v>31700</v>
       </c>
       <c r="L5" t="n">
-        <v>18523.8522</v>
+        <v>19010.9009</v>
       </c>
       <c r="M5" t="n">
-        <v>5026.5026</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8406.8406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>12692.2691</v>
       </c>
       <c r="P5" t="n">
-        <v>5239.5239</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14319.4318</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18100.8099</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>69616.961</v>
+        <v>31703.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19015</v>
+        <v>18488</v>
       </c>
       <c r="D6" t="n">
-        <v>5117</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8438</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>12274</v>
       </c>
       <c r="G6" t="n">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14570</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18366</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>70806</v>
+        <v>30762</v>
       </c>
       <c r="L6" t="n">
-        <v>19016.9015</v>
+        <v>18489.8488</v>
       </c>
       <c r="M6" t="n">
-        <v>5117.5117</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>8438.843800000001</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>12275.2274</v>
       </c>
       <c r="P6" t="n">
-        <v>5300.53</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14571.457</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>18367.8366</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>70813.0806</v>
+        <v>30765.0762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19098</v>
+        <v>18753</v>
       </c>
       <c r="D7" t="n">
-        <v>5382</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8865</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="G7" t="n">
-        <v>6117</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14681</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19205</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>73348</v>
+        <v>30953</v>
       </c>
       <c r="L7" t="n">
-        <v>19099.9098</v>
+        <v>18754.8753</v>
       </c>
       <c r="M7" t="n">
-        <v>5382.5382</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8865.886500000001</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>12201.22</v>
       </c>
       <c r="P7" t="n">
-        <v>6117.6117</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14682.4681</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19206.9205</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>73355.3348</v>
+        <v>30956.0953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18948</v>
+        <v>18740</v>
       </c>
       <c r="D8" t="n">
-        <v>4574</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9620</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>12590</v>
       </c>
       <c r="G8" t="n">
-        <v>7205</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19168</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18622</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>78137</v>
+        <v>31330</v>
       </c>
       <c r="L8" t="n">
-        <v>18949.8948</v>
+        <v>18741.874</v>
       </c>
       <c r="M8" t="n">
-        <v>4574.4574</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9620.962</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>12591.259</v>
       </c>
       <c r="P8" t="n">
-        <v>7205.7205</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19169.9168</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>18623.8622</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>78144.8137</v>
+        <v>31333.133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21447</v>
+        <v>19624</v>
       </c>
       <c r="D9" t="n">
-        <v>4877</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11054</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12971</v>
       </c>
       <c r="G9" t="n">
-        <v>10138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>12958</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20465</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>80939</v>
+        <v>32595</v>
       </c>
       <c r="L9" t="n">
-        <v>21449.1447</v>
+        <v>19625.9624</v>
       </c>
       <c r="M9" t="n">
-        <v>4877.4877</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>11055.1054</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>12972.2971</v>
       </c>
       <c r="P9" t="n">
-        <v>10139.0138</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12959.2958</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20467.0465</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>80947.09390000001</v>
+        <v>32598.2595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>27702</v>
+        <v>22373</v>
       </c>
       <c r="D10" t="n">
-        <v>5724</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13835</v>
       </c>
       <c r="G10" t="n">
-        <v>13536</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19025</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23652</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>103039</v>
+        <v>36208</v>
       </c>
       <c r="L10" t="n">
-        <v>27704.7702</v>
+        <v>22375.2373</v>
       </c>
       <c r="M10" t="n">
-        <v>5724.5724</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>13401.34</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>13836.3835</v>
       </c>
       <c r="P10" t="n">
-        <v>13537.3536</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19026.9025</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>23654.3652</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>103049.3039</v>
+        <v>36211.6208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>30565</v>
+        <v>24582</v>
       </c>
       <c r="D11" t="n">
-        <v>5927</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16417</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="G11" t="n">
-        <v>15374</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20084</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>26041</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>114408</v>
+        <v>39069</v>
       </c>
       <c r="L11" t="n">
-        <v>30568.0565</v>
+        <v>24584.4582</v>
       </c>
       <c r="M11" t="n">
-        <v>5927.5927</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>16418.6417</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>14488.4487</v>
       </c>
       <c r="P11" t="n">
-        <v>15375.5374</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20086.0084</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26043.6041</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>114419.4408</v>
+        <v>39072.9069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31687.1</v>
+        <v>25034</v>
       </c>
       <c r="D12" t="n">
-        <v>6003</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>21716</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>14850</v>
       </c>
       <c r="G12" t="n">
-        <v>15735</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21308</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>96449.10000000001</v>
+        <v>39884</v>
       </c>
       <c r="L12" t="n">
-        <v>31690.26871</v>
+        <v>25036.5034</v>
       </c>
       <c r="M12" t="n">
-        <v>6003.6003</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>21718.1716</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>14851.485</v>
       </c>
       <c r="P12" t="n">
-        <v>15736.5735</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21310.1308</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>96458.74490999999</v>
+        <v>39887.9884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>24749</v>
       </c>
       <c r="D13" t="n">
-        <v>5947</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>14469</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5947</v>
+        <v>39218</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>24751.4749</v>
       </c>
       <c r="M13" t="n">
-        <v>5947.5947</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>14470.4469</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,7 +1300,711 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5947.5947</v>
+        <v>39221.9218</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24350</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14333</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>38683</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24352.435</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14334.4333</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>38686.8683</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25698</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15180</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40878</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25700.5698</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15181.518</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>40882.0878</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26016</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15492</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>41508</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26018.6016</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15493.5492</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>41512.1508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15143</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40766</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25625.5623</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15144.5143</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>40770.0766</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24213</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14781</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38994</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24215.4213</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14782.4781</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>38997.8994</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24360</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14963</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>39323</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24362.436</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>14964.4963</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>39326.9323</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25359</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15680</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>41039</v>
+      </c>
+      <c r="L20" t="n">
+        <v>25361.5359</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15681.568</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>41043.1039</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23313</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15333</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>38646</v>
+      </c>
+      <c r="L21" t="n">
+        <v>23315.3313</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15334.5333</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>38649.8646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15253</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38253</v>
+      </c>
+      <c r="L22" t="n">
+        <v>23002.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15254.5253</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>38256.8253</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23115</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15564</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>38679</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23117.3115</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15565.5564</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>38682.8679</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22709</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15389</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>38098</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22711.2709</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15390.5389</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>38101.8098</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21469</v>
+        <v>20723</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15259</v>
+        <v>13745</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36728</v>
+        <v>34468</v>
       </c>
       <c r="L2" t="n">
-        <v>21471.1469</v>
+        <v>20725.0723</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15260.5259</v>
+        <v>13746.3745</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>36731.6728</v>
+        <v>34471.4468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20621</v>
+        <v>19860</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14648</v>
+        <v>12969</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>35269</v>
+        <v>32829</v>
       </c>
       <c r="L3" t="n">
-        <v>20623.0621</v>
+        <v>19861.986</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14649.4648</v>
+        <v>12970.2969</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,20 +660,20 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>35272.5269</v>
+        <v>32832.2829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19828</v>
+        <v>19350</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13520</v>
+        <v>12554</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33348</v>
+        <v>31904</v>
       </c>
       <c r="L4" t="n">
-        <v>19829.9828</v>
+        <v>19351.935</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13521.352</v>
+        <v>12555.2554</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,20 +724,20 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33351.3348</v>
+        <v>31907.1904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19009</v>
+        <v>18643</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12691</v>
+        <v>11996</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>31700</v>
+        <v>30639</v>
       </c>
       <c r="L5" t="n">
-        <v>19010.9009</v>
+        <v>18644.8643</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12692.2691</v>
+        <v>11997.1996</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,20 +788,20 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>31703.17</v>
+        <v>30642.0639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18488</v>
+        <v>18281</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12274</v>
+        <v>8158</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>30762</v>
+        <v>26439</v>
       </c>
       <c r="L6" t="n">
-        <v>18489.8488</v>
+        <v>18282.8281</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>12275.2274</v>
+        <v>8158.8158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,20 +852,20 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>30765.0762</v>
+        <v>26441.6439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18753</v>
+        <v>18124</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12200</v>
+        <v>11818</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>30953</v>
+        <v>29942</v>
       </c>
       <c r="L7" t="n">
-        <v>18754.8753</v>
+        <v>18125.8124</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12201.22</v>
+        <v>11819.1818</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,20 +916,20 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30956.0953</v>
+        <v>29944.9942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>18740</v>
+        <v>17748</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12590</v>
+        <v>11568</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>31330</v>
+        <v>29316</v>
       </c>
       <c r="L8" t="n">
-        <v>18741.874</v>
+        <v>17749.7748</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12591.259</v>
+        <v>11569.1568</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,20 +980,20 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>31333.133</v>
+        <v>29318.9316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>19624</v>
+        <v>18394</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12971</v>
+        <v>11735</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>32595</v>
+        <v>30129</v>
       </c>
       <c r="L9" t="n">
-        <v>19625.9624</v>
+        <v>18395.8394</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>12972.2971</v>
+        <v>11736.1735</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,20 +1044,20 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>32598.2595</v>
+        <v>30132.0129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>22373</v>
+        <v>20038</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13835</v>
+        <v>12362</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>36208</v>
+        <v>32400</v>
       </c>
       <c r="L10" t="n">
-        <v>22375.2373</v>
+        <v>20040.0038</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13836.3835</v>
+        <v>12363.2362</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,20 +1108,20 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>36211.6208</v>
+        <v>32403.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>24582</v>
+        <v>17748</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14487</v>
+        <v>12258</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39069</v>
+        <v>30006</v>
       </c>
       <c r="L11" t="n">
-        <v>24584.4582</v>
+        <v>17749.7748</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14488.4487</v>
+        <v>12259.2258</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1172,20 +1172,20 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39072.9069</v>
+        <v>30009.0006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>25034</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14850</v>
+        <v>12410</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39884</v>
+        <v>12410</v>
       </c>
       <c r="L12" t="n">
-        <v>25036.5034</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14851.485</v>
+        <v>12411.241</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1236,775 +1236,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39887.9884</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24749</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14469</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>39218</v>
-      </c>
-      <c r="L13" t="n">
-        <v>24751.4749</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>14470.4469</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>39221.9218</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24350</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14333</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>38683</v>
-      </c>
-      <c r="L14" t="n">
-        <v>24352.435</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>14334.4333</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>38686.8683</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25698</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15180</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40878</v>
-      </c>
-      <c r="L15" t="n">
-        <v>25700.5698</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15181.518</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>40882.0878</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>26016</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15492</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41508</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26018.6016</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15493.5492</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>41512.1508</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25623</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15143</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40766</v>
-      </c>
-      <c r="L17" t="n">
-        <v>25625.5623</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>15144.5143</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>40770.0766</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>24213</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14781</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>38994</v>
-      </c>
-      <c r="L18" t="n">
-        <v>24215.4213</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14782.4781</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>38997.8994</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24360</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14963</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>39323</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24362.436</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>14964.4963</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>39326.9323</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25359</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15680</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41039</v>
-      </c>
-      <c r="L20" t="n">
-        <v>25361.5359</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>15681.568</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>41043.1039</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>23313</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15333</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>38646</v>
-      </c>
-      <c r="L21" t="n">
-        <v>23315.3313</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>15334.5333</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>38649.8646</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>23000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>15253</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>38253</v>
-      </c>
-      <c r="L22" t="n">
-        <v>23002.3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>15254.5253</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>38256.8253</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>23115</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>15564</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>38679</v>
-      </c>
-      <c r="L23" t="n">
-        <v>23117.3115</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>15565.5564</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>38682.8679</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>22709</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>15389</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>38098</v>
-      </c>
-      <c r="L24" t="n">
-        <v>22711.2709</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>15390.5389</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>38101.8098</v>
+        <v>12411.241</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>17748</v>
+        <v>20363</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>30006</v>
+        <v>32621</v>
       </c>
       <c r="L11" t="n">
-        <v>17749.7748</v>
+        <v>20365.0363</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>30009.0006</v>
+        <v>32624.2621</v>
       </c>
     </row>
     <row r="12">
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>20777</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12410</v>
+        <v>33187</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>20779.0777</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1236,7 +1236,711 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>12411.241</v>
+        <v>33190.3187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20382</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12615</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32997</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20384.0382</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12616.2615</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>33000.2997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21520</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13127</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34647</v>
+      </c>
+      <c r="L14" t="n">
+        <v>21522.152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13128.3127</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>34650.4647</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>22336</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13457</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35793</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22338.2336</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13458.3457</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>35796.5793</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22942</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14118</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>37060</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22944.2942</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14119.4118</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>37063.706</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23137</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>37376</v>
+      </c>
+      <c r="L17" t="n">
+        <v>23139.3137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>14240.4239</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>37379.7376</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22951</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14529</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37480</v>
+      </c>
+      <c r="L18" t="n">
+        <v>22953.2951</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14530.4529</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>37483.748</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24926</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15330</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40256</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24928.4926</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15331.533</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>40260.0256</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25705</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16529</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>42234</v>
+      </c>
+      <c r="L20" t="n">
+        <v>25707.5705</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>16530.6529</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>42238.2234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24384</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15922</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40306</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24386.4384</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15923.5922</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>40310.0306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24443</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16382</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40825</v>
+      </c>
+      <c r="L22" t="n">
+        <v>24445.4443</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>16383.6382</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>40829.0825</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24616</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16531</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>41147</v>
+      </c>
+      <c r="L23" t="n">
+        <v>24618.4616</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>16532.6531</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>41151.1147</v>
       </c>
     </row>
   </sheetData>

--- a/station_load.xlsx
+++ b/station_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20723</v>
+        <v>21411</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13745</v>
+        <v>15101</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34468</v>
+        <v>36512</v>
       </c>
       <c r="L2" t="n">
-        <v>20725.0723</v>
+        <v>21413.1411</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13746.3745</v>
+        <v>15102.5101</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34471.4468</v>
+        <v>36515.6512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19860</v>
+        <v>20129</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12969</v>
+        <v>16805</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32829</v>
+        <v>36934</v>
       </c>
       <c r="L3" t="n">
-        <v>19861.986</v>
+        <v>20131.0129</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12970.2969</v>
+        <v>16806.6805</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -660,20 +660,20 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>32832.2829</v>
+        <v>36937.6934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19350</v>
+        <v>19411</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12554</v>
+        <v>13921</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>31904</v>
+        <v>33332</v>
       </c>
       <c r="L4" t="n">
-        <v>19351.935</v>
+        <v>19412.9411</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12555.2554</v>
+        <v>13922.3921</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -724,20 +724,20 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>31907.1904</v>
+        <v>33335.3332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18643</v>
+        <v>18935</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11996</v>
+        <v>12798</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30639</v>
+        <v>31733</v>
       </c>
       <c r="L5" t="n">
-        <v>18644.8643</v>
+        <v>18936.8935</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>11997.1996</v>
+        <v>12799.2798</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -788,20 +788,20 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30642.0639</v>
+        <v>31736.1733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18281</v>
+        <v>19788</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8158</v>
+        <v>12705</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>26439</v>
+        <v>32493</v>
       </c>
       <c r="L6" t="n">
-        <v>18282.8281</v>
+        <v>19789.9788</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8158.8158</v>
+        <v>12706.2705</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -852,20 +852,20 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26441.6439</v>
+        <v>32496.2493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>18124</v>
+        <v>20486</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11818</v>
+        <v>18799</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29942</v>
+        <v>39285</v>
       </c>
       <c r="L7" t="n">
-        <v>18125.8124</v>
+        <v>20488.0486</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>11819.1818</v>
+        <v>18800.8799</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -916,20 +916,20 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29944.9942</v>
+        <v>39288.9285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17748</v>
+        <v>19882</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11568</v>
+        <v>17886</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>29316</v>
+        <v>37768</v>
       </c>
       <c r="L8" t="n">
-        <v>17749.7748</v>
+        <v>19883.9882</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>11569.1568</v>
+        <v>17887.7886</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -980,20 +980,20 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>29318.9316</v>
+        <v>37771.7768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>18394</v>
+        <v>22568</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11735</v>
+        <v>14765</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>30129</v>
+        <v>37333</v>
       </c>
       <c r="L9" t="n">
-        <v>18395.8394</v>
+        <v>22570.2568</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11736.1735</v>
+        <v>14766.4765</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1044,20 +1044,20 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>30132.0129</v>
+        <v>37336.7333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>20038</v>
+        <v>26861</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12362</v>
+        <v>17041</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>32400</v>
+        <v>43902</v>
       </c>
       <c r="L10" t="n">
-        <v>20040.0038</v>
+        <v>26863.6861</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>12363.2362</v>
+        <v>17042.7041</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1108,20 +1108,20 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>32403.24</v>
+        <v>43906.3902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>20363</v>
+        <v>30306</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>12258</v>
+        <v>18281</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>32621</v>
+        <v>48587</v>
       </c>
       <c r="L11" t="n">
-        <v>20365.0363</v>
+        <v>30309.0306</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>12259.2258</v>
+        <v>18282.8281</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1172,20 +1172,20 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>32624.2621</v>
+        <v>48591.8587</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>20777</v>
+        <v>30683</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12410</v>
+        <v>18413</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>33187</v>
+        <v>49096</v>
       </c>
       <c r="L12" t="n">
-        <v>20779.0777</v>
+        <v>30686.0683</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>12411.241</v>
+        <v>18414.8413</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1236,20 +1236,20 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>33190.3187</v>
+        <v>49100.9096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>20382</v>
+        <v>31764</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12615</v>
+        <v>18730</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>32997</v>
+        <v>50494</v>
       </c>
       <c r="L13" t="n">
-        <v>20384.0382</v>
+        <v>31767.1764</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>12616.2615</v>
+        <v>18731.873</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1300,647 +1300,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>33000.2997</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21520</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13127</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>34647</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21522.152</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>13128.3127</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>34650.4647</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22336</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13457</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>35793</v>
-      </c>
-      <c r="L15" t="n">
-        <v>22338.2336</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>13458.3457</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>35796.5793</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22942</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14118</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>37060</v>
-      </c>
-      <c r="L16" t="n">
-        <v>22944.2942</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>14119.4118</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>37063.706</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>23137</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14239</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>37376</v>
-      </c>
-      <c r="L17" t="n">
-        <v>23139.3137</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14240.4239</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>37379.7376</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22951</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14529</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>37480</v>
-      </c>
-      <c r="L18" t="n">
-        <v>22953.2951</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14530.4529</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>37483.748</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24926</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15330</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>40256</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24928.4926</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>15331.533</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>40260.0256</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25705</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16529</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>42234</v>
-      </c>
-      <c r="L20" t="n">
-        <v>25707.5705</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>16530.6529</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>42238.2234</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24384</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15922</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>40306</v>
-      </c>
-      <c r="L21" t="n">
-        <v>24386.4384</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>15923.5922</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>40310.0306</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>24443</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16382</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>40825</v>
-      </c>
-      <c r="L22" t="n">
-        <v>24445.4443</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>16383.6382</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>40829.0825</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>24616</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>16531</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>41147</v>
-      </c>
-      <c r="L23" t="n">
-        <v>24618.4616</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>16532.6531</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>41151.1147</v>
+        <v>50499.0494</v>
       </c>
     </row>
   </sheetData>
